--- a/replicable/datos_graficos-HEC.xlsx
+++ b/replicable/datos_graficos-HEC.xlsx
@@ -8,69 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/casa/Dropbox/00-SCHOOL/1-University/2021-20/1-Historia_Económica_de_Colombia/3-Investigación/8-Datos/migracion_caribe-hec/replicable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA43D23-245E-F245-9CB9-C94CCE894AA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D8288D-2879-3940-B75E-05967140EE77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="1040" windowWidth="37400" windowHeight="20480" activeTab="1" xr2:uid="{48C558EA-5384-784B-97BD-41A767DDE11A}"/>
+    <workbookView xWindow="80" yWindow="1040" windowWidth="37360" windowHeight="20480" xr2:uid="{48C558EA-5384-784B-97BD-41A767DDE11A}"/>
   </bookViews>
   <sheets>
-    <sheet name="asfdsadfgt" sheetId="3" r:id="rId1"/>
-    <sheet name="nacional_consolidado_juanis" sheetId="10" r:id="rId2"/>
-    <sheet name="Feuil1" sheetId="11" r:id="rId3"/>
-    <sheet name="analfabetismo_masculino-1912" sheetId="8" r:id="rId4"/>
-    <sheet name="censos_edwin" sheetId="2" r:id="rId5"/>
+    <sheet name="nacional_consolidado-1912&amp;1851" sheetId="10" r:id="rId1"/>
+    <sheet name="analfabetismo_masculino-1912" sheetId="8" r:id="rId2"/>
+    <sheet name="censos_edwin" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'analfabetismo_masculino-1912'!$A$1:$I$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">censos_edwin!$M$30:$N$39</definedName>
-    <definedName name="_xlchart.v5.0" hidden="1">asfdsadfgt!$C$18</definedName>
-    <definedName name="_xlchart.v5.1" hidden="1">asfdsadfgt!$C$19:$C$35</definedName>
-    <definedName name="_xlchart.v5.10" hidden="1">asfdsadfgt!$E$18</definedName>
-    <definedName name="_xlchart.v5.11" hidden="1">asfdsadfgt!$E$19:$E$35</definedName>
-    <definedName name="_xlchart.v5.12" hidden="1">nacional_consolidado_juanis!#REF!</definedName>
-    <definedName name="_xlchart.v5.13" hidden="1">nacional_consolidado_juanis!$C$18</definedName>
-    <definedName name="_xlchart.v5.14" hidden="1">nacional_consolidado_juanis!$C$19:$C$50</definedName>
-    <definedName name="_xlchart.v5.15" hidden="1">nacional_consolidado_juanis!$C$50</definedName>
-    <definedName name="_xlchart.v5.16" hidden="1">nacional_consolidado_juanis!$C$51:$C$82</definedName>
-    <definedName name="_xlchart.v5.17" hidden="1">nacional_consolidado_juanis!$E$19:$E$50</definedName>
-    <definedName name="_xlchart.v5.18" hidden="1">nacional_consolidado_juanis!$E$51:$E$82</definedName>
-    <definedName name="_xlchart.v5.19" hidden="1">asfdsadfgt!$C$18</definedName>
-    <definedName name="_xlchart.v5.2" hidden="1">asfdsadfgt!$E$18</definedName>
-    <definedName name="_xlchart.v5.20" hidden="1">asfdsadfgt!$C$19:$C$35</definedName>
-    <definedName name="_xlchart.v5.21" hidden="1">asfdsadfgt!$E$18</definedName>
-    <definedName name="_xlchart.v5.22" hidden="1">asfdsadfgt!$E$19:$E$35</definedName>
-    <definedName name="_xlchart.v5.23" hidden="1">nacional_consolidado_juanis!#REF!</definedName>
-    <definedName name="_xlchart.v5.24" hidden="1">nacional_consolidado_juanis!$C$19:$C$50</definedName>
-    <definedName name="_xlchart.v5.25" hidden="1">nacional_consolidado_juanis!$E$19:$E$50</definedName>
-    <definedName name="_xlchart.v5.26" hidden="1">asfdsadfgt!$C$18</definedName>
-    <definedName name="_xlchart.v5.27" hidden="1">asfdsadfgt!$C$19:$C$35</definedName>
-    <definedName name="_xlchart.v5.28" hidden="1">asfdsadfgt!$E$18</definedName>
-    <definedName name="_xlchart.v5.29" hidden="1">asfdsadfgt!$E$19:$E$35</definedName>
-    <definedName name="_xlchart.v5.3" hidden="1">asfdsadfgt!$E$19:$E$35</definedName>
-    <definedName name="_xlchart.v5.30" hidden="1">nacional_consolidado_juanis!#REF!</definedName>
-    <definedName name="_xlchart.v5.31" hidden="1">nacional_consolidado_juanis!$C$18</definedName>
-    <definedName name="_xlchart.v5.32" hidden="1">nacional_consolidado_juanis!$C$19:$C$50</definedName>
-    <definedName name="_xlchart.v5.33" hidden="1">nacional_consolidado_juanis!$E$19:$E$50</definedName>
-    <definedName name="_xlchart.v5.34" hidden="1">nacional_consolidado_juanis!$E$51:$E$82</definedName>
-    <definedName name="_xlchart.v5.35" hidden="1">asfdsadfgt!$C$18</definedName>
-    <definedName name="_xlchart.v5.36" hidden="1">asfdsadfgt!$C$19:$C$35</definedName>
-    <definedName name="_xlchart.v5.37" hidden="1">asfdsadfgt!$E$18</definedName>
-    <definedName name="_xlchart.v5.38" hidden="1">asfdsadfgt!$E$19:$E$35</definedName>
-    <definedName name="_xlchart.v5.39" hidden="1">nacional_consolidado_juanis!#REF!</definedName>
-    <definedName name="_xlchart.v5.4" hidden="1">asfdsadfgt!$C$1</definedName>
-    <definedName name="_xlchart.v5.40" hidden="1">nacional_consolidado_juanis!$C$19:$C$50</definedName>
-    <definedName name="_xlchart.v5.41" hidden="1">nacional_consolidado_juanis!$E$19:$E$50</definedName>
-    <definedName name="_xlchart.v5.42" hidden="1">nacional_consolidado_juanis!$C$1</definedName>
-    <definedName name="_xlchart.v5.43" hidden="1">nacional_consolidado_juanis!$C$2:$C$18</definedName>
-    <definedName name="_xlchart.v5.44" hidden="1">nacional_consolidado_juanis!$D$11</definedName>
-    <definedName name="_xlchart.v5.45" hidden="1">nacional_consolidado_juanis!$G$2:$G$18</definedName>
-    <definedName name="_xlchart.v5.5" hidden="1">asfdsadfgt!$C$2:$C$18</definedName>
-    <definedName name="_xlchart.v5.6" hidden="1">asfdsadfgt!$D$11</definedName>
-    <definedName name="_xlchart.v5.7" hidden="1">asfdsadfgt!$G$2:$G$18</definedName>
-    <definedName name="_xlchart.v5.8" hidden="1">asfdsadfgt!$C$18</definedName>
-    <definedName name="_xlchart.v5.9" hidden="1">asfdsadfgt!$C$19:$C$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'analfabetismo_masculino-1912'!$A$1:$I$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">censos_edwin!$M$30:$N$39</definedName>
+    <definedName name="_xlchart.v5.0" hidden="1">'nacional_consolidado-1912&amp;1851'!#REF!</definedName>
+    <definedName name="_xlchart.v5.1" hidden="1">'nacional_consolidado-1912&amp;1851'!$C$18</definedName>
+    <definedName name="_xlchart.v5.10" hidden="1">'nacional_consolidado-1912&amp;1851'!#REF!</definedName>
+    <definedName name="_xlchart.v5.11" hidden="1">'nacional_consolidado-1912&amp;1851'!$C$18</definedName>
+    <definedName name="_xlchart.v5.12" hidden="1">'nacional_consolidado-1912&amp;1851'!$C$19:$C$50</definedName>
+    <definedName name="_xlchart.v5.13" hidden="1">'nacional_consolidado-1912&amp;1851'!$E$19:$E$50</definedName>
+    <definedName name="_xlchart.v5.14" hidden="1">'nacional_consolidado-1912&amp;1851'!$E$51:$E$82</definedName>
+    <definedName name="_xlchart.v5.15" hidden="1">'nacional_consolidado-1912&amp;1851'!$C$1</definedName>
+    <definedName name="_xlchart.v5.16" hidden="1">'nacional_consolidado-1912&amp;1851'!$C$2:$C$18</definedName>
+    <definedName name="_xlchart.v5.17" hidden="1">'nacional_consolidado-1912&amp;1851'!$D$11</definedName>
+    <definedName name="_xlchart.v5.18" hidden="1">'nacional_consolidado-1912&amp;1851'!$G$2:$G$18</definedName>
+    <definedName name="_xlchart.v5.2" hidden="1">'nacional_consolidado-1912&amp;1851'!$C$19:$C$50</definedName>
+    <definedName name="_xlchart.v5.3" hidden="1">'nacional_consolidado-1912&amp;1851'!$C$50</definedName>
+    <definedName name="_xlchart.v5.4" hidden="1">'nacional_consolidado-1912&amp;1851'!$C$51:$C$82</definedName>
+    <definedName name="_xlchart.v5.5" hidden="1">'nacional_consolidado-1912&amp;1851'!$E$19:$E$50</definedName>
+    <definedName name="_xlchart.v5.6" hidden="1">'nacional_consolidado-1912&amp;1851'!$E$51:$E$82</definedName>
+    <definedName name="_xlchart.v5.7" hidden="1">'nacional_consolidado-1912&amp;1851'!#REF!</definedName>
+    <definedName name="_xlchart.v5.8" hidden="1">'nacional_consolidado-1912&amp;1851'!$C$19:$C$50</definedName>
+    <definedName name="_xlchart.v5.9" hidden="1">'nacional_consolidado-1912&amp;1851'!$E$19:$E$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -163,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="194">
   <si>
     <t>Población de colombia durante el siglo XIX</t>
   </si>
@@ -1379,7 +1350,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1641,10 +1612,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4142,1654 +4109,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v5.1</cx:f>
-        <cx:nf>_xlchart.v5.0</cx:nf>
+        <cx:f>_xlchart.v5.16</cx:f>
+        <cx:nf>_xlchart.v5.15</cx:nf>
       </cx:strDim>
       <cx:numDim type="colorVal">
-        <cx:f>_xlchart.v5.3</cx:f>
-        <cx:nf>_xlchart.v5.2</cx:nf>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Cantidad de extranjeros1851</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Cantidad de extranjeros</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1851</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:plotSurface>
-          <cx:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-        </cx:plotSurface>
-        <cx:series layoutId="regionMap" uniqueId="{B58F5204-3BE1-994B-9243-11188E556AC4}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f/>
-              <cx:v>Número de extranjeros</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln w="6350" cap="flat">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:regionLabelLayout val="none"/>
-            <cx:geography cultureLanguage="fr-FR" cultureRegion="CO" attribution="Avec Bing">
-              <cx:geoCache provider="{E9337A44-BEBE-4D9F-B70C-5C5E7DAFC167}">
-                <cx:binary>1HxJcuRIku1VKLH5mwQTMwwllS0SNmByd/jEeQNxOp2Y5xk36GP0sha9aPlHiIt99RiySCeTzPjF
-FqkMCQkyCLiZQsenTw38+3742z457KqzIU2y+m/74bdPQdMUf/v113ofHNJdfZ6G+yqv88fmfJ+n
-v+aPj+H+8OtDtevDzP9V5AX5132wq5rD8Ok//g6r+Yd8nu93TZhn6/ZQjZtD3SZN/ca1Vy+d7fM2
-a44f92Gl3z6RPMnT+/Dw6eyQNWEzXozF4bdPz276dPbr6VIvtj1LQLKmfYDPyue8ruuCqkuyrmq8
-LHw6S/LM/36V08RznUdIkGRNVVRR+bGxu0vhw39GnK/C7B4eqkNdn33/+vSTz4R/eiGsc/Lt6Ul+
-lJQsvz7ar8+1+x9/P/kBPOzJT54Y4FQz710CgdMwo2HdVOG+EX77tDg0ux86+Kb8Z3f8pPKlc4WH
-Pzqv6Dqv8vDlRPvS+fE6r6miLumyIoF1vhn+m/7pl38UR6dL4YdnD4ezo3S/nL1uledyvm6V99Z7
-tgYog118+mMP/be0Hwny/Zf/+0OL/7oFlXNVFyWZRwqPJDAUOo0f9VxVkKQhlRd4TRYFsPBbFvwm
-30fa8OWKJ1YkFgTWXysKL/IkTD80DrVjIP5xHCrn4vGGPxeH7dk3+T7Oiq+teGLFi+X8r2bF7S5r
-dtnDofoREv96OGrf8uUfG1L6GUMezn4X8eNs+QeLnphz+9n9q5nTzaESHavQ70r7OLuic1kWNF1Q
-JFkWJSS+SLNQKGVdlDVNBiijv5Nm27OXsn6cgd9b/cTS7vbzX83SVhsmH5h9xXNZk5COENJUSRY1
-TTpBQcq5ovO8ICi6qmq6itAPx3oNBbVnX8X7SHu+WPDEhNal/QEmfI5rn0B0TpDPNYB/vKxqCAJA
-E7VnCoLLgA5VVeBFwJC8rsHlpxjDar/8dwK48HPm52/b7XVUePr506d/WXh+7HQKAT//W0D4nf+w
-Sw7ZB3qwwJ8riEeAD5CCFJFXhGcG4jTosuCSqkgqUhXAi/JzCz3H3e3Z4oeIH+nFry56YsvFZ/MD
-PPmk//rf7ciudkly0g8/e6ifbMkE6MlkASA7rwqigERVfG5KpIGpAV9ouihKqvS1Ej0NtuemPJx9
-Fe+XMyvPHtpqV/+w+2tQ5/Xoe3fBZ0/72yfLvXoZkP/c/jQkLcAZQBicmOy0T36SjaRzWYFSLEJC
-1kRZlKUTBWnquSKJsi4puiBBX6S/6evfFQSwITkju3b/oe3rV92/vvSJ0q4+k7+a35Nd8vC2P/0c
-EaRAilKRLgi6dCzGuqg+d3wNqjDcoSJok5DISwLY/anjf5PnX0lYL1c4sRL5/NKz/0l2nHr2vwVf
-5O6q8Mv/5D9U9VrY/5yZhHPg4J4xdOhnOCIAp98k+lcM9TwlvbrkieXcz5u/XHy12UOY7dJdtf9A
-pKCcCzxANeCLkSoC5aecWvMrH6sgFa4jQZV5iMKnUXaqevJEyo806R+te2JXcvmXa1M/A3Gel234
-gUZ9l3U4ps4/TR8d/s/vIn6cRf9g0RNzfnb/coTu5yYBGincf2SK5c8RFEIZipwqSxo0picZF/ot
-aFJV6RimovKV830rRkHEL//1VcaPs2d79vqqpwa9+IiK+YedKZDbAkLAah/xHtIhaT3TlHgOV44Q
-UBVFXQFUeAIZvtuubA+/nOEv/8jC7Eeye61Ovg6PX1vjVAnrF7Xnx26nmAE7r6PhE3j8v9vRmO0u
-CqsPzE+CcC5L0NUIMEECjox/Th98m/HxoqBAUdLf9ecD9AJn30X8OH/+o1VPTDn/6/WnOB93+y//
-9ZZn/xwChJGTqAFCFwUVjKlAEnoWdEdzQtv6nYg4TqROou4UQnwX8ONs2Z69suSJIfHy9kVQ/ptD
-+a/t6ceZEVhPWYS8qCNV0HlNfzH7heTKa0B2a6oOg9/T0fupFT+4eW5fduMnFiSfL/9qFsR58uW/
-u131cUaUgfjTYeQg6EiTgJ89gQqScK7Kgi4gIJKk4w0nzCwI1P5ydtFWgEff5LBer30nHz8x0PHq
-Cwv9vtdp5buABu2neCAOOlFJF+GpgAfjYTCjnpYV/Zw/tjC6hni4TZZOaPtVlXdhtj9Atvhmll/O
-vvxn2e6aQ/umhV7Xxdurnajmxc0v9PREklNNMaCKfkpT+rkEHZ+sARA6+gKc4zhJ2PI5aOi7Eo8D
-jjfPCByz6w99/TNjfsOffx42naaP19Y8URr+kAnzH2JJBJ0xcEsKzO94FeZB4nMsyalAzCpwhgKB
-giSkaqcnKb78Z7Nrnujm6pAdpvbw/zPweGOpE508v/OFFz2R4dSLrtjrXvRzSPPk7ifHmX4/80V3
-zY59PSz2p6/+YH9PPvqdiHjNyb5fsh9++yTAQReoWAA6fj+HdlznTRbjc7UPwiL88o9k5+ffR8gw
-rnqovvyj/uXsa7Q+HLJ9uDsbv02XoTo1uwTomR+p/PnOh13d/PaJ0xCkXx7+igoCxMQfufz+8PUS
-Es6RogDJqQgS+BLSICYzGGAH8AAKtH/HUFU0Hkh+mOd8Oqvz9usl8VwA7kbVjwQOzOOk3w/7rfJk
-9PPsd61///9Z1qarPMya+rdPIow1i2+3HaVVFEUVFA3WQSr0R8dGCq7vdxs4UAh3C79IUldqUzEE
-Rl/hbh4UWOpIWJA4xu3Cu/UewhJX952POdYRPqASKbNFsWgFkuuG0uNy9sQEr8gjQL5+Ig+SZVUG
-TgqKFbRyADh44UQeTSna1B9CI6yMzJZoyDiSKqRpDoJH6oyg5cRyGlJNIa265vV39hf5k/1hhCaB
-biG+BWCZkX6U74k+IkmFM5B1y7HysbBFFrPUjKgQk27lM50kOLWFx2wj7OptcCf7uDLefv5jGn72
-/F/31yRREgUo2uAaz/dXJ7Evo2rkmGx2NhKNKsNd5XiBNYiEl3GMWJfc6JKlXIsl7lWSkjhiaovF
-lmQ68TxTvq+3aoaRETGuodIK+bg4yNf99ViwwCfVgItFiLCyGpZJT7w7qV+HGd6ib6niW+Z8xZDS
-S0UKkCYVDbAHAlwpnShSaZJQ6P3MN1CM/QTzZKKTrTU44cgwzovOUDScXAul0d/6c41IPNEWHRMp
-b3k6lSMi9EQMjZqbeS5y02tRe0fTR+x6omkQEJoUSRUkTYRs/1zTScXnVT6BgD3pqExqIjUYcVjt
-SSKQziPeXKajISTYv1AUPOp4ULBAJJIaHhs0c8guG8962/rCezLB2Oqp93Vy0whJkPtGUaxVUzMi
-GtD2Votx8ggyICyRiGUk+gYO/tBWUNrf1MSJz+VF1ARqAbt2BnIEKzYlUzViIzLffroj0/JiH11B
-oqhB1lGhpXj+dFU9NEPfFL7BrwO7TGmt4ubBK7Eq42zbzTQyGt5eQUQcDR00TiWWOQFTNVzm9G1R
-hKMi/5n2kKwgGB/+UxTt6L1PwjyT/F4a89I35EVie2bKpgZ3Dc6uS6qbHpYOGoflzdubvuJxIoK5
-FkBwBXItYNLnm3pZKIVjE0fgcT3TRVy6KYvvuGW+Sa8quyY+SxfSpiMDq0IiqVg2UsrfFz4ODe09
-BRzz+nMFgCxwnAkKyJEy0048bWzkcZBzkKVmPWtDos2QTCOPBiMuelq3RDdFHDCpJ21BpALXBcvf
-ybVIOCbzt4Q4UUgleVCHtK9CdHSipSMS8ZGH7Zl2ITpZR+rG6Fb5Jt5wOh5HlujLBNlCzON0bDEn
-PAolLfZowlFCmh7XDfZj0mgsTc0qx5GOk+yW8xwhIZM4TySS2YPCQlddS8sqxF2Ic8lBCa5S2HYS
-S1KqeJjzjmjmOY3moeuZzYpPwE6VgH0rEnHqik7X4sRu5tUqWSGTE3BhT3N9JhgKLlPMVWyQsGyK
-JCB8iWOrm4uFWye4E7ESYu+qdr0Rt1dhxkREivm0FwsyVda07CjIoON4xFGtY061lGUnEV908p4K
-Ah6kVbcPRqNLSD1ZFYXHhfKruiobSTPMRAUXnJHNB6qSLsNJSctNPNMaGynGmFgIkU6k40Dv+h0v
-rYWAJoEpVQu1D8kgYn1feBhpNA9vBO1ByzGHzNTNVlmEZX8ZBHOlc/thUZROe0zmVEV0LA00kMIz
-qhbX5SySqFq6vuWtxwoLRgDpdLDEAft3VU1KU4pJvkgaHBlBbYIyg4cgoOlE9GE2dNjPWNQ4eg12
-o16M04hISwkk2MUl6QTa56ucXwQhTgMirJSVPle2gFamm8Q3A4WNTAyJLhOtI91F0zAthGR9I1+J
-3TzVDMgtckvjeKXkNCbJrE8IughtVNlN+oh8FnAsnXM7bw6On9pdggWQ3dA2sYzzGGtWjvkAotUz
-gwiXA0tZZHgRBTWAaBYf4c4KSOnWZjHR2OGus5YpVhST6r7mcMjuWxUr1mA11rCZ1u3NYcJ+hZX7
-EvOO6jR26UyUJ+VjvAtuU+Y7Woq1iKCHCXcXrVkGTm62lxJPVYVmPM1NScMpmXBNuJRIVmqOEQ6h
-yK9liTQYDgSbk272RLqo2TjiTGHDvL7k8FRb6lW7mHgcxkzbiA/SIomdnNwnD4KH1QTcNLV8y49t
-EaK/tjtlIwyzSb/0wCUmAv8q6qau92l3r3h4XIiAQ2aSVca0KBxdtv11c932WFZZVlx7F2qPA4GI
-K+5yGnFJZYpai7d9mUk1rkC7tyKIXK9K36oUM4iXoOcuwEphHb22IjUOEqJdKzEpQtBpEuAoI/p1
-D5v2LAA41OAJGbmMUW91yEGHatkGluQRnYQmdyn31+WNxDNx2xql3biQQi3ZCiXcqFgAhHRTbfql
-AqjWbGcJQEkPe8tUtxsmSlj0WcPq1kzNmOiLJqUaiReVVaQY1poLRAlJiqyBCGvN9EnmjLOIlcug
-JD1tSDJgj0i2TgszXYb73lYrqpRkrKkYbwR5XTgd+JQIMMMYJJB/xJUjiYt8hW406WIoDlI+S3k3
-8NfiMBsTQwBA3l364pUSbeF5Gquo4REbVrh8jvej5PKtLfa4kJehI15qM34028LIEE4ErF0HhsJ6
-cT44ygiqp/IK3Qoe5RiaT25oD6xchWDKloj9zO9wE1uxzLKeJo/iVnArll74vjm0mzCkChEus024
-ahs2cExsnABR0CXCcW0HKo441vRUpZqPeXs0WhHKlozwuEWGKqz8apmGbLjiwgr3cz41ohoniVXs
-EtXQS0B9NgpYNlD/NhGsca6A106k6ynjNStx61XRUcTTxMdth8HIl40bhymONlqFxxCLIo5wTNHG
-X0br1IhvYt0KJixkZk6rg2xJTDa0dbvvGKzBmhJLHB6t1Agj7ClMQjNhkTgcjTsjpmVtioWlxkRI
-V11jRJnThnQKSZGbhWqUuq07iVUv64LG+16iWTf3ApY3DPk06qmYkI4pRLRC7gixK0c2cntwBVLe
-pBeSbwg6UzssLCo32alGoJFpYpkbuT2UhbViAua44SoczPptTMMAdypRPTJFjK9mdbktMzvyLe0W
-IOdiLGjQUWlY1GjhXcOwBVc9ExSq+zXuFVuTcQOPKs9qfiuHoHPFbI0c0kSII7fsSGT5+8ApDtEa
-3Weg1gstdaqMNclRn6MRXfXUJzHl7DHD8rwi3GD6EHPFTtQNMbeU3s6XuowHCKAYczLlSixGgJJt
-NKvtimTmaIKqrITw0CI2UKA4wSgoFAXpQUyx5/L3ianPp4c8cvJrfSXdagFWL6sev421XkHScHgO
-XojRZDjwKKAj6fkU4EX1JKbBlEZGJREVXHQr3Psg9lqCQrmbVNxuA1ZabYM1GF7+TiKsvqGXpx31
-cbJxAmpgZ2DLEUyx5G8kxNOdUZSEnpx9RXmhKxkx8+xxlWDdzI2Qltfv7Pa8fz8C2ee7wRzm6W5R
-J4lT6FWR4e+iB81CjtTh1kS2Pwd7pvyfgfHqS/D8fM8T3WadWBQ5tKkG1ORhFc0HHfuuSJS5PwPY
-JY4ACxbeJTjB4NQF6fbCPuSYLlDAOcNKs+vrVlnUMz3DSkmlm0akoSXN+zuUUuFGdSRaX6ZQcNV1
-eRWtdOOOf6xsz8mdCHwch1h1VLdkHfXM4gFSi7X0IMVfhZt8Niq4fUyhqaBH+KgY6bq4CEhEi+k+
-a0hkpIsBPN7oWLeDyvDYQfMM+HfduiHLSWa1hvQIncclJFSzmYUD7hcCheoo1gbkHD1gHsC4B7Qr
-7/w7/5DmBEpSmbDaTTpy1DoA9h0fEhWQgd0t/RQDqAKQ14R4ak2xwvBNlJIk3KiIDHOJ5gvdVWlT
-b2pDpUNneIMzQgd86xnpPNvFD0ikU20kUIC3+p28FQsscliHxrSh4iroaVzZUPch34Wr6qq9Ee6g
-APpEY5PT7QTHs4CuWEoZrhecq7GWjjSF0lQaE5PM4ljtatrT6QqlJNuUHe40GudLKATaSJIdpHvq
-z6Pc0iCvVZtAwT3C3Sa91R3vxgdJQiznGBLMVEJJhTTJd5iTHG0nDHgaAKJjzScKotJjaiNgJwzQ
-f4z7awDW3EMwkK6lOoAwUvJYjUgF6S409NtWYF2PhQhuFEaABuYgbweFFk6W4nqLeMzR93rfF4TT
-aQCdEmCICxQ/qiNoSnmoUQyYANNXSRNgbXakfGo6JBgKkBYzH+iUnw5fBag3HuanCpx7BL7pefjW
-UpcGQ5Cnhr4NhcW4C6AJhPLKGumCp5B933/el43fsx31k843LCRV9I47DkZdkmQ+GfzEuhwPNLUi
-A9GajpM7QCgy7/r9vlM55qPnLZ+iwMsDwAnBKU9gOE9ZFyUIAq2t0yMtBMkiaU1/J679+xwCNbqr
-4Kf8eMd3lwCPSpeDkomjpbQJOaOUoFvAwHS1EU5VK7jqKuLP+wI30ZEgzIEqEcgERbNgPniaOBtm
-/gG39XIyq8eJyEa5HbsVp6yEmCVrHuEIcFqLq+QqpOCC0OK+bdpXun0YnUqiCq9eKsdXIk6YzEz1
-kqr3+hBYldzNzIgcu/5QJ62rWCFrO+YvAHAbAGFYtkABjW8j8DBEWla/Ryu9TNggyvGoEByCgSmZ
-cKL0tB36VKykEHpU3w1WmlECwJWxthYNngLgeN/LXrJ/KjgzjI55eNUAXoo68Ws50Qo50JNvVEdo
-hU5lKUAqBc57pNIrDqUK8Ga4qsmaLh/PxD+PIGFQU3WcvNDIbirgQIE6KKmYPlbeoqrsqCwwSh91
-6CqTalFPbAJuJyX8gFNoZHPS5XQoSM4Zasi0QsIqP5MbIkC2g14dA2JLezNsmSAscpEOzTyYGOBd
-JbLG9iKtmQ8EiWI0E+s74rc4pDrUqHm1V71VmJopMHYVkSSs9dgD+uT+HQd7xapwmOb4SrwkAY8v
-n+iYF6uoL0aAOEcCUySaARyDrxiCUW9yaDAW0OzquJ4PFeYCktqDIxoA9C7jbVqZ7yWy48Hsk7jW
-RWDsJZieqcDioxMz9JwiVXDZN7zLQMQhVCcXOZxuZat4U0yzdp3fgW4KJitkfIhzXChG7GFNm2Xj
-govN6pIDZBBE9G0dfWWZn6eb52KdZPdgVMe0DkEs2fStdiPMqtvWjAzos0uoQKRxEg3XwDRDk5wC
-yTreBJtp52ekWns8zkzID1RbagKw1gbAYN7tOCzYui1uKuq9w8K+kjAgTgQekgW8qw1vdZwkDPgl
-D0VSDppvNNC3AR2mQ4yWLfbHi5RnaLwDw+JGBMgCLYbHPOnRn1y5XJfFrcDUyvRLGjg91ObSy9/J
-ZcdXTl7aFyQCshzeQQYhtROcObYeV/J5Gxglqx91Hyi6oFh0PotslLI6M70K60AaSvMiJU08H4NF
-0BGuWEaNHaksFKw+Y6Fo1rswJJXtqwDjKludSCYTtd3wE2lk4g80T6nsaAEF6ASkJF9HWBGpP2Gg
-R0IyXkUha2oaD5RHhIPtKrsFAEPRRFKm3MuXQEyFOet3qW9MwNYJC/lR180uNdKBaokx8lYXMPhg
-Cpp8aC5C4LFUDODOt2I3m49OMddvOhBkAx/pzSbDnko4BKDLrN0BWu9V1+Gqw5EHVIKp74FW6xMA
-J0SBSnZRBVQIMbeUjNQ/GkoVLHXAQXwLVIbM4DlaIBS5HOduCEMHbaZN2zy1yoz2aJZq21ilSkeU
-lPhQmBIqH4DWyt1ch8eWVVx5ZtSbJU+y0vKEpcdbUzIPQibnJrB8FfSCgHsDU0Q0B5blgQvMYuXr
-ROhwMRlB5+jYM3XOyBUsr0VHBu4pAVIX+iAg4XQMxNuU48DuItw6vAMtm4f5XR0SMXEqEfcB4bZD
-juOQwJqqaAJxJGJurx7JpgcJe+sCwHRBFKMsXXXEwCCOPBBsBH6thQz86QaIxHAC9pNnADOuRibN
-BcuDGzAQkYbf0SNGbW8HnBnqFeTnCnKvc1NaDU0uCoiFzgaoUrpAFCUl43ysUj4hBdNZuUAqyTWS
-CbhrWaNb5UDFq5hxm2IpX3Z27IZWYgz3NYluxSORC9MGHwZiRjthmRS2ZmS0XGTL4FYlfEuTW+9K
-sjIKQ7dCt+uJFFmOQxX3GhXqG/1IOeM2ILpmAgcb1UDugk2CPTxds61uJQ/rM7nELVQXnSkzewKy
-bnCSbep028iIE6oYEg2US87D9V27TmhKWjMDoGmJJJwJsOk298GRxB3Pjn2LavJEmk80ZcMsMfRZ
-Y3vrbq4jrHEknvFEJtWS34Evd3bzMIkktoa5ZgDkr1Rg/oDebuABgxV4WO7qxkADm3cAgHDXoePd
-jodgPwKVeCi2msHdK5HRdjT08WRIBnRLmtHqhL8Sc6IOR1ZOvMwdhcf9nUyElnRAJJTQp/nrCcO8
-jAARUAMp3bPpImWlmV/WQCeatTEaI+1cMz1An8NgeAWjyADPvYuuIF6BtRoXwZHtURImuFxEFBeY
-qu2+BKLGmgI8cQTlhF+ADaB/vgEjUn8Bo+j73i2WsVXv/Bl0ey1TFzCqdcKrnAkS7oz0SoIkXc9y
-Cyp3joX9dCua0w2/4RU8LFtgIUhyKd02Ps0FYHBghouYNodhbmMkNtD90LnpOJtHtupEN7GD7PSm
-xt5iXEOBgr6GFrRlWYdHs6GQpucNRLSF3ALIbgNaFxXE8XfTtqM8E3iK1qoDnKfZm94jAOyVYgzb
-fqEBFbsucpgnCDRmuZlCA2RDr+dCt7SFLrdfDc4qQkBx4tDsnOZa7maVD9AFUCstJxNUbGZGjmur
-JcD0jlf8wr8Tb7uZXa4DqtrpQCYNi3Zo66bE1H05B94DAaSp3PAhB476cRWbSgWkPKKCNWyrVXsF
-acsS8EV9OUDTF1xBg1jBPGXA0KSS9kq8Kh3tOgaCFTB2YjQFFoB/VhjgCsLbHFFp8egvZAZlywA2
-d9iWQHHzx0RbOt0cuuj6KlupKp4utBsgM4GixC1JFtlleN1eP1bAvUsEcAO4UTYHHCaQ8X4A+sAa
-Ny3MiRcSjPsdGEUc/PuqJ48hbZecOZAR2MlhIcDuTU3QvDX0CseXxzl9PYdOnDY4vkgX4bxdxJch
-Cyh06UZMAoO3lU3DdNP0bERbw9tyZsb42TjjLlTIURH2O8PfeiT2ZtkexkoJ2N3OLd+tKMzTwcqK
-bwUqgW+yxWMP/NasneUzcVFfKR1WYUxx00MS7SDmRuVWMlrmX3mX6hqGTjD4tIrSVs3j2YLBKtcy
-aNWCyBKuiy3nhliCe0hJgj7cyE7uAv609BkMH6D+hRNDCpa2LRthngMDrgvfRQGR11IObi/YCDr3
-AfhCkiRGd+NPpIUqGV1mNzrUpNodnWYukxKsIuzHkVRGcNkZ7VW79mdCReMr3VYXPBlhgOHFjpaQ
-GBEgeOICggO+QuWoOJzUrJrDYyR2/ciPpARsuQwueBO5EQlTSAB9QjU7cUIq2IkpZccVoguFTttg
-oStEh/EN8Jcw19pCHI7AvkUmBJ6EJwmyWe9Wdq7ikfB3wr5mHgmXPkSbbFbg1oCz58NyMJAJStlA
-oQWHJsEasWFfXzV2s+zs6KKxVXDOGvqsGMdkMn1WBtZ4qYVGBGk2xR3RzFV3Lc3knoROh0OCbGU+
-zHTW3gzr4r6HOhW5gAajzuBhHCObyUQDGHIUrDzEjs+GdTg4U2tMMBe4jx5bL8CxbyXipSxdowjA
-CWQsY+BmtQrHMYy2mGsCydpZtO+/VnKGnPFRMRIDZiRHgsmEwCggX4e3XWiIMg1VIkZ0mPGrvrO4
-nAJIFSy5Z8fMDkTiSqrJsW4093lhwBEVHUIc8mgIUwF/BWS+LNCiMpQKZxVuM9LvU2grU5ICU4N1
-tu9pYPFGgQjaeob30K9aQ65sEeYdUF8gkcIc4ErVochOZPBcoMLMjuT25CSAxFoSuUCEtAENAIjR
-xoWp5Mg6+L6ifoThmITamk2xAh5oKNx+nq8yV94rcFYGBKhph0jCWzp4NtCx+2GEJEuODCV8rgM4
-0pLABeI/nZfJ8Q7YrSnJEFvyTZOxTMW1HcGIGuZyooMqCkGeQ9vsqi3xWpOvaFDjsCPApY8AYjbe
-snB9Is+QiHMI+BRgIm60WWoHFjLqbZLM2lUuYD2mcbKRPZyu4pX0GALXQHyQo7cjpyLy8vi/zlRy
-4hulBXw3xLorsaRbSgwEr+2GjLPG1J3SyFeANUUmXrsx0O1wRoQVOx/ExyrQKovSuPZg9DgQhH2S
-GwILVxDNRuV2DHIwJNCc8rOKNG6zg9FpiXdgFUMMMO/RyIFDAhcwml0iAyRwGlLBPCsYYOZxvODf
-HAma3oKzPG56qzgVItKdL2J0IZnDVWSVHs5CApYdAG7fxKvI0hyRaubEOMEU94qDlqAa8Js4oDAQ
-PY5heDdWN6JEupKIyJJ2CHo0cLS5fhkCnGAwWZkUQ9QxmCPwXM7s3KMLTK7/IMDoRsVgiWyTwDSx
-wPrVOI82EssBLDPpERxDccqVBMGlDDQBXjjZiwqYP1mpcMCMSJcwjkBQ8hrAjsCb4owBct6Fe1CV
-6dP0umSRFcG4BZfWOCvuPMXkfaz/P/a+bDtSHFv7Vc4LUAvEfPNfADFH2A4P6bRvtJxpJ0ICISTE
-9PTnw11deWroVd3/dd/kWg5HOggQ2nt/E3fVM79Em/SFH4erloX/pNHarazKin9jICYoAS/JV6xd
-MCFp1gK43E4mC044xdHW3U4M17y+WZvcrPSzbjtc7B2/jt+ik6U7iU6szGZABiBc45MDHnM4rsdP
-vybjNjiPINHSg7jDQpvQLGXmkZfrSWiLZcM0PiU4k+e2IGcHrP+ZnIe38k6XW4C2CxrvJDdDRstd
-iL8MNcBw76BoDbvuLv7B6kM4Zf2T7rIW2OS3xMtTWwSg0K/gh+qn7lmWGLSK6am/MuBGDHS5wkya
-HqoieGZPzh7tar1jV4ytgEUOZDe88N1wKW9j9KB7nQPO3mhgE3f44AKTTyF60DNs4zo53cz3E8bj
-YUNvGnfXgstaLqrQ53lHL22chQf6elI5KQKRQ8r1JussRsnFNhFfxjv3tl9vkPjHnO7MAUAKu5ly
-dC7RI7t1cn83nuujm5W3QJ0yZ8fXC/4mHsdDU5RFWNQ7gGF7BY7If+C7EstA4FvZ/Jge5wdcxBUV
-nU/Rt6bQ92bZYja7TBusb5zj5/7KN2zfAM+ye5WrI7uCnP2QSaHe3ALU3CN4vMNYuLcSQipQwMNF
-2aJ66e/Jt3L7NBb2K/jH4HtzN58hSzs3/iYBJwbd46NoL/bQ36cfyyZ+C7b0OT1GJ/q13ZJTWwQn
-/8v8YIecmkcR/1iWzAmL8d0pn+Mvhq1L2apCPUHSdqt2yXbYySmvvGxBT4s7Wr4qge/U32BjtHn1
-0r7wK47N+RG/2YNLMv8IzCnEXaWPw6697bbgCZPTcIObG9g7uxdDHgxYTZuQXXyweI/dY4xSfeN3
-ucY04R8di5b2ZXnFS3LXVW/utk2/JfP6d7Bpdu8Et3UEACwDR75gC0gzELPOrsctIW6hm8iB/E87
-ggUuMux/x2rrT5AXzuchzcUd/ukO3mZ00ZHRAQK6vH0he3Vc4ZMNDsy7dDITD0NQ1EfsiZsFFaG/
-UUcX7wnO0xv4Q3TOWNfTB/bk/oLNzd3jk1+S56ooWabyaC+fmodoL4q0MMfmGXfPJgJMlzkH+q3/
-gHrlh8Lt2m5BMNhbLHd1de74JQHXDOEUA6npFjjdkD6+EVxX2gFu9Zys7W9mbxM6awsylcey2+hk
-Y7tNbkCz/w0nSP4M1QH7AiUIxS4AlPiPqLfvQK8cLlDZ8nO75xCcLQcIWzfN0XyAaOhxgvdRMWww
-LIkMF3vY4JUbfUEJb/4OyvnLQ4GoGApb31tB4d/jpQlrmMeSVfD7D9ljNrY5RaPcHmbQvWxTX8K/
-ITmSP3OU+PbxGp7lr+iWux7S/xHbUd3GsWAuQ0PsfA9yjKNou6q3VatkntodOAc0M+iGDyEm6uRL
-c5weqo24TE6Ors3ft0+8kFuSN2/kR3MfbOqHduc1WY96NBfCYqoxRb+ne/qoQHNNm2jbFupCc3ao
-sbjy5SK2w2ufl+/tVu3GU3BPLj9WNtbd22cDYdJdjRXRnOIXdq1v2qJ/+lv8/e9OwB/OuYUzo3IG
-nAByTXZrhzqdKjRFzV2Zq7ws7P/fNf55wv8A1hFFK5dYfB4/9MBAAgwaAQZwDzoDb7OyDH8H//6F
-nvL3l/gP8G9IhxlZtvjEKAasApVU4aD9HrfiUh7clfy7/h3w/xc8+/qRMLT4BMg/1tfvV9VSh+PC
-xQKhSzYU8Tb8xrCKIzRx9k7t/k6rCFX9n/Bt309DFzfNZ2rCH8D2oSemhJ6UbasfM+aCjUTvao4o
-0l+Bth+pAC9QYO6FiCvO2mNzrGWGwfMC0na+bQFgPHaH6c3DsPk4DlmMYnk//ZjP5Xvzbg/2QT9V
-tynP+IVdxvLvVsOfGT/k6nqEIAkHimf3j1rX2ItbtwlxbTBXX905M0kOLByjrzoZ0H3kq+ry+OgW
-EIz/kwj61fLxqxziH4aD762adVWyXwOGf/vx/92qD/nQ64+P/vKmPkN+fv5ujSn++dPuozUKqcBv
-9f982jU271X/x/+wfvRv/+OnB3p9/28JQusPf7Kb/AtDyT9Ckf/FL381jPxbbpNVYvKbUOTz8D8+
-HS9/lQ/38T/5h/npAfxpHFn/yD+NI7DQwkALU4YHQiAFqfKbcQRRXh5eccEar44ubyXF/mkcQW4A
-pNUwjsDUAemLT34zjsS/4BerQz6FWX51L5H/xDmCfNnf3RJhiPiBFAIXkoIQiCF5WW+Z/7OtJ5DP
-27qO/MLXbfJtEQM/D4lt02x0VPAj8h3xRTI3AqZNIaLScwsIw/Ua5y0SRtzaUc9P4VItu56GUIXF
-kYAS1fMbenbTCtNGNabeppcqKWLFkzpr3USmu3Iw6gk2mEnlfCghOtO1FVs7kXJbCWZopoYIpN/c
-ErT7I0Z3W8bzvaoN+5YwLV5dZ4ofapbMZ88C6qmFcZ7rKfU/Bt6x70wlzWkCBfK8gHop0qiKCzYq
-cyt9DzTBrKMGiE7kfYkZ5ed+cqbtGJDlJpIe+D58d5W5fsCefdYCufQ93Z4CHNTT2CAzEvpk0bzo
-lnYPk/GAS4zUQ88op6PqlhVZnNCE0HFon0U6hk+rMOEOGm7y7PmO2iIWyZ7SSQA0Dyat42zEu/a1
-Fwxfw76vASUPobNdIEwC7l+bH8MsoG5iCcwDgsxy51OSPDR9Gwab0l/qO2qiep/GncT2qYz6MtFh
-umFp5dx2UgR+xnvffa5a6PBcZamByJc4xzIayKlhTj1uolHLOqeIUny2ssTIo9SQnBC/IM+0nwjE
-Pa7fbOq49t5ZEMzfwkm70FxHajgHPZt0wR0zPuigJJt5oNOdQbiDhXYthXh6DiFk6VIhH2OvDIa9
-GQZIoFk7Jk/9yKkpYkeqL5qVYis7sjy2M6lvva5v9rCjqh0du+bYLQt0qu5YO7to5PpbILsaF6NW
-x1EI+c5nAzRStpPchz1nRcen6hVnbJqy0Pr2nCSUXB1bQvLZ6oiGmQkDsa+83j745ZJgTjDxdDf4
-kn6rJSWZ5i4EcVHI3Log3AM+VXclBrpag26a+dSPuUMX71hSq38QB1Ra7iw8+ShpTB4kqZpvKelB
-5+geoIHnzukp7BMMuH4v9Kn1lL2QaGkB7iTQZlMkLWDm6mPMGjZi4gtjSm6US/qtNwRjnDljn26V
-aGog9klVHTvPLQ+OXO/AtktSlrW0HL53iSEfox6aj1poetWMA18yMg2K0k/lkSzdAhm3IGNa1DGR
-tohKJve+Ghs/c2tnfg8CyJFG1MYzJV78VLsBJJPhPD2wjtPtYAT4L8HSdt/I0TyFQcvvkmGs7pbE
-oztr+XATKDXf0LZTp9ixeltD8HZ2GsExu8ei3ZST9RkY/fKTwGdqo+UEVXkjNfuKnWVCezjH5iki
-/vK9nBv3TCyEQ9NE00MbJ2B/ZnJWdn5sh7ro5uAiK1jYcFy3TteH2zLGAGtqNZyGgbw4ViYYEsKm
-z10RRgqiHwejearohkyhucyS1ZBnRRbi40ZasGepjfbtXErg+27EfrCEV4e5dIZrO1kPvUDSVuMG
-yzX86s3l6GyrRcDCtYaYNOeRMQ7le6BZnSXwD7oQhrXTY0sruBHoZOVhaEJ7mm1cnXVQ+cbPSse0
-NWDnWAHBnZh4HnwjbyjpV7lqE4xfZZuML1Tgdsx8K2OAIFHCX+ZlsLzwG9OHmdOm4esCK+IpjSTd
-lElYh0U59+mhhF7n0sVeL3IZJcuVSdbTQ+zTBiAvn4uRQcJazhE/OQOrL03DO2DCSwJ9N/I8nnTj
-hm9kUeFL4PRdvB8avnxfHMgXgR+ZGXO7EonIJjfAXRJzFVx5qCPcVfG8PDMz1E8hGzmwDtpzEL6a
-skdHKe9V8RkdZdBR52sVesMDnSQYfJz/504vE2C6zo5dFjQGElcWT+GdjmpA7G5M78ZxsFc7Cffi
-NUpg2p8n+2Lhn9y52CnGbAgwmafuQP3MogKR3HIG6qdJIgtnwdBek4nym4Ul7atuOZDrni7JISl7
-42Yzm+yP2G+bkzKR/0J5Q796fVd9+WwR/ts9/dkxuyqE/t3uCblD+g0xjX/9V35tn6IUeTNwWiWQ
-AUP+C5XMz/aJwAyPSCUYveM1QxDj2K/dUwz/N+Ik0zRELMZnsuZv3VP0iwvrFsxSZJW3YAb4z3y3
-8Tow/FSmoHtK0YzBZhqiKQvh4/1D9zSQELv8yNvCC2gzbIKFxcFhDMpWZdGURsa5maagbuihke50
-mFVgT2UYjGojsO7g/2nXzT8dXD+fA/h3c1m34YtSaXORUwhxqc/m/Vh15F7G4Ii6yIXzYOGwSnXh
-tPdGuJDqjqanVPn+uxJQTDnOaI60TbAT9UYWSwLHqZnnKuekHSGzIxCdlMvC/QzqFfe9j3pwlzLs
-3hcj65tqoMFhMRbUf8296iklonuT3ZheaJyWlzCK2iIMqIUvphrzSXFUChbPOzETR2RzN0JRKmJZ
-760PyoaUntlRGAkz9Dvto4e2ATaktDxXE9jnJYjpmZpZfEgV0dtpiBqAxijDN1NZwhpcRUD6W16e
-h5qZ41xyd5uKLq5y0ZbwaPlLv9zNQS9v2jaE6pV797pJrzrsB+CVpKRXE1YOTFT4HlsSGQ7othmE
-hKRVLrfzJKN8nqrxIEyX7oe4bd5Lf4r3jlt714VgRsygxAveUAj99742o87qvlEF96LomLYOf5vj
-tgRv2XbdeU785lTaBKay2HYMqCX3SxxKSQruBsrLZEA1+x6hc9xNbdDwjIxRCR58qHu+l4lEXaD9
-CFoyidtoZyuH3PixGL92k1eOMFM49jGdO15nkwkxYdaO5HEmcViHFvUdAreSosuuaueYCEC7NRP9
-nrRsOIRaQETmDfg6iyD8MLh8dqCxtApIelWnz5U7Naee2ODaN6KFdNYzfvXUoD5/eLx2IFIKxgb+
-PUVDH3aOUZNcsc45MqL1nROnrgHvoLtw13Aszsz16u4mjYV7284sRbMX1K+snZpDN7TlpqRzdOzK
-gBYd7t6bwCqd06V1izQUwXPvDX4WCrfZuHIAJ5N2/tbtSA04lFUA0/qRXZdahmdvaYYLH0MGuwoB
-ksTn5JJOafgxaQfOO9JF3dEJ6vYWVTXZCV/7exs404YHkmzLsh52OgSwuESwrPVRA+h1Bu1VTW4H
-bHSGJy6Gvna3cLZc2ikBLC0CrTaDly67CtdjmzCGrpNx3F+C+P1VQLxfEHSL9zMit4+DE3lbeDX5
-W0jmIcwqy8ebtB0hQmKJcjc0agBXd4F6YKazJrPEdLtGRHar0cWARWbL2biNuU8W9HtIg6G7ZLKQ
-npCwYeD3UigyUqa+R6OA5kNKCHlSGTSZWwUBlEqBC0ljKPovPEmAFqsJsvUktjsvDeatjx5ma6ql
-Paaz7E6pr2FAx2IShwFX/9xxp9podCjw0TIfSG1iVJVZZ5G7oRWuA5oT59/HIzUyl5OycCchj6Xq
-pm1jjH/vUeHdtV1kPsJeg2TxGbRMzJXfYiv0Qy2rtmjruL+u+rSHqgnHN5zD4Ei7Cpvb2iRloUOj
-rZmG5rYPJYA9tdLN0vCrEK67CRcVcNCBqfcoVZVu63Gy54YoXFDJnG8OY5AFVWRyAduUibc33dwf
-TG/FV5/HUEWFXkeq3TI7rdhUYwxXzH8r/efjiv6iRgOf+vcrff5m3uSb/vjrv/Oz1gMnQVVGZIOH
-zIEE0slfMzZiPJQBKmwk/6XQYnufiS2/FvvoF9+NkeePWH+ItGGH/gmVBL8gcgOPpMKjHPDfEI71
-HxV7NA5/KPZIXvKQg4DOAsC7C7Xu76GSyiaRUUuoiylQss/I4Kk552a9W1ynjF6iuQq2jLTmbGt3
-PPU6kN9KQsCI+FXnXSsTB36RVIaeK6d3TwuXZjuSunusQuwIToJJJRPc9w9NwJolC3sT3pXuHHxp
-vDkEADBV0yvniEHI+iZ22NZjU/3i+GY5EJ32p3Zk+h05k0uVqdIG58iNunjj6wCkM8PgJzNZ8p7m
-KAdU5HhUwPCSeuN0LJkIQZ8CFXwRelg5PhnW5Nh1mDty6hNo5TwiITlumIg3LqreuHHGptt6hPU3
-geDBxpZeeOcqhjQIh/cElN/Al9vGnxLvuFDrndK+qy9dWEIbNU9xXs12OFRUzHwrI2dcRY8+7xCN
-oZ1bd5j0LlRaL5vJas2Ps0citulLx/KXXsYNuCXV0hQdkwcPpY6YfxRkirZeZMWL09fxa+DXw6tX
-6dTJO29wpsJBQeRFPDmcHLpymp284sq7FSUxPHcJa4FhaTC1HqY1uemCqfo6oEa2J8eX/kc/KvkQ
-NSp4HHUK/YnW2naAiBJycsOujOEQ1yR8ox1n9/g63Xvwudv068Yjpqg/yHUz4p/7Ulmte5TfzvRb
-agN364SsP7frZhako/cYfe5wglnIzgRtLowLb4PFRO68iRJ48dr4pJuq2vWjIXlJI0BGSyObA193
-05W2elDrDtuse63UQffgr/svQMZy5xt4exTj9fcpCN07ue7Ypcunrbfu4qaZSsg8sbN36x7vAkg6
-+ouwx7jj5RfTYQyGbgQ1YaAhFr9eK8Wy0O4cl4s4TC321oyuNSWxXXtUQSzzoCL9PjQq3GsCWq5v
-+/Q2jEuYZNYaJYRYy9WURIcxrpDcEKMdK5a1srmSofcT4/RuavDmIBDozl1MeejXsggwaT6vA/+e
-jBDxDGv59Ea/RyVdiyqlAXspq7XShiM8SXwtv9FnJTZ9x9+Y7427iTHn4K8le/FmiIl1Ul9ZC31a
-+lnbk25BoEUdASkYygTWyslCQZCIGHED/nxJ1v4gWDuFGYCjyMK1fzBrJ+GXcbPxOwJ3qjTeE6nR
-5dWfDYhqkp2OzYKK7Myn+bNTSdampVnbFxkPwUasLQ1zE3tx1zZH82g6WQM58SRrd8q4hnVaJHAI
-DwSu7ThoGqBRXpSPgFt3qanjAskc6ZZHSl/ikde7tuqiIxDEcgNUojmkrKtf5dqX0YG6J4dYzBWf
-bVuCpjVEx1OjneuXUt8BTHOO3me7py22rU0LhLNGY+bDQTemQfeDuyYiRcciZnf2s3VkKgqu5TiW
-B2zW41v12WR2Qeezog3D+UvPAd7k0lnEpofrBLBJMMDMPHXi6k8VOkYyBZeh7qAWJrH90OEQb+I2
-7N5w9+LS2xZQLoImzqWk6Jomokwe1jM90bSasdhmsWzjHgZFxYj5GBYiYNgI0+RKPReubkM7VgAr
-0ntXpgTqYwmhHXiW5lpav733u6TEcRkRv3uR0LlSoXvEomrvRov9XbWRWHIndNq5IGph8IBj8W+b
-YVql4FWdnLvYGTctW+S1rGc3gIOZUg2JbeR8K926ekw8TsICDI7HNlNnEY2iiCjDTdvaAfszNu+j
-aEzzdRxksjG61TrXisLKH2tECxd6icKvSzPT587TEdAXWdbw/6Q1uSENFFmznXic86qqX+rRpclZ
-eQRfsMQO+jz2WuiMqJbtTO0PEC+gxTtLL2m+90RAueH3ndo5qBktgqEIsKxlkYnNvRkqZBfgPlS6
-yQwvF+7yGLcAr5AAxJdgprlyFJ1yPmPUWe8+ANqNFgaK9VaO8iUMLKSjcg6wG/fEz23Aw9c0UTUQ
-MT2detAfm2iOvNs2aj/GSJZFZaPh0nY95HRxUpY59eC5IVPF92HrmB2r6/CcDkEA4TIGWTzkqfHz
-//Zw/6qH+/e5ri8Vnkn6/ldYzU+qK4p/CdAY4TkmSYTu6JPP+mf/5qF/A8ubwnIcAQf9P2AN+jc8
-+8NLgeHA/eUj5fE3sIbgWUV4DanZsGBjkbvxf0J1BStW9DuwJsFBrQ8mDQHarFluf+jfmA/csS8F
-pFVVLAvOeV3nlgzB7Vwv3b6hJb2tFamQHjXY6ERS1F9Z8eWtQ+VCTkLlXhwCzYmM0vpih7m66LKX
-h1IGwoHexBGwSvt4Z6ChC1WygieGe+GGeuaONvR2WRCCgubS39iwskHBZBnc6SUEXoppOEFmCNgp
-Cw1tEDnQsDnQb7pVT36AA4sO/TyMfubUNHj0Z+EemE/UFvhKtG2W3jmPwqNfI64QxhLPTnJJxAyD
-CevKZzdxPAgCA3iGTbIcVWvmbcPLeRdbKp61KypoEjG1BWHYHaPSYR9dL8jBBxqArmkAiNNq9y5G
-ZdjzMY7OpWmAclgaLdfI8ugC9+D0Frnj9AO9g3sMMZ5WmxoAw1MLXg8qwUAuj36FItoRYpG20HM0
-Yjzpn02PkhPQsd+B95tPgQnZ0eU+l9vKMf0+ncw6y6ci2WswS21eVYiQoZSNu1hV/iP2e3IUVPr3
-TTMbJwfOb05VF3jH0QWNXhhuxpceKHee8DhpNwMPycWJy27nks7dAKTy3kjQI0iCsOhZ1Uxi+I90
-hCgKEORXbbBFhiKCgm0cnEe/1novNMA0j2KOzSrK3I9EhQhxkA0sF2W/OOiPvJi96hTbcdsPcFbP
-ZvKudHQA2cDOOT+3KRtfo75pruFoh+1Sa1rnDBbTN1+2y7eWTvCau5P3NNHGt9kUuBgVFqlN4fQN
-uvzWjo8JVdBYtzY6hClqRGnTqSocMYCrksBjINRiHdxHRIlTKhp7Hgjl71o3NaolQx0CC1sWvSMA
-pPUqgICzY0iOs9FUbxVSnO7TuPSfl9KyHW/K+osuk+jkKNnxnfSHADFAYVh98zV1noa+Iplx6mbY
-W2d2d05q4VZRQypOUb9MG+n7iFvBGIcIFIpMuxaOtMs4AqQMyqTeVYp7sqCuP5z9YEDUS8N5m42y
-TgqdxPLHSB3RZInHzAmEZ6+zkkXQ8SbJ0Dx6bJgzt9TLtvH8GizAkACh4KbNZKfMIwtmfChcpvY9
-rcruZlia+s7KRgN4myiuEx9qm/m6xFDG4mUTeNN0CeImNHmFRNGCNZHcOIOAtF6ndINF40BVFyzQ
-cdV+GG2xnYmPMTXjAf1osGscB9CI9hFUNIk1TMnF2i3manZPPLb1s+ME0mYM2ZI/+hgtj6gWFOWw
-glNdJgpyVpIMys2oJ4XMZ18IOAVcc4vBJnpDO4BsJZYiD6uudHQaIlE+qWSE1k+2eE2hxZ75wt41
-79uDtGF9jBREQ/DxWQrXT6D8Tdmn9hR5cjjWdtInCnRoUzuLfa6IV9/3ygAVDY2A8804tPk+uDZQ
-VyuQ836IAUbt3ZrCrzZKI6Hl8kFCZpA0IOKscylwrZBiYnSnGWYQ35lvKmVoiQseOnvR9/13cEMQ
-AJIhQsxAWzbBi57D9jo0boPMHhIEr14JLBZcp4t8yljH4HRaAxPqJl2AEGzqFpt5tsA3iyvgahCw
-tvM6mjeaVM/SR6JkKkMEqxitzqEe4B9bvI57Gz2T9tlw7XzRbddAki3L4cXrSgSZLC4xyb4fQwMV
-8hS6TzUAI2/Xizj60bkEzjfNWvURBQ4o1ti03nPci8DDpFq7bMfcFCc2JiOO3E4JyZMK3GzOEiLf
-Z9MOT0pq5CNEoYBRq3bxK7DESZdVjiPfHR/xcUU0utF1jGYCSSxiu4/GjAR62DFNEVSTuMOFJtb/
-3i5tuOQQTkXguiZnjQoLWxsXaKAZcpDowpAtxgcB/1JC2UmnnQcX5eicOoyYH1UyNiqz2AcgrAsY
-grjCqJnuGUg4mZFYTh+NtZ7ZYIFi7Qa0hacogL6ioM0k7hwZh6/UVNOSJaWG1FF2HQR+GKogjRgr
-+6NOLUx1rVfLABVLmXcz+cmj6ECA5Hpsylc7pc49pdJA3zz57LVsuv4Yo5jcuePS7GwqMC9yJ2EX
-biF5wtDpj27Wt173QNuKNVnLghhTP/HmqEAz2sPMBv7gEFmrkcblGmTigI0gGUWA7EvLZQkT0AR0
-vjCIDFR7Graz2CkTYHyiltMPVKvkY5wNgSeyZdUEy/KsBA4eU7zyZw7PZFlPFrL1xH9kNm0edBWQ
-D9WZmRzB5LPvS8lQV+IZch9se658cjBIRKCx2/iBLEsZ5VU0zy6AkzZ08zKZ0b/G3IRnZQYoasvB
-t68x7ulXRkvxogBxwAG0qMvsc+AYyyemMRkJfKMfBCXP1E8pYACY8PmxRNBltxHS5XuDKn0blSJm
-EPdbBeF+UE58280AtwEraahlwlC2obnldaqrtOhLlYD58Xj6EugmeOwjDTTJS9oIM/fMEaPgmBhx
-Z2P6lHo4HtDg1Y6gqYGNyTr+Pq6ajzEk+kvauV2d9UGtN5HwXHyvxGwS7aY7qXuxotD2zcNUUSFY
-BK5LNTj7HhjAVU4CAwCXNk96YNJ5jWIIo9GkYRsKnOS9E/G0/W8X/6+6eMCU/xqJxZ7a/nzO/E+J
-2hoh/E+Jmv8LHtKGh32GuFWgi/y9RA1QEBhOBG2uOdqrfPNX3DX4JfGRi5QmfgIR2j9ij3/NNvZ/
-ifFWjAJ+BBQX7/L+o749/r30EY+lQBoBJEcR9G5IyAel+nvcdQSm4ixYQ0WlZ5M5lB6GIB62ETbw
-IhSzABxq3iMVIaahqoPM595FihSq9dFH3A1SgJMhgHG1A18o0SzYfn4JKkhzICRL0/E09P41BZEI
-OxJiU8UIjTIkIjqmzzwN0Ubw7tbVUDVRlXzp5x42wHR6Kt3mK/C1JGuCJUQADkwNcTJCwupgcogq
-RCSkK4RrHC8fje0KPXEfSTzNlVFXZLSbT1DJpEWaNlc9MowAGuKGksGjbBpSP7klTQ7zpIAzlJ2X
-1x2f0ZCgHskGEzU1MBQHzXvjswW5F+F4YT5EMHYY75hQHbJfXJjwVedkk7sUNUGQGWNIQTDwB4xl
-dxcF8M6kS4IkJ4ueqaPg2JoQohHK2NXr5ZelhHE3rBCN5DTtHS7LsGGV3TdBeW0UTKjj4j9GTYqk
-TJ62aLhTIDohPPiyrgqc62YXyxg+F9J/kZNUOYRiR1FDLEXwLMjCVpUpQFMh7CJFx9cCTrrGvVci
-IZDoLQlxpK7nmKzxkVs6jORh6QF4mIB/JczBxDBf/pe9M8uNXMm27FTeBHjBnrSfAspbubv6PvRj
-kBQK0khj39tsagw1hDexWh55b94mXwGZwPuoAvInkciMkEIu0uycffZeJ82HOwQPB/KnPGVITJye
-9qNbexfFyDQRN9ranYutT7FHsm0mHzOQt56iHKJdzBwIIySCkWM9545ids4UPdbeS16Y7MSChXeD
-WRLhmLJbT0jIhYqJGVv1plTG2S5ONJyvIliliQ0QK8g+XSrTDcfZdeQ4ZCURNYahvNBdUv7QNJkr
-ORfjXvnLsLWVQG9eyoeuyp/doq5PvcJ0Z6nkddIAPaIqsjfdIqjlyxLKXezkqHa2dx+UEC1Vo+gp
-rColnDdei5FMdCIOXkTC2ukTYhsobMzNXYgm/PqyILzL2/JIQQGVOSaEXEVWdGPHKWWrLyFIF/CP
-LaO2gbY0Jrr0aZjy51qopzxLCHsNBH7sVuxoHkA9aiJRKgMkWQQAPefK3FPAB8QeIlw/XTQeh9Yj
-qjuYU1q7n6lvbZy4y3d2GuL3mkAcVnJBmqvIjKe+XLOrhB9IMqCkslu7gwXBVg5vnsUTETAKgp0a
-3BQBrqw0kR9WNryEKZnFYWw/jZ9/0vWWABz01WRFL1Fb/FD9NG6nZZn3uiHBVcZMQZxZnap6erJH
-670V+lRQHa8iNfZbM+q9ndp7zKmbJq+OlavvCgmqtvBiGsZJ3VFqfXAe7QroZrqM5Jpj6tbU2UXf
-Nrs06XauyeBI5Fc9fE+Tjiha6WVjZYeaWcGSBadM0yfz029tu+6Z8Xp7WQxvUrhfyGqfc7M8RjFP
-pmsRyKGKWqu+vGy884c8dV/eIjoyS2LHULZeZdHy6FIQ9B3DWlnqk9ODYvOd7N53wRUwsv6WWhW9
-UqWWFfZxfTP3+RUzkXuY0NEKkYKHtUPctpL8Q7nx49R3P3zfB/qFBTSI1DGwxutFVDcqqo74Iq9G
-K7gbUg0lwieEnsQkOOJyuYz1nJHmcF6NAXC6iOhS2SUvnwXct4Fl0MdvrQo/fEveWbPoN0nc3lPS
-f1sibIpudFe06rbphyMWyt1cAHsVwzGvTH/NO/UQlO2ltg1IhrDujvFkgCg43WkZ7eMIT6MyGYnw
-If86W9x8NzmZRdxYraK5bCmy6U+rllCSHE5w6cHPzq48yvlGdA4ZTCfDFyZ/9OGwHQNqmBwrblHT
-1FEybbqmOWF7JuxWeGeF1nurF04oq8UP00zNoTRZQYsmTlGcxWuhyuiSeTvAYQNfPI8LjudOfc8V
-8xle73A9Z/Vd5giYFQ3pYAbVxRZrcL62rTpYtyI9UQbjCsj7GQGzuBvLiGwVOm7gLbcY6ayNa7r3
-JlQAY0P5gIfh4OA2Xo9JCME2DYqNiDD/U0jea9RdwCWIPo357LX5JmPxxAl4aIYgWOdqBu0/WwDv
-XCc/Fkvf7/xmxGQjo3bvE6YNFLhgx872esw/sLNM2ELBkhRLHa+wTxvcOhgsK8c8uSWsTpcnCYcO
-H1vXpv1atXl+Tcl9G+Ududh8BLc64lXFA+7SV1jLJs6LOxnZ6tRlzggljH9JSGcBWyM9Wdw6Ky+e
-gah0qWK8U7eX1PY3appPVmkVt02TPs9l8F0r6Byu9ewyvlhPeWVfGhd0QzdwRlT4msPwZKfzy+wg
-qARhCs7O34mAeRLj0uIJN1L0NgbmislyeiN4VlZLVsEPkP63KuB1c5zwLRf5vBomhWyncFYj9atN
-bckdd8f2v7ku/X82GHFmc/7fy8y/LoH5n8W7qcr37h8H/uev8/vAnzCO6wZnuJj9t13mvwnG/i+e
-YD0G7S+lH3Unf+vXwtP+xXGwB5zn+oK9GYz9MeX9WnlajPyRkMHSsQ2LepHgxb9Sev5tfcDv/r6Q
-VXco1r6DqOExTPgpaf8xHdGh+uIKVfnG5g67UcWIXnTMUupMXtxRNTVzwrwesfN7OBqw708a7zlP
-0bURY/WWBoKTwYWA5yENvyaOQ9C60LUp1k6kkvtC5CGW1Tiun6u4bzfVUlc5km7U76TVtbeG3Ron
-OTpUly5Dpm3atfk1LziX2yST+q5AeLvLs8Vc2qZgQLvkkv0LS6dOsZ0iZC+OARCYI5Os+z4qML3P
-eAziyKQw7Br/2k3jQO2ldM2Fjiw6OieA4hXMw3A5T459XdWtf425zX+vKUh97Dlu9oBnPHx0M1Xf
-oUIuDZB2D2Rp40EfauJGbcNgcT+6UmKBT8Y5v+9TE++pCt0STpOJPmReJmhmRQYuA3lnLwU4p6GN
-Caw6SgafCPM4FiSKwLYZTHjJzL25i7O5I+pqLEbdXcjFGY9euq71ot8t7XVqo7mxn/BTMXVK9HDy
-meDeOkNEyruoPOreVi79U+a24y2t9PIjDzrESupA6+iTFjt1AX671WwV6lTHzrytC4cFEf35m3iZ
-JyETFaXmG1o0xGgQ4qWZl+nZaZPyvRw8vNo8SMF2mBiT0aYXUDVUFlBkEENhPiyraG9hwb9cojMM
-gjHrD34q1rOUU+s8+qk/wVIYLfUtzAf5ib2t2vc9OYNyNO2+q6r4HoVjoJ7wsqpchX6LFxvpZ7BX
-qM3iR9FwMfGVy+0URcNd1lbhjimNetV0TfXKn0yNU4HsmAld8THWibpaZid1V25bxHeeN/uP0krc
-izIdloPglgagnhf12zik+cVkZ6SJUzOp1yH35mNsSjK67dihRcXdmIptYRrs/0nV3oWNSLZhGrV3
-cQHMTOfRGG8COTDOy2dk0lXLc7Jvsa0XF0U1zttOqfbBDtv0WXY1o90YC0BbhE23TpHkD8KE2a6G
-WTZfZm7k/nCcLvsWO+I8yfVgrET8lg5B3hLFw1ISHEs3qMmUzrq5lWd7aRoE2V5UZXwVWE19sOY+
-fW+SFoarnVSE18vEHHK7ZEAT1gW88WK47/l0rwpTpd87AixILAnO8XqpnwbcKvt+gD0lLf3R66ze
-hWKIYctO3OYjvkAduGbjDnjOjBDlZZKFPfAKhJRrNWPqJxkeO4A3TLCvmXi8mlZmsMNidcq7Zb4o
-+GxuYrtaHnMTLo/TWcdf0ZvHPOtO6ul9HaY2OBo/dYpNUE/irDe17c3UyookR+n3hLyJfFTrIJcj
-BLZspOomSjjeNcKm9fEKckC7AakvfFfD6MOqtdkq0KcFHCmzKHvdujOMGt+2PPjPNi3pOpzKQKyW
-KQHnL/EbbzOdpTeuWXJwZnZWbCkAl5u+XSShFms2F4ul51vsXeNxnERww3mnxRNlrcMEbepde536
-bp4dbawIx4kcIg+qb5kXzxhi5l3YJydXdvrOcZV/acrzP2ESCvNtkKX9HY00HbdVe5O1cr16fI+F
-FlAIw36sN5aVJW/naQRtoRlHgjRj6K9qpoH5yu26/ptvdANCUfh0AZ5MbMweRFC+xnRqrjKme6xn
-6DOVbDjPlmETkKp4CgmnMqgfmLswko4fFDkcNNMk9O4iy6uctSIDtNK14z31nlkOlcyBYseh/ury
-2uf7UmzejJzMzUrPI7wkZUbzLOe6Q8Ks61aeAy76nkLR+7bIkhO269vhw2lMAfiG1uiJktR506bK
-9qk31+U6r/X4lI9BeDETILtoCgtFWEMOH4SVvnf50MFz6L2DXUXd7VgO+gr4JOOARkmwGnRsaiUi
-hVm7FqbD8ITu84wt3d7zhOhvghkodDjiHe2qbueYf0TcqpfJjjhGelUAIeuruIaoKyJ0ZBGK6Zmc
-VretBrs4Wl7OmSITAQikqn3z2gaZ9aGsuHzwhZN9oSI5+wp/15UguPMN0T3axlYVsqKENfXuSrsZ
-XB1nohgrLI/IsVdHr8oN5IUfd856TibwnUZW0zqYfYg89oAfdopKQv8Lbt+qt+ilq5JLDyE5KJ4i
-uyqh75psuJpC474MDl6HMfP0DaFIXDRlIcHUo8WsotRhIqBGcSpUiHenyNznJOkMaj+q3KpJjHWp
-rSrmHZzST5Hx2KbS8zE82f2wCnM/vMjaOjuNbu1s88DY705d0+VaSZG8jFLTnLm5gvYXTOwj0E2d
-oHjbIaJz06jwMcmCBg9c1E60OFOxbKoh4B01ebAZlWr2g+7tg5vN5OHysT2FQcmhMNgDoFnmzqex
-tMHfL45/shiF8nAvsb5ViVUGaAnEO1fDspz7j7geX2TJWexnur1os9y7SIQV3ySug2PWzyR5/Bn1
-DINzH67TpRwPUztCTsmxjiPeLswzV5xp40Xl9VOy4YGGoEZcoHnqnLa81XzfXZmg1bNYpMixpZve
-xYZfFEfXyYpjib/5utRJ8lWWvXkVMcPYZeycj3ZwNC4vXbAJpM1u6XdBl5CO9BB4PABwGLdBwolZ
-H6o4bt5sr48+3IEpS83jTwMcEw2CayUEZA7qikfGst5dRy2zS6dR3uaj12yKSJ59VUl9q4tAnHBM
-dkBNhDu/oBec31SnvB/YE3cMuky9xi1pKvrY6tlymR4FJsjZDDMNzqedDtbV3Kix288EBj6ieZHv
-oRzNUYGGABvjewYJfbZvLX9mq4aSvMrzbIc/euIqV6KT9k02WTD/8gzevuShBesP6H7NYWFvm6mj
-e6WidA6+FMlbOYRMxNwmbpnvTwtdFNawat1alX30KcEPSVLwAilqsM85m9oD4glOd86K23oiadu5
-UbSxRBJRYFjBAFzETBdCdX65mgp7BrvYR/UqySaO1EKJ5BEP4fAu0na+FBNZvjgBatxodh7xklQQ
-YbJl6sm9hZJNWgqOuMdaA6Qf8vLEBT+SxaTX3eJX27ad8g32PfZtxXU33SwxXqqFXNyw9jpsO9ty
-EYW9SptYclrgGzgoURIjXgqUTmkjPo1RnzB01nyyTBffcDnW7saRDdtOuiiawIlWkf8YUa5sMQIq
-BD5rHt6RzM7bd8LUhUpqJdvWKdjBUhjCLzId1b5yuu4mSdK0ZDlDBDB4Tn3AhZ0vdkK3UbbqBlsd
-ChWlD27uA6sq0bhXnc3zUEuCp6tYRZzD7ODzQCUGxqGc6Wt283RJvJ2GGgh42qXHRPTFtR+ErbdZ
-MjvYa0z2rMAqRPgmCtEFcIi96SIcAT1zQrnRrcFGchFg8OjXlSsNaNPIrg8x//kRD2V2syC33ut0
-bK9se+xvAu1nHJOZ517n3Cc/nCUmZ6PFZG6YMbvz2TnFNovEb55k1gcnzMWpWGdSeiCSmSGTB4zC
-LyyrI+98USafrVsgSAxMAaAgj0V6UVUhl06ER3BG8H4UxDxec7cWOzV41ofos2o7+7xF2zHtx+dQ
-BfIRhwnkt1kX/ovdR8lJ+kuC+EOLUzqZYU1GzSBUdEP2YVf9cpNlBQUBiRaxxzlh3kp3PAd3Jzsm
-BogYr9ipZHu3We2NZ+tag3FzWIddSuGLwjEvxJOaM7Aq8opP/DjLAVw17MskbwKirMt0UxOwweJj
-h9ZnS4jAZxNI01IZDRqmjnF1gGbma+iIbdKiqsrC6l5xr3b1hpVbKEpYcoMB3qyAOd1YMSp4pnqn
-I6/YNP2Vcsvq0x2H5t+zK6oW9dn/UQxgkBNDHfinNYX1f/7v9nv18ScH2t+/xm+DLP+XM0cBE5pw
-uLKI4P4eIAh/CfiffSgMjh2d/WZ/1xNIGBIsPIcFQ2g6ggDC3+WE6BcviPizIVs6SUGf/9ZviIk/
-QTOSL5ZX/dza+cedIn8dY0WIGR7VFpQFJ8Lz9hdm/xTNbcFBlG9jVMHDGacO3TP9MVh/czBCzPiv
-v8/PH+ZPRref34kQhXcOKYRoF38emNlxRPCprCVtQt7fJ3R02Z6ouOYMJ2/7WJZhdWGLutppbFBX
-NqX1VToR58YvG4pD4Nrmye7r6bGczXDly9K5CoY6ffBEskBbn4T90GehdciNjLg1dFzcMwq3Nk0A
-kDeXKcpcIMPsQAdDXYR+tyZOPF6lTssdVbTWq1em6nPoan8vcaGxLSGkbmfTm+MlHGlFss/t3P2g
-13U3XrIkC3+/9l8WrDxftomKeJUuWIuo2CcyAnPXXXZTkzfggAXh86D1vvw4GZZdHSW9vfK0tKjM
-WxsClmrdSh06qqF2HeYBl+LZ03AnnLZhhqL8s3PFHst9Mg3+dpqi7iLzZfqULq73JlKxXNJZQSBe
-nMSFlN0nUNuXxJYrKrD1ID1vT/c3fXc1IyIaTI5GRfigmyymMLXobi0rZkNBtWDpXfuiaZmqRcuc
-XpBy40rnWMZfMzZsl+qKqpk2XjwBRp6YDrCex/AJkhoc5UoHY3CHxyFdD7kV3lpdEN6armbzgGO8
-o52EktVUffmI6Q6xwLYFAcHQSRLKUacrNKbptjvZWLTv6gTLDFzsQF2kpZsfMYBDsysIOi4c02Px
-UvYTnoVumO8zfGXDCh83Z3MQTs2mHNj5pG0qFTiV/XwdWU30OMyz95h4rbNjDtrALrOi+iocFOJ6
-FmGpMKYWpzr0/FtrmvKbNAoZ4uFBWFjImY/mYpxIU3q25DBO4i67GYbeecQBAZyM8XWypmQmTTFl
-CbThOQf2zjPtnTCqVM9hZYnNoLvsoEZCo13i85woKdlTyX/fZPFIjYvyC5JyZOy3s9U4XaOmH6xM
-uiffdOy7w790N+PpeeOahOUFDInVCgFkAWQ1780tS70jzgAwrZIuQ1wl8gcGyfgksooE20oTnrT2
-C3PdcR1qkV3NmZVd1NKHbxz3HvC1ipvEO6pIZ80p6Yi3rBFXpLszcQ2qgEOqVoc8G534WKbse1j3
-oi0XvIqjNrsGoseL6RWczirx1X3mUs/x9nXJS+pnsAkJLXw2qZOAm566hCzCLM6kCE4OFiYIASm3
-CbJhxySpuJZ1qB5nJBR3R6fi3s5L0z27Euc6HJiUWGZXWx1xP2WKF/jtpCU7k8qa59tqn91lrp4m
-044fHX3guxXr/G5gokVV5KXuuVx03UtYYRNQBIU7Zi16eyiPMumHbr1EmFU8bHaQ0v+btfU/Mof+
-x//XlCIXk/Q/K8Z//cfV13/pAOFr/HZx/rRn+/bfzBpnf/bvF6f/C4Au5HQfGZQZSfS7EM//4/qh
-h3Pbif2fsby/X5zOLyEmWzK8kItgx6DU/ysXpx/9FVIUU07zKEXc6STvWGDw5wttpjWfCA6VIE0I
-4W/o/2CSjFleMrnvokHzusXte8OhaZ2df+GtcFL7B/ie8HLySApdjhLrGqI62t8p7Lzkdq7U/ILn
-IfvuuL18p/I0j0vhDsVKBWyKwzA97dp4EddD0qbL2THOmK3smwW0Z5Qd07TpH1xicXvEy+qClJna
-oK5NW9e0IDWspvN2SyDlZ13q4gsrWLX1YMbcFJzMJ5P29tEqw/mmrqf8wCauFApqEr0gqUY7peLy
-pmf+9xFaiHl2MPevjperm7DiVRopbs6Qx7j1YeBPy3unfO9KhfFyIyv0ytZHLlspP262qmjNus3M
-uO4nrQ9jct54UsXdF3wCstiun5FPKtm4o9v0bQ6GYTuksluHoe9fYZYN77NsxE2jl+5bIafwHbGe
-pYRV7RGdRow94PALn/NFeWaLh7q67J3aP2XMKR6yvAuy1cKZdhq7huscKfKg+jY8Wnlojokf0EjW
-k11+xU4B49sRcbvFbpqwoqOp9b1jtxGrQiMjGJxb860iuU/ezwz5FaY653aISmSOBCrDZoSUxpY8
-zOvLFA/fY5KXYH1rLU/oYQVtFyS3Sc35+yAW99pTA6sNznFCa6ibb8jr7l3U9fpJyT4+kF5gPWUh
-l9faWYgSzj12F62L7/k06iPJNLlfgiHG6Z7D7U6NYBo+5JkFgahUL9x4hJpc44yX0VTZV1ri058H
-4R2UY/yH0eL5XVOQlCfFQX/woQVcmGocH/ggrII0vz1dMAlz7k3P3baKTRJ8YmwXD7heVLCyOwI8
-aw+Ptb22ddc84qOcdk0W1Xu/yb2DSwTyBrRE/IwCQ+vteoV5wPie3fWjXG6hV2CpycFIMP3uA7ml
-AHATGqyznWSqrWFrJfHUbxvMgS9F5NAmLnV5GueE5RaWMMB/FlTDOC6bF377TYejFqMx1/SZ3+L5
-7l3jZPEqnOARkJZSrFFN8uS+KWPmHxjTWS2wOKwXQexFxirSCQdANY9PohNwkauy5KFJunVUjZCG
-XcraG7+zw4uxzAgLFZGX414JvIs48BnG4x2aNx7wnQsHwM11QbX7PSZrussTO8IYkIAst/0kOk3o
-+ic/IVO7aoOaqVlkM7s5VxfDT6OkyXW7w98/XtZLool3aIc4Gfn9Y+X4y43RvvHZkGsDSnb9Orid
-KOC2oUid705Jkc2aEt7vHb5wcMuR1RPDSjJCs70fB8AD7aXjYxpt6zX9GbGtJZSwzG3Gb7722QsT
-YamWa0fguGKOoxl6dZgakq2J++WJEpB/b1Iszfe2D6EFF7MYXhbycfOO04AQsD7ngYsp5QP2e+0/
-l7bXXdqdTFkeek4RM76Y3qPQKr78Kqgf+XWz2beZcDydI8hLz5ZrzjWCydhaySinpi4/2A8znRKX
-CDPWPm/nnGPNZXsOfHo/087krKF0uD9zV6OZWWBzDmOpn7GsvgDagNR5CHq2QGjCY5v6Z5JLDfl0
-lSfExfpweh1dJ32Y62LYmKWsrmax6NN4DoYRYPPW1TksFv7MjS16Dt3XbCnrbDP+zJblP3NmTTk5
-b7C2yhr8e1vW1mMWKmrcaG4oJuNomi/agJrzui1BpOGKKTSkCC/SgPcjktibpHM1ZhrLxwuYp2zm
-1s0g73z+OaeuRtrb8Ix09yOB8ttmsdGYGdSIp7I82/GaWTmMIHzTz5wreKa6yVHOCrGl3QoVZFeo
-4cDzwqnnHGLwlN3K1re+vNZk7VaNeL42ad7w+iABt7eALapHq3WCvUd9yBaOWg4UzTCHMxXfRUoB
-fY9mFGpi5o0EScIYGoEjXogOsDQUD3SXQzdu/T65wdRB5pvkwyGuW0BqAWPmDW617uTLKN8EQ1vc
-LwM9CgpgtC3rINyCQmovfJP3e5nN2SX+Zgj+QVjz8mZphbW6mvfKjZgmLE58yIkz1Tj+umo3IC7z
-FxOwt1OJ4TCSY3iMqs7azEU1XZKpYpfb2R05p32OBwfkRhhQJ3e95Mxwas/acXhGxyQJCMCUqrtY
-NA7iRtXNBaby2rkvdYReJuoFbbbtC5YKl74rLstpKa19rme8+ynFvk1K3m6CVWE77PtqbHvAPlYn
-3WWrgZJtY+GPWNtaJP9kIRZcTkNnVviW3Xk7mk4/xF6lb3tKAN6vySYGP5VeA1U5T52XwHPTaV24
-TQRxeQkHNgNT4+4rbIQfkezyDz7CEqiaUgNn7EJgJyiCjKlIs5gNjh0eW6m76lqKOAvWYDsCSH56
-yFggMXNyE7CABdJMBnZd3tgXZSFwYNaS32cn5/EFj6U+E+kI3KxSVWMhlL3t5GRpWXQ3WP4AXD7R
-lBnsTVvjKGdVsQkdlqXYo3/P5Pa8xSTpostJBezq9oZmeamt3CnWuZ8nAx+KYOEEj0bCxpwqH65z
-Tb4qS0riFp2sXQyihWTS07VeYrEDquciYX/UbRmWTCnyuXeAsVkTewgQVIfLnobn1YUH8pEofmYn
-Tc0PLJrno76fH7W/TASkbeve+NhS19DEuvPqNnxApMcB7/27E/gHBY1yPP4X2oDhP9gcroo/CWi/
-fonfugD/Fz8KYhzgDnU7tf6f5DNksygMaLO5ZoVNtPJXO07wi+cIN0A341JGQjs3CL+6cdxfYtKW
-Auip4M8A8fpXmgAMPBT5v3txUBbsAPgG/xmBTPXCs4T3Ry+OxmEpGtdl/0VlQN2rJIL87Wi8xHVH
-Uqv3J8A3eZg+W41vfXMT00Dyb8k+rt28iBgALdl1lJbthaOFlax1PjvXWVn5N0ZNDfBAyyGvoZvp
-aaKoCuAU5fWJUV556aettYefx/aLhkuGMFPsHvGaEvCJlnSXMiI6ttQbN5mNY3Xllcq6nWWUHpJh
-Hm502JDEsMkZ2pe4Maw31RfQ7/REde4NeApapPViNTUlQKAqLa4is/TrZmAE5zXBTw5SeOdOSXXp
-MkHad46Um46o2PMcV4N/aCmjr5fFCY52QK6rdhjWrELAN8t6Qtx86lMhIwAednP0HD0+z2Fl38D9
-oWyLtODGTWN7YqWTyto1NKfU2YjKT6ddxOxm63DusEepdOuHhj/7bCVVeEpCp0bsgLj0o1369GYG
-H3JZu6W1iapGbPlB/MNcx2wmF4NIEkCi9uxsEPeJ381OlWdbWWPo3RVzRN5urKqHbBqaB+GXB20g
-lwYpKorN/oeWTxZzlO1+hdmQ3NSpnbDVTWUeQ8ei8VkbheGdg6ff+rgkk3XGrPqh1mquSesWbAUp
-bewrgMVe3DK+lyZxcGHn5i1RIny2nIVMXjAsLNop62FvT315ijAQnfLSqB3p4R7lrlTHodfyOap1
-u2ntYfp0Fnz4q7Kbque0YFKoOOJBaxCIXflNklImMFF1DZhVmmcL0yQX1vNQnDGrg47L3Tmf2YB9
-DaxX2QuX1m2yj14ZdVBWg+YepwTr1izv3Nm5vv0dQq2+yipv2BZtq98qU5orzOzlYzaG5Ydrt86m
-sHRPrHNRnzTHOBpRstVJojxeqQWrxYR3hDnzoEOWbjHlfyMd1IPrYgWmIkUG7nQUEEdlJ72Lzgqa
-F/LF843JMoJwCqfBVdRb48UcGWyqcp4IFRRWLvn8CAQE9MlPsejFRx+myZOYp+I9gNRAqYNwkG5c
-v2jvqi5XpKkBefj5nAKRk+6DHhYttzlWhE/YnEDUJymvNEO4rw5nyI4Kx3vziVZQ9nMB347RMCxr
-q8/Abhe527OjogrFo+R5YRlIOHr3rTVDrhHU3VeKvyJhciQsUiyKmlUZBJPF5LMJTlJfZ+ukDGxW
-RZf9/DAsFa6hRTj7HKMyS2eZo/2w68p6TQYTPVm6MdlhcBMxMV30IYUJhtjkSUzMxskUYXfbo8m+
-5GnunhIvlzvtO82zHq0hXGVDKcl+utMacClbO2Wsm3UNPwd0sj3cqSBwoGqNDXHpXK8nlIFjH+vo
-dmRE+QQPTLqbuDbd1s/YUFiKOH82+KbuZ6fxnpIhC+6dpsl3WezRNg9Uk/eV1ZTFbhhTthyXvKMn
-U3WUO01s5h/znFRfIwwZkhphfJzhORx4+vNrUquadVuZ0CzFdGErABqGewKuPcXOiHrxLvneVwYm
-LitmSgF5hIS4euqi1HwvgqH6hBWSHlqqnL1x8nYf9inLT/CiX6VM7K4domu7diKxMjkRW8Xinq29
-U9LX78LxxStXynKhuTtey3HJH1qe2Nc6Dxz2l4QQ2KAJZmDBZBypF6kmFEU3dNprYbSzrV0p103V
-T/OKQx5gLCHs13My+f7f1cQ/VBPnuRhBLa78f1JXXL83w1f/n//rj0O937/IbyWFA92BIRQe2lBE
-LoLM78LiGdzFMCyGIO3zmz+7eH8tKdyz5OjEggdRuJFto0b+5u+1f4nYRcxEmA0UtGwhM71/pagI
-f65j/b2owOCLwRg3MQcVBQ7Twb8UFYUL1MepbJbKaeTplxyrjFiXWRvD2sWPZwolbzJvqm+jGvfL
-LuERZ1Oqh0t9VcpxujI/rXEAHLDJ1aliE0VYlbbZ6THkjywzLcp61rb8NhAfvlDSDsZdL88WvDMX
-K9o1UaOZZ/UGlII7ssDxbNrTTFhYw6ZHif5nYWxcT51hsXEyjIg4VoZIszI9dp1NGvkFomDl9yBI
-Nfdw0ifBI+wC4tJewXquvrLFrQln6yFUYlonMJy3Ic6uZ6Pm+XmsvfT7kvh4Rr2ufhRVn94RwnJf
-g0rHb1xF0Y01+KSv7NqJSUjn2Rp8Vny0C9eieeUMqRVplsUvrV3R6ObScupy5rLJs+sBH81FSwD5
-pVrs7H5spc0aUwYaT3akgcqH9by1qkGQ9vfUbdCb0QPakAUeGlESQ+nJxdabAnlq5t6+9P8Pe2eW
-YzlyJt2t9AZY4Dy83vnGPA/5QkREZnIenHQ6Sd/Rv45/Y308WmpVoyWg612AIKRQqsiIG6QP9pkd
-6wcMYbKEc+hkhfuqiQfczhhyTmGcNXcYAImwRd101KrsHkonk7cjHtU3HkvnqkxWqoELN/ka8E5/
-Nu7gvKzRxLEqd2gcEy0fIVCwh8yFLg7hhEiD5xgnpBbWuWC4eNBtt74Mve39sJoYuWYyoPwNcXOd
-gNkazGjJr6KHPFjhfM9j/aBT6T1PLR/q3Cwao3dZHWYrtK7nRfYGBNvgNI36h2LxxkceKq5iIEyv
-vLBT7JWWmfWNILsGf72JSoF5xcLx+SNOsuV3WWj/3Kw1o8FCqU/f6d1XiGThvvOT7EHGo/iKo5wI
-W5qy+2a1Hd4NPWGfhYk8K2WTvEbuol9b10qOYErWW+Z9kkLGSDwXjZEGVuI5Adz6e4mzA5T4PF06
-HI6v66HsIVkEXnqePByvG3bpiF+sTs8OjqKMqa/XnDF5Qpjyg7R+dKM0v5vXXl/Po40NM3csWVFD
-NUa7TEB53TZSFxeu5XSroVAvlLk6tttwpyf2vu2WYSk2cRqu5xCc1TVWuwhKZ2Xd4QTyjzKxmh8k
-VRKizytcPU7+p04CDtdiLtme6uarqsf+hMGpvLVbGRxBclHu51vNjTtH+sPhMHX2psY6RTE9TN8q
-p62Eei05C77BV6ru2yRU53F06jv2S/2QiLG+1AsJUSW7ettGPoYl1ZJkq4LBvgEnvgIrkpjXFMPR
-njXu1u6q4oEFzWUW7BBHgrfKD9lYG+UF6xZfGT/XogfIJLNzB2UgOnuW9n5NGNAugtwlgNal+Wls
-AI87tR72vcrSx7KPpWFfUYKkiOxXUbV8MBNxzYhAnTO7b1/rLMb3JxqXwrt6xvm22NDX3TTLzmUr
-fPw/WH8elRdXeyQIcZbkzt86OXEQSqvhwo5FclEWrbuPAdWepx702NAWFITVOVVv/Bj37eToT9yF
-+Q9GjA3OVT6cde8PyCM7nTagcdMYzqA9+8Nnk3SZPvIjMi0UqqaikHf1RA5cXo16cVlca+K0YuBJ
-/Z7hQOgfPpLvyU5ZYIhE4DQTn4yeCnuXfysGUGXzy/hbR7CqqbfQFpEXesKwlPEiOZSpqq5cpMwv
-VuUO1qyQn7rtm3e8wBPqptPF27SdNfKmTWI9WxZLbUFTUFyW5cMz5gALWeVbAkG0Qg5RUFRD7Heo
-JByFpptgbAax6yS+qE39LanU3Kybba18vl6eLAsQAzhaIFrJK8WtT8LVNdpM9C3TpN04n7XRbsw0
-+QAGF0FndtySY66ReYIymMSZVb/hRC8JBW/swVKvAZzobsezCU4jCDwMrY4YgEn2qVjeQZKgMU22
-V5H1M9JT21dJCmitUHdJLMB8ZCwoL4yc1ycYdm1/cFo7ANNQTRgfqnFGvsuXkZhuAXSiQqdcT9Za
-UCOY9wtgExkF2K1rpS25acZEPkxcGs59k1iPrZ2t8MdI7FyJvBk/Klv1lLVFzcgag+wKaCEaf8aK
-u/PGGrCsbYEkpjssJcy4rNwJ7tysp+WCvBACOjtyA7Sumj2gY3ZX3EpMZ5c4cPi3MZkO49kJk6rj
-74vFTaT9+IUbEhZlp9UMvrXLKnps5n6aaAewmk9Xdv5LNAg+SmY6xJYDhUFiP6XNKJEfnYL7EeBp
-exuiGA+7oMWzuvdn17O3NCJYj1Ua886LyMKqupL23ThFZR1Rmjma9jrB+JczsboPWth3fPaIiekK
-lh6KGpXjUcrAfglQbzXf+G+EMevSDzlnoH8V81MXu9W6z8gw7nyn8956Wsa2E17Il2FcmkOMFXDG
-QalyyNoilMd2HIqXuJIZJSPT9GonIKFE22XnqVXe1SIGf8d11nu0go4NAsDEtgTfcqx4/rczazE5
-dlwbJ0eugs079G/A+nKdtwuxXFRV2v9sSC1yArKT9RgTpz8lpd9BbNLDj4y5ypVu1nNf/lxbLl7A
-ps+NbOdHbAHuL2L8iMYYjyI4wm3w3ulI3WW22zIbcVPq3fvChr1hs1m6BA8IeEfUAmyEnqjvxB1K
-ds9F1nxMV6XrHcc/+y2aBO5nrnovoFbWk4BL+lLHofURz0tFhahDkAnTufPOHCC6sR0Z/bQSYy2e
-SAVmkVR3fRSM1+7ahDsdZRUyewBlPcya+VD6OQmlZQ3hfvIMBNdx5+m7Ig/S3VLiV+dXT6xXOX5w
-AGZJUJUxHdRxMmLYeamn2fKGh3so5JAjq9i78ayZJ8sGa47Zvy7H7AJfC9GQMWPeus3lHH+V1dTs
-3SpY+42beOI68cfmhdKD1fzkw4Tvp5TtcEhKAabGjrRpMJ8ygQgriSyJJYFdVNRMnDKOZyirfCuS
-ieKNhgr5Uo1hf4H/WzwurT/eRF6grqT0gXMwWyeDT6gRLUMth25uWAk4s+V7nw08YlgxBFSQ+DEx
-MzU2jXMVFYSSaXbYE6dYTnHJyBdhH7MVBRCnJSurL2pNnBvFKJzkTTCVb5Vq1SFKCv0acc64JJ0p
-2u1iiYoiXJEDB3JU7N9XTcP4surm6atqx+VyGR3rrYpkfd+2g/IOLq7hk+VW6U1EHn1PDiy86UvR
-YUQK3X1PTv0MeNb6EdRl/dH6RQX3JB8QNuCfyS+2xSXa9NHg+bRKKkmjuY5gJpDKBxOY+AYr47ir
-vnXbkkpx32rHK1/Y+udoshu57Lzn3OQ5vHLtiXaYlEf+HfgIVh0/1mk4P5m2smDDeK+m6NTR027+
-joxYBbFrHOgBVfYmU8I+S7yEFhyiJqM7ZRxjrJD5jkwFuzCY7IjpPZPiffqdV2m6Kr/1S8xd7Dht
-cC47Nd7zc5T3jMTpIOHcFT4nULLoRsQzm+OFN5kYJ8DAw7iI7d0Vfn0fm1j0gD+cWZgJ1UxWgoZj
-T+5ARtsEbrLv7E35ncP59x35X92RucP+H+/IP3/9x90kp+Zj7f7JNZmv8/drsvdHTMgUK97fVHRu
-oX8PwkZ/cCz/pzUXzh9QEWEqYk5lFOniKv3zPZkzJcBs7tCIvObi/ZeCsL79Px043JNtXujYdSkz
-49LNnOB/iu8Todtlxtm9WwpN/GckfJSeubPxkonvF676fvlq8x6GYRhkBN/M65m4dvUBNjT9Iczb
-25n3WJg3ujLvtrUUvOV1mNyAU5hPOYfLYK8CP75yrBpgdW0WibHOp6/6e+Xg9ODfk57ENSgBOpW7
-WExDu43NkhObxWeM6Hwvmrx8KzvTl4B67Ny0luffrJMTvI8N6Gcd6+ZQmYUNGKuJn5sVrylRJDcA
-b1kJZzdnVdRmgZwbn7VSmWWzMAuo40ckrNAHkE3NApusBRWrDpzl2iy/6H72y2SWZDMx2VrA7C7C
-VdYHSSrmNiuARW+ShFzVLpwAEm7S75Vefq/6Yz+wEwUVXIk2ymprN7UOTJdx0MjZZuMAcRF/ye/d
-ZPFXIo8VoYQjm6OJhBJ7MOfjOSMuylQFWLAVs9rpxr+xv7eoYQiR871AbP3vPQxKLJjJdZ4uNLSH
-Q1qmuAlJSa0hK0Zh380CBkKQAOBiYGh2yshsmtyt1nxrm63UdoP5sFDZdpmbjTY1Wy6ezO5TBcjk
-pdmQi1WBx00ii4IOGnnojNM+kLLVWbc9iu5rGXcAJoWbvY1LPeldJP3oUVsjx6p6mno4X0U6RhuM
-Cpxzu6Qt+42IND8oDPR0R+ZmohGD0/u5yAr/KbMa6xqGmfsLbJX7a01aoH5trc8yaS9db00vlkDK
-z9ScZ+ImIfxEpMs7FmMebUpz8oGAt+DaMMcheJuko80ZaVq4Q2aOEiSQ6HTYIaHWr3QVcDMjYXpD
-rnT4vcy+xX1nEfWpC6NyJwOsOvEgeENCBfZZ2+VBFYBHB6HmrzD222clquyotDcjA1jLw8qh+by6
-w/Rr9YPpjdq9mfYK6NayLvSLa6ZQKxHJ42iV833QJMluAef74Nt1gNNlXeCNZYV32zIu4JinuybZ
-Qiyej+UU5e/0bLjtHqepTRk2I6lNbyV4H8JxyWh2ju1niQn7GRVfQJZHRX2AuTeSL/QTGtPz5WcU
-zulrJJT9u+u6dYDhkC+KxPkYEPfsimQ7cJW+l54gcU7glttwzLNlUSD37BgQzLqWBd3OfNvOwfeK
-4UIO3gLzNxkvW2cZoSuzvDns4Zl/V1CSgl1ZAlce65AKcA5S/R0pSLUePTxzbyOD/odxau2HJptI
-tWJLoWYwyabiZx/17mUBbhiPtfC50ozDmt+U/TwnHH1nch69Tt3jHEN6+bJid/xcpYtDpOEkj5ov
-KViLrINkqPlaDbREDdwMHqJYZjd9C/TIAkaP0LRWDzbofm4cdIavM2zmeoyWW0d6/YXwO2LAVpWw
-ZOBKHGylXgqaNVY+jcq5cAN7vJt5oK4z5Wf7CVT/kw2v4kepLW6Ypb0QVOdKruAYrYh1ddkdpC8I
-qhUxYMaGHBTseA5hYket3rRrx6ak5qPgsWvAKycesR2y7oiQsTO5n72fVxcSotYj6bvuyteeR6ir
-998MgI4bWZx2D6OLhYS82YKBRnHB4TNSM4SZmLo9OIgNgal6zXc0FCT7krDYmTlocc572/auFJzL
-BAqPdj8WO29OujXX5DbzTqLy48/GTvDglG7/aZPYf86CoMYm0HkwDcv1MIsuvh+yvLntF60eWjf1
-dzHj0B9dXoVqI9wq97aLVP7R6X1YdtrPT6W0ijO8bLIBocN1l7sIab4uPnhxOmDhmpfHLE9ADiLc
-RTdIoQ4dRPV6R+FJABNI2eMDJmb7oe2s6MINZXnlUjXzLDNyqRLn2dM0riM3zIFQfjyu0eVKOg/a
-SQmeaNNXcf+phBtfaeV4bzSKBc884pQbgcTCAr66zUM/B+WBFxo8eTjGdzbqKxfYKWspJNbeerlE
-NlYcmMc1p9LKZlWTc9J/grjUT0jRoORrpdovGE5hvKEZoIVp70/qEpJS8B7lWUQSrXf6ZTvg2Z0v
-0lVo8k85fqWNbNPoqWwhi/YEW99RL4AKVXZNHt4e1p5mH19Sh5Q5kO7dcYBJZAnMasdMDqa82g30
-c6LnkHCDl8mvnqPlA4yG8FqEiphqVOf5Sxg21bMjSU/OkYvLFPtaw/2NX/GxEyuNlTqnMcfkzGgn
-UPdL4JQXTaTwozGQK7HCIXvuHK75D9LyvYt/n0D/1Qn0L3C7P6b+//+/f4Zh+RO3O4GoEoQe0w/C
-5JwUOdv9/fTp/mHj7I5CElD4rZgf/2lIw4nQ/McD3IIfw/1HbMpy/nBd8++QqeIImvCw/pUhTWTY
-hH9yfpghDQ5yhy/3/WXjgIHQn50fId2GvprGaEsYU73zWCHBxGR0JJo2gBPy7ew8kv7X3xNQU5B9
-MNGu4qV1YKFK9YYbFytljap24wqKKCxlgCpcyNpnj/ZRwvGJopHNLdiR83l8cLpAvcwsCISqo36H
-SBKTDcElF+b8X0bEvh3IFrq+MnXr9OK31ursRer3QIJyl7kuAerVd68csIlnrL8l/7UWl0s7qm0b
-LACme5+LO0OZzTIwBMnhaTCvLfut1zDZziQHwwGbwzEdWkj6k/ROPbVteCA1ClXPm2MNEZNkNSM2
-Li1vV88kalc4anpn7aRYJhu9bctfzAW8OARedRhNOqu2Lz1ly9McOuRz6snalE5o3RdgdZmlOtRG
-d57YY5ujPLLp/IPXYaAhScZsg7V7n5dususwcW39RiDdq8XbOCFjl9qlDDQO2fTGkF4UdIP22FsW
-0frOiXYYa+ftzKCHZgBX7PJw9m6ybKhN5S7F1U017WVAzMmRs38tpzY/oYR0p5keuzvEO+t3XYQ2
-M+bRe7cNn8uivOF3WPvLHhdly2I3u3uLKMJVvbqCmVcxTFyi6RuNMfBc8utNDm3OHaFZAWYtTu2e
-tGP3wQbYgv8rIPazxx4BWgYsNnQ9m6wuVLTQ5yPrCiiPdvaWYCLeUQKcXbd5mUH4qG2xvNjwG9O3
-NYtTcZuWzuJ+kLWXZ0V98HUi6UlJBlc+zRrBBDPodB5AGjIJnJZd5arvf5C9LJVHuNv3p2jLJwxo
-YIyC3tkR0G1+TVgbLB6VhS4+hoT9mWY19zwOc/tizqFvCZsYQTQVHUAtEvtuqujJwhgybVyKJfZR
-bqXvLSDZy0CkfOcpbaWVtOIr2siaXyFwykcKk527RMrhLYQSxs7tlOOh8nrnKrX89A6ZXe9pkwue
-YdLmPxAWhTx0Mvvd2RaahBXOxQHzQH8QjeTqNFkRZDKnsY8iSOU5KMvpZs4ryK707qb3Jf6LW5gX
-6qeX9aTF8VxAf/cQCg84LoOeQosivEexnZ+9YuwPXcre07alfFBLYBTXQHG9ynV079Zd+OBYBSgV
-cIr7kDgdJBSXUcxKuc4DryhvK/MqrEKdXYGt4CAsDp6JETrJZFNi2q4UI9szg1CVzLuMpejR9m2M
-8ToUA6YUGvQSM1ytKojlO1XO1dXIyfBjlnn6Oa1DTn4J2+SGLkM0+3TmzLFF57R+LDoaD0stgwdv
-qqBWQEp6zn0qiwxvpL5xOBRclQyjMdLUWQcEsdDrtiq69EUAzMa9zm8SpzlmXPQhr/AhoTn5+iO3
-MeOAnK5m/KnjWKhNkNnFQTeUtG5g50AfGoa2/fIgLf9G46323PBil1R/I29GYo0ncoSASJeJRhJU
-zvAiEwEs88an+INnzuWtDek1NjXDfjZwtfZrwu6JZVBF3bQVc9Nu+6B9L6gd3nLIbjhZ28NOZRXS
-djemj3Ffuped0uLAyb04itYWByqOg2On+5e8KK13TWHBBhNRti0oXSUV0hyF2/e7pA/MTdcG5F4Z
-COIKkZ5S261rzcS/IYHvWl2nh5aTyT7MlHUIsgAHEtoHH0VOvxNixc5zu/QYpX5La2KvTzzcBPA5
-P3KlmPWhajmBDE0+bnUe9Oe2wjtfECM9rPyVG0YayZFbzHgMQTOcrZyZR2gX7TEF2PGjr3I6gObc
-ehhq4hxubGrvp7g5AQajCaZOgkPTB+MpC1X9jvk/xWG2pDuo27BXU5ziUaPcI4OicF9MEUy+hNKe
-PpiTsyMWFiUMNFtSWepg1a7a09qU4qVu7aMXNo6Z7xTnsuaN6/kJqHPssQF59RlMZHwo4rA7wobu
-9naQ6MtB4goO87697iPZ49oFYWMrHexsb/U+UGi5HnDLO5SVADgw+sCvcqUzcpHc9jezR8AekgIU
-h8wfX+ayYVTOLGo3l7ICQCb83RTV6QZOP7K9m3Z79hhrR03TdDULGZ0YcITHqqkuK2M8zAN80WoQ
-BBjr+qV3O2uXFWrdTHW6sodP4QtqFkb2sO+GU5RD7dyAELJ5VyewthtLp9a17dUgj6CED8esX33D
-SwDc6HiMv7YLoKJnNWqayapyBoFdj0NzEVKy+aLKvriAls40GvRqedE11IoexnEkONuusnjNZ7c6
-Z8wBJ2Y6Pl8qb28SOG83RYdMKtLxl6Do7DBQn46TM4ChP2vG5h4N9tBzGsaugUenEp3NWMmTC9WQ
-x4QMnJ2qic6B1s3gsYR9+o42kR2UhXW/L/15Pw+QyxaiuNeeLzVGQ1nAwC3agwbfegCqA1yIadRt
-OYX5E6Or9hqiVPg5UZWwDej+uCIARzLGRxXejak73osx8C7FGjVHd5HBnvRevS1hcW+HSFFh1jjx
-m5RK3guZ4GTQc6WJhWgrtwkrZflRsH77SPdNeGXD23z3PDEeMuHDB+qGCacIIp5HS0lQzskzLIb+
-rIx7gVRrBUSy1g9+ai938Mgwm9ZpcEM1eP2QGfsDFsvogacowwlrxwDZueZOfEbfvgnX0vpZ8Hjs
-o7hvb4dkTa+CGGgIySJsF7OT15eTsWJUafa18oEcFuPTSOfUfhHGu4HPI/0ChaefEberV45h7m3H
-4/Cw6NK/pKi+f+J/Oqd29ubncknDO8ZDPFPl1A8wetb2bI+D2KdLIE4V++XeM2aT4b98J98eFCsq
-QNDgCNiNXRoRKcZ/2BnbCkNu/ypKLaqbIEeuF2iRU7opF3QmEiSYXxZjg6mTwvuicKHYe2rI92tV
-WaciCbDctV25HaFpHwfbTDotG3cNQL4OCHTdAZVbeLh0EFwJglZvdmVZr/QYD+RHBNliq2im+8AY
-d/JvCw/d1dvV2HrK2vMe47DkSOZ3MdJI7axP9TdLjOJ2UgXwxaxRVI9JV+m3gpvwkQwbm+c3kgx4
-THpjIbq4m8SviVNmS1Y/BQlcs4Vg8EF7PR4iQz6jYLN/Tp21/UGBA2+cIaQFfjFe+4aa5iVt/kQE
-q3oKE289a0NX6wlbYt0zzDXf0NdIecXXnHM42FpLejUtUNrQJbig5obd5n9j3HxZqv0yBDRM4RvL
-d7Yhvil/oAfnGwPHWaA6OL3Mz22yDmDiDDHOGmHHxYGfv9B4QtGoIcuJb8hcy15PXCQBPUdtcQ+G
-7htJN9dwqFNqe19Ys/N9ksGuo00Hrw1/nPYF/Px+P4XR+NvFs3sSikvwYTI0PNtw8XzqX36URV48
-plQQnIa69p88g9IrCH9ShGUAe6I0pyTVpOK8oj9QuDiu/U9Fm9ZXN8fiuhoU6xl8u+Wd43vfbQre
-23ADqAqiFA0S8YPWIPSmbwwgS+iRgTdWi9IS1OcV/IDGiokxy7AEV11PeALgCyZLHh3pDBS0xyx1
-cDl6EWAt+Y0lpCw12A8jr/8Grb75GAzBUDlWdU2mNL0OS8UhvaprJtedM1Sn3GxnZCLnk0g7eW7s
-ii89mgJbRzPF03xDW1s68rX8ZilWBqtYuANScGWjQOOgch4dqtmsneXY1lWYgWVMp6p4cRyreYXB
-AlpZ2lnzERnKIqLIiNtNyfRQ+SV1L6Bn1mvuNNVNUQwBhvAy5wTBAOFLfrMikQ9B16whgF4yJJCM
-KpVSopTOtMqMBjlpURv/EPesm6hJufdpGZbZvpJxsxPgkk4tqXu1J0XnMGZdrfApNHRL8Q26rEbH
-/2gN/XKe4WDStg0SM7GplKB5074CEE8iEhEj25P8RQatZ/X2bz3jX+gZ3l+aqD1+tPKj/flr+N8j
-NfOF/j5ScwmzhCTJmVV9j7/+JGr4fwQuI6iIlngDdYlRLv7mPI3/cExW1QapAiPGY/D23yO1wDhP
-+XKM2jihe3hF/4qm4blGs/iH8TTA+QrcFgAU4ZiAvc2ILn/WNKbS8qgRbPQuiKMaz1Zrnu4qzDgk
-1NN1pyy98Xq6IE9OpeL7GdbypbbQETa2mJqn2M85iXUFHS8zUea9sZvWG+EBqtzmlIygQrtR8GYN
-bniVl6i4dt/wF3AVs/M990dSr4UdcYb2hWPvKT+sr2G51bjqUkXjahvAcp5kM5+yuK0/kJnxchIZ
-rJ6xUhgjX1FkL6zk7Vdp2dNPrGzx9dpZGUJlkO8ZyWOOdANJdUs8dcCmBjDZL/RktXsvdySc0XU2
-CRKMjBtogXnE1jVRkeL5U3yNGTd8iCdVP+tobX+7Ygy537FWf+RROV647crelFtip1UnNfanaCDt
-16y3IhT6cRBzcLL5uGB/tusRQE2BbzYMBd8Q/q1fXirDX3XsCXPHw5/OQL0Dk62LSRJ4xPKzDWaq
-fSImJDtqoqY7bVnOBQX10a/GB2KFUatl/gPORUKqYtuFICUEp2yt7jP42NFmFY7DJDGV5TvYvAqJ
-NzJ16HmsHqNy4kAzhs7PeZjkl5yC7rqdYZA4Nf8AdriQGx1I3HjK7p5pHh92clbd9Yq/LdkFLmgc
-cO1LfjsmizwwlLQ/xKiGEQmhQPKpFzrWcdLF97Jd4ucWE+wbdklxmANH/HB8Gd/H/CrHrZ1aFFtY
-fbR8Ak6oLmB62mpb5DgjkyZvP3yAzRGCmlp+hK0V3ocBKMFgipLPkf3t0+qs/lwRwD0VnRTXTtGs
-R8ddqlvcWD6wUMINtVdOFw5FRGghWX2H80kTR3Ta6GdXK7yLArXI40c9U1UFp21JDwXayAlYQ3GZ
-ARw/dcMY/+I+j4TjKwtAedGb4YG+1nYWvNFWVpoD93QEoJDeehhF+IZK+dtuE0w+ZW/d+xVjFpES
-ZM9s+MuR6sRrQAs9F1h2Cn+HzJ2cqACaUfahep38weNCM8aYDZvGs/LtGDkMyWqvNzpZ1xJ7SLqQ
-o18Oj2w3su/f+3050ZAxh/NP8rp0HBWYNksIT58cLFPqefyxv3C0CVf3iwe2rqE0/XouavE166Qi
-t7s4WAXdaqITdBqaFFRBXwn0yDAqum0d6ZoITujyWXEkB3GohtB6i/PAv7Lz1Jm37QROTrBiyU06
-dWt5xkuU3KHb9T+cIJ2vU1mk9+7aqTfO1FmzmdjD3S0+7JRKjGiNeXl4xzcq60i4VpP/qmzDCyaa
-3L9NXAk5DhJuxkuYuJVmjpEKJhiKGXY5pCgUON1rvQGzoG8WqI7rRttWfocZNHsqHLtmrDSUtLlF
-kJ5/F15XCcb1lv7lgS+4YkdtnY3t+MN9NI71E4ZQ76WPuobW3qaNbn2uFs86nNLnLhgIBQ9hHmx7
-7EcvbZQv4qKuavU6DlJ0O5c8z0erZPuKg6Z5B58QtUStPfjydpgvdyOD4Xnv0RRnnWuFHfUioATA
-xAajAG7xtBRq51pFSSA9aVeYCBkthZvALuZXmWggCRU3xcd4SjHi8TsCQxRNmrBRQL1SvJGE3S+d
-KpH4ASP7UNr5yo1t8hvjc7KK300ZoONNVhm/InSvB5+5MDRuJxqDjdsOtGC1Mc1q/IZt/sxQqdNA
-qXJ8U/mUW0957FvPxeSUFlz9xLv0unZ65mvSA4tLCPXGz6EIUSEsP7NW6zv87t4hANZMb0ed2yH8
-Di5QuKRs9yTqJuGGX7QsJiEg6ftiroZwR0aaEN9SF79pWPztlyQEEqcit2fVlJGg/e19bGUWxO3F
-+swBNxlZYFrgpa7FmzvxJf998vkXJx+TYf0/eomO04cqPoZf//vUY77I3049YfIHkDswdxxPfDeg
-tukfoxzvjxDnDkV5Idqf7f2pyom8jevHHoAdBjzgfP5x6LH/gAuSYDHiS3GS8qkn/Sunnsg2p5o/
-n3pinBkgGPgOSRHHvs086c+nHoVOE491nWHibsVDI0aqZehZ9Xwyj7zd1x46JU33xOmQtbzxXcwz
-naMW6sumABV35XcJZZpdXacY9msgDxssjfIej3ryRgkNrY11kGwZXtY01+tgv0R1d+w6Z70ajGiS
-zdm4m7+VlL7gG8B44P30bfbgTQC/9LKfiuYF4yV4gqZvD7FRaXyj16xGualEG5wKuwr2kJtr039B
-5UTqpe8z1RYXGMq9TQDf6xhXaEJ91s34YdCJQqMYdUY7yo2KhIUw3PhGWQLoxSLKPXyvkvEX3R0j
-9NhpvAF/w7+F5eGh57b2alHvjSElrc6dEbBIy8zpZmaYKw8gZMsLB2hoxjkG4SseOv9pzv0YK28r
-CiRSo5Eldbk+c5tGObOrGc0WlyNd1d/a2lCwLO7XbMEHYTVYvLC1Wqw9Qw5yJPeD6tXNgAL5JEjo
-ecF9HzpwNMekbU/2yvGtF0BZLKLQfMjRqTGCIJ4Oa5cgK3LYo8zOMy6OYdVyV6oZ0L6LrNiR3PnK
-ylrSWIjomLkqPypyARgdjCips37G7mykSiIE+SFC2UZBc/XnOinnPjAy52gEz04O7gUYwmVfQy0/
-IDDUR7Rh1OtvsdTIpjzgHPKqOMV+5YgTtjG1j+pY7UMju3J9HgDv2iN7qbNcECmn+lt1wZZcFygp
-xuvH2ci4LnFz0OVIu2GVxVhqbe/NFALQuDm0R0AY0Pp0p04RKacfdMKv+IbAnAxw5fbBTOgW8404
-ltGynsYwLmgWd0o6Efr46C84iyKt9QHokNq03I3PdgW3GnuCtSl4o/mxVLOFdl0xRAKxHhqhe6jn
-lD27hBBtZHCPd45vHIm2L3V04Dmv99Ek+VRp/Nw5RkyPHGAzuRHYl7V1tiTnD101lHvEknbndE1/
-zFHmc/b3Lb9jQURjsd4RIjEWVyEmfiR9kiTiHLgTvezMU65aI/1HvGJE0rp6h9OPj1vMWOo5E8B3
-MlMD6ND4UpiUcmRiqoAdY5abkIQq3ty4g72zdgd3IlO7ZAy1tK/gZ4fU7OLLwC+Lv1UdRiSu68hT
-xYVnhcuhx7r/sObtsuOo2x+17PEgRBmIl4mS2SwJxKfuemqoEP8w3rfdKS7K5cDTFF2PKnAvPIzN
-5yyuErjjIneO8+iiSidVdgpLV/4Mey/Z4+apTpPllIemnUaQskV+sworuyuGuD2vTdCjucUzv8cx
-POVuM18yXF/3zlz3dwEjqH0vuuBEQonGtnIIj4sbaobLsknwu6fQo3o35I/Enl8dYi6/0KNw5NiD
-5KDix9mPplnWJ+i99RMGrvpxcBNxkeVp3m5I9NZEtPgdxDyYR7eUkETdNXhlBDHf6N6PCaRJcvE1
-EwRie90P9nHsd3KE/GHHHHvC3DkMqup/LKPuHke/cY8s17htkAGnr2jptTzncUkQPrGHtyWvKVLy
-x/TL8iQOFz7WfWNPy6tHmcax6zF5claavJ3kcLntWZ+frDb1H9x2au+KJSYX383YICOO7Fc4/zjk
-4PTmllr0MJZPC919l1IF2c8cALJ5kKv2nBL5uFZeQOUa9QUXQEbWXdUs5bkzddx0Qv8neWey3DiT
-ZtlXqRdAGgbHtOkFCc6kKGpWbGBShAIz4JgdePo6UFT9lZldXVZlvWrrTZrlb6EIiiR8uN+957qc
-i2aWv++2bmOuFSd3SUUQJPbrMDXEqYWGDFRnuXYJsQx+zXFaMTuf4YiDJqODsmx9l6khqBuE1RIh
-PXGfncWXCD7pWSYs/+jgIGkyvLkki5Pwns4D+xjWSwVmpHg7xnkAXQa59L0OmV/OTVG/WRZ4L+V2
-2HQoxt5XQGfu4M/Rjdz0LLA9cK1spfC2rsPJF/vGGCnTtewCpXBqG6zh9jerynXj7hfYKW09lHW8
-JLjposqWsT2RcveXxLp2Jxb8la0DwqLkDSYWh1lrP3+TssYFmtWWSNRaNuh32CKxTPJa2Gq/QVtG
-Gu9GXikcMQCtKCXGI/hWMkPtPA4U45lzhKM+z7NNNBCnab4ZXuiu0QMgkPTofjO+altzeT6FeYtU
-16xtrSBaokGAwOdTONkjGU8aARkIVwSqWlaCUk9eGmwkG46M4zWKF9pYVdv9ZvpmkFEyDH+D2Wm4
-afXW5wb9TSxjbjPdQ7JMbtY30ExXAwYqAeaMwY5zpf4Nshz3lR2TvpGIHGC0wh9VRMucI9/HKnVe
-rG9+2ryg1CCZip86GRAKwqLaeEiNdtxXOGERDgcBAc6onVNbhGI/EUHbCwScx1BkesoVcBaPPpvl
-IV5QT3qXQVyK2uEcMzrsV4PiW8Lvzq0tlVDg+YcVQSSU9t/l4Pg79MH8mC8sOebc0Q1sdfaeL6Q5
-pTGGqXlADhw28ucG1sYNobpmmMilsBFpfdf3lXnnswE/hnGTnuhJdlduB6ZKTWzsq1zTHOqE0qmi
-vKAXe9rPkk/Ln4H5l2md7DSYroeOb8ovUWb2h61rVJF0cE7WLuPnAxxxufFjExY2tgUnx7tCix3D
-CU4FfeFRsWaVe5Ulxrm0x+oRw4+6IxVXPpVWU58Xdix3l3yMb62uilMh0/Gcwu1wNm1VVO9qTJr9
-6IbJLmPCx6Axx3xJh6GnHoACipWZivkei5h9lS40kEUUIz7sac6rcMcxYH/DximziqAxhKxtWXX+
-ytUAgBQzJhErq7Gh+Qv3MHYgILZaZ13iCHbGNFDOuRq/YYnuwk2UxEOvow4AxQJojIAk0090C3Eq
-9aYl2zM5r3z5mYstREa7UMZ1AvF4DNu+O7ll1lz9heEIe7r4mheuI40T4NHmBfaIn3rcYD5JgnqM
-00dyRtErGEMoWa2w4DPk5Dy/8ZEhhaVToGAlb2eYOg+4dSnngZHur0l9uHDYe+O5AfP3kRcjhWwx
-pSoaQ5STwllnPk8m9nJvIyuGSeF3itJZApU0oJCtLEcxUpKptRwpoc6+hlSaDZuEdHayaWfRJ2uo
-uPEP/oX5EwDmfFP0bj8pOgLWHp6pwOUIfUiWwOf8Hf1cQqDlEgflAqje5BIRTQnmsK8RG+XoTKTJ
-WMKk83eutFgipjIcrQ+DtX8FQdpcN/Mw3VdGlWzgjVXA3kbzmi5J1WLJrIolvapxsFvXZm+9D3k2
-BuSMmJ8teVexJF+7JQM7c9z8SpdcbJN4xv28ZGX9Ps0u/ZKfzU2MX2oWiig06douTK2NHg4JBMnI
-v45LCrcaxuRuMsdpm9pkdO0uJK4La1Cnt4p9YigMKryXXK+/JHy7JevLoXo8VN/53zoEvrlkgpuF
-gYjTBjjhkhg2l+ywsaSIVVyXYIRIFuuzbkO/IG3MhgcnzDOjj2nJIpcdqeTWiJN9HWMXVktmmbqW
-4gdRYoGpTHMu5pAWR3tJObtL3pl4F9FnBLslBv0diWZYQTwaWwte4nxJTVdhGUe4vJYstbHEqgk5
-MeiFXFdejSV3TQ5NPXkFAUZGX+Sy7Qpzx6pf0tqt3uDB/I5wY+sODxwDCXbrcD3OhSn9o8DPRNt3
-Vd3ncvT2Tpbl4Neo+ciWpDjLhLo2Khp3dtt1b9pMopw6EHYDvjrreMmbM7rqHxx2VqKMett/lksy
-3e7Jy0EsM189rS9/jVkpj3pXyi/M/P4PHNyORb2tTyKgn6OdsYTgK6S6k6NG50LqxIJtxWV6adD7
-D1B6+w1s/1nJqaFNqPun//u/rvKrfOyar6/u8iG/f/SvP/qPP/j/Ki/Yh+ZrLwD4/6bM8Kv/lzsO
-Nl//QnbpP520/PUX/segRReujfiks/b/4X/9u3sUycFiiQXatZRA80r+GrT4fzNh9Fu6qYPCN0Bc
-IgT8G+PDgRoGGcR3USowl7oUBv4PoPuAQ/5JcsA5ynqDhoGBFcul+CfsfokH3/MdOQX+xMWeQCVy
-fR3bHYU2nC38najp3VRIq0+Uvw6wlppwm8quwvGWF5uK4/AZPHx0R6szsoUsTeCMcceTRCHpmTVD
-rr2OsrEVfMKGqo4pJO3HEZVy3SjL9Oc4q6hP0y2OszRJzNQezV1xBqInT16FYWJlclCvV7bhCJo5
-UWdeyAM3cp0SKZnWWAPG11pk3lF09fA8uAbC8Eyewlp1sg/ZDAdXWmsJ49WnpcaDMd5wQ6mgGebZ
-M5OxcFqOY8ZOidH/oMgOk6mIrU3WTg76tWxfClXJR4K7bWDSbbiNcmm+CdvPA1+B6p00ClfWnHAo
-UukFRlKb5WLWFGY5Y1DL6N5wOHx33ESyKTfe9E5wISdCjKU81eCOZUps5oq3Z/SWaiktsiXx8tLa
-ST113oZSi690o/6uyo4Grz53T7pbmS8sljJAq+UWSnp5a9e6JBvb2Nu4NM2DiSjk7XDdU9G0Giqf
-e2Iy0Ow1M+SRuugCaVdizykhhTzuY6Gt9fGljaww/cyV0Teg031Vv+A7HLYqVt7Ghj20sT0cYgZR
-75UCEbDWk1wdQqPJd10ridt4wA84iKnjXDrRKTKUwagolfZrmA8sc3gP5QnPvROk9EIbQe4Z+pPn
-ZfW7JfPpzkGOhxdSy4Ec9IA8VOsFZjmD+7vQsmhrA2AKfBs66OCl7t1oVO26H9zx5g+2+8BnMOz1
-2XfeNCm19ywGQ7VcFgl4A69WK71wURMyu37wOUSWbL1LDMgWVMOvgGu69xgmvCDKcmtnOzX1WFhn
-3T0evPGlptxEYxRmhdcxHNRdL1v5UhNgooCmcN3DaIzVc95VttigVXuPGdrULvLwr/RT1lOnVcfd
-i0PU+j3EtrM1LCMrID/Uw1vVGvTJAoBzONDVQ4nXwaGc16J6N5+9/sUyZueW0rDyHOZJ9UoTbA2h
-HuV71RvheKxp+kC/MuJ9DUvzkbpL8dn0rT2urLgNn905qU7kuF2qjYHyvuX4biX1gsrZd77sz+jm
-OE+JQ50T+AsvqnGKwIV2jeuRScTFabRsa2EhDybUn9dEesXJTez4Z4aL/CvLWu2V+1OzjVq/PegU
-Ojy6MXXxBkA7+iuH6aEbY3nUbAXOYwrNiiowhVui5Ii9HaqRRLJnw6Dl+dXCX1x0q26nsUiRBi6R
-AEurxUWRF/qRbE12UOMYnh0nU+ZK8hJ55xuX0aURqmfmpNmVPr7wo54qaP5AX0mGG8z/1pNFCR9F
-TNbvVAjS+MCL03NXZuk7/Al5k1j9oxXDU+sdyGkBdHxRd6SFMVF+T4yKZXgE1J85EqQcce6X4VL9
-PWcaJYLxyiV1vtL4Iv+0S7xLQUxB8UcJptjjl+sFc97v8dWYUZu1ojrC+VGGdnPHTcf8mSe0oRmh
-GOmuag15hA7GQAwkXP4Zwgs92KHIf+r+XL7psyMoG02Nx7SCcciWEPuB/B61Jd9jN2V2GhGcZEms
-jXYVrWU9WDOOPFTGapncOaY5ELhZ5nlDmeNZE99jPmeZ+Gk+UyCtsJiBlom8uL0f3uZlRmhaPjE/
-vv0a979lhEhofkcsx9gZmezfk7koLlJr5NmvKm2nAXA+hWFX/9IxTFPvWJWAnOcZB2Ni3WZQLAcg
-3IRwJgfNTtgAfxEoUqgGDD8pPYou2TIQjcawuLMFkmOhze2964RqFy8j1HQZptLHJg9JDgZ9hUHT
-fHG6BOiKmY8E0SwpV+RIcQaNU0eCfGKss/n/9zj0s+pL7pMPTIir8u8nJjang//zSWhdgaf+TP5h
-xrL8xL9PVzia2ERlQKQuBwoCAn9NVzzjb5TSU3m5WEe+DSd/HXUM62+WZzNEgWhGPJjxzF9Hnf/L
-umJexDI/+fv5Cm5lipX416gaMg3dZ5Tz9/OV/7KvmLMLcDyAAIamyo2nswc8tuQnxN4Mtca+MzKI
-9/9bqCUlEaqR5fIjmou/gybd4DDWhISxwhWlTdsJ5X96gJgRQSwNQ708ZFFJnQxbj2lCR/+OW2ht
-BOaktPCkPv19jKLwRsy76z8JisGrwCrxIHWUmKZYhNcSExs6qS1zfKHfiYgEW0Pz0MRD1B7UbKKO
-mSXz7M+h0nuJsbxMhh2+aa7Bf9IHwCsBfbokfPJN2Gtu+TAgkYv1d7ZAz3gXEJ38Ol+DXh3tLfuT
-i8U5B1yz+ZMfgPiAhftPdCBmD3PXVd2z4P9JB6RYu6s17C6lHf8kAXhpTn74Y/tnChFKVvrF7E9D
-CniUf/P4FzQGMfhQGjaKDYAsUwbs3F10TPMxTe/Szp/mF5KQehL91NvC/+GWqHx0/joN8FFaP292
-bXPQrJgeEbUFpvEhQzvnv/RVCfLCwtABNwLl1/sRxYQvsMANY/ijkWFS6itFfn9CnyjD9E1MRpJf
-6saOo0MnRFYF5YBtfy2g3BWgGePWDGJfaE0QeqqaXxuHisjN5MDRD5yy0zC7+FrNfXgFPnZ+yMPK
-iHa+2enzUz/q9Xuid4NFK/xUYQ0qxUD1H74nrLGtUZn1mvOD1e0r6g6MvTc3i5zE8aEYbzlejOFU
-GHqYw8shG0mEZ+71XW/NGh1aWhQPx0xELefLqEiyg1gcwMfBievxJkStvJM5QbwN5s614gsm5Akd
-Ji19HFToSwfRcuym/7LMyQ9ImyrlmWDI77HzMkWOBT3GPjSQunMs3gW+j5H7cMtJZh7nh9JuOfUW
-nIWaDSllYjTg7EP6M9gtnTNHXgqnrILnImjtzK7oimimpbsxGXrdPXdT54p1KoUC3jHLITv6OFCq
-beY5E8SBuGmmD6wEofw0ZIO/wViKxk+zUfO2z0hA7qltZRh+RFrlQ48PQbVuOz9poo3bVgbUD8BA
-b3FrmBDaEr4Aww2KsZf+nEJGspu2Hc1mPY2+n6xLTqregSHhaJ9su6LQeaJyhLKJeaoVNgTdRqN1
-aGDMb5kHnOFQkjK176lw0JIzrUv8mdoJ/XSnO3Xpm4FW6An2kb5Is4CmCJdNC34ALjAzJNOFQKJ8
-/ZD2Pabfjp5Fz2khIobTeO76IcweKIAA5Jbnuu0cIUvV45YEDdNGs1J1+hqREzhRq8t7V0B1fyEV
-YBobFZbpuIaf29PrZUCS4dP1munkOIMaPuYCTWmNFZ+OWJ9yJjfwTU/9xjVeicUXV+aBY7aUNrJz
-83pP/3B9g6A+ic2fm9uAmCnf/9zMigQQ1VF3lacfapT6/F2plNjWUNS0h0c2XQCYman/gv8vJT0s
-3Enrz163VPRU4F0l4aIElL6A3ogS196fO0kxcxv76Tae94RLKJfr//yeEUlRRIe2dNopMOqcu8+Y
-N+OAWVnXXDRX0DQYu/6nlwT6ZZsBm9xgnopYy8cN61aTBAajv1NPXACPlBy8k8XNDZyzMktGPlax
-wW5v/IpRMD9t1dB3QPBhOIsuZuSYau3I+DMyN9MQ4sHxLQKT8SiraLEjp2Eb0I/raAGdLlZ4qfMY
-HUsTsmOGlsH/2TBm7doPWGpeueZ6r+agEQyhVgndFNne5TKU7edBtCDZGlOfxh2lzCn3KqufeMIb
-Crwm1ghXDkdyanm5D6m2+zEWphmdCzv2c6owprGpf6OjE9KiMKboMLrb1AzTmBNviq579sxwHZk+
-CKv4oUuNk/KBPuEVOLo8Sau5Mp84Cj/UrkBJH1j+XGoEwEASi1M2V9+spfbLwS+914WW7KPKoaOm
-TjvmHwB7UXHfutK+bxkBl213o+uupsWVL42mz0MwhkvohEdvlZbdRRPGOSsokXYnazx4UXl1K+Ol
-yeJHG14xp8H8a0zUrZ7bIZhtE5ab035FSvvA+Ai9lJ2pACdAaV535PBtr7ike2dMkuLV4ipOK4wx
-HMk37cshhqlnzfrOri22FZr9yIQAsR5bmrMtLXvkZnDyUqq6jS5jqs8XfEM/UfSm2xF6Cp+JjIBL
-U0DuHkme+9gCqwg3YkpbcAqMzl71Y1lcR4Mqc5DTndjpsfwV4fhiZqywhPJ0bIaM7mMuxWdQdNXG
-5eHnb/Yz/FAF+xiALe4fskOfjyltyIGfK/JDTRYlD1WS0Cee23f4Q7oPjjNv2mQ46zS1jjCvnrQk
-zjcjn/WOB5bgnh1/+FVtXHEp0IABtnPlJ0RFGrfyqX1rzK8uxdQIHf730tK3xf5N8ULuHpnqPpio
-nhdHDbcB3OUqq1A0Mkx2iMqSmhMpP+hUEA/YvtIX12/yY0f0LKhApb/BFMhO5VzZOxwcYm+R41xj
-Qf+EOtCuXK6us1a7QWsUZTBjGly3nRbR1qBnn+1Aq1Cen6EM3nXo6eeyBqo9hLJea7RCbPzJ+2BK
-R5ivXPy3c0NnksW9NprTDbt5UFuIR90SNoEfw9Q9ueetG8+C71Q1dsSzavlV8CSAIZR7pn77rslf
-mtn8xBqzT2suYGabXxJ7PqLd2SAo2vNcx+k6M5uUCVO5TfOSuI1+6CP3p+hadOaB4LQfoS+o7ajU
-lna4nRnHxUeqZcyF4ugXfGdjVarC3sHFKHbp5L9R9AyKejLgRc7OOrKqnRrSnediwOiZK2SjR9jZ
-rKA4NI+ZYZ1s2VD3h9BVhWB5Jq89qZRJYs8aaqa4ODoHFR0odbYNtUzfa8DVj+4gGUxHNPPtQCDW
-WwmH8AkcR/WIv7N9ReocHiOr07/ItYSPhBh6wtQYBw7QZRnvGeHUsWsD6HnuZccpCXkUUmfqTavW
-MuKTbylxDieOqEPT9x/9INWzm3jZA38ElmjndUD67PgSd41FJ4iSWxwS3pd09WRvccjaE4+Vd30x
-R28EIqa7bMo6Gn1L57cjvOy+K/sucKa6ru44i5KbNJieiRU9PmYg55GYSEz71b4iymFf1CCnFDRQ
-OBUsZ0Qq12M6zRRlguzuKR+L2s9CI3kK2zzrsGg6Gt4R0UzDo009DSv/0LnTgcdw6IIBinyys4ek
-TI8WiSX7B50TbndOO8NJWSVE9Z6QpOi/PGq43F1d5aUhgnqKykiu/arRnHVrwEtc4VyLbqDz+aSr
-muMbJtiMWtRkUlCH9LHXb73eN5fSbfSXTnntR1RPAjZPSERJFrB7+SVI0Ae9SxiOLT9eQrFMnfSA
-AGHT7lzmdkyum563QUSkszghmd3Cs+HOsMLLaXxWDBlTz4DgDiF2BbODkBr/w0h52jQpE/CiGa99
-xcOK2lHeCtVkp3ws5T5tuyUql7EBU5y1hbLsUJrDTlxlln8Yw4pSmjQ1jqwHT7kr4gelmvq+jCbr
-lEQT8fLZw6kbzZBM9LfScPRA1WayTlI6zSphvXSN/UPk0rmabvUI3cT4EZuyIcmoszt3TRXYdj3u
-DU378ms6v2Zj+Khm93McWrVhbjjBbU1iBqJ6ebWZ1zCTHYpdyxN7iU2vZTeNGQbaQj0vFj24JBWM
-gFQWv2c/n7as4RAji4Rai1xBKbHi3rhJoHf7jsaZTSKG6FFhYduM/pAHCdcnTo6FFwj8yQzRJ850
-BEt1Df1OF8jQTVKyQ7TawVGWTm962u7KhbcsInHJ62+gkzucAQWjiTRArFZCr+Inv9Srk93TYFt0
-Wb5z7Di7jPB32HbGXyQambd6KgXoG6qDT8RtXVndCwsDXrfRI4LHbhGq/q4Q9i+39tfC8vd2SAcP
-EvWqBuoTWdaXMYl3cBKPvYEyayaE8xDt6fgZ/Hf0/HKFP4V8FoDqTV7bgsmU+U4vGdu85ht0U1RH
-SE/ReiRFuy4drtVz6OxJ0t0pad01WvfC0Q8rOaNORmXPqWz3Ybvw+zrnojnU0Zntmyg5NaS6cQ2h
-RZBm/OiM4VDq3g75d1yRtSMV6Ef5ESVvTS0e+4opkMLy1N562XinpuypHPpfk94aBDzlhYPXhRht
-d4Efg60kxFGEIea3jw155eFSZ5PUL6bpHDLXt+hRmK3NwBAfZCeLaIQkH7c0UyTce0L9qYuSXe/w
-OhwBXaZE9to1GrPdQUDUxXKz7bukCkJ2kbXrcEWMaLXbUsRlURoB9RBwIb5xZVrIVuqHpZwATZON
-ckywncjmGbric9e2eDmnBAm36p/CrtjxmwJ/srBzlBjND3SXoHixwh7kmN+6WQVNBnAuY3PYGIxp
-SJ2zZmjpnT8w8jAmVFGSJ/6mLel3YZl4AUJw1vEIkgbU+CppXPJGiMhJkz9hHb/pTqvjDo10QgtM
-vm29/ulbRsusAlEvUmtD6U8CR/2Ay9KM2ytzEXCxqQoQE6ObbCy5Tcey25sZy09qaqgWLeqobuTZ
-fS3g77RtAxA+NXuCBEXvniFNOPxNCZQP3ZnOVeIUwN7LGeRaDK87T85D4fGfYn2m4gmwp40TfmoP
-qJO8Gq8Ra9ih7M+6d8L1sBX6JHb5lBSHRuNrbnJDQ1WegtlwX2ziCuvS0vqV5/gPlTueBxrupgxX
-GKOLfWpFL7aYNroGTrKcsx+oBpfWnl7zoX2esnrcwKmtghTtm6++t2fNo+S+SXRshWEecDJCNi5n
-WpPJbGBeEv5K8V6sajqU3eUxJYg+oRlkefg0VCrfyKJ8NjR5LiLLv0G6DQ9Tz19JV+y0rQTtKj0k
-4LMOfQ2XV1LvamMU7Ddu/8JhlV5oMEMF50CvOTTtIJnUkFXGsqKrxe6Omw0Vp8DilvoyxMI/NuFn
-PcnhEGcdjD9bTnhLO2L5H12fKXDMkZzJCeEhIHRb4pLCAlMrOkUzqoH9JBwe/qkW2NPT6Ulw+185
-ycStoax2vU4KM0zT6VoQPd/22gANy/WnImPtEKCHRd7tXVCee9vpit+5odnHDiHj0DFpX+WO0e9i
-rI/0CeHDKVdd5CQeP8QwZ9VzN8XOycessZ3vfN3DK0N6HprUrMPWPvqzn1onAvfkb02tfysMakiX
-4CdLtukibWBlotQk8RP/hHYz+pfcyKMDBs6MJ8rPwuZQFmG3dmarvVItqV9nhvD3cexMyYNMVasO
-uAys85yImNLjuWyONHebO+j/+l1qcKDZ4Skl4h3pdoZ7xNMlQgGYV4f73IkThNok+LB+6yLm3l/6
-xn6YmMIFnTXTakJBIMsBGAZNS282qTYqQIunmga8kzTt6AX7ixOEIk2uUaO3j0YT3ap5OE2J92w2
-bXOoTE6rk9OILcCEp5hUFp83F2nH+pjS0dwSbsc9oaJhRSnkc1GktzDCR4Xjgcal9l4Qp1gp2zuo
-1LwTQJazytpULgZdp7V/YeA6Yof8GBrtRwF7hBxUc5yxNWxSp3qtqR3IYANtPC8BKIJgFjgF9jaz
-LsAnthjLOujTBE+cbQSEBp+6FZhur285m176xOOI76TvzZBQJU7NEzJjRRlQv3em6gJC56i59kYj
-5r0avGFaIhysOGqqbmWeQ/auML9R8AxGGazOJqzCcaN5XBtwUY3L1Mg6ZqaRXH0uBle7NAF3oSrA
-ZJ5KnNWN4NUJx5DIdlWHXZarhGuFXHYLHZegDi/IzIbL4HNNA3ZWbPFigahsvZ1y5ZmBD/rc8GjR
-3xRF8taYGLl6jU5QJfI9olu2pu2crsH22ZIdR9I5yzYh7smNgztl7RBRO0iH2Az9VYcRjBGINO0e
-WPMr/Qrw8lT4lFrsv8LEUtJoV5JzgAERWdatkLAbdHMHj55q27y764nZOVlYLHeKK8rsZzXwfYbG
-SGfNLVXmxjDtXTRND/ko6AYsJX4x7M/YwLWD0RNg00yKaclBzzApKZ/9YSTmfEiTtApgrB8xBt2H
-k3uenOnCMPcwx96rGqdNH+XPLQAh9NKgMduDiPFdYRRfQZHbpFQpzuSvDmGIo8h1x8sk4t9m1B6L
-WV3ytL61tn1j2bm5WvQcufVv286PFRJAZHEAyZYAo5mVu3TmYjK5ze8hA/LvW8MLny0wIY+tHe9k
-2PO7DOXr5KW3elr8Y6V2EAyGwjm+p5Xgl6yGDV1ImyZpt/ZY79sKPKjPZ0soAsJTEQzKJNxmR5w4
-mgeTdOAQdptZ0SCLfi/S6n40xWOeEBAU+HtWc+bcj6V2h1B3AWYCm11QrKDpbzmGumyq933rs1Hb
-z6z58Jyqtl7PquvWGIdeZQ8anxnY2gT7jNbqOleD2x2XkYmwZahhxg0zk8ypfogGDVxdzAYrDVe+
-MHrkDAH+hQwZh8VaPvMOXr10OPZzv+48tU8r/eQPnKjqkFLVxbco5Cmj9lgIpJPZ8JJgrrMYs7uO
-umclr+AI7VVUymjrR4Iq+yam+p0pgV19tMlIncT4HHnWbk6rz3xq7lDEziTWfyZTB/DZzJ8yCjyb
-mTG4kte0sa70rC2uXRXg7AgyLT07Yf0jddJbnobgERBfiu7DHaHVYHbhwTPj5QDX7qwRGFnBNSof
-6msXx6+uTJ5w4icrVdbRPq6arwqyzmYR2znOGIEEcEoKt4Cc43/iPP7sMntL1diT1fof/KIpc3B1
-l7R8MZeTkh6e47A/I5yvVaHh98iFtTGx5G9sUz6Vpr/D8F99iML2jz24LBzlnFnMEb+okZY3Iith
-4CeSn7YVWeG5v3dD1A86Yu8TXHSlpvmLOYIeefmUOe2LqEZ7Y1b1vCXy/At2lbbr24Iqj8autlS5
-PCD+/KQUjQM8rU5jCh698+ZTEhoXKBV0HgzyZiMWrae633cGwWBKlm99DF6sraInArBvPKrxPpH+
-zqtNigvyA2bqatXgnd3G7jx4W9hq49GGN/kZdeZ0MeeOAAKQ/MQMADZmfCSFdelD2W55W8wjwxQU
-ASZGnIf0GqhOkv0Uw2CsCVBMb16k2TS0GBz6rXAWZwd1mX6DZn4Q1TRfrBwCcNw6aA0i9PpHjXTe
-ARlLnQtHb36CVClBsNYSCqmPF3Eb9rp6x40f7Wvu/Sd/VsZ704jmA1Xlc6gnVBW6Sngb4pDBiM0u
-HsPJHyFHYBJP7hs8jqu41Z68wSqhcJDacClNpdRsg32hv3hj7e65iF5tSWde20/metaxePiFXW+w
-xxL+cBGGlxatyOQpDXWWAQd/NckSqOBpO6y4EhCXFUfDah5h2fE1db1p65SZdZ9YFgFmu4UaU9d5
-wNtFx3ENuS5DUl8VNT4QBNkHrSKgVVHS6s/eK7D9hjc/++Gk7mfF+XgNOMNeW3KomTSGr1ETY4+p
-oDcAPP10Evdtij3tzW6rHXMkvNUCtkKnP4QGdQu19St2CSU5sxZYLkIBEPTXSSl9LZmWBGltkqVY
-UJcGQ46DvVxCof+02ybh41ODdYAr/ORisUQq7N66TDu7kXltB+Ouq80piIrW2UdtTudTZLQB0Zxp
-oZ7iGUigrjrctIxSnuDa7yuNaj2znt+QLq6F23wQ2XhM7JoEel99zs6k3xnNsDcENm01LyN8DEKK
-KFJsOQeMcEc1EY6OFWeYItSbvY1OselFR4m0LZMgGwDcuoKXj1RyL6aqXk+KamKfAdIPvVkkhtIV
-29os7K+qTsqzZ/XkmhSBnDwy40eLxBTg/3k42iYPvemN6oovLUfslYICRb7IAbOg9MrUyA7hdzmE
-nKhrLNGGMS0PQJjvjF6rThheuO+14MxYQCH9fDGqo7Fh1EKd/hS+LWSmF1Gf1czDRH7v5LGNgt2b
-JGyL6CUib3/uvDgGekh1yd4plIQ2aLTOnY0oeyAhIO5nCGNBM45FxOLoLeflXOk8TumYI7Dz8kxr
-rjGg0tOexx7hLtNDnKmSrr+ZimAVY7O6k6wR4L4QD9E7oDtOxkElDSpnzQ2qUH76u/ETNnGrtM61
-1ZYPsBLLszVU7tGqJnOPNaf4bY5WRMfDVN9Cg+DkKk6yln/UKIW8TIOn8THF3lPmReqQkVikIj4e
-j9ixbDgivv6MbmZ1ASug8WZlvb7OJVkftKfyrgN6hYVnGPehVbU7cs7NqTIYlcFFchejX2EFoZTO
-lhKM9F6bJAtxandmt+ZdIuFrVRYGEC5IrSd5QweLy0I5Y/3oNTu5G0YpDqLv+g1kt+Tk+BwwR0gI
-COLWILfezLE309v0YI9G5xBzInNH9J09PXGzliBMmB9Cben1Nb1iXOvRKIjAxNbvwo4qc0UZs1Ws
-RednGwPgON0ZZJ2rB9IVk76KeIBW9cxRDLXn2WBc461hVSU/jEGPXyq7yzYFcwcZiJpF2M3G+VfE
-wDXo69y6lYuuWxhRRF+Tlb7GOfPN2k/1S1qolrOs53FGEfbVTN3xvqEBcA5ySYhjo6N8bSkUjrAu
-2g1Ln2c/TM1V89BJopVrtg0kDN+b4Cpl7ng0uzbaGwrUBB2R2Sos0etWGBfSQC/7kWpQQtHFNuwy
-6D9aNJRfRmgZv8IWqO4UudmXsJwwCYYybH+EKBEvg5VVDijBWswrGD7e5V/ZO5PluJEsyv5KWa0b
-MsfowKIWHUBEMIIMBieREjcwTsI8z/ibXvaiF/0N9WN9ICmzSGYWVblss7JapFUqRRARgLu/9+49
-t0whWayWeMh7sljH+zwUhbnmONOap9bkKM3GyJx6hJSHMaPiFyihzPSDtTBAeSfoU5dEeXO+q8nU
-diRu9bVaVTmdWsqh1AJ9GbIWWH5AIAaoJQ56lfBRwaNkPzEj2oUMApMeWNysR6dLou9nm1q98CYj
-1ZFT5Gw4667wSVJVgwkPoey+j4ORnX5OhxZjE4D1SSejymlTD4wdnbjGzA0o84iNxCpxABHh2mTA
-t8pIRQrcoJJAzkxtSvfqaIfgJ4y+faT/2iRepjYMaboWtSUtXK36ImyNHSYyAzgKfpmO9abVAt3e
-p3YZnkcq258H7mhLA1iqJxLDyXyFDmV5msKSgN9M1+c8oZ+Rq89FrqBitJWclRYBYUcGX9bRRTUD
-g1KWP0S6oVv10obyZ06Una8nxlo12KAxr3eGtY6FnWenIVuuzZTJzKqD1Qd2dChG2sAPhOam5mEo
-unE8QFnOvzZxhwuWyKeU0YjaqRMUhMrsXR+lRlaNlH5Ay5wXOCTmt27qwRrGPTmZp040Zpd22CuZ
-29AsAsaGBMJV7GKmZ4JYpFvpTWuXWxPNO25IENwFZEF6SLvOEe2LoWhMOMQsJuGl4fzZHxzah5E2
-XCdWOrNiELr5VLJtsuGYAzxIaOAVhDxQYw7dBNw4DlhEZ7oi2Yf6s2iz7rTTdPuJecc0AveQoEcp
-TQkm7dCi6ZuaQLBD4PTztxbloThaohSVp/gF+7DIFEmo0ZjWqHIFI48VAUxR6BVDVp4Zw6SNZ/2i
-HtlyCifVlzItpDCN7UY/7YqGzhnPE6wDsFOYb1aW48/jmaF0BTLKHiSLN4xRdizpbQRra+HdulmQ
-BvWxi/RAX0+OjjZBdjR7FlOwEZ7VLdC10w701oUceeIJZVdPW7bcgWoLytM1/ouhPjBYJUPwB0sd
-rhmPJDO4QeGInwOY/cFNT+kWlKse1kmyHgyHVVkl7z4D45QTcvODgF4gsHHWCDGVp/A76LxEp0MX
-RO1pLSFGjZ8BfYZ4sq03MHOyDtCSvMaX8zTTkkwihwlTJnzHd18xymm2xZ+JZtXsSxC56WNszs28
-G2QYYmFDA6H+AInHoglQKsYc4Pzb1NLG7KCGTYTyFtI5ORg/6N+jj6SUjtHv5G9DAd/FibyxaVZr
-jTXdmbUpIlfYA7gdfEo1RNEF6s25V7cJvwur4NLKtfl5qDp/9n4Qu+Gtz1+S2GKIOvkQc1dNW3eP
-ajVniUvKBv3DFo9VDeot7b8xCY3J64XX0q9LZ25GgneAesxaRjrcKCs21pLOBnThqFfGF5x8bbUJ
-AJ/KrXD6gFiJECATL1u42J2dOA72qRZP34wMgfVOr4lXWxdlSvpyOo0zYc2iwCadDiWyqtyMjXRD
-kHForaIs1m57YzCmbYVzYVpLzfQfQhq+3b2JXqPZEz+t1V4QmxVruqwHgOUcfWgeY5U8o0RHgwTy
-Bju/08vmKu/xDU0AaRMvChRIOIB+IaVNXYrkhoWd8hrlSnoyoovasDJCK8JzULoJ+B+G4hM1Iuc+
-2MVncHar2otCACj7FL3qAmCsWUoZdDCxaFOpMvlnvJ+DHjIYzJsh1qYN+M2qu2OcaT/4zBzpsUIx
-ftJIXbvzExNFuTOlBkU/DwfTgdIxsg2e7tq8pPuhg2gzpyTcAbaUxlnMEIWgoTKP3ShqZtK1U6PW
-UFAPo7lj1W3109ahmPAG1GaN1+aBWbHfFbPvpSqZZS4vbxueFbqvoy4bzeSQBvzBaVYDsnGTakoY
-Vdv2iG+/bIZjyAgeSHCjo/mCOpLWp2050zFTy2JestmJ7jpraJXMBPxa7VM2VUW2yeEVN26TTrrp
-Eo9nVdtJr4xoG3JeabmbeXhqeX4Q22rCxAAdAdDdhEEw4gH1E//RMQJl3iKHymwQcEbtbKxeMAGG
-H4c3tarHnDNZh20Tz1gG7z4N+/pQQW0kCTE2zZ7dcJiPrey1Ea5oKolBMLAUn1DZQrLS00JE+1oD
-9b1GZc/Kocet0ezmotVh7nG5Zm35nZzcjL8Ll5MOYePKoWj7bYMae6T6ThkOhjA1kXNrWQkwdlUh
-HfhMTMTSQ1ImAzs66vlpn8YaOZwQplKyK7BxTPO5Ko0q3hrI5glQF75GsJXK7m39YLC8sUb9Le+y
-C2gvbfOPv6NJfaUjtQ0ddId08Oiw1krHWZw7r3WkYFYjWuaJ7hkyE1cLq3OjVxVK0aRoNrSLIfIG
-BqZsfil3MOu5+8X133JCvl8fpDzsEVM3NODzCz3t6eEqygN+WfV/0F0L58nk+nTa5w0gKdAK2oSM
-QYQj8t3fJb4XP8Sxr2/1zy5lCAmFTSLPlRIa3OtLzQPatBJhvKdquKw1QaGsoGPzkiCxrz6+1PKp
-/Uudu9yVZhtQT/g8VaKI7YVz/+quOL5mHa+O7gVtpj1ix6h7F0BXCkUjzS8b6pPZ/fiKi9737RV1
-E++VBJ6KdNlaxMyvr0i16Ec8mKbnL/F6Rdy/ZECgPESxX8JaXFYBgrmPr/jHj1M3DWwIUrdoqEnj
-3ZNTZ2OI/n4APEyUmccZDXdOimhGyL7dfnypP3yctkF8NDkDOhAP1NfvnF16j/5r6Fp0vfAqvmDk
-ifdzB+2DQOB6XQD9PPn4em/F1Xx9XMxYqH3AwElbM96Jqysd07AZ5JyRbRDMa6WKEISNNNvsX3xr
-f3IhqfKwmBxxJLKFd8+JM3asuWORrXGs9tdoRMPz0eh/Cv7/7Tu+PNhvng2qKbpdmskVYCWq724n
-J4STrdqM11MeojpImIDPHRGZQakkC4m2PSRBEF+kvqP94otb3H0fXvrdO9dBRI0X4Mc6z8zF1U2C
-SKIaCStyE7s1XRw3qO15xe3fTnngrxFVgG4lkAtYNuBbvxyzbSf94BfP7h9+LUcjKcDilSEMQ9Wc
-d79WGTFg1/UkpetA0mWBO/BiioT8xd0vn+vrz92wHbKxHIFXgG+AL/rtO4lCPVTw6mo0r0h4WFlt
-o3Ls0+uN0SkUE2GVnEzVL675/s5APtk6LmkB+ZJbWECZr9eBWkf2TV0b05BVmSHNVlKnHEpKOaw/
-fkfev/48shgPWLvhPFkObJ23F2oEupCm6sKNOk5afTCLPr4yrJFUhRA1Ru99v9pfsvAeIlK7m+Jb
-+6F990Oj73K9332/WIR/Xt97aB/e/J913kKgv+xeFmtJ06Xtb8bU5b/8T//wby/ff8rNVL784+8P
-z1mUexHH5uipfW1UUYUq+Pw+tKt4//zf5QNe3YyfuPh104e/QQmLo/rhz3/Sb45d9RMmFuCnFmsL
-e7zF5v/KsWup2FhAYRpIyRaHy080qgpQ1cTj4khTsH0xGv/dxqKKTzr5MAsg7Ac09S9lDb59gkxT
-Wpq0LZujPsss2vnl9Xm1STKhSfMB7dy6qK8IJnYFdYMJuujj51Rb0hHfvIa6rfHz9e+eYMs2329U
-iQ13nJak76FdpQKRzFT6qhtQYdRKx7bc9FdqrKqIibuuFusWnfu9lnQZU3ejegqmBqKVGKP4plbq
-9IjwSZ6Zo659MxCnbyJYPQdlTAp0IeSpn8wmgABi1OjAJbIJjpY1YeewIn8+SEvJvpZVrXwZ/aI+
-63yNSPQI77zbAYglnlqXLoAN9dCgqX62aKNBAIDxhWCPTLHjkFbtFgZkcgF73ty2ms0k/LUKekY4
-z5AsTTdVTPfiF3poQ53aZk1UzjiajLf9FMLhoorWs3TcEDZMSPJ3iXNqx5O56Tv4M1Sv6hEuc3DS
-pG1+xsom9jWeXyD0JbZd2KmruZ5BKupQVvtdrFZKdVISgIYkcARXzogxGM2bStF6kDgE1++nBu3Y
-Gk4HnltLDbvdUCRWhfTXofbXWiN/HB2IDbKqB4wlvYibNZ6D4eS7KJfgQgbz1jTdJcwtdCSCeh96
-vu+XO2Fa9UlptET/kedDHgSa45AWe9+jBQXuuWZSDdEqzQj341d1Y0rjatXlJr/kiNGFAqEIrye8
-R/dpmxaHqlTphzp9tUUrV53hZk4OuKiGc9v3s+2gFaXXAYLaFE4iPOrkzMUzQuKHEqNA6eFmYfdu
-ti1sfs9Uns0qpy2qkrWgNBbWEKcdbpRAn26IuBnQCoXKhqmURo4bMtU0a6Y7aQTVtYIC45SxGtJx
-4syrGMaXaezmpk6fExG0p4qBm+dGK7XwJKGVum3jXqL1tTJnz0OHHN7Qpp0tivqBDBGiQmpr8Azb
-166SZMye6trxiZa2ovMwxIE7hK19jKNZP+pETl5peWZtkj40FhVNU16Mel97mJzz8pzUM4Pa5Lsw
-1chHjc5kbjxOhkgtIuUWYWoGv17di8xAa2lPoblSq7656sgmvapNvb1GX5VDCEpEthYFs75dQJv6
-CbLHCI/uu1YV8EtFKw3J1+O/06oO9Lu11YAVCNgxiTr9Q9Mznn6tWFVSRDBeNU760YfVmxza1ufM
-QSsuSDaFHieSPpxSx26FwB/nNqYS+o661ruDLtNrR6Ud3A+ccyd8uZ6gFncj6YTA5OIJt33jn3eG
-AbnLlr5+V1bYVJH7hOcm/plbCnXtApomwh8f9UdLFMtRc6bhJkkDvwOnpeOxVuluL6q3CHlE0+ig
-OvyathDNe8Y3uLRML7ek3tCFZ/OSWBVeSpsUTOyl5nPeav7Z1KfteiAAzl8VHQLR3o6ivQqxl7dH
-ZM4mpP4EDCq0dhPgEkQxHcJZJeyDFrBPGLybK9GNas0Fhug2Ms+SsJh2FhSqfa0saYBV6JxkRksy
-aEvDwLVNH2LSoPXadezM8kUlVLlzC0XkL1CXnj9eyNW3ybRsUapgVCklYlXHYu94d5xKpQjSGTrP
-eiATXUWN4Rf6xgZvFAfEWWv61g8meijOOWvTx5d+X3+8vzKb5eudqnACOvMqI4lRPWtajwhLixe4
-+cWh9P0x/f1Vlv3y1X6osvUKFEHcn7FaMbF0E8/xlM3Ht/J2010+RMZblL9ktlHbUKG+vQjJlmB+
-Roek8bVEyI/wYh2+fHyJ72fMN+deVROUTZS9tqVxPnx3NMQG1QlMb+HaOoyewRBqE3vO2tzGnrra
-jSvHpeG0iq93imt4szu7lafvhYfvYz+dkg18PwDlvU4PQ/bjA/5Lh8gPj4evT4f/P3NgpM6783tr
-ZDmz/jyLnj9knEXfHifhwDzU0T//75vk6gX+8v2n/HaUxBGtL+dBqhgOON9R+r8dJZ1PQtB3ENRR
-urNwCX4/SmqfYGuilQXJokpcUbw3TQGM8h9/5yBpqTSeFm81hQr/+EuU/beVFkdJ9MKsDOhObJDl
-f3BDh3HIiYst08vKbzFCo6guTqO28ErRnDnd11cf1sWPB/nf95FM04agagpLp7jTbBrb2ttXKA+i
-lFEGIEQxYR2Ov7SqQvLvL46tb5ccLoL7HFQvmjQaUdSQ7ypUpFGKnCJD87oe5p4FjLPwJKWcM6kn
-H98OeQbvzsdUAA6Ji9wMZQL39vZ+erR9GvRD1WM+7HJs80ax0r4az9BcOQjlv7jc9+fh7Xn83fXe
-laj07+PIYWTrKcM0cGxuAxQiYNsmlDy9o50aulB2xVh3nqSuWevTnF3bsBtXPVi8q5let1cukbxC
-EJHX9cT0Bk0dXziBNFc2IrTz3gniq8SU9q6zpbjj6GkiFoDvohDf2hVdWrlQyJJLZvwTUnVOHiE6
-l+/pwc1kh+cB8ksctQM9d2i7hCmPsDEf4yb0X5Bfl5tmyJjxEhsLRowC7MpY4ooJDkbYobR1eUF+
-m81HWGWQQOkl4Vlrc+2ojksKQUy8JBHXPnaNZhFIpqYZXuTmkpjsWF22AcHVcCAroj1HVvsR/6we
-stUwKQhEH133vt1SX6iFwgbdhDXxA8K/zBj0bhuSBr7GkiCclZYl1r4PlDpc0ThD32G35RRtByXt
-b8jUnDc6sK6vEBWLy9DOCrC0IWBXGhRhn3sTw1y8cZjh90mfNzfq0CeTG/tB+zmyguIoygHMeFfL
-E6tjhswsMpydnaKNymeGvLMXwDO6VkdIJkMJ/dAN2I32FhF05zahPfdGDWFGG5TxBptThd6zlK26
-Wuqrp1QdwwvkulgQofeIz4gAwg7IXdCio9UcXFwaYXzpqCWMdKXZMVoekusQ/8aeMkzZJibJPaRn
-ot5cDLM3oUiyZ+RL87fYdobtVOnzPoyV8Fy12+46W5IKYka6X5yw4T4Cum8F8c1kQe3rDvjvivEb
-IfG2UKuvmihBIpqwB11T6TREsjNzXqQ1fKVh7qBm7PB9X8L2r5+NFj5Slwvzwqxi1I1tiK5hhbIa
-QybOSPOGer2EAKPnMIjjqktPfKUDstAwPt9TXsljWVTZGUrb8XqkHLuEp6Rjt59qt20MMzzvW5tj
-li5IAVzlmA6GlTJWkGgQY3QXjLkw2kmnNSHuDV1yajR5cViK4ItERi9gX/qXrg8weDCj46nirLUZ
-kGgz8zUUZrgGfL1gDdANdUEQDUtyatV6VRNn2zAUUK3HPLll3FyfpWOsnAQmYRNNY1s5arTRPLZx
-nJ8EDGy/4an2b2ayOLyQlSxF7plrpMah6OT+83NOivUAgUnRPVs26Y444dFrjdm4CMuAoUppyrMs
-QnEJTiE7Uwekgjav3YOOKNbNx0G/W/gcEbWz8K8mBl0H4J6coScDBx2MF/FiBE63JwC6PEuRG2UM
-2jxq/fLUZ7RzXanh4JmFiBf/j6rufZ5tWKGWnJ58uIXHwAq1i6ifTF42hIwmiiOBJ1lRtmOLDD2c
-qnonU167KiDxRFqkMQViKDfhIIPnpsyzPdGa6suwoIt5usMam2znHFNVna5D4lcPoWmWm4GBG0Nq
-piBeJVGJ/K4HQFeCw7eC3F9JYtzDeuOM9WcLy4beOgis4tKtsW6z/Zh7oRGHFKfaOjDHk0qol8Zc
-bwfAWHk5vxSY3klCTJCjT+3LNFrXYV/xGyWwtzJkZ5S/ePdlfEoD/6h3zV0KOLmpHc01Sp3vB94f
-NHJhuwmO5DUSF39tDNqD0+LHwd27Uo2a0A+TgXW0DzFCrxkuqutGYkKysvQmCwKxibQQPHIK3udK
-dRq6DWJQL32yyTE5gC3fjIFzbYnMYxSbnyqlP+2novg2Ah4akwmaYL4fsXicO7OPSriIEmpofNa1
-b1dnhqZVF43slyzvFIOqyM5jC3d2TTj5Yg6/gu56IHGh9ejlHKzaunD4Ui9V2ANrWoAPjP2R5fcw
-GM0kyM5ip1V3VW3ld7MzPuIWxiJhPfYGFK5SKlfcxrECWbQKO3PcAiJHo1+FlzMtAkRrstxqc3JZ
-5BlocnUb5+bXMdW61TwGnq5la2x1t3OCo8XM0ZzFwXFanGrAsGqkVCtycMCL2MOTGZTJemTp22tx
-Nh0ce74cLebLoRh5ktuMnMuITPmetynM4q3iN6dMuYODsDkhtPkjkOQXQhu/oiI/tE6wwy+/It38
-UovZ1AoFU7XWZreOnE4QqZxEOIEmH/OnEMfWmA66Ftsov3hMEhzAESmBo9kcaBOyJvsFWeUKEvS0
-DOJzjkjMs1JJjGhY3foi3UadPHc64xgk8pjimC+YR6/qgbaQY3dnZTeBLlHPGbmdS6ifI6zu1PHP
-HZQvYFluUBdvjHjiiENmGckYym42g52MME2RXvrFUFkzwdE2O8UkEFMrs95V7bK+94MSHUqHqs1b
-pLAPP+QtUQ9+QUna5q4Df+X2S5Kb20Z9fo6NU/FaO41uksi0LjUUvJvGbqIbR9HLbTVC7+y1drxj
-tDvRCyEpOWbJO7aRXXx29NykLWPgQ0wcco8xfGx1OByuU/nRtdkY1reQXt9jbk+6i7+WgJ5kUrYc
-ncUZgjsVa35nn9WlQ/HY0JoHk6eGW/SeC6I6AC2vG+T/Kn7mjXmNEzIo7K0fLzz/KUBfLsusYpcr
-O4xYRDkgpIwQZuaNaq5qTkRosjJtvpXj0B5ndFQX2Mfya1OrnI1NQ9ILkxmZljB6+MtdYLe4Br8L
-dip0yBcYnZIn5H/luJriyT/3KyvBSGjlpY4CRSrH71KehP6IOwxOuGlaY6zoiSnZI/uqca4QagcO
-uTNycBJ9PqK60fzkZFQYxwIyDK3ND7mPRTjdiURkh6bKYSUq/YRSviDY7z7W9OihTFI8Uj+EQCZi
-oU2eY7owfWVoPSqKGN8zUvlFF8TNizsbufZJ2oXL645074iZzUe6A9z141Py2wqDkSAGFgFVUqea
-YYSsv2s++FlkVO1s0N07DS4zd76Shie9j6/x9sz/x2u8azNIw8xhQ3INRnJrPbxFY0rsy9pAxPHx
-hf7QBCAkYCFHLZN3XaXb//bEn8dmX5aDFJ4ir0rizIvas2mN/9WL0F9gtiHpuKtc6F1ZEavBzOoX
-aF6LymZ5rHJ159s3H1/kDwNGw16uQldDNci0t7R33wsBZqmCxwX5/xpfwmbY6qf9abvCROmqh+I6
-8H4lWHj/IPwc6i1Db1ooqvGugfJ+qDebk/T8uu4vWdsw+b4e6v23cfF6fEUQHyUo78R/3rj4n236
-z//FkO3pXe/i5w/6rXdhfGI/ETodiB/ENgr233oX5icNWQEyje86DQZbv/cuVIZn/GuDnoZNxb/E
-AP7WvGAMtrw3LAMmVFvaaPZfAdci3HlTgC+DMBWIm8mcjonc0tl8+zrKiDKj7hxELyOHyZWsrAal
-s7QEKZ1J35409TjU6METB1tY3a8bQymvAemQ7Tc0UKfNgIy3ThOFqw9NfWT2UZ4ANNW36PQqD6TE
-cD8kZbSJzGZYqdjoVyJQZxeNN0bIwHmW4Xyr6Jh4Iqd4wMf7iJtEeqKYwhOHInM1zQ1hgtnkh6e5
-QxQMmcPawkCL4ZqNzDoKG7FzhTLx2Pg1UNa2Rzsqa/0MIoWxq4F1o5HNrXP0wZXX8W3sonoq9zGs
-UIgzfZkDv1H8djtwjFnrdsmQphHaSndqjBQNJ7w1GKCZbvMbOoNfGvfRyLTJAhj9Z5QGRgHtKsLF
-BmTnV6iGAUei6xtEV/+C19BEjn/S6KjiPoQ2FJA0pji+/B3cYAftro0E0Mw38IZ8MepVKO7W/yI4
-zDkyUKftR4zHwyOUnhG/qVCRluMCNWkKrTLFzNc+tZRb6T0zElFfqEMUbqcgpCuvy7E9qKKnzxCU
-VXjFUSXchXFBS7mB8QpwpkILFz3H+ji7aj5uCeY+AflWrpJ4/ian9L6awP3QDHiwZxgntLlyT/YN
-aXDY9/mAaLmbQ1TtFYhYXdam25zjkg0ZhIwWO7yIBYl32tA/S336aumoPVIZPeWNGbutAxm1txPH
-S+sei4jyNcqr86bEJm3mabxW+YovshzDaa9N93qa5XAI1A6PWUrQQCWV+ZgGKtnrZFgeNTUdrmc1
-j56lYg6btmqdNd0DcgiQEcab7wvNf5fg10vwDy3CIuX4z9fg6+7pz7LKlh/yr/V30dmgEXFMS3Aa
-eCVDMD+xsDKMQKQgBB1Vlv/fZAjik4ouAeATDV0biQCr9s/msf0JycnyF2hLsGQjQPkr6y+6rj+s
-vzoncBR7jkH/GP722/W3GvE2SKt3vGwgsCevQAXEth4y621R9M+GuiXsAkU1cYsnoYNmddSGYz7D
-gIk6/IVyzr5SwRPNUfGk6jqpWnE5l95UAA8Xi5VfSdVv7RySOj+oJBFMw47Dsr52FKrCoGKyGZE9
-Si7aXD2w0GHBGzPNM2pFIb9gOE5NjKgVncGancTZNON8B4VMZc4WHxcIDkIGPz1JLIfaF/AlHmBS
-X0tVmS5J3og9vS2GrV04FwONM4DoOoDfFi3/XKI3x2UHOALR5L3QKC0ESZ95cFZjl+bHm8OZKYfz
-uDdhbiis4jZIkc7Wc7cwqX6SfEwxY2cW3TeoEDjEQQln6H07CeA/6jukrAopBjJ2bpHRihUphe0h
-jtXbLCCsaZqykJZ2GK1h4KAcwLX1jHFVYsvTlHU508vQiofMz0YvCJbYEPYtGoBUvoAqV/6ia+99
-q/E6oRBb0Rzx/HDvSU2Su06H1ycvHG4Ika8k0Dj7TEJP12oSOtOQbymz6BPTxFcYYuNclX0wXk9E
-2XsW1jq3Idp+1VIOD7gxONXlpjGcamTjbnPsHRi36s9sY8bKkCFxddNMgtTAZwltrnxJETGuhIPI
-PA1gldMzxIlNsrQuamdbmN3oxvOARTXx3SEXn42BLbdI/TVJ89+yFmYRxdQIKQDiBJ5yV+klFkOC
-2FfDPHwjUMoHSTM94Fw8DkNKNos9n2iKZXvTpAQbpagJxElyGPjYfZ6iQr8OVRPXCBlwayBroEfw
-JdLrzh236O0LPYEr0rUjmbO2MUMFMGdaDPY3Y4m2n6WgyYSJop1SvKOCDvywxA4vfLeViTlqW9Xm
-dCIVq/dIB+j3cVk7ntrFGQQ3k+6oxN8JAguRu2+HntYX56ZGYhJZNbdBWFhggaw7kw1sp6DTB1Yx
-gtEz4yc4Ync0t7t1SIiM2zXFtMY6gMcSZP1moFlIXpUsThHrH1g/OKPgTuNr2fcCsyFdBWznNSei
-aAnpKPTwHB0IGeCxbuBjDAwPw6OxV8qmXAUEsmxMUaS7GdUcXI7CBE9QXlXLPJwDIPLd0k49ozHu
-2tbhBBTq54WOKEGJpwr4UUyYOT1mj0ArnMq+vIkzx1qHNTkwwLUWOflI+Z5UV/Ykr5OMV8Eok9Ab
-rWlP3uieJniO0ajEDzikm7IEqoG4b6thFd/0mNwXL2zsWWkGT95Ir0wHHxpxQI43ZdODMkt1Xcr5
-iQNquGqkf6OChHQdAVbdaqKvPNb9hunBSxyjB9Y7rdsnKniMqGMm4KsYquQcuqS0U9eL4WveZtLT
-DLh2YCNa8D14bYo2OQajvcO7R6B0R7z8PBm30ZzySik0dBX80lsQPmezL8h5ETPZx21OhkAQbyel
-NS6BLinuTCjs2lAg6za67awVX2luiBsK8Hbk/g5VRLnJoM7j9I4iNPGDtjw3whXOdEhAa0Nbwr3L
-MneBHZwubhnULz6Bb4Dw6hqd0jC4iQXQjywkPvCqzk/SPLTJQAlxhdXlWpeASoWRd9daae80X15a
-Y3yoZlE8NZPJa9UkS8hi0d4PgYo1aridgIvuhUgwQyr6WT6GgIf1FCvqlB2qSe08onSIHevp9I1D
-sc2mqFyHgcPozDKDk9lASBXF9bxBYRKsAZQMmx58oKuBuPH0iMFQVykgqGRwSbaidFnNSDZqaMZk
-HKF2KE3mVZrEnLNG4iDOc00T0aZr4LPJGkYJSRZY9U3Bx0xk5qIxK/aQduhF2R3xRqYen1ghjqwC
-xBuNJX1wg14EIAv6asfAqtzSEwrW0LHLvdbDLlnyPGh/2fEWAUe3Qn6tb1OF0Et1VpotEdOl28F3
-3I2o3U9gEuaXRt5vSYlCtySye3PSlNNQY0IgsNe4Dgp73MeETynkb1qJRdT5IKw9kisL8gX2QH71
-aUtCTXRW1lruOhOiv8CAs9FrEbZ44cMJUAOyusref2BbxjdW5CRBlGL8RiezuhUTgWWuj6MB8hXq
-pbO5qEZ4D7QbzkrZwKSEkiR663yaTHkgpbPegM0k46pVT3uy21YShisrt3wJfT/YGNDLcHMq4Tfe
-5+AsSYCsBI16EWXlS6WaZDWAA76lX8X25dfzWin62VNHigoVEs8WzRsqp8aAcroguxB01xsZ+zqv
-M3AKMvQaYA7wjQJS7PYjFczpXEbQvjq/XoOCGjaEOT+mOolX/VRuy8n/PPMOoFRsgLNZxkvfpHeK
-XjDnK7AwlSbGpkQD+QNOKq8xdjcVm57FuXwJiOjWhob+CqjUNZp4wsKpiD1Vt27CMLsm4q9ZaTUh
-v9qA57zCvOxFsTqRhT4kRyYkdwB38Sn18bQuK+cQO/3ANkSL346qzwRcvCh6dT60TXJu+emlOhs+
-FswRQOyck1SC5mdVWvlFBwHRI56L0hC/7nqEW0bNItjxInsx0pWMEgPtANz7bConazX1TL5GWnde
-3aW6V9f1czoiiOqm7jZKoFtChIs2IugmoKlTQQRSP54rvDmrqneOjdYhOh7IeVGLbwnmQA9q/n1b
-zE9pSOAVL1C+Ai2srTqzdq76KHEZHzBp64HgktHVuCWI97WtQXNROhaxJJPJti3bz+E8nPspUDTo
-PP4Gt1O15eMJXZqTmcunkm5gSFtM3xCpD9jKd2Gm3TdjgdGZ33liJhZ2U0T53D76g/KY1DXCw04r
-3Dqxk5MhAXKNJmJX+G21tqPQZk6l5/ucm/2cOtHXKNbDr35MzIYgkIUjdECRpj+lSi4YFIHPhEJY
-k+cl7+lbyq1Rl6FbZRr30wBpsTH2rebA8jeYADHqzQBXpcI2MdYNwS8lDC6liY4y6awLmK70Gubc
-3jGHDd2046xJscXHqw1wyYsvs230O3gwhtv3ZfGlroFGCnhvK6Zd0Uonh4zNrp9OOjydW4mlzyWL
-gx3H0s6RkEVbqTHxqLOiGqj5JH+tVJ5VTtIAnfvmq7RS484e0I7DQPhiwhRdlYyEriw0kt9GK1Vf
-zGJgnZu7OL73hSQ/URXKRTfMxSnELdAbyqSFa9yPAs6AkjO51S8H3LaYxnL+WxhHKwUnAU+yswFh
-ZR+HIsXiO9iaa0X1jaID0FHNQ4xJ3HXJ7mRhzrAhZPq90cy3wTzwmfqwIoyRczyB5xw6lanhbE9+
-qRLhthdDs/PhLJ1aWrizW8fa+bXDDpllF2lk3yp1eydycRUtjZJowvbNLwFaIy455sOXPY0kjycd
-HU4BRvZZcmRY/bdy/Tcqeo3K7j+vXC+7KH/+5/950zv8UQEvP+e34tX8pBNqBbnHlIIsbbrY/+od
-2ksHEAzI8m9/lq1Lr5FuN/lYyIMYbdgUuz/LVuOTQLtID1LqXMamufhXytbvrdFXOppFh8TPYA0X
-/A95//vWd2eoTQVNafZiI0zOVI0hKNDDizlr8P3mQbfPmOG5ECH2HGKeehIzEVaDMrJYYHH5I70J
-EItzDqvvRnV4JFYg2ViBlkKNbJ27fsncNWN6RXOFgNlIiH9lgziTnfKMTxPkBWy12Oh6TwQgIpaW
-CwGJmBhbNNyuGFOQU1HpzYV8rrNpWmf9/Bz/P/bOLMtxK8uyU4kJQAvNwwPwSxBsjbS+/cEyNzdD
-3+Ohm1ONoiZWm0pXlMsjIxWR3/GlteSSuZEEgXfPPWefnqwrTVAAuJOYviRxErD4saYODzD5Wri2
-zrBS7NkMKLYwu1DZcsj+K+yvJ8vTFoxQ3YDdVoxBbumvrYx7v/AAF7qShTgbmq9aeJpPkUXmTxcu
-T+XmD1pjm5QtARSmSeGxyRSjncuu2O5ACYQwdPsoLPfmUl8lQgk26guUAOWhaEb2h5gdanhG22Tw
-KIoNAYJmV8qWpAcr//Pgzt2GBYW3t/AQrDp3eDGiC4+CtOY2mhxmHeL5K5sV167Xzex7JAyqtULq
-sKMqH1+KLvukQtX0O836xM5k+UNtv2hDUW6TWY83haD1CBTyDYXumNoNzCR2Tqkku9/6hgJdbNhW
-tumrsjo4Wt3f2DkFmCm2met0wCEShsyOfPY0HzvVlb0UJwxBpktyWlDUtZ76do0v/WoUKtvUdvkx
-ZDG9RbZt4HDtrmiJWtMdoq+8JQrKiHv6nMTWCsLnPocBT5Nl/uYoRoOq6p3L/HjbV3nKfTe9WnJ5
-EFbyFBKa9o22OcDxe6GJlFM0SYlibSurpMZI7mXajgFmQ3EiaP8mSvPdIPm8chuAsmHHPKUevDqC
-9KPsb6OGLakzpu/zhVuRXMpV8/KYwytYp/RHiME1buOFwzIc0I/RK47pcjF3NOmmjTOAtilIV2Xz
-LFF4GAl0FDtSFWeL2uXNmKeXgqt0S61Uv8KZEahQHAcPGWUCdSnj+NOiK1ojrbdiifrQLdGXLPtj
-aGq3c9+cy0l8WKy6VnKcDkMvPV+jN5Nn4ETKWsuhZMgjAIkL7rEmuNFdFq+YH1g17rRhecG3/0aJ
-PWacBSKAXdqn2uAoGsPhhCALYxPtG48D6Bs2AiRdjk2s7XLanJEUNrhc7rxBr1ekMI92RVjZCQ90
-i9xN8WyQTWaV4A3eS5SKjwg8U2A15eXA2+9SxQcFYXllZJcauSnmFCeL55Fl955ar9tI1Ddgg6B7
-NAw3whKv5MCPcWKeWr1Bt6f4xYcZuOeK3NFEB0Wi6rqgpAXDByNYbcJyuPO0+jlx3Ic5sV9zj/eW
-X8rigJ+ajOctyDpXnGMj17czVZ9BWo5f1JwNXDszzPkms/euzMtT30Ta2s7Jbdfd4q2dKOlu9ThV
-u9rU5nW+dFchzGEMEk3/4lRRuGp60hGeqLvAlfP1fx6n/+xx+m+5iHcqyd//UU02+SF/PEvFbyxq
-pe2R4HVMk5nv/z9M5W/SFCZXvLiUQv6uEf94olq/4RF2sQiT2CS+zyP3709U4zfbvujJBAJYh1GL
-bf07T1T6In8Rgl2GIdK4ZBqRmx3SBn8WgrUhz5Oc9vP1nLBviqo23xmpJY9xDp6f1qOvtjfvY40o
-/BCbr2MiwL3Z8tyUSXuTjlX8UnoyfRkzTZw6I44Cb3LHY2NTctqWS74jDKLpPuLovGHD0l3Bqvoi
-v6FtsUf0ftuWxVOdOtnacRP92omTFPdtDdMuASK1mjK3IvykR+dwMcRTtajyW+/imSkVGE9d1rGg
-pIyvh0ZnAhpPxu6H7hnyPBqH8g/Kl7o11ujlkRt8c14WjzN6WbZnlp8YSYxUczdgfcK1MmpLBE7q
-ZkE8X84UAtHSpyh83HMkUdt6ia2HvuH2WcJTBtCFGcjHE0U4G+bw5dxvvupNIoCNSqBxPDMyOj7a
-bmOWibGfZye+W8Jcu2o7DB3Q/I13HUM1bHZdOzVSG9YxVdibyarRWMpaob6xpUwNey+oP7h2wczs
-KpOHW+n291m/nBNr+lBtf0dkO7/Pl0rbD7YVfza6BfkL5yFUoEEdgWXSHAelYjdKofnu0oiTVXbl
-fejU15TRLGdN8vAaIifEXVagI7YKcYDL8UmHqLOdwjaswGWFY+U7c+1+GxmlXoCTxded1Nxyk5RE
-eGiUsBCTF2U8g6+wg3wq5K3SRv3k2WVzUooTCwhsmFGdZ4dXuFt51/qw32iJYwW6VQKKKyrhV17R
-b0z2wj5E+3lnQzW7NkU3b6nCdP2yTtU+n5xqp1WZG/Smme4KkKqrNreTayNJ9M0C/O02bgz3hYIQ
-SdZOvZBsygKYl9eVBa1IOJO4nuv8HSbW4GfOlN92Fz8bB6YWZ1/M30U+0QhMr9LJ2KhqTVBv8XNE
-tz1aAFGlXMJsl2mzS6p46FehqOtTRX/wRnegTNZpSsBbNQKHPIr49TQaInDbtr4dZtc8//4etEbZ
-Xk2dk+yFKcBxVbzyqfHqdRqGbE4JWl6NhjWsPNleJRmOZ3x637KweRK1C/1n8PYcf5HFDEpUZ6NN
-12VH22KN03jjDeHzIuTg9xd+O+c3gHyA1pB4Vec3oS7WuM6r24FG9Q+M/uY6G1Pg5Gb8TM+yxx4U
-5IWykxPlzTbQaoVMaKV3zNxsgTQoL8Ci4JSkaMuGngYOoNVHTywWx72q9VXJWZAX7QZWpcagm4G7
-eWDIjkQC770WjmFEIuyk28NHw5uFJKHu58rJmGK5NNFHy61XDXLNVhMiKtvXfdeFx24erCBsqcGh
-h+KqxIiFcd3+Mjo8d6SYJ2ywl+/uhd/oXXE5TWtKDW9l1qf+3NpQxvk2r5hzVIAOMW7GWt1XQ3WM
-su4pYcXqu4L7jZAz1GjYKoMrd9NSsSUC2oTUJZJ1sVgvU1/Ox7pUDVO4c0h78xAn5SskoGPamHec
-T19cHViX6bQ1yDSBP9CFblmMNe3i3EoMhmZHFVsq5k55Jq2t6xVU5s7lewnpdTVV6RKUE6j/mrz6
-d8IeR8ubAECPPR742sKINsSnqCkDpIobWPq8WDvdTqUJpa3+pPT9MA8pG6wKd+w4Xo2ju4c8uJd2
-kp1DDvf4HniDil7AbDYb3QdhHWHiQxKnmbog/2maNG+TJgutMVuPObuPS0TZR4NtQJqV4uRGsn9g
-JQPC1sh2BbUvQWpXfkoslNuVcaM1gHgmSdXDYunfWjMnWICMvK5QBv2REj2f2HOFgwJdNdQ4pE7m
-9F10vLuV/ZZH3QVvaXPntaZw0wMU9JuOfbaJJI59ypI7oyttlL8FThvPkb2RKbUS0EA2gKwfYmGY
-7Hbwg88DOxlMhrjpDQpEBy8MOARXOyCyzgo0wklULhIJbg5Aouk7IIw3vVNEEIrRWlHowUzWxWfW
-LO8iDTdJWFznoQPjrJwgjjmg/GI0Sz93xUHRSOcPBdwgnSfWOpogQy159Ohwl0PzdjZ2PNwkSXwq
-NKD8cDY5/innPWVL68syb+9ogb/JuugbjLYbLsh9SxWXrIw73ZmvUt351BcGyHK8r7v+2l44pFY6
-VFTzUl6QsjMNzZPtFU99rD/EWW1vbK0+G3GOKuwdG44aa8fOHpuuuZ2K/GyFqCuTAd807s0jDc7X
-5li3R5YQNH+O430vl0DMeD298FDDV8T2zcnXlDdJ27KS6PiQZRTF+CHpV6LlAM8BwDbLzE0/5tWv
-VNFtTds806qMU4YWi8Kb7l1mTNzBChtKTr16ajbSl1Po+Hbc4iankAY48qI2UP+p52DlqI+Y8el8
-hs6mx4+uhU9WauHeGmf3RgHrADVGPYDMe47YAjJqUQRxXKNpc+2twpjkuRayX2k7vn9NxtB0Abyv
-JFVIq2iEzDiaTAETVxARcu5F7QOkNfzTuG0B1yVOQG7kAj/TfbMULs5//U4N+oWwDsyxSBM7ACkA
-ZJ9rP986Miq5feM6UWFPtwSIm7Tl12vn/Cv2kIJZalgbyiBuHR3ZPs2QHly+sOtuIjhNhxLL1TJe
-9v1EDnzUDXz5/FWdObfryUWxzDgBcYiH0uPK4tMYqpOn181qDpcbi1SO3wqrheUv1SbGobnm+mAJ
-kVK4GKfeTU/lzZoJEzkOdku19UBV7SKKcHweiKCvEmK7BqhNBNblntCSSYOb/WUaiq1MmWTbzGxc
-gHWJ64sq1XfKxhBb2upbNFdvfKAoI7hq/VKvv7uzm6yafKzwVtvorKH6ZkucUumYDXwkQwxUasSY
-ezH7N9M3faSRA+ZKcy0mKt3Iiwt6O9wRSr8NchMyA9hdwdmn1JVfFEtBkBc+ATChhucwtww/H+Lv
-4bA0QcEncBpKgATBHKaVtzIKrAoqTPVtSwnZroxtZxNib15R7MeNpbSyXdUm4RHpB1AAsSsfPn24
-MUU2rmuB+psqJ/HdZiYSDJgaYpHiUZSWNBToWUNwvun2FTmNQ+pozUNkK0o0Y9BiQ9OPewnOdKum
-5avgkB/YJh9J2NfRtiFetku9qjhJWh53CVDkUB+Mhy7Gjl7WEx6AmJaMLmn8bgSULzvaEpTQbuEN
-8uhyFbpD2nwjmF6vOQyFhzjWtKB0Iu9gFEohTbfUjOkCgDJW5MZmHBZjir91QuxNMSH4OT16HByR
-1G1XUxdDGXejSHnrcUhCSMdhfztrzfyG+b5EO+Ika0c8CFQ17sO4pM+gqL5l2A/uwXxglCrG7xaR
-J3I21IpGcgGellvlDoC9G6C+v5YhYcXtSEdnsxG0VgTJbA/HBcDfunbo0SDlE2aEt2pWpcXcXZUj
-BPNunO9qWZ3rUObnvBtGCIx18giu1mbJEH5S0HajGu5+bElWtdc7+wSS/Gqomy5IlJlc93pa0zfF
-8yys7cSfNQogKXVEE8jS6FTrbFl4R/J9W+f2bWsNOtCFAQvXYJ2neNg3S/zJUz4N2HEREM6MbxP3
-6WueHhnTOHWMcDTgPnJt+MM0zD44hvfaat4Tk80IZcvlfVzLPpjpXg1ANeNbmNjBe5zP7pexRg/s
-zBCxj6QKmPjMt+bGfaW4XuNLhUqhu50BMB6aueEuxRaIbObXTULJTcztq/SgB3cRD1buq9aF5B0d
-oBxwJOCwfLAKp9r2g+fuo9S9w6F260WcLKapVC8ildk+cmaBJ8LmZBrP4bqNqqOZswbLiljd5MZI
-vWclsoB6hfCqqPX0yx4opndkBeTNKdVDM2TdLgXnQ95iiW7MC5ldCy2xggkAoXPUXkZRS46bIV58
-LSueAFzDMFqmYk26Ej+fJWR/D8vCgQoLFNacJBYcaILteoSy+ln34JGI210Q2ku+8VBujyRDvXVV
-Gem3zLOGTSuLZZdqM8UNiJL+VM13+gQQo5a6cxa1voXEHa3t2CEM1HJkprz3NoM6n7tD/ppCNnnK
-W++/gvH/ccX9rGNYwrm4vP/VxcLn357e8/wTTk/+N/9dffxJE/nxs/4QRLC/6YQGwZshhvy0W3CN
-3zAko5lyl3AtuGAoFT/kEPs3iDzEVkkFQ/Ryca79XQ6xfgM456CheH8IKf+OHGL8aovD9UzU24Uo
-x56YE+blz3/iEUhcNBAKOUINL8Pa3iQHLRCr/N3yia2s/71IwmWZYbm4+RB4iCPw1/3iwcM/97/m
-AAr3H1+ZIMuBEIWyZOm6e9GBfnplbIw7eLtUjfaInaSGQlpqMKNuatjAWJXDIUjkYmy7uXKDNmLX
-Lpss+RbhTrhOoC9T6qjwJFMsEpgCd01PFIo1eNivxhk6Rz7P93ymyVbMjNzKpUwyIkrOPXNU56Em
-uex1aenPbkcqNKdQjMobLHUJjZi9y3OSXYaxa1wPVPz8hcmCwr260vmd0kw7uLPCn8aONADCOayj
-XLqbsdPVVrDL32ACTs8gPmNO4wyITh/yZO1McaztQju6mq5vI5k7R0fZ4roBpgGlnBtK2TnuVQED
-9NGm8Opaq12KSkLuG+ZZb/K+Wnk13rZVHdmYLtp4Yg5ps+XTg9DOyhjX00FJr/rouVN/l8mUPLKk
-aLL1NCj7wehceoxDMr3QMvFKLGjnbbckhY+ldwiaymvoWDUcFdEY2DXkzdjC3szuLPa1nXqH1Mys
-oEdd+wQUN30NU9Qv9AnMMfvfC2NCa2VEtUmkt/BbOyxSetNkG9EO9h0hZOtRm5bibjbr8aEaEnbp
-9dIFlAjR8VGYefrCcWSm8q/kXZS94flenC/rep7cflVUCkpUPzfaEY/hMuzoK1d3cBDybpUnUXif
-Gmn9QAyx33u21m9Guy2PbTbp4UpStPg2X8h2uTbKO1RRuhwX2nJtR4Q7Lw+z73hztF0dxvSgJ32f
-8IGH5m2NiXNXotJNwQDHw1kzRHcuhVCX1YkRZe1JKz3O3nrewl0E1M3+QLkHPvv2nUmX2GJeIGPl
-Zp3uM2boYxvL6XuW0sdhUX+5oXC4XreyZj9dY3hXmTR9UxAuJAYZBa2J700MQKsx5HgbVSpQOrXx
-5HWcuhRLN4za7Z3dOTGTUTvP7x160EcaxdpzZE7zQzV15heSGXU2XdWziclTVZ+aMuf7EA7tjudP
-/OYVFeBszVOFde5ERLG2mXkUVGFswu3vcjUwdMPdDnQ9lMZqnvR+q6sRYF41WdQ4x90y4/mXosL2
-sNTfSiOMnh3VhaAvSxXtTQziYo1zrHlrYggB2MMq2KlJjIQ7lFgrI68oOXTqJZck7vXo0UCqwoI1
-8pXzS4cub60vxGnWa+dVZfg/AmbglBVMEnk3eGHroxq0cqcR+L/F96yd49DA44hPX94vda5xel1y
-y9u0i9E7G7V0GrNnUiGRqUT/onEr+U5fcXdfyip7jLAs3U8TiWjf0wSdtEjJ4mYOjcuR3+KFlkSW
-b+Jwdq+rpKIfVl/M8RGeAFadUhg5LF5uZrfZLD19xbud7k2W1sfBmDR/yLJ4KzRp3iWLqg9TnOoH
-Uh7aU8a1ZfB6huqTMywbYW2J9DWqKT46lij5WkWzxsHdpkFvmIf2dojn9oNUu80nQd36OJrqtZEu
-yz3cb7idu4g1pYvDISiTMqcQTJdg5/eW8povkv6j3zCSXSMW0lIRCm96DTWhBVZOLN4KL3Vm+oJP
-LaaPxtVzZy3w7XBGNZujkTDilDSmHJSeGX40GVWAw7e6RY4lcG1x3QAU7rjHNUglGtx6w/bKHV67
-4QqTT+1zL7h0KcV4gdAm74QyKubDjqpFN8W4uMzf2iHE4iGRn/oBMU5YlGowXViM0zmByrJ2MYCk
-GPM4sm7KrKAjSPY48qolXluhxnjHQxQ0VYMZL+dOK/V0OeF5F0GZLXDAMSAS3sQlyuXQvxVlPPt1
-OQybZazsoyP64dRDIOZ8r4uD0wuH0Ty0D4Tuk7vaUsu+hvixBwpOhUCZI94NE7XXZgyYm+YX4FNz
-XNQwepGQVI7dNNOVuUqj2rjNeNiC3TRVMNfQ2DrcR/jmCGSfaMqYHi65vfUIQ+1MDbF10vnwD1Y0
-VFscheEqrh3qsDRCvVHCHj3NGZIivXbXY0lac1lYHTsqkQEPx/Fo5QPJ7i6c7mqnyQ5uwu2mgT+5
-m8pouNJ/rwgI5zg/tFqsvfW9qQdWKEdAVY17VFOfBL9PuzXtZ9ZkO5h9iKtbcVk9InPOT21Nb5UX
-W+xe0QTotyjb9qFmLF+5XeQ2Kyefu1Uia3EeMxpsifwUBiazRPkpcAIQXcPWRcqkHArtbVeYnncs
-BwY3okeLxf4AeX1Xe02MFHipJpAD0+oVZnyC447o9pM5A2UOdWQ1K+c76qtpyG64+dq0x7W4f+M+
-6g9NaVt78ikDk2BaTjQPjBSiWQ0NLRSfrNxK13eDY3fbNucBg8kufaAlKb1JvTz5MGelBfw77TgV
-YXm7DHH5CDPBQTaOkgM3ww+tqIon2eOT90pY9Kz3I1LoU6bWnYvQNmeeG+RQTVkEcdxwDBH5xiwp
-O0QAYvTPLJZMqUfZWiXZgkdd5ZuLLumg6ovNTGk46lOhsXNv0TJxcSANdfNrNTbxGjvsiK+wFB/u
-WLIHL0V3Y9LZRu14ajxrYztdTZRpH8HucbONXSN+pxyv0Hw6P3HpmaKcIxpu+Ph9kHd5xvM5H7Yy
-W9KneVTsk4zBuh3GEJ0XbgpPlkV21m1B7+FrZSWgfKwh2Wmz4vfGbi4PTNZqUwv1Y5T5p5Bcdo8/
-uWkI3zogfVj6GTbHa2J4v4TwykgOCXx1pFrnSHlCUNdRYMffm27e/zQb3PwjPsj89W8i6OdKQi3k
-Hclzi19Pn0Y5Vq0IG3Ze6+z9hZK+rRl0W29Vncd3PAAB1+QVUXAfDfmpT3wk3TWl6n8RAf49VPgz
-pOvX3+KX031Yt+E4R20OCKwcVu1DFnSP+2gngiTAtL31bvFNEzrc62t29etut0s2f5V3vgw4f3rP
-f/8dyOzavOuEg34/p/90Do/HOadJnHeC8KOPJ3xbuOztJf9QVIrfFc28yvoPTzOCqPb8zJtZlAGY
-6eJNmKS3BYZSVT3WgtVVvq6Iz/fhlVXXm8Zc1lh9yDys/uKj+/PgAFvq8tH99Av/kjbuRqqo3Ihf
-WADTCab77tG+Ls4iqLb50Z79YKW9V/v+zLpJ0mfj/xW8zfirN+yXKcmrwrRsL28Y8YqKZi9fD8pN
-fI0jZ1U+5e/tWezSv4hxs0P/nz+ky+/004fktgUXrKjZVJ6MDd9PjmAbFMZ1eteeodj46i8AUeZl
-y/4PVya+W2ZClGTokr/8hSmq5AK2mO+Hdt2vo91m2MyB9NPNdbZDbQsg/K2WA31YO19sSEfof7zo
-/+gaP+saP7yOvL3/orQBczgp/+//ef/vf8gPTUNCirOhXrkG+zei0Rey8B+OSf03svo8X4X1Q/H4
-u6qBN1I45D/47w1Ld+1LEPuHbZIcNshh65K2Z5FgELv/d1QNNpp/urxIIJJUMLnJmy60Olydv3yH
-h558nK3jF0p02rYAY86VjSne7ZpjxjoJy+HsWkeO5NN9ZI2UWDael5yTVJZvrGDdyeeorV2EP8wg
-/tgq7VbDQ71Je8t6G6DI5Nyg7JkcT0ZPJLw2AlB0l6iF5quaTaDQyBbu6q6dz5ce0nJtVI5usowQ
-tCalnb4WY5c/OT12sJ7emSHI3dbeKmtBSxhY5D5TNBmezXkMH6c5zN4ywdYwAPZpMkJUGuchtIoq
-3yjKf18m6TrPpTH0D1pmhU+eSZcvp8NRHVMK9z6WYmk3QHNTgnsIzyfbyj0a4lyD0k6otesmdNM7
-14xLtaJ9csE66unFM+yrmeIKATO9zbVV6tb0AhcYG3XsapfUMx2AkJKYQDnwH5h8uLmbWZHcu5ZT
-fmt5N4PZM8BCeaI5e91SHLGT44nzjNJ2WOu1yZQfBuwj9gqdBtptl0OEZ6oQxqflNPWNTcL4jGYs
-WS9l+mWC1MTUrc2WNVXglcZymFRm3oV6YbxZ5didc5nnZ67Z5EkLywIaRRY5rwsUzFvTKpdPO5oU
-A3IxM/tFy0D1aUPpFNZsT6c5TaYR0UfObgBzpqTOtnoIC2YdYYqI/YhSiZKQ51B8yC6j71DVHZmD
-1DTyu3ou1LMWsc7lg842aaf6fTRGzVWnppFOMqVCX5pkp2C10hALU7jaUzUff59mRZ90WTlBQ5v7
-pkXzeKS/U/IL9U4w0qY0QGyz5HuU6t31bEFv0ugmK/1COeRUKrdW3qVjb8FTniztM3WjITv8wv4i
-SMlnqY1x/jzhMD02+kSrl0e5MokzTW7o/NQ1VkgdzzcjG/fARLPPyZ3lZkpM557ungHbKNU8vi5D
-91aZvDjPVu52CavpNRYWJUxzqC+BVfZiM9PaTrDb6nhzpzBZUVqE6J0uTnYTJvQ0i2bWSJ5d/qO4
-V+qtWzSxTfj+bmmbt7+WiBRVPLYzRKCheCDqx6a97KueJtNZtMdxoCiKhidcVGbetTu9IyYCQhD/
-RNv2y95FbsB+WvPiNVW61CO1Xb1ZaGDb2ouBhbGyrOZKdhS8UKuXHeHwIq0UZqtv9VJmFJFY4eV/
-CrXHJmmTb5VFDQUzhQZbmcFDHgey70/uMMXbiYqd5xxW2x1Zr3yDoRkMcMzA5ENtYABsUpdoaQxz
-qGmLnABhRQe4z0rauJita5qrSk0+ZXUzog7NlB1N1HftPRAHJAxt803z6L1NLwg56Mr0vnrLAljK
-0CfjUWjAfhOtps5Sj+y9loPbGUxXe0YjIsblueWwgS1Q3Fb6MrzhXZ+fW0zqV3WcOmyR+kFUKy5u
-tBBcFm9xvzAvtPhP1s1Yg81KR4vyxDCnVxpnkImvIsWPMA7agyBxfGVJnMI4yJNbAVwrxUs6MpiG
-tFo9W3CCd6QMjXcDr0WwCLveOtFgnpzUwcqG0yfz+7QbX6dLOJuOBGEcatfojhTbc8UQ/jPvZoag
-U1XH2IVjtaQvoa5Bs5ro2zvHbqx953sTBTO/xL5HP7LWdmfHhyGs+h2pbfUia5W9OsMs0rUQERm8
-+UKj8zo30L04/U5NNr2UWWyoR3zs3Jai3l4Ojj5OX1PST++2SuWpDyUArjQHFhi2k3W2e2/aXQbB
-qxFt/3UminTkC2k+uzS1n+a6MD57z+n2SehmV50bGntk6Hirch2XraskiaxFhqcEU+tJzrTlmjOW
-unWGLfHKVcmyFYlU92xx6405ZwzhorEfMP9gzKhqvNcGU95XqDn2C/LjYgSwyxKytmnHlNksdsoj
-R9Otm0KkPfN9rBNwqabwCS3t1DSWbyHWUGJsjltChq7Z7Mj/pcaKFHjKEjJ3D9IdSSAaJSAGgBPi
-rqo874FOvQwrEsxTqrAJApip2W5zxKBnz2rCILT64s4DgP3BnSU8pGTNXnCr9DgwSuuJxGzVBLHs
-1YeFTYXAPBXnWyvs4pc6TcJXtZhzkDlxv857UvRKRc56qY3qDciEQX1zP95ofHJrzR7Gc0ME59mq
-E33LPTXcVbNyAvieNHloGsXp/CmXVqb3LBFN3CmRyB/yAm1yYcB/W/hZwTTz0Fi18B3Jkg6fbtEU
-78YIiwoxPi0pKJ8Le4OYlewz4dLMV0kMS2YZwW8LnSvclsmW2OkMvsStDtjLWBBD6n9IU1fslkaL
-bmQ5V9cLLbOronPTjdmzcqcpkqK5voi/cuID2wGHA9aDythi3vFMcnnS3nfGaB5cY45v4kINm9FD
-ZYyIuq5oeFuOmms338gNhtvWieI1CYXlLq4UwpbVl3cTp5iNVJZ3sMzKOHWXYSpF052xg0ndL/qQ
-ZEOsY8fR9OFAr6W6wwxaYTJk62DBt6P8txr0hodHShRJq+2xWHmVJTmTSOwgRqQZrHhHuY2isruL
-bO6ltBoIImDEB2moktr01ichrtK5wCOwIkSLsmAX+O2pXE+oldRJIvuU2NOjaSi1hgyfbhegEGv0
-PWenFbQdGFYcbfPZiIMYG95Tl1aoTgMWirim/3vGtHpFXQHluPkykIyPtK2z8CpJ/c/pSXQd4Wsq
-23hWe9pW6FZ0mKamwTPVwvibx2nvisjcohX3PshWovt1UU4rc7HZvowUARaadG4qfDK3YeSM66Zd
-sCbmWsMBJOHV57W1bUccXRcm8K3bNpHPsaM+sjeoKClkm2OV4P+BG47bpunVpu/LcO3kHMZMqDqr
-HLfIlqY4w2/artkAiqRHMVgoYxurI/D5as9uwjsVHc1bllYkR7PJxV6yfj9HoU5o1zDLazGMGVcK
-ls8oW6wd9hVnR64l4vZsxPEWxVCn4tSr1qnNUXUwSO5PwvD2bKzitQwLVH+NSsOIEPjijesIH6rN
-FF1e7MAxj60V5V/ye9OG/ROSk8RdXy0uTtV0FCu7rqYsiJbJtolEa/K1K5fqecpI66xzUUalb0wL
-fLxizh9zKbXvQ611lk8MEDiCBv5uP2v4mUf6uZOdgwcKzYoU+CdZTxKudRGOEt9kXT9GCxEqsgKS
-nQ4ukBsOo1yOCV/KLxFH7n6xIueua8Lh2wjI8nnpww7SLmXQA5XsFV/9fNh4VQztF4p++chFZj46
-jlbtRisxSMJ6i71rJS1+QUot7nub4TzHmKMPtxRbVBr+TGf4yolMF3QsDM0da4OUFm/0WJLiSGpI
-xTr5WpaEnsHRa8TURui3owa8W+6ow+mxUy5L+VY66fKoRqiG64JV7hGBQVtWatSb19+Hsv/Mqz+P
-mjDJmQ4Z5/7FcfW7+tvpPfr+nn+WfxpZ//5z/tjCW7/ZfAVgpwCjZb60YG3/MbEKJlaY+R4WM8bF
-34fZH3t4+GAW8DmCd5If6Bn8Tz8GVvc3phd+Duwa8V9/8kd70A91kOKhfypL/qKR2SBdmFRNYNU0
-+djEEH/RJdWC+q2YDQKPiFtPMKqy9qV5Mb1p63IR+8mWDG8HOSU+HM7HOmVxl7qnrHpVYjrIjt7C
-Qd8MWMZlwqPXOyc29EhGAw9HFko8DVibn97y/07gdC+/088KjnUJUjC1mhZi2YWr84uCgyBfSdzn
-a00m8t0grv00hDhq3dTCCpNzojlFc5odiaZ5AZSXme1ZSDy2jPtwX0mIpzYRkqD37OGVduUpmCx5
-2XDn3j52bWjeZp7EAaVn7cnRW/kWokXA/k5NHKhSuulryiLdpDF1rr5EWXVvNPmMLxSutA2FPWN6
-bVJjC+nWwOTIl7fOd3GtXrBaRDA4FvxvV2NBVN/khrsn/Utyt5716aEYJwy8jPUVcYw4Ttn9IGkU
-V93oXrzVLkCQrfX/2Duz7MiRK9tO5U0AWugMza/37nRn3/9gkcEI9J3BAAMwrTeEN7G3EVJKmZFV
-pcp/fWWmFEHSnQ7g2j3n7OMU01sV1CnyRhQRV8aKP9ypUXfHyvSSH55Eulr1fjwfmTZh7/LKgh0q
-WkmXalnjiy5xginyzLSEabUTOSdbMZRdiHLQEHMz6FWNWiV2WFLdi2F6a4TIo4QKZjj6vtLOTSpD
-CSYLusZSary3VBkdhZO3C1khmx+QhLnZN55hvrbUtWC7LvFYUgyKywstOyq2cd7C3KnyjNMQt6wz
-hjkJWqZtrmpnhonaR/G1xIl86AY/vUWJzW6Vy/sDfIv7qmRzQrcrvuHBiMaHElcejJ40eKIG1j6z
-ByZKg+vha2FIU2wvWWXQ9lhhA2v/XoKSxrJdV8IInnU7y0OSzN79mC3NKVwot8BNxmcIN/a1lG19
-cCDJvDh1yak+dkHF+sL4jGghOghSe1dpz5FxjKED4DEz1D25TzkibkDClTThvmtI2+ama+Bnr9KY
-31FhlvjUU3+eP0aXwXHbFPFsrfNA+d3apMfdpA6WPljEVcwEVpWEezpdi8e0JShpJCR7uimfeD1+
-fV/g37nQ6BwcqIpBqDXwiA6+EhghquCuSQz5gsMmZLct9MaTCMGNkchbCnlDuO9Re8xsF71KZ/ro
-90ptKMfttqNrls8iSaOzPZG8WOD1WLJ1b971Zi8vlY/PS41BBxFvck+FGYGDb0j54T7P1Ew5u99F
-gFwaKx1WaWFb5gZhs+v2MP2A+HmDYlZKUtcfbsKZeh/yoh2U7DVepL46DHoOcK3VTjCsaktxcgzG
-eQDPExclrdeiHb6NrqBWOmuTkic6Hry3MK7mO56OwVPKSmkALhtRLzvLaK7XcY4cvapUnH6E2qkv
-U4Jz+SaEC9jt6Ckp0l0YtfoGror5YE6NR463yYwWPbzOvreMPcXGT+yi5Rjbtd2GNG7zTJtvdUfW
-mY/BWEMo9gyVna3Ztr78pjNGDkCCWFInRrArsgULtQqEErcc6IReLei5NbL9/FQ6WcZLRSE+Fv7k
-3cgG97NlUCsE7n46dVlWvHUT56Nimvv96Bkwrii1BtxH+n9j5oZ1CTnTzKsc+vRLrA3z1p263qd+
-Ssb7yYYXthlLTDUSVth9ZhMf3WRTTleYnS4eeoiFI28ykZdyY8eyUts2ysn/elowNRnhdB2TCrgH
-6RVNnI0JCeiiyo4d1KLHVDfuWxmZzSa02XCMMUTupEK0bDq7eGWd197zKCs2KTs0+rB1Cx3LU2+e
-3zmPUG5iKp8W0xFAif5sOGV1OwbpTJJ4APubtjBRSuGR9rZn1b8lxGqrldN0+h23fVyuA4WF8n9+
-oPy5oSJw4GMKYnkC4xTb5T8+Tyq7R4NoSMioDerwBqbKKdr5e3tDQv3fqXPL1/rjs+uP3+sXXYzP
-UApem++l13pLzfI628T5duduNc+aleGvms9+F6xksOHjsQkJvP87ae5PigumNHxjC8wWTi+S5J8U
-lwLYorDY9+4AjbhrM0d0IUiyFu/tsGrMdb4Ltv/mLf5V2fr5PQGkOoAJljaXX5SleuZXGlMgvQWB
-heSCs54eq6Na+fvkyuUff/Vt/vX7/fIa56J388SdOU4Uq80Qb6I7e02wep1sDPwW2xUbkTUoN3cn
-92Clk7+LWv+Zl/84LzO3Lm0u//t5+U9+VfSav3+N32ZlHKsuxZCCoBBcXCpj/jUr+39jgF58lThZ
-maaXdO8/I7wOtiOEH9OyIPH+TPf+Y1hGEmIqwM6Kq5UaYRvm41+Rd9yf3bz/un5/GkmRbxZghw/6
-zPq15ZmUE64gli8bWO/D61Kf8H3kaXQUFik5027SW7t1qiMegOqpDQz33ae2HbK4me3rMsFIr3rB
-eVdTFhGmM37BUXDj9zz5o3D96HqqUhbbkV28SCsZriEyFYc4hp3H4slb103vPIz0u+8SqlSuJBHZ
-Y06i6dHA6vBSC0FdcehnT23b9GdMesPbZLnsxLtuLHcGIJJHqvjqjbBq51U3kNQ10zrjhNPrRytw
-6U8v3Ny58srBegM6QFcuAuq00mxwaHxQHoGTxf3vYdI5WpXjYwJCPNjN1oy+gku/+PSjob+DtdMU
-uHgM7JwEFbnNpK5gmrVwrqyUOVGr5s2MtP1E0mkxG5pQJqQbI/82+NuFwUgeTJWbYf70svfMcKZ6
-3dksNiEoDWFB7XQ+veeJ5ouyCMmvsWPa342qNh9Cx7YvEaP7riDRdRnZR90WwtCQNkgDTKZOzkqO
-YUt835PtpktpT1hVkQoh+JATWTsqwCPqg5G4b8Mg/hxUI/0DkCbzllkH1FCWesErNr5gOLtSjqQf
-6Z/JF6YXrQo/8xgyKEJ/j0XMq1kL906/jrMSFhTZPtfdpa7HgrMm94qolTWvOGzNZ692ky+VTtUh
-Qu449gbUTZmXJYwt2U7fNNYrRActy4YxsnQOGZl10j9LdhP3A44yS/eUN5mTiO6mjv300UhEdDNZ
-c7/s/pf0jiyNrn2upoadf4g146Om2eihdEXwWhBHB+jshq+YXymKDTMrAF6IaGMOVXip4iDnuexY
-13Wc6yslg3YXaneZRwvvumTnyksbszPpBRf3Wq7tbzjaxCkkZkeJ3k9rL84cbL7GT8tvjOpEZeni
-BK4WT3C9uIPNuB4uGgfyHnRSd1viqr4ybWXu68VZvCyb2YPhNjZpxFwNiwN5WLzIde9kAE+cdEft
-gktgym+22WJc7vhcYPsiZt8WACvaxeDsmyWd7HZjvAbS20xmELzXeUJzHA/ldTlSRMBg662SEgNp
-3+CjhsupLnaAaYl0Z0aghGMyqnS6L2dr3KrKR1jibrSyfUgyjlXSMskebIsx0js5Mghvsauln/TH
-kp1evN7Z4vqupIsteXGCp54sd6Mtxwu5jfzsj+mwoyYFL+AQtOisHNcOzeJRIkcZvjlTbFybJmGg
-5Rc/sTkukvJsZ3UWARmM+n3NqRWCScPJd12oyWe4YCtEkVRUF8Yac5/9PjHUlbDZCvsqHnFWJYvH
-ytRm931K0u42iN34u1i8WKll6W2z+LOEFY1vDlSedbW4t3AHGrzNOLrixdvV28S/icFRIFGMiGP4
-gw+6lMk6MAdjH/10h42DaW6R8ykcdHgX4d+Odz4MnXVvahJv40QojGLJaCVLv3i2RZ8fg8Wctohc
-T+AEy4sTNd21XdfGNl/sbDHi7y0pp+yRz/600YvtDWHSPERakKtaTHFgn8OtXoxywU/PXJ62wY1p
-NNTJcyIj3MmB0vwSmZXaO7uorK9JYIhjwTa8kw5PjhmnpItfYgPnNxcYW2WI9mi3RspqlyJTd1UP
-JPxEEMO47FyLsCygMtBDdVtwjGvdXZ3FJRUmmoy35hPik4o/VkYYXE+cfnctBV5LB0tx7idyQNrw
-3ZvBymMIYRNSg5uIN62sEOifzPHkcrGThjKMhrgx3LpCu/iM87RkU2i1xJw5J5csXQges/XHkE7+
-a6mHcpaiKKCi7Zek+PF6CrnZ00kk2H0SsKNfyl2qpkZc91QAJz5wE5MqKjNZWqnafmmo8ivf8E/G
-tDRXCREys0EDMJ6jrGVdKlLrPrbebGSUG8+dnWMvaBxPcm/+kS7NWK3dmI/90paV/SzOmnQRHzTw
-tr0oneKVq85G/1tArXSgoqw644QhdmnjgrfAfysvMZ84juCjzpfmLhXK4cNH0eGQ42NIJBwnYIJ6
-rdqFjqxf+Hb5jUyq8oFMA3goW9M2HAILEH4dfdSjXT6W0uJUNpoS+C19YnY2jeFRcLoB5NPN/mFu
-0MO9QdY36dJHlhQNrNVsaSkD6DqceFQbJe9zRI1ZjDtCrVynDPQqG3L73M5ErYWgPyfG1PyI7EqG
-P4xi+LyxtMofkWy7vTOZub+SS5Va1JZqHyz1arW/EPYnl15eSLb0r9Vzlj74VjasK4+a9ZUquvTS
-lAksxqo05zvTwz6ynjxvOCrLmN9Tcl7Z3jPs2Fqxhgw/ZJzX3Hdq47PLHep6o0heatsct5Pfjisx
-1S1MuChPnupqMBlTojbG3NZzBTeW3cA6gjC6rSaVvOk5HPbDXJfhugS8p9YTxk7U0jEzHtnALU29
-sr1MQT3u8mHQd+M8u/syi6ozosb83LdEZ4Vj6P9Qcrr/jpLz1ybsvvpKqw9EhT8Gw/5hxuJr/TZp
-k+YSeKNZo3osU//QuOn+DbocI/hCxloGbQ5z/0yHAavjExR69KALanL/tZZ2INMJzzKZiYHlsJz+
-S7Ccn4v33x2Ul0E7xDBrg+3xsVEBTv/joXzEBEANVDFsfHwca0fI7k5mXvpY9WI+tuRinwfVUqzl
-/lR3CiQVwKm6xpMwUrv2Qt+RSdGz6D/mMdLfgP90B5ZgwNNBpgsEJvpUbhK3E6e6TONLPFiKmE+L
-sYpRYd6y9iovsd0b91kSj1SI16BaEyiOaaDbhySakwtHEUiNPaQ7Ogd6yslW3Jpwkde2kXw6C4/C
-qIvyVSXzfGFBK6E28+w5R7pdYTNy39KiHy+hx+aNNz/Zp2wJr6eejFDqRT9Up5Ak6Uxu7mvCznsg
-MQGhdmaURbq8ttopP8RhYj+Ug9I7h6f0xyAT40Fl1njsZDptx8xG546mCbo8xvoojKaNBXN0P3sx
-rXMmBduMzvXWXPozGlWUDGyzujKbxrm25sQ6xTqDqg1O71s6a7VnNxnfpuRc2Tl3vXjtO8G6ybDr
-5G6chLvWkU1ye1SkVOYg2Ixaj1ueJOaLlVK6GWOKI4lEkdKuVm3yaEPrWrPiHhlgnRzSqeFjLfNi
-q912SaMvKbv5XZMOaXMXJ+H8XnWlPs9LQIeW72pryTLeGtPEcqo1rfIzm93s0hd2Wa+acZ6+4lS5
-1iYQLRQcWxXbmtX0DV2WHH5MyptuhDtJ+iGke2Yci2kVtFieOsLR53gqLHC4rk8OAQYyvGDKzPnd
-OTF/ecWvZbqlGx1GLWHn0Uz5/PVjTpCb1NKOygz52BIVAx6Q0OoH12RWG2JE3E3dsadOe7brWyg/
-JmF7XloINyDNL9hf5DbIWnwSxAmTJ8A1sO3ZrzKGoyA3NKJEWfhEnoeau8werNsIX9X9ULVMZXgR
-Zp6V0Nw4aw3mSMJaxFCIfSdtN0YSlfN2qkYnxCM0D3LV8rTjpw98TU9ilRwshsG1n4iLU9ssf7zS
-n/wbM3Ht5s0oTdW+NIlJBSDdoreJpU3s3FZR3qioHl4LhaQEin309h3QpuvSyNGyc7PFcJDB6P8m
-nb65Y4RpzkaKTyIrc/CBY+x7t1iteBBjESOu0SLrwwBGlG/1oK/qzND+um4jSsVSpkkFp+ilqiP5
-QLV0RhVXxAxWkfIjtUZZHwCowMa7S409i6wwiTBY9LQLiIbyUz318XU4p/kurPzoZqii+YBzITwr
-ZsB15wHpX4thtF6jOLVwZ5K74bqtvvLYFgwpHnM7Y3J/D2C42ug5oTGwtdL6I6LV8qhbK9pVgztw
-MBvDXR5r8xRSsfVYqHFpSjCn80SW/N1OMoe4iSFraH8+OYmkU+8up/n3JIjCbNNPBjBpu8rXWcYB
-Ehm+mS+Dim2iI5H5npGFufbSybvYpVm9WzoAVRiM+gq+rfGoPS976swMUxUAzpjc3ZS7+8Hwejjg
-HDRfE2v0dsZcYlsHOSEOfpnHjzpI9Jpg33BuKsRi2uVy/37mz5PE6cP8U+tpeq0ir3n0AEtzveeg
-Z2DGsNJ2wV3Eq4AYmrvCimVcz27vbVW3ZOngnBATwrMw3AG+KadNhbq/Ga2oPEEiwOQ/We3NlNv2
-Trq0vfRpHBwc8NUcorL81naU7Nc+tpsr4bZc/ENdbQdRxe9Ba/Rr0J5iK8e0Z3FcmBwHqqx81r6j
-7ojbsa/tyu4l7yWeMwRz621CY79PyGG8z4XsSH30xDoIifhvtm+TdXJDQjySwzkqUlAi3Fh8ojLt
-J1ddP2VP01BjaLHb/uxYRn9mgEoEKd2+/+pz14X5ABIEkQ6Ndu+ZsXmD7wwed9ek8kpyVHgBexw6
-B9r2AIQAOQA2IYJoSwGl2s+17b9Tscfa0a2XNGUy5dmpTK3xwpolvfIdzg6rOps46NB5wW3JltVn
-r3X1iJozXcoizN9pXiCrFWXFhfu1+QVPaPqoGjehSCe1nRuWSvB9kja8qr2GU3Ij6bCoEg6VFNtV
-O0+ZmEvaxh5e2QQUchWFQX32GzO4cXkfnmgZ45RZMlTv+Jbde0mvzzOrHgKUblnXMSA4GM9KFdFz
-YETJSQcRtUy1JlzWtxq7mqquEqX7PY/fCa1tFjf8WO13ju3eh7GAgDqltspr75xotl8TA9NqFNfp
-XVW28FUTz5aSy7NQ24Kc021f5DMqSTRfqbIwbuvEhI8EW7/6aebtNgk1ozdu0lGTnff1jSMVFtia
-p/RQ1w+AzDp4OByOQVs2nJu0ITxWQqlzAAk7gpRw9XO60LoiXDSXxkt4cCdzWzxEuS/+Ll3/Zy/8
-+73w30dNh6Hxf7sY/v5/1kn97f/93//6q/w2sHr0wDuu5cM+9pljf7NQ+AyrDmtIFHvbIWbF//WP
-YTX4m0fIkIY1SuUdSMlL+88/1sLO30L+Ci2FyA7YNwWdPb+YJv4nE4Unfg2xkO5CUSF3QOxqYTP/
-4qKQ2hRJAi2FmpTO5cllGP63sXbFN7sMUW6x3Idw/2tH3JUZ3TTOmLZX/hL45TaRz+syHcNh29VO
-9aplZ9/US0yYQZHEsP0zPYwVOH6qf2aKfSp1wSl1Rrueu0TAB8qhfniYR5EWs5TC0sogoRwuYeXg
-Z245i2Ty4rIC+ZxCg2pTY0h+4OEExpgLfNIrh6n5Ku/mHvHHz6OtWYZOs9KZOyxUK8feUn7Rya1f
-IqBfO/TZ+EQdg5nw3WiDrivxd5MYqpKxARtYIOAXbvZVUVKegvvHlSlKEX5X/UhvbufXVBkAmNrM
-o+1va0D0DFXg1nksFjV8r1wrDbAA9kznCuUenBqz8SoG4XjpjLTaoSR2wIgHfkql9D0VwX1yQdOj
-hAZyTvuBrzm80Y6pr1wMxremYYpH4WrnXaZOmOHnNOBX0a9m3/k5FpDJMktiurZ9tAHL0ceSuBen
-s9e9jYNeO3n5o2Xsu23bsH8pFX79fYc/fe+GSbWH9AL43SjSZj+whdt2NkqtDBwIhpUigoj/gGis
-N+zsgQVVNCnaSjDjYBxXunnGozwX67rKg+vK6iDYyJ5uHbNgiwherQz2sQxQyuYW4r1X+fk31Trp
-iQ9a9gNDrTpDzim2Yd6X3wsumU9O5eW+savowcDWzpLCbsP3qCvi/cgn9uwunMUuLNsTVQPyQSSM
-+7bZZQdTaSj1hjNspIu7RbKYP42ZSzXHrOyNZ/Pn8qIz+E4e4EY+sukR1abYzX3Hjy9k7fwwRFB/
-1oszr/TciHYCz2qvGeKCJyj66WNSxu0x6WvzSA2IOBfAOtdmU3enjBDN95CIPtELX92WXMAblu3G
-NpiK+bEHAAzTU8VvVtJXF9ONHM4w2I+DBr4HzpiOI5MR+UyxdXuTkVpI1qJ2wkPc5nrfEyb9pMCV
-5UxUCX1rRV33PY8EWGudYoTsHeOerVu6TlluYTC34NwxJNvXJeenq7qIuVwjlkw3nZTeCdJCd9/x
-QSQ8o1vCNfNI3zd9MlniaOtJ0aSOSM559gMDVXxD8UNwbDBnMsuNxkkUfbodmP2q1QiJ5dugh+CZ
-oHEc7aN0Ns4NcE1Y/y3YHjn05ZFi6pkpys0JPjMXbxyHwDs7Jp2/xGa/1FVpNvAsbDNxsOeI24CD
-bx/WserpGpepfsECpHY0P3kF5y4IAXQ0FhogoIOhukhr+BpeHZgxhlsZh1tLi/zHaJnd5yyc6E0u
-CdxeMeGs+MILUGiu++vCyKxbUXhA2blcmq80tKbXqKDCBHeIxRjbgMNmmpYZmQlX9Nh5VeZSOY7I
-lYPnjFjKzp7HZVlrwbsRWSn2Mo6fdKLlH2HKODMFffgEsCG9HlmTHRN/HoLdWHX6hLKXfcbKni54
-AhLSzrlKaWS1g/yujQP7wlmz25WWaZ/8CniTGmrzgredySNM82/uMFhr9svTaxAb4jghMblwAWb3
-TMGQ/1DR8Hvv1tN8cYqeYaLzJMXHUdA/GCm7eDNpRj7YpvyWihJ+km4bAushkRwSNuYIobeMD60K
-1FU4j9Yb9iT50UFW+kpcUXM0wBw1TdpYY8nyriIuoB3xqP7CFsE/dKPhXYY+nX4Y1E7dz0nW4ZrJ
-quRcg7CEB+tM2QMvJFlbpmjOOid7EQKqvgmJd+BgMfVXT7C43gRSxy/zYmyru7DfjYaanjo/nOm+
-kVXzRN/wcJIllYhTGJhXuOKGDd057bNShtz0Qad2Dm/euBAyEgq8njB3yIOg+23bu9wGUsH03oYv
-sVUk+9ntqjPl0OLdlJCKReVjmLZL8b1u0+ocOD2mq1GTnozt5MFpdPpA5dlwEjYylR3o8WbxgImV
-alz7u8dvgT6fILsBKCvQMaRH6UwNFvwUse4kK2bH11Zv1Fdd2BE66kyg/7Q1tcV3RAb2kNqIzM+5
-4m2bpsbeoifC/ytafesVidhXXW9vnbKMnymUcs4qSJKjNTv8wjzkHmvnW51H2X2EXObX7u2sKPiS
-WkM6WSE75BiYRrwRJJ1Y6lf8eLYzL5Khl+BqDMYtFnNOIzWK7p09wqoBVtyq5q5PHFw/1cgNAqQ6
-dIUxlc6mbQlQlGOY/ZBh6p9hJDhnUHPVPdJedXaG2j859QRTODQIxGgnBrIxtXcRmBaBYyqnx6iw
-Kpdmd5JU/G6S4DFHdjvmc9UeQ9gaJytqxTbnIfXEExrINFea9erkvbkuGunBXeira2XXyDJ4cg7A
-P7s94rC8qrl8CRwtahYgaO6yTePxnJ2yW+6NKRkvoWzw0XS5enWBcal2IAXAnO2Chvd0cPp9UkE5
-XPWGSK8HvEFHh5XENgvH9Moj+bTTLBkSjhNDswvmwHrKefAchbbQkxPqIzZDHfBQTv2cQR2z2zEy
-iMUZOKf12oy1e0X1uvOjpN/chpCsnHLtqjDfWirWdGiJIqzvQeZMJqpADN2QFAGZy+AJJo4drIdY
-p+/WYCbPtYDESH7DazYugv3Kz/X8FZNK2/Sw4O4qa7L2pYULK8idjJ4dKKRtmJnEKsduawSstDIG
-uhs78/WtpDmNAHZTZx7TkpK7iVKEbd6hv3NzFvdIrtMuBaK4MwJk7xh5OGr3hBib27xJ4qsgnNsj
-yS19stXS5zCqQxUVc77iQo7OlNZ4p87BFhcpHr08y6ieT3AHNQTcxlWHGvzd42MqcM8byUPemfrZ
-rbrmxxz1aBhWNADV94r+MwnD6EkWJbI+/+tmrhCX+jLKj2EeBYgqNDXoiU69mAKx11YkNDdmFVJm
-WE0GqygvSrlN1N/p5Sm3ea7GI4n58hDjTmDHmjU7I6NEInBE+NUbRFTrPpFrG0gPmJkM6hIVfgEL
-zlC/SQyOOyuLcJxx8d54jaO+Ei8HglIVYHdZgfQnI8TeRozD656dTIsnh20k7Cs7m/e1ytQ+YlfN
-JaD1kZgUJoFCy3TnaWXTa1SZ1pUMcv/OLcfPseadG6yqviRl1u3rVgHhatgUWqGdXkk8pYTcaDmw
-4PxftYPrbP1Omx/cze23HBPELQBrbnyppgqi4ca69ju6hhNjyVBCOb5m6wHkZYj6jwRvr0FnXJeV
-V0Uzmw5sLrM9UhErX9zJne+Y/o0Tuji2gSDDFVvZXJOrIEjVNZbw+hlJrl+3CUVipUW2dUjpBnHg
-+X7zpUWrRiOmr6hI6kORmZQXzg7n8FXfK+Mw2fogUjtdN0NcXMqZesi1r1Hw49QvbiT3lGBdOIlt
-rRhozG41BJW8EkHOWUTGJeQHA7r0KjCj+ns2LLSejETtcwDD5zDTH3JRRme9yHYYt/2C+knIdGxH
-4PC32U8SkFkH3R0PgpLooVpYQcwE+qn6SRBSGHtueOLMZ7/l7ryiuLk8zY3t3uKGgUCk0a78td/a
-4l0MU3rqeu28kcxNv8KfAKMo6pdyxSZ7aH8Sjn53zPwvzOO/UOcWDge2anrjiYC7CBgCAeP3uIFi
-qtXoKyCU47fFiNbt073xhG1zXeL2+3cEisWl/zsR48/f7Renug2iJJ90WGyNg/dEU9mOJEuySrq1
-3nm7fDfcAZ5d/9VXSMrAwaPEywxMXukvr1B02oecFix8Axi7a4BxD97mW32stsbtv6U3cLr+4wvk
-m9HYghUqtEzPCn5Juxd9b1R2Cb1hYSjYW6pdnlpMdta9cxr33mdx+ifK7z9LlN+vPwhm8Fb/9wuU
-9Ufx9dH9+W/8tixxl74LEeCXIz+Cos825reFicBHh3eXxIlHbIHgxz8XJpjvOLxxfdpETjx4Cfw2
-/7EwQRKEamCGfoC7LoBS8pfUPf7WHz43AnXPg8hIsUaAYY9PDy0ev78MU2K/tlsa5qbI0aIVEXyc
-Tf3X2IXvi/X/pku8YjuNvr8revqecraBEFUpNHW0NE+zGKtdFBbV2qOT/GQj0a98O+U/++yJfqjh
-CbZfdQkU7QaFMrDMWT76tPnBk8S55gsSDYRNsG7n7JBjlvdYCq9sgxND21jNgbEv2+RJ2l+j2T6j
-QmXUH+IadRIso8C34UZ3xV3K8UPQsUazZfFtatp+jYBQPuat1x5Lo8F+7vWsOQr+JYqfu648A+nt
-jq0OD20zvbWE5zbUHCAYNvWDUwdH02yZaEPwvZ5of8yeIgoYlE+5VFvbWQwRQQlzaszf3RllaIzD
-p1GrD6HBimnc/ivppMXKAnAWB/Wh6VnnOM5Sarxgy03ggEWBPcYcUUiVj/E3jKofnipv5JQ+0xFI
-cCxudhFyJVNWBBgpVoQDxGnS+qGPh4+y8Nh7GFeONIBP00sFvIubkNrSrLpNF3g3gFigVw21EpKe
-5rUDz2mV6HQ/JA74nTb7Ghya8EiWHkbVnV2ieOu203tQWpq6DUAr5Ba8dReATo5764Zv7C8GQPIH
-gm/BZspc2eHQboJQH8Z63GeLGBBa2M1G/dhSMBK5xUvWNHIT1wQSUN/IV+QKnGjZH/NUTicsS4/R
-mH/ULdIX+7WngSwH3PSBLfwQvyJBIKJRC4SfEFtUdPbS/EGG1hen1f5gBN5tY7nfR5QlOXRPgx09
-sHoE+xeGGyXdl7xhCo5z8zIWCUrbRO5zHgr32jApAmE101xMPPaHTmL11g6AazjGfp1fDxlu917x
-apMQ/coqNDUGzAuc+tIXM16GkWz4AJJHkj62yrtuSB5Ny8CKpKNgU9TeC9IhJRtDtZUTZWRi6M2P
-Huw5o6MXr2Fh+W9Virms6V17FQdRdWX4vb2JejpbYMeF6x4RjDVg6G1SoKTnzqOG1nECSOOmmDa2
-307HLGzcg5AofI5OnBPLKerSysqD5bj8Flp2Fqmb2AhkJVCBiOWQIX0SHBhA9mFPiBuTTQwmu6Bb
-LZyjWybNd5jIH4mbPsRkKTGrOUADCeyv4SpEq8rJJM4nezxXM+8MssP9FLceGw44/6JXn24V/eCg
-891uIbpT1P3SY3gh9SqCzeDYHqHTPEV8Kf31NGHyIykPwi+HPZdTwYOKXOPXWmREaeVXeYB641Xh
-fepV+XmwOCMMgvOaMc1flUc2tDenFisrErUr2uK5mSuxrXPvkRh2v6nsruXiUlSvx6mxcbSoN2lt
-St75wqNIlx+Y5E3NDkLNeGUtY2Nqo94os1gKsGOcNYt41GvcBFGina1j0RSc20A42v5J1GlCpTvP
-8sHUBxd+CJEPSqmzHojKXF5EnJ/KXtsrOA28YVb86U/yKtYzXHFjU5Js8aT7mLhLI3I1PQ8mTl1Q
-Ci9twhkoG6hZaP30NMA87NLwPhqQprWCU+HmCGQ8YsYt+yeJ7hO1u8ZvP1xPhVTzuuil3fjR++IY
-m4XaOCWnuU5Z04mG9nvLkPm6tTINJ7ugtsZJ1CVh17nKh7DepenorBMaw0M93vVAUJ/SrojWY+HD
-1TIFltqmGbZjqH2YEHpGD0qSdTVxPoV7SemBxU1NNR35d5VflpLMneEjIC0ff654iBHbwq+srTSJ
-LhqW8RUql/SW3b1EDmFuWTg/Ch/2oz28OPH4Df79S5KmYiWVd+u0gdzYoaH4Y920oQNvplCnj7nh
-cxiZ2vhkAGEZS/kW0tgwCvuB2g8qUD3nRg2QRFLO5qkanntRHWmueJLtWK5NqcSq1N6PWEHAhOuz
-p/Z8k8wWPMuMFM2ICQzdHF9IIqvp1jRHYx9mylpT2vKQgSJd8Qaka0rPHszcw2xYUIraZhShQAV8
-qkZr16flLmljh7yITcmORe7QI7cWFNStxF3Ows2OqlXIiRnxlNpcqxW3fgV1RTbmnlvvD+TcvevL
-M50Kn5NX3pmldc4RZWlSKyFLtt/7PP/ReHgMyhqXtPDnFzs0Rwoaa2tlSIt8HzDP/8/emSy3ja1b
-+lVO1KRGyEDfRFQNigR7UqYkymomCFkN+h7YaN6mhjWopzgvVt/WycwrO/OmT85qcE8zyHDatEgQ
-2P/61/rW0BbDlrT5LUZOa82TqsIHj5vCI8i/I42hUfKi33bqYG2HhG9Kr8VPqobOAFJxHWb8LFjr
-+bsiPQb4L1Y4m++1hn1x1zD4BJasibeTzs8rcVTy6d4A4YKCO5tSyYlWZuUqG9E4yZq38MJd9zpS
-YOk6UXSZefLed7ZUIKS0O6XxKplTnuNQIAn2TeeGIZflNmD4ORbKCj/DTZwqKroYjhlqp9fY/bKt
-nqXbzMI7UBJMw5FJMdGQms2arhkT+keZ+KgSii/M+M2yjaMo7I1Q6b2Y0iiFB6Vyt0zYp+BbtNc4
-MwhQJVbNly9ni6K19GdYwlhT9vpg2TRdmE31MNYtZYQJI7QSDafJVIZTXlIVVU3zt7oN0Kysda3W
-5AjtI4/YHipM/9Xtir0y8PiJPe/WVvDTWhHfFit9caiU4L2dH/FJecvMoi+TCibqRSZOC1TXgt1M
-KXW0SB4uuwH6cmmE79xSzS2/6b5w0OBKTRk2mBMvniKQpZPxDX8JAISxeo4YbJeUhr1CaKABfpYP
-8xi2pVK+2TUWojRE4sAzE29G9s3AV8505741RTNu8H/f1vgVJaOeIgqKIjXimH7MAmWrB909uYti
-oVka3JgUE7E60uBRenrJToA8mQqeFQYTBVSDxbBb4WRxcLwOHQ073ZBX3zBMbjWbS5QAI86RqT5p
-Qn6v0KwXrZIUK9cJ7kPRYHBQQw/MBxcIWszroGr91ukGhEzQWUZYxbiiuRFpRUKOMYieMotOT7Xv
-xGJuwvfWRiCE9P0+9qG27LUZWKDlbSPMCgth8EDWe1YrakZPh5dPhzGsWBsV+rQAXrGaJr5/Tvu1
-GiaWGFSGiukhcvM1TdnKMWg5JoO9pEOlrM5sN5i863lexAaEmqC3qoU2RFdmGd1i9thDU6hB+xo3
-GYyVbWVZyt4b8wciK7WPabNeBJN4wRBOyM7k6Tl2iazViMZVQ40PLUZ8Z1Glz6i3R0ScaG2gf+2D
-XsdKqnGvoisDiI9OY085B+gjTf2g5wr9rTHQVKxoVwVGYKMB6UCOb0mZSg1GN+wW7tRt7InnldI+
-xtyy3SrbBzYHpIDPqarw3ufYmw3syHWTH/MJG5ya3ZXR9O7NRnVCPH/N5H0YIMpNEOgVp392hqmW
-3o1F1K/UQNEWHE5w/4w0EuG6xeZXA/rLuI37g1FzUVGMucSQ967Reb0k4fnCsvJkEsxfVCn7SbOv
-9yQspL6KrTchFuJYwXtrOcW6x3O4CvgOU3dWjafZG9dG7W3NvH1wygYPLgc2fM1f+1LZ5tS80aJ0
-64yVPyXzTWi2D9HoHbVqumkjSK9W1W8H5DnexeC5iYFWRHj387R48lw6hLJKEWth6uIJqJOzsoSp
-+pMz0LaheHc8uS9Bk60LLTomZXxOlPGEdrdMJvdlLgSYm9T2C625FbngZjE/EmI6xGOBaEfd77IY
-CX56gQ7qhhy1WTULnWuYVd/4zjiULBqlsn0hIKNMkJUDM4V9MY3JSpssFVcfb+KUcTLEIA4KrMqI
-gRgQraxAIIrZo0dulLJBaSfUM9wWFZCSdWmW5c7qYnNnAom+osfvzqrsNyVM38vOkJXj8CbxuuRL
-XbOVA+rMO9UT7ExMN/Y/puS/JR6c4pembMv37n/I3/ZSVvCjwqj7MAD8xz99qd6K2655e+tOz9WP
-/+Z3vxGrwK+v7z93z9/9A8yduJuu+zfCX28Is/96kfCtlP/mv/uL/3j7+FMuU/X2P//b8yt7bI7h
-/4lb2PhbnZqLcnp++ef//iwj/Ore+NSqqcGosFXNNFVT9k5LXeI3KQGVwSJRZdpIaZ4NkuJ3KcHB
-XWy6hmdrSG2Uj3wyCsvfJN29CA1slVAUrL/jvfizRB5/hA0MUpo/+K+Mnn4CiCZGTkf7nPR+xJHu
-oVE678gCQf2Kt2FiMDPZaGcdxyxLzAlb3boMrrq8Y02FL3i8tqOBFmkHs1KKMaKlM8UxqKAohOKP
-WOCuYeJdOi1rxNJSUos5zUEH7/uCXIaNI2IzIqN0PBTd/IVMbXvsMoO1ZV4KNmXhqKrLuggGz7d0
-Vq1HHn3Zo4z51xsYf4a2qbSGBt6JW919PdvWg6gtyoNZ3xmgaT1s/VQPUX2b2hZ373KI9pRbBJQo
-52MYrzti7zzNFZWG+pi4W+4H5TRdaVNQrnphK9/CGeP/sqQ0xgT7lkFV4B3clHbvctDLqRZjW83N
-HT4YCm4UVBiEIzWbYdBxs2gKwwM9Mb15dd3CyeOoZeWjy8AmRL0qya7dcOcVX+bKo3siLoEqdNQw
-+IY12igPacBxuEqs6lm1BS9VaQW2L83mSY0AGxyoTEAFJQmBLyYbxdE1J9VP4hbTSmnVz60lnJVX
-AdAaKCe4VPponqC1B2dU7fpolimDCdERbkEKIV/YRGOyLroOe9xQiR3HrW5L+w1p6rBX9nma6hzp
-eMzhvLbFvnCm2WO2wFa7qEAiZot8VvrLxG5mWACfHB66WNGvhEf30ybtKn2NZsbcFDHBJdtew9Lp
-u25lvTumAMol5j56McJB4+ghxn6DS33K1nbmgiTRugG7YTCP1ZLLzzu6CTjvhYekeh+w6lvCfwiv
-+rksNxgs9F0RK8XTaI/DCoIBjZNRQJUkhYiXcnSw/ZIYara2goVuWfd1DUNfDr+TNoJHyKyEEgDd
-mgR+YSVovkZlND4ZkE4crA1T/oxHMT2qhTk8Sh7XbazO6T6oHOrCis6SppgO5Sbmwv4i6jZ97djU
-sFQPuwerSt07rOzuNQc8OGV1yZKdCou6Xai5aNRFF1jBmdMVnmyaABTPn+g//TLqc4GyoJZ3Qs1q
-tqBFTV5uLro1slK+ywi0HXQdRh5zg629FiO/ohSOc52FqnGOTT59RpZefSynJtxPKibBoTByEvrG
-LK5JBdTYMYD+L2rSwR0lA0V2r2AW2edjUELKTPsw5ePNkhMxLv2kCJO2sF5Ltl1kiesCOBYzBbsz
-LCJVn0wLkTdOwDo3b97VMp6BWdY1XRcBSBLuFwFgm2LacHpNjzRf2+ueZikiCHl7FaV1T/HYHM4M
-4Rafaa6QuXW9PrjO29EiqeNMxbvTi+yuUCP7xplT94TF1mGx4onIWVZqNxEpiyaa/JKm63A5M8wK
-ej7vKY8hwUT/G2mwJmoQqlSdtT49tOGhM/Xk4EwDe2bNnooXLxThVz5pj4pEJcvuUo1E7jb0OmLA
-aV1O27qFiYgxJdnrBcIUqLIkuSKwyZonNLjFMtelHpHkpnjNzIA/xs1otEQRU6JN0Oj2MdXhAnIu
-Fe3asga+wKwi4YOEeV6CGaEj0DMjtk1a3ecXKk1I1A2MYweVwODXOeX5sbFwhrNmznoKOqdwl6Wk
-Hhfow8km5Da+ots2+0oQethnHEwRYccYtVECG4m05dGqbxvV7zxlfnXZqC2MpqAOLyvD+jSSTKP2
-j9e4zXXAz77gzm9gTnPMHSV1DMltFtGjMw4l41IeWvVtVhcp3u4JjpeDXOYtktQDu4VFNr53qVK/
-d23POMRTSA2GBuPlQnxBuXRxlCa+V1qU12G5HdtFVZtE7kitQwqp4xotK8oNkqfYy+f1pKNJwH8R
-3SrU1PkqAe20cSJShisSWf17l7JYlDohZ6qGZQ6gsCZPz84gyiNyXX1ujbxW1zR0YL1xFdwcAvoH
-Vixqer8ajMp8otIPXeDfSxYo6nh54oryTJCevimN1ErcpoeAc2q/BKmYntGLERKBry3qBJylgbzG
-qXlGZNab6OyVVed3ZVHsc+neHkK16H3MGNl11VPG6NMVi9U7ayS+Po2HK+dfVvA0xBYefljEReCo
-5xhXDcbxoa8uwHe6W+Elymtr1QlTgHSbdywIKXWUHnTqCXGjj0N4cYLG2iJqYVbXBCWqnXSwJ0Iw
-Zyojvvb+w+LefNjd+coOR300grdBbbIjw4zxHtoeDX8skgk7Rp321EsXPbeh+ZR+WOttrD3LTvrt
-YadwezVzw37iuNs9cXtVMEZieJ44xzPaNbB9Aztxjqy986uIC/wC15iCE2nvzKXrfyjcYO3JJICw
-pugpnonbUXih2/Av1d7a8BUjSdBQU4OXRzuYMmfQ2FwTy1amD4LEcI+0YhUknDEI4DdR2GMU6a03
-2sZjq8Exxn8iUw2IByQcKD8K3oM46CUtkCB0Q9bkttUJRzgyJgGC11uXmT1yN5ExihQ+0Qp3Q3Sj
-ir7durnJVr4idD8xoCXlqVcGj/BSEXNYV2lBPMeziUeilmNmPJgRMq/LZKR0fY2nsap+3Yz+rXP4
-X56wvzuZb97Ktnru4ufsH/Lg/I/Va/yHw/v/h0dy6JYWG9//fIvn//P/kKfv3nJO+P+AJ3cTt8+N
-3Ox9PpH/+qf8ttmzfuGQBgEDYrmpsab7tNmzf9GhTOOD1pmT8Enz2r/n9izbVSHM8XtUos0Gv/T7
-Zg8F0ZZ/mscpBinn75zGUbH+ZLHHZSv/R9qFv8z3p3G2BPRKJY7qR5X1CAXKuTJp68IlwlqLyst6
-h+XrzB0+W06eHa2JmkT01wRfzAZUWFtrLOIz50nzQB0BksnWLYHZpZv2ziaHWrZraS6knwzQWlJ5
-FsJ4cd/L5WHV5zrxcyteFbWAL4vB/56CzXxplwSdKzllhlH6ThbtbZbjp5xDA+pPEUAqDz6q+9IK
-TrBZb93WcmQ15PDaM8XSQYWUBQHYhHJbuSGsVTnqOoy/G5Pj8sK2QxW0K7fvSQ7HVqbCvJIDsyJH
-50gO0ZRrErdhKucQg0rCpG3IkdvsgVhZE4fU2DxRhsNJTg7oyceoPgSHgtl9YIaHhf1AoRqePSZ8
-07UeYzn1h+FRQQWYnOB21p27aWBY4DiKUGAH9mqQ4gFAeFyKUlCA3g3rIAMPgNYgqujbKMWHLGg5
-DEk5olVv6FOhu7kKH5S+9u14OHaz2OlauMthg2+E1T1ZSB0mkoeK9EFIbzzpRmtvg86oKYsjViIU
-5z2WmolX4fQhAL+1kFNKqavUifOtGaabPu6J+2iE/zNreLcsi1IcqcuMA0F+TWo1irSUZkBWIPdM
-xNtANgOKdbpV28V3UGhj2cmMk7BMbnKpBRmt9xJIdQg79nuLXETTH6OZBk+hJz+NnlRLYSlUkJgU
-tKbWRh5De8qH+tFBiwLstVGkOGWXZr2c0FFMKVzBPdvaKFmulLTsKHxGoKkXpcoyhpsuBfdSAqNM
-NFiQoY+2M8yPPZDyaG1KzQztrK1NIIpNmqJpFRDARV1u8sJkeyNlN2o2X6y0gwqnsjuKlPIBeIuy
-T6Vcl6PbcQvm19zyilXD1UjesNddwllS7CNeB/VLVsUjnJ4zKQkGtLMuhG4pRy0s101lXGtuvTcT
-a2+X8e0Uj+j4CI2WRVqyMQx/rvWzJkVIfVbazSCFyVhKlHXrbhPTCHydiZEtsvJOE0Htc/x+d12g
-8BbN9qSOJMabLCR5H+YNKYkyyqkQptOVnddbZKmFN9bDBqjXayaFVENKqjD+hoVaRgzoyK1Tn/PM
-kxKsXrenRmfDwp1ORruMbcUKnovFoRAwAHSKjjsb6KskPEACE1VjN9pD5LDiL05aeIy3+MhqK80J
-VhZAUaRizPfyrYKawx6ZbCYNCaz5EJd5d25bqTaTnH3jdEoNYHnUpB7dKqRtdXNWWV+4951UrRvT
-wn+Hjl3H5hOlqnyNlfx5llq3UfdvUYswT5LiEvYmerhX8yMikQtaJrYVormFnrq0pY4eGKx3Q0el
-Kkqq7IbU26tYmt/4MkHLnR+ZvEjAIs8jW9GWhoiWINzPjGlLDykfP+vXQmr7NSJ/PFdEH8AzIv53
-uf6NaCRgFUOJ8LeRD150k+3s+Jqw3MPFsFFU/r5uFXWHnLF9C4x8N9YAvcu8E2vLjomgOimXUtw/
-EkIp4MZ09BOO+oMzdcpandtuL71EfKLD85TP46J0gYdM5nird3W66SfOM6xUpgWUD+ETm0u2uCKT
-y6hX1a1H49HjQJNN0NILOLsq+/KhXulQwtZkDvJNzMJwmeSEJ0qYJrdtG3K/MmCBqzbNjgFHGEGz
-8MqqnTunFu8sjRjW6GoIW3FJzYqaltH4pnUt8qWZPUesmhVh3DpoDcBEgpepc56sMXt3kF5FFp8w
-zSrQhWQN3Zh/yNA9rb40Yc5qWRwr4tCbFHv3USnq5rqqO1TdWBV0WczxuZ5j+4sF9XhhdnXDNT31
-IBNq5SvvX39FkVjoV6EbIy4zQhHafIWAgiRVptWyCp1vHhMGNGBD7DRadhZjbqN+6HxtVI/guJek
-NFObRGpEonw1KtW7yhusnqxWv7plFe80fBSLITQmuJnB7eTSKQc7C3de2sY0203ATWttOALhlCtP
-eORd27hbmPb1Jg3QjQdX8GChQHwVVOXWzJp1QMqd5I2VrOPcbXaeTsxYhbftsxiZNmgc+PNLykej
-Xr2v2H2RHWcHyXy04ph8qDrrDDjgS9Vk/twMAA81cxcMOoFwVPJYHS4B9d3kuSeAo2xTXR3PBJxI
-vI/F01AbJb5xcPzj9KCY4YGowrarJGgqrQ+FG62wL4dYEsuT4lET5fWF5nsDTxiVed8P4TziBi0f
-hTW+cgN7wrv4LRm0m7ExCRk0JB1G+j8XqWypLJLsmo5vDQ9p0fhJVt+Tu86Wg4ZbxE4fI49FXNil
-2z4W2oq7yFombvghMJWyvHF7sjKqeaCf6FIGOj8uPvgULotWbaa4P+AK6Jf0tjPBE4RCwbhqhXvn
-6uQuDJx3OnNMMd8GCtXn6rCyyD4B/98MXn0jqJHgrsVrAdvcpxyCzGo+8NwDkGPSrOrSoB41G9fz
-zqAWTr0KOqVz1yyY9kRSNnaBQ3jgkdBRFoKLhrYJtan3E8bapSGKu0k6iPXk2JYETKkYuC7KzvHt
-vmaaL7InOZZQUu/u+IlZz7vSk6jytqsyq+YOlHm0x5QYGSIKmzhmgBczo4DFddQj4AXfKE3HF0MC
-7QkHgh4S1Oxn89ULWB0aLnNmjB36i5kR97aVqju3ZVHuB3L+/xWn/KOu75k60Dqii//+GEE31z//
-r3huPk8Rv/8xv80R8DpMB0QO8wChjw9m3m+yvv2LxmOK5CSpShmbZMT4dY7QVHyATA+o9ipUKwKP
-v88R9i9gQZChHE5tknft/a1IpfajQZCeafgGxCod24XKaf7gnK2NCPE4LPJVZATjOowqjchvXe5B
-DHf+mA3JUrNCe+ORhjxU0CS2it30nB5ju15aWQOqN7N17eQBkF19em//xELMW//J8iqJ2RoxLQt4
-CrsQ3ZYFVJ/3DYYQZjv0QCXg2dWs9dxkP/cmtu6QvEyZecr2r1/vD+8Er8fsRvJVs1UauOXf59N+
-Y857C2EbbrI1KNcOzMCJcqOfvIT1PVL7Xz+UZ7Hn4T985B6m0M8vUs0paGKnMP0UX8SOGLW9c4NK
-fQ61gsaDtB+oKF47LT0ZW2qnu7eqoThmWfKA2SpwC+9M+k/vtAR4hAALQuefaumPbttmFzdJ2+sG
-w6a2AELdcgNR5reJjo7at0bVuUQJbN4VLnWmOG+awouqKhFnuZByiURvB81vzRq0eNphFVtQ51Rf
-oqkCzBUNKq5N/s7pdVEQUfVNQhkviWonZ7gfykOYkzpcOgXbX/ScILpAOk90P+tibIojgR5lMY5j
-7XujNo7QvSvzuuMkC1MLvTvlkBdM2SKLPAKpgAU6DefCRIGQiPFILr0PGO0cBuKJHB6I2lxVukct
-H/v3tjSnFZjCaD19cG0d3cnPBmU7B68kKUu5EAhcrDTGpXDA4lZOUe8TicrFaEQ3rj3VN3ULSNdj
-bXGeQuC6gW7URz3GlQZ/0XzsJIR3lDjedMjyHS42NroFvMobrY+VK2ewXFYnisbowRp7XploxLnP
-N8qTZ06jf1W4bZPTLKFZ+Rgss2cCsGyPIokOTkRrxKuhLb3Hys05clMw1p50QTnixCIgwYximbdq
-b/ZbLkrzppOkYquqp73VjeK5lRxji73gF9h70w75n5WyLonH1BODj2NiHPAWDMWpJxgA2upfoOSq
-5h13PwDK0Ev0V0dSlcukb5gl8iGGhyCxy54EMNPDIB9BXZnXi66DK7PM4EMwy83uRh3crGYBVoFy
-Bqql3gaS78xIOYzL0Q1ryMmKlzdnVSviVzqijIideESaJp9DUAgR5rq+cHHlYavIFqmDPyEviv7O
-yRJrbXq0gnR6r+EVGENxYw9xvcfNC+YmgIgv9DFYaWZXvbQaPy6AteplsEhjRVUd3eiq6LAXOGN3
-ShqdPm6ncqAfsxtc5bXZb/hOuS9Yi091m7g3ttuOoOM7mlmYOib2b0ib/dkZx5IYGOTKe6Mqquea
-+7oE3rjEcyJN2dmjQfDREu1b7Tis1LqGoAyRtBr/ZJdmm87pA6pntHjB0G9tJndMNgXs0XOnxfYp
-CUdroxg00pUUEKwad7R2ccUFm/Rgb5CIcXyyUMB3M41EfyczvBNK2xBRm8otvops782q63c655dW
-vmEpbhz4NJYMkCfZN5348bIipXOAF+geersEAVNbzTlIbGputRlNhxaj2zC2vbWiwuZYpAOe7mSO
-hzNQHnxnqehY1MA8jFb8X7tQcIVyIq1nDuy6hdUExQodFregGQRbur0NBCYGyahIiM3Slwac3UjC
-tdWyVFG1LD0rc2AeqEvrHFyqqXnShzG/mV2SWwYmpNvUSiNOfk17kzSGHEQ81pdETn3M6s4VHPtk
-zWploE8GQyfVXgo2ljGqiSjaWrx2kYPTq8RuA9DfUD6w1qh5/cLkNAeIYZ3oYdNFgIu8LD+5iWIB
-S3G6PWTVFu47n7WfZj0W1Q6hyE9plNnVAQvkTBPZO5VlZN4j5qONgqcaUoqDf2IIo/DFpCX7gX6r
-eIdZvr/PLYLnMe6L65iE81mxp+4Q1NRBxR2ihR1108JOiVcvgtCaNmjwYJHHeHyM8Vgte7v3+CrB
-/FwO1Wx+pWx9fAowmUFcqYa3uam0FeZZwt12pfONhTaSq6W5bVtL3RhRZqR4gECkLpw2R+cxIZR+
-M5oeugY3rXRBYju66uluWlkThnfG0skERiiC5mUyg3hbjiWQHaPjlk6UYBOJhHY2lUbBCL9TC/nO
-LQDQD06sXoVpb59qvdNemi6IDjlx4QOgYbzpgVE8lrE+Yhzvshe3j4PD0OpKstX6CkNbNE3pQ2TA
-vKK7Pave8HDBEXSp/EnDhgqBWUuJrJcdp9w2z6vcj4lUvwdDZ1Iqbqr1N6t0xiUgh34VyETsUIbh
-IcQAds7iRL3GC0t+j+ap5oS5yvky0ih0pEutX7MWIPIa6kLHTzbOO6NNon3SBjh7XSst/cITk7HI
-4prvYBMKnjp0CmTLdJzzq6LJ6+tMqZJNX8wh6G4CaYU/TnF1tmu+nk2gjUfA7u4WSxXI3oldx7JI
-gS1S606btsu2r8IwcRHeQL/cXAT3A7RX9psm5T0ViHcK3pPc+4KiXF5XyA+vmpjbG7ae3qWm2Xc/
-4ufGmg+VcadnDnVxQwschkiFHR3YjfCkMIZAWZeBGHiPs8z+SlsN1UjEwts3r/LWDJTlLkL2RdBN
-zQG1JNTzq9YgHQWLUHuFceMi3Gm5suJTV27JClLfW6g6vs02r3pcbFBlCUxz5IOrjC3yzHsLk5LL
-4RJ21nRdqeq8HIo6ukpjR+aeu/ZFd/q7IOEyW3Olpwc77m3WX21T3kA1zveR3os3RiRzhRNpOs1q
-2151c5NemrTM3ts2io0F1hzzzkPLtjcFfeXHIO2SS9SO895keFTXlcaDZRdUhvelh9n0XPJE0ygm
-qEA/GHN2FVaiWDda39050de/PsjpP8rv8nD6+Rz3Q/grrGY861WUr1ip+fQotldPLu7t1bwtDqm3
-GJdgTP1l6jvl0jzsY/9nJ8k/ntsdi4CQQXUNp68/HiTxAsKUVKiFaXzhzz6gzP0lPImltnws197j
-z17vj/kzkyWLw7TANoCxQ/76p8NxXIYYbgcO49zlFjGiqeVe1Um1+Ou39fvTMcYisqWkpWyD99bS
-NeOH0zEEWFhXY5+thrR8LdhLY5JbM95e8i7ec+X95Dj+/YQhXw4sja7qKjYpEIw/zj6dBlSLGGi2
-qp0HJJJgxt3RBL6n/WSy+OHD+vWFDEOufnDs0wXw/bsXFYaiRkqXr+hpyNbxtt7kSzRdPPFL1Sc3
-8/Na8O+vz99eEU+UZTNCGuoPr5gIOTo1/GiJvlCVFXIyr4FptvMDbaOu0hWNZksevOOqpAfaWfbB
-yVyr2+lnJQjfD1V//Hv88D2pbZpZKazPCMxT4aLKWhKeEz+ZFLU//SCplWIdB07T/liWfbo6mxLp
-1A75Nna+ttb8eJVuEz84A77ZaSt9odMOvPvrK/WP+VZ57dguV6pJug/f3vcfqduLrtScPF+Zm26X
-V7Rau37rEyj4Gnz7N77uf/Z52qpOwNBk6ej9ODcSv4dED3sbeB9pWkJ5PiAeUj9HKsl8OpSWf/3j
-6UgPn4bvf31un19Pfq6f3lHb7jGimbxeu6Jq8VIvy0253MWHzCeHR2v4vLIPEdfOiP95mf3k1aXm
-8B/s/z+++A83GxdQ/WxOaBJ2X62dxn72BE88tTJuW3oWF6J3TlrTFuu0yI2f3IH+5HrFGMLcxIiu
-G7Yr35dPPzf0dYCCAL9Xc13XhOw9zh7Gz36+P30RUp+6aZiqY9g/XDve2EP6HQn7W40qbhueI1ej
-iQ/vrz/DP7wK8VNuOKg7LJ6xhspL6tOPUsVMCGiB2LLpXT2WweSdp1h1Nh+v8l8Gg8+i3q9mXd7B
-f1ccfPvv/wszcVn38fOf/0H/IQ/iz6U6Q7ex8GKg41r4TR50ftHABqMQ8rxVNXxhv8uD7i8uPRx4
-E7iInF+Vw19tBtYv8gPHQCyfoh+h5L/jM/jhySX9w4gIYL1MDA82f5MfLqKeGp1kDM1kVeSWsS7K
-RN9gd0uXQ9wmywahYsnZd2YiVL9ORRhQlkZ+hJrvaOm40bgMqjHf9A5H3U9v7Z9og54u/Q3f3SOI
-+ugU68iANT4z44cHXGflvUZNB91BTZ4Hx5aTJajFaeoqImBIAq46YQgF696fRohp8PWFC7nWtA5u
-4Q7bHB/Xt9kz8wPlWMq0CGebOTiRacJ0HjFuBbmwvhZBjcfW6xWEgVEg6ithVr9nttNsRxl2VOBo
-LVU1tp/6Ak6H3hviRpsUFV8FgUpWXPjeVOGuiigL124TUHecjtB9FXhv7DvV+KFRTUxmPMCrO10A
-4VjAXZE2NDsCbhta5VEMjnEo59S0FyLQcD/0H0a2aXA7aLhN186rESoIu8q4JVA96eq6nAqXqKYu
-6GJzQ5G8I2sW6rKNmZmXwk69Hf6mnHIPskYrlDJgEUWAjLNU0wkRzs707KoBCdYuTRXKVRGOMbZP
-NZioEtAY/7A/i0T4nW3kBsJviQmQthK72Sc5FSA7uCXtwCzbJ6cO6uiW8CNWanapxHBTW+SPpeiK
-+yjow2tNRBgBqVpoXugvTr+1AX9RZT1DH6qWqpbO3zAZoJCGTborQel9BcJUrFtRZVcUO8+7wUB7
-xlDK4b+2K3FmBtH0bWQIYwL7wrRQyrnBoRD3wSbOtI0Dne0XMl12332MGK2cNsZCSS6CPPUVgl97
-DGsrWCFppm+Iz+1+UJXixqbAwwFmFacH5WOomVsXX0vivWZy4hnl7EMxOxlKOQ8NTpFcJjkjTQIr
-dQc/YPQHNafc2xkCTOABXvFvmhGVXxKIh+/NmGXPbR7qM+cwJjKX5r+lQUT45LpBmCw9r5uypS7n
-uCqqdIAiHxOeEF5ww5aOt1VSk2lkNxRAXnIkrNUxOowfg6LxMTRqcn6cPkZJ4r3hXsj50hZdcM6L
-JnrXB8x6rgghqI51mlhLNvZFvKsalD5KFSjl3tVO2KlAmpx2WudWY7zpkdFQkY71Yt07k3KySxza
-q3hCQ5XwYndRD0P1Fg6ucU+tCJVtZlLqNERq2reeluc1BSvaY594CQhdtaAt0WARujMi2UBM98OD
-R6r6xVA6cVIAaYHFr+2th1ywE0GKl6huCjj/sSDyOU7VIQgEe7KhN+f3RJ/M23qoiaiVYVCwvq9z
-NL2qP81dNVw8p5hBddneTjMCEHdwiNrTqHgpmXmjulPyjnkubOXMTwNEe2PGqo2naAbO+EivnUX2
-HKrZAc0FKtcUo6Z48B13ltWQ5tISUv9Ig884iyfftlgMuxToZFhAUsI3nebY3KAA0BQoGRmKuiC1
-jM9BXcep4MARhnQ4Bgop0sRrrFU36t6uI49HEe1Qbjpyx0sctNBqSS8Wd+nY8MdluInOGCY0ehU0
-68Yrslcxy/LlYMaJ70CqusrUBjt+nKk+TSIZSOG59Q7ElEbITy2CYl+TmYuMadl7PTUzXUyrvQJb
-ycm5k6DgIyyRbgAgQToe+M5ALhbSMLe0xiM8TmBiiQs/ekZfGA+96zQP2pzqX4wpvh+N5BwMcS6t
-wBBwzQHvAStRLVSXSWTPL7GZ6Mc0jvNbkeg2Ce7QjG+4mWHgmkI7uXdxUM9rJ6RLaYlb3PAbqhZo
-nSYjCLRAaO4+axz7ySL+3QErnrtdkQ1Edq2WTORu4Jm2bHKiJKmaBodZcbWLrvVOcp57qxL7Kgu0
-K7B+0jnX8yHaNNtvq7Bur4Y5NH38IsNakFnUtgrqeAEZavTsRRfX3j6NRLWyDZpG7Z4uJ54M42oO
-LeepGdVrPcQtYpHDxJ5lqOuJSMADOob+Hg2lWNFUqPiNw1ZFUZJruoSnI8ncS23o9IPPaXeZrUjj
-UeomB/LpAUz0NN4pPQ0XmOQB5+tIiRNxc1DTAXudeT003GEz23iekgHqc02GoorpZuo7I14afXs2
-uTAX9HruoNVfmZRUUa+1KtlDb+zWes2Sak+j+7NolKec8o1FNzZ7QKEqTTrlfZMnX3B6lBS1xtPS
-K5ve11L2cDqyEz4KgZhTTOomKcT/o+5MluJIkjD8KrI+T2K5L4dpM1WBCsS+CDS6lBUUnfu+59vM
-sQ99GOtH4MXmCzZRUKKlTtkYw0UmqojMjIzwiHD//fNmokueT4FTz5mGrmQfBvb8S92Q891i0UkV
-VQC3Su1O7bWHZhCFm/OARNYWccSWnZs8gj8ge+vn8z4jCNQysQJEG8FABvXgGeqSMV9tggiN9lrP
-8NBFa8xZDy+g5GWcBtLYINFYmpmRkHR72/bQnGphsMWcOib/L4GcJoUT6oFuezkjmNyTXXVeftKy
-SqeIe8iZGLHnlilV4ZRoJNaPBW6iCL45QOMJtSGPnGq4KFskSE03PyMhqpvoavVZKqTDICTskFmd
-jbwkg6ogq2AzIKT5UXVQJxae3zmg0647VJz6Mm2KHUDpB5YXHwcdNB8w6G7fn2BusGZJ1kxiiyQX
-VvodpVYvJUndRcbgTgZTWiiO/YVqOsNO4Acp/hGAg2l4NO9B3Zn9fkUxhsGzL7q236qpCFNG6rbi
-R5sFNQPAXc5gPLgch5HI2AUEqjTYobitOrUskfPMMuCWcAW6/SjIj5GxHePmOrYk95Nr5YgIo49p
-Yhy5GlWlwrg/zNUwmQWDCcfEKn5TO7dGiV+d60O76RT2PvV8ttQ5Qqy4SS56OzjOe5RweiJRi70G
-qeAdcYJeZkwHSZTN8kl1gPlZpuwfHbJZDfRzQRpvAjtHCmi4ew5VxFWJ2hHzags50o7qmmJFOWpV
-/TTySayhYilCpdBkFyAd+HNRVwigjKLHVySYf45M7zDs8+26xKB6xicShgTMswTr2VUVYm77IquL
-SWSjiFHjRiafwzIPcSr0E8oNEP2hIKmo5aLOqjkFLxpJn4ae4UwpG5qdDw2qWyUtqZXKhlDPs0/0
-4KEdNB/rAaS63W2zs9x1Gjzx+bz7SCjwg61n4DDyLV0fII5RFgG1IGtg17OQM2svYlxkEzfJXGTt
-OjqywtuRAgy3kS5Kv51VTvsJ8e0s1vLLqC8OKrnYc6P6yu9hIOhqdBYGxVYx6KDcs0NiKoc5pZah
-GXebjWZshlKwl6kyYkC/3os6Ig9mHm8S0ATIaJCPoqvwHSuV9bUdSJk3/VnU5IeoWZKJkfvVCRHM
-67ShnqbdpQNsDWUzi7FQVRYT/jMvu3J+WYUkzLveGSGWBY+HJXO7A79Ut2O93iFJb18Z2jOPWNCk
-dgLEVLIJkMSq4f6oOJndnMclRoPL2EmkbTdK8y2RdHAUxLp2TKBsYAxkqPtTsUul3NfnQan1U6nz
-5d2MCguEwPHCpggvJrld5hO30TGeQPCWNvka0y4IvAM1JoXAmvtU7lX1szAKSSioSS1ptBYpNPGg
-6sKlhvEOJwWi1AQ/2fE2n9swdI7xkP8L+A+gDKXTP2oWSequTW54X8klFAK1DTbzoDmfz23oFZI+
-bw+NLLNP6Cz3s+5H8xOPmlH1pDGI6oAGVWdelbQ7oS1qkLWFREQSQ0DJcmvYk+W2ksn4ZaCmegsI
-wCX8lJoqMfOux/J89D0PPh0BTqgmlnUtOVS1jrT2qAM021AAGJGpnZ/WcosAOgKLyWYFzBKVBPH+
-a94++0V9QqXxhU9Qe6ZqZYTyij2NHNQAEQQM16kC8xyj3E09XTlIHaIabAsvrCpvppkakUBZDmCX
-qBHBtrCZNGpKuDlxbECZ+mHOxmPSyvJ5QvwaJyAl/LS88z94rM/bJC+Cvy+0L3j10AdYCnSdwIt2
-zcj3Nw3Jpy6hxOESiA4rCC/9Q2hr+ZEid0KI6l+QtXJmOajeBtdJJrD72LZZjboo0aChiRM44NQe
-sh0w1+lM7gN7pxbY4MyOYq44oCk3qIQsnZYhcGh87dDpWkxQ6MOg5MnLk9hjOMU4rWdyyUBNIsG0
-iAS5uEoH9SDLfHDGnB6zPRsegsD0BCdhG8fbYPDNY4NdPMUSjfbIzVWLkhGGrJ6yKy22srkTb8Kv
-4jDRp/CU2fjmh9RMtrYdDdyyDEwHoKAKMlyN0mJGHcpkZuZK9KUSsGZL7YVeUGKvHuEb2OxZKY9s
-wXeutAp6Kjk4uECrNr7KoLHug9fSdinNnMA6Mcojv8iyPTJ/ZIZS3Q97BSedSyXTtd/6W9S0DcGf
-iiDwp0k8ZijJvUN2UiA1B6EgVSuMs5maa/luxRljGmR9fgXtwNy1oppicW4ncr1bbFHiAyRFErWn
-l269lbnz8DO2S56y566+zDunujBI9mknbVTEW67E2EvNodu2W7f7YHRFtSdHTR+QslaGO7BvwQtr
-gd9MpRxat6MM1aysWmAlfSFw3kA9stNWr+0D2+qtYArEwrjoA2kQwnoPBKclR8eU3DxV5yFALp/i
-Ycj164+FQIkjDgm2YsGQoNxZOJ+WdZzNolsIeSZ45Jkgk7dF0C5xuDizvA7qA1TiNdmX8MwL3jX0
-50HaQvGtUmMMOCmkltIOtssA3fekaVNj6fZFu5vUMNPnnZ4tYqCi1QT+Ue3tJ0VFvXfUVh8szUiR
-ORJ1vYzi2FpEsW8fKKmo+kcAjmALmXodFU4skgBzRf4SR3ZBDTc927QSz8IROx/KHQL/0ofAtqt9
-O+tI1+vDImQhiEn/C0mpPjBy1JJGS8LXkJvlNjTy8ENOkvGWV/aGD+ZDlY+atkv2kKYj+zftOYmj
-RQYohWMPSaabaVlqVwUal22wnzo1QmF+19MEmO/JMLTUcWwz+YKobLPLcmttIzOVjzGyylLmng+I
-L7mUUi2FpjjUik0tpNaj55T+TFf66kviWxSQmDs6uqPe9/SLWlWri9d9RyLksOI5Qk+mmSZ59Irh
-KDjwV/2iScgraBr2nH3iaedVmBIYETJ5N5OI7w5GRTzaDY4iuuLOV0oKFaSBNV6rFx5Z6LUs24RT
-TbZ0mvLsygGHzjDPWTY7he1ncRn0+//HztgnrIat53iGx6oPIs3sKPWT6iz9e196KCexvqEfQTqI
-Wtkr7t3b+7plSrzWTES+XFUvQUZoGwaqPhy2QBrALvLPL++iNHHvP5YsSsGJHwv3LLFABsDTt7v+
-AU5e0Cy+1Vs/ryOMu/u6G9aPt/UDHaEoG7omXMY8o6pbIvi40g/qBlFkFa8FkmrVsITPm45/Ml7+
-3jN+T1+99iavb0fpzvKfv9z7+3G4jxoQxobpUCtFttGwarx38aArHWGC6BAefEyRbOnE9d5aR2ia
-SFQc1wsIoMW8+Pa0MDYgnr7laSEorYb8PPrzo+bB3tDRFjsKmBYRubgN9ayMBsyD7jBfLB08kvMG
-R8MdrfY5+eZH+0HZIJ678uD2W7eLmqiNOXoa6AavX5XB8Ko6oVesy0ovmBu3+nsw7mxKSGi+m3dv
-yCry+u1b5c8oo0hqg5DbsAqSBG2gvXluFPUNmY9Mg+i7aWA+31w/fCMa/KPzAHST+HnNLt7uJ976
-dkGEZkeNCHVDR6jksDm2RFDXsrC0KzPD2BCyMyLQFMIVZcnY0b/J/QKypFEd8ZcjQnv7K+W6JKof
-nRnOBuczMpIwgtREQPn6fMG4paRrJtoEiGd3AIa3OCBU7nvUgDA2UJnSFSIxTeVIYbzsCIrSG0gm
-bdNWTLYpb21mkPE0vhNksHaOogi5C2QNlYd8bh74BtwNBwUgKWN32/Y3tHDeLxhj7STHCRW1j1A5
-sktEm/O8I9QNavDer6ritPHmOoLkSFV9kWP5o+ZBJEcyHlDuagjbgKmwHqwMCH3DYRExObsg732L
-50tSLinuMHZisG6K/iQb1CSPFBXZc38Dx0vE4UIkdVua4u56//t5cZXWSSXAnNRSS56q4b7X0fCs
-ga8eF7aKJMNyWtIE7QZp9bOBIBwNtq2wfSdJ/t4af9fzf8eXHl1YU8+PlrfOK/+6fIIg/csvPHhs
-XjZw76UQrgj6aOV7gk561/Kdu0L8/9cVWOmtI+XJhw+OldvL3P/5/fO9vPLKtR4e6uGX2/51sSiu
-vP72g/7+Lg8WMc6vbxZKuXWqrGWqPi6Nr7X7KqppZNtnaeTHi6cj8t7f8bX3XoBgv+umzxdRdP1u
-eR29my7qq9Ur3B0lx17hIAVnxRXenS6SapEsr4unj/HosBh9GaDIN/9Jn7dtaaxlY9veX7jLRXSd
-rHTP4xlzbOvTmz+LZXr5rHGkseTLj771F2/10aCPve3XkQIjx/v7Krr5N21cPXuh94vy2Ht/D5Yn
-TRblQ/9+9aSKdKGxrR/VpF8u+pVbv9tYiXSQsa2fL+rs5vd1t47zemzj0wWgomod/1kUMhvb+qxe
-NP6iuH5o6Um3syEY2zpElmhlEt31uTj0j22aG/eTmz/Wta6Mb/249pPlzR9rxotIdhl779MF+RMC
-k/hNQrhIGRx7lf3ral3v4BEb2/K0TpZ+sohZztdd4SfM13P/ylusEhbvh85PmVHlIlk75tWfMKPe
-F89X7fs7/wnzafIqCn6kgZ966dXNnw+j46shEL7msSPmr/JZRt762n3MXbdrP8G+n9ZX6yykODGM
-7ZjpNTDRh2a+9rn+E4b53uIdRjLwizVzVByext76ezbzoCVufo8Wbnq/m3z3PlkWLIX/eHdUpI2/
-vE6u/MW7/m6jyX4Wq4fheLj21+c1/nKMrTt0PIZ9Xx5FHsK56/5s9ZglvnEVXS+KX/8LAAD//w==
-</cx:binary>
-              </cx:geoCache>
-            </cx:geography>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="1">
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cx:txPr>
-    </cx:legend>
-  </cx:chart>
-  <cx:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </cx:spPr>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v5.5</cx:f>
-        <cx:nf>_xlchart.v5.4</cx:nf>
-      </cx:strDim>
-      <cx:numDim type="colorVal">
-        <cx:f>_xlchart.v5.7</cx:f>
-        <cx:nf>_xlchart.v5.6</cx:nf>
+        <cx:f>_xlchart.v5.18</cx:f>
+        <cx:nf>_xlchart.v5.17</cx:nf>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7414,1652 +5739,16 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v5.43</cx:f>
-        <cx:nf>_xlchart.v5.42</cx:nf>
+        <cx:f>_xlchart.v5.8</cx:f>
+        <cx:nf>_xlchart.v5.7</cx:nf>
       </cx:strDim>
       <cx:numDim type="colorVal">
-        <cx:f>_xlchart.v5.45</cx:f>
-        <cx:nf>_xlchart.v5.44</cx:nf>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Porcentaje extranjeros1912</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Porcentaje extranjeros</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1912</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:plotSurface>
-          <cx:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-        </cx:plotSurface>
-        <cx:series layoutId="regionMap" uniqueId="{D7132908-41E2-654E-ACDC-D5C374970024}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f/>
-              <cx:v>Porcentaje</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:geography cultureLanguage="fr-FR" cultureRegion="CO" attribution="Avec Bing">
-              <cx:geoCache provider="{E9337A44-BEBE-4D9F-B70C-5C5E7DAFC167}">
-                <cx:binary>1HxJcuRIku1VKLH5mwQTMwwllS0SNmByd/jEeQNxOp2Y5xk36GP0sha9aPlHiIt99RiySCeTzPjF
-FqkMCQkyCLiZQsenTw38+3742z457KqzIU2y+m/74bdPQdMUf/v113ofHNJdfZ6G+yqv88fmfJ+n
-v+aPj+H+8OtDtevDzP9V5AX5132wq5rD8Ok//g6r+Yd8nu93TZhn6/ZQjZtD3SZN/ca1Vy+d7fM2
-a44f92Gl3z6RPMnT+/Dw6eyQNWEzXozF4bdPz276dPbr6VIvtj1LQLKmfYDPyue8ruuCqkuyrmq8
-LHw6S/LM/36V08RznUdIkGRNVVRR+bGxu0vhw39GnK/C7B4eqkNdn33/+vSTz4R/eiGsc/Lt6Ul+
-lJQsvz7ar8+1+x9/P/kBPOzJT54Y4FQz710CgdMwo2HdVOG+EX77tDg0ux86+Kb8Z3f8pPKlc4WH
-Pzqv6Dqv8vDlRPvS+fE6r6miLumyIoF1vhn+m/7pl38UR6dL4YdnD4ezo3S/nL1uledyvm6V99Z7
-tgYog118+mMP/be0Hwny/Zf/+0OL/7oFlXNVFyWZRwqPJDAUOo0f9VxVkKQhlRd4TRYFsPBbFvwm
-30fa8OWKJ1YkFgTWXysKL/IkTD80DrVjIP5xHCrn4vGGPxeH7dk3+T7Oiq+teGLFi+X8r2bF7S5r
-dtnDofoREv96OGrf8uUfG1L6GUMezn4X8eNs+QeLnphz+9n9q5nTzaESHavQ70r7OLuic1kWNF1Q
-JFkWJSS+SLNQKGVdlDVNBiijv5Nm27OXsn6cgd9b/cTS7vbzX83SVhsmH5h9xXNZk5COENJUSRY1
-TTpBQcq5ovO8ICi6qmq6itAPx3oNBbVnX8X7SHu+WPDEhNal/QEmfI5rn0B0TpDPNYB/vKxqCAJA
-E7VnCoLLgA5VVeBFwJC8rsHlpxjDar/8dwK48HPm52/b7XVUePr506d/WXh+7HQKAT//W0D4nf+w
-Sw7ZB3qwwJ8riEeAD5CCFJFXhGcG4jTosuCSqkgqUhXAi/JzCz3H3e3Z4oeIH+nFry56YsvFZ/MD
-PPmk//rf7ciudkly0g8/e6ifbMkE6MlkASA7rwqigERVfG5KpIGpAV9ouihKqvS1Ej0NtuemPJx9
-Fe+XMyvPHtpqV/+w+2tQ5/Xoe3fBZ0/72yfLvXoZkP/c/jQkLcAZQBicmOy0T36SjaRzWYFSLEJC
-1kRZlKUTBWnquSKJsi4puiBBX6S/6evfFQSwITkju3b/oe3rV92/vvSJ0q4+k7+a35Nd8vC2P/0c
-EaRAilKRLgi6dCzGuqg+d3wNqjDcoSJok5DISwLY/anjf5PnX0lYL1c4sRL5/NKz/0l2nHr2vwVf
-5O6q8Mv/5D9U9VrY/5yZhHPg4J4xdOhnOCIAp98k+lcM9TwlvbrkieXcz5u/XHy12UOY7dJdtf9A
-pKCcCzxANeCLkSoC5aecWvMrH6sgFa4jQZV5iMKnUXaqevJEyo806R+te2JXcvmXa1M/A3Gel234
-gUZ9l3U4ps4/TR8d/s/vIn6cRf9g0RNzfnb/coTu5yYBGincf2SK5c8RFEIZipwqSxo0picZF/ot
-aFJV6RimovKV830rRkHEL//1VcaPs2d79vqqpwa9+IiK+YedKZDbAkLAah/xHtIhaT3TlHgOV44Q
-UBVFXQFUeAIZvtuubA+/nOEv/8jC7Eeye61Ovg6PX1vjVAnrF7Xnx26nmAE7r6PhE3j8v9vRmO0u
-CqsPzE+CcC5L0NUIMEECjox/Th98m/HxoqBAUdLf9ecD9AJn30X8OH/+o1VPTDn/6/WnOB93+y//
-9ZZn/xwChJGTqAFCFwUVjKlAEnoWdEdzQtv6nYg4TqROou4UQnwX8ONs2Z69suSJIfHy9kVQ/ptD
-+a/t6ceZEVhPWYS8qCNV0HlNfzH7heTKa0B2a6oOg9/T0fupFT+4eW5fduMnFiSfL/9qFsR58uW/
-u131cUaUgfjTYeQg6EiTgJ89gQqScK7Kgi4gIJKk4w0nzCwI1P5ydtFWgEff5LBer30nHz8x0PHq
-Cwv9vtdp5buABu2neCAOOlFJF+GpgAfjYTCjnpYV/Zw/tjC6hni4TZZOaPtVlXdhtj9Atvhmll/O
-vvxn2e6aQ/umhV7Xxdurnajmxc0v9PREklNNMaCKfkpT+rkEHZ+sARA6+gKc4zhJ2PI5aOi7Eo8D
-jjfPCByz6w99/TNjfsOffx42naaP19Y8URr+kAnzH2JJBJ0xcEsKzO94FeZB4nMsyalAzCpwhgKB
-giSkaqcnKb78Z7Nrnujm6pAdpvbw/zPweGOpE508v/OFFz2R4dSLrtjrXvRzSPPk7ifHmX4/80V3
-zY59PSz2p6/+YH9PPvqdiHjNyb5fsh9++yTAQReoWAA6fj+HdlznTRbjc7UPwiL88o9k5+ffR8gw
-rnqovvyj/uXsa7Q+HLJ9uDsbv02XoTo1uwTomR+p/PnOh13d/PaJ0xCkXx7+igoCxMQfufz+8PUS
-Es6RogDJqQgS+BLSICYzGGAH8AAKtH/HUFU0Hkh+mOd8Oqvz9usl8VwA7kbVjwQOzOOk3w/7rfJk
-9PPsd61///9Z1qarPMya+rdPIow1i2+3HaVVFEUVFA3WQSr0R8dGCq7vdxs4UAh3C79IUldqUzEE
-Rl/hbh4UWOpIWJA4xu3Cu/UewhJX952POdYRPqASKbNFsWgFkuuG0uNy9sQEr8gjQL5+Ig+SZVUG
-TgqKFbRyADh44UQeTSna1B9CI6yMzJZoyDiSKqRpDoJH6oyg5cRyGlJNIa265vV39hf5k/1hhCaB
-biG+BWCZkX6U74k+IkmFM5B1y7HysbBFFrPUjKgQk27lM50kOLWFx2wj7OptcCf7uDLefv5jGn72
-/F/31yRREgUo2uAaz/dXJ7Evo2rkmGx2NhKNKsNd5XiBNYiEl3GMWJfc6JKlXIsl7lWSkjhiaovF
-lmQ68TxTvq+3aoaRETGuodIK+bg4yNf99ViwwCfVgItFiLCyGpZJT7w7qV+HGd6ib6niW+Z8xZDS
-S0UKkCYVDbAHAlwpnShSaZJQ6P3MN1CM/QTzZKKTrTU44cgwzovOUDScXAul0d/6c41IPNEWHRMp
-b3k6lSMi9EQMjZqbeS5y02tRe0fTR+x6omkQEJoUSRUkTYRs/1zTScXnVT6BgD3pqExqIjUYcVjt
-SSKQziPeXKajISTYv1AUPOp4ULBAJJIaHhs0c8guG8962/rCezLB2Oqp93Vy0whJkPtGUaxVUzMi
-GtD2Votx8ggyICyRiGUk+gYO/tBWUNrf1MSJz+VF1ARqAbt2BnIEKzYlUzViIzLffroj0/JiH11B
-oqhB1lGhpXj+dFU9NEPfFL7BrwO7TGmt4ubBK7Eq42zbzTQyGt5eQUQcDR00TiWWOQFTNVzm9G1R
-hKMi/5n2kKwgGB/+UxTt6L1PwjyT/F4a89I35EVie2bKpgZ3Dc6uS6qbHpYOGoflzdubvuJxIoK5
-FkBwBXItYNLnm3pZKIVjE0fgcT3TRVy6KYvvuGW+Sa8quyY+SxfSpiMDq0IiqVg2UsrfFz4ODe09
-BRzz+nMFgCxwnAkKyJEy0048bWzkcZBzkKVmPWtDos2QTCOPBiMuelq3RDdFHDCpJ21BpALXBcvf
-ybVIOCbzt4Q4UUgleVCHtK9CdHSipSMS8ZGH7Zl2ITpZR+rG6Fb5Jt5wOh5HlujLBNlCzON0bDEn
-PAolLfZowlFCmh7XDfZj0mgsTc0qx5GOk+yW8xwhIZM4TySS2YPCQlddS8sqxF2Ic8lBCa5S2HYS
-S1KqeJjzjmjmOY3moeuZzYpPwE6VgH0rEnHqik7X4sRu5tUqWSGTE3BhT3N9JhgKLlPMVWyQsGyK
-JCB8iWOrm4uFWye4E7ESYu+qdr0Rt1dhxkREivm0FwsyVda07CjIoON4xFGtY061lGUnEV908p4K
-Ah6kVbcPRqNLSD1ZFYXHhfKruiobSTPMRAUXnJHNB6qSLsNJSctNPNMaGynGmFgIkU6k40Dv+h0v
-rYWAJoEpVQu1D8kgYn1feBhpNA9vBO1ByzGHzNTNVlmEZX8ZBHOlc/thUZROe0zmVEV0LA00kMIz
-qhbX5SySqFq6vuWtxwoLRgDpdLDEAft3VU1KU4pJvkgaHBlBbYIyg4cgoOlE9GE2dNjPWNQ4eg12
-o16M04hISwkk2MUl6QTa56ucXwQhTgMirJSVPle2gFamm8Q3A4WNTAyJLhOtI91F0zAthGR9I1+J
-3TzVDMgtckvjeKXkNCbJrE8IughtVNlN+oh8FnAsnXM7bw6On9pdggWQ3dA2sYzzGGtWjvkAotUz
-gwiXA0tZZHgRBTWAaBYf4c4KSOnWZjHR2OGus5YpVhST6r7mcMjuWxUr1mA11rCZ1u3NYcJ+hZX7
-EvOO6jR26UyUJ+VjvAtuU+Y7Woq1iKCHCXcXrVkGTm62lxJPVYVmPM1NScMpmXBNuJRIVmqOEQ6h
-yK9liTQYDgSbk272RLqo2TjiTGHDvL7k8FRb6lW7mHgcxkzbiA/SIomdnNwnD4KH1QTcNLV8y49t
-EaK/tjtlIwyzSb/0wCUmAv8q6qau92l3r3h4XIiAQ2aSVca0KBxdtv11c932WFZZVlx7F2qPA4GI
-K+5yGnFJZYpai7d9mUk1rkC7tyKIXK9K36oUM4iXoOcuwEphHb22IjUOEqJdKzEpQtBpEuAoI/p1
-D5v2LAA41OAJGbmMUW91yEGHatkGluQRnYQmdyn31+WNxDNx2xql3biQQi3ZCiXcqFgAhHRTbfql
-AqjWbGcJQEkPe8tUtxsmSlj0WcPq1kzNmOiLJqUaiReVVaQY1poLRAlJiqyBCGvN9EnmjLOIlcug
-JD1tSDJgj0i2TgszXYb73lYrqpRkrKkYbwR5XTgd+JQIMMMYJJB/xJUjiYt8hW406WIoDlI+S3k3
-8NfiMBsTQwBA3l364pUSbeF5Gquo4REbVrh8jvej5PKtLfa4kJehI15qM34028LIEE4ErF0HhsJ6
-cT44ygiqp/IK3Qoe5RiaT25oD6xchWDKloj9zO9wE1uxzLKeJo/iVnArll74vjm0mzCkChEus024
-ahs2cExsnABR0CXCcW0HKo441vRUpZqPeXs0WhHKlozwuEWGKqz8apmGbLjiwgr3cz41ohoniVXs
-EtXQS0B9NgpYNlD/NhGsca6A106k6ynjNStx61XRUcTTxMdth8HIl40bhymONlqFxxCLIo5wTNHG
-X0br1IhvYt0KJixkZk6rg2xJTDa0dbvvGKzBmhJLHB6t1Agj7ClMQjNhkTgcjTsjpmVtioWlxkRI
-V11jRJnThnQKSZGbhWqUuq07iVUv64LG+16iWTf3ApY3DPk06qmYkI4pRLRC7gixK0c2cntwBVLe
-pBeSbwg6UzssLCo32alGoJFpYpkbuT2UhbViAua44SoczPptTMMAdypRPTJFjK9mdbktMzvyLe0W
-IOdiLGjQUWlY1GjhXcOwBVc9ExSq+zXuFVuTcQOPKs9qfiuHoHPFbI0c0kSII7fsSGT5+8ApDtEa
-3Weg1gstdaqMNclRn6MRXfXUJzHl7DHD8rwi3GD6EHPFTtQNMbeU3s6XuowHCKAYczLlSixGgJJt
-NKvtimTmaIKqrITw0CI2UKA4wSgoFAXpQUyx5/L3ianPp4c8cvJrfSXdagFWL6sev421XkHScHgO
-XojRZDjwKKAj6fkU4EX1JKbBlEZGJREVXHQr3Psg9lqCQrmbVNxuA1ZabYM1GF7+TiKsvqGXpx31
-cbJxAmpgZ2DLEUyx5G8kxNOdUZSEnpx9RXmhKxkx8+xxlWDdzI2Qltfv7Pa8fz8C2ee7wRzm6W5R
-J4lT6FWR4e+iB81CjtTh1kS2Pwd7pvyfgfHqS/D8fM8T3WadWBQ5tKkG1ORhFc0HHfuuSJS5PwPY
-JY4ACxbeJTjB4NQF6fbCPuSYLlDAOcNKs+vrVlnUMz3DSkmlm0akoSXN+zuUUuFGdSRaX6ZQcNV1
-eRWtdOOOf6xsz8mdCHwch1h1VLdkHfXM4gFSi7X0IMVfhZt8Niq4fUyhqaBH+KgY6bq4CEhEi+k+
-a0hkpIsBPN7oWLeDyvDYQfMM+HfduiHLSWa1hvQIncclJFSzmYUD7hcCheoo1gbkHD1gHsC4B7Qr
-7/w7/5DmBEpSmbDaTTpy1DoA9h0fEhWQgd0t/RQDqAKQ14R4ak2xwvBNlJIk3KiIDHOJ5gvdVWlT
-b2pDpUNneIMzQgd86xnpPNvFD0ikU20kUIC3+p28FQsscliHxrSh4iroaVzZUPch34Wr6qq9Ee6g
-APpEY5PT7QTHs4CuWEoZrhecq7GWjjSF0lQaE5PM4ljtatrT6QqlJNuUHe40GudLKATaSJIdpHvq
-z6Pc0iCvVZtAwT3C3Sa91R3vxgdJQiznGBLMVEJJhTTJd5iTHG0nDHgaAKJjzScKotJjaiNgJwzQ
-f4z7awDW3EMwkK6lOoAwUvJYjUgF6S409NtWYF2PhQhuFEaABuYgbweFFk6W4nqLeMzR93rfF4TT
-aQCdEmCICxQ/qiNoSnmoUQyYANNXSRNgbXakfGo6JBgKkBYzH+iUnw5fBag3HuanCpx7BL7pefjW
-UpcGQ5Cnhr4NhcW4C6AJhPLKGumCp5B933/el43fsx31k843LCRV9I47DkZdkmQ+GfzEuhwPNLUi
-A9GajpM7QCgy7/r9vlM55qPnLZ+iwMsDwAnBKU9gOE9ZFyUIAq2t0yMtBMkiaU1/J679+xwCNbqr
-4Kf8eMd3lwCPSpeDkomjpbQJOaOUoFvAwHS1EU5VK7jqKuLP+wI30ZEgzIEqEcgERbNgPniaOBtm
-/gG39XIyq8eJyEa5HbsVp6yEmCVrHuEIcFqLq+QqpOCC0OK+bdpXun0YnUqiCq9eKsdXIk6YzEz1
-kqr3+hBYldzNzIgcu/5QJ62rWCFrO+YvAHAbAGFYtkABjW8j8DBEWla/Ryu9TNggyvGoEByCgSmZ
-cKL0tB36VKykEHpU3w1WmlECwJWxthYNngLgeN/LXrJ/KjgzjI55eNUAXoo68Ws50Qo50JNvVEdo
-hU5lKUAqBc57pNIrDqUK8Ga4qsmaLh/PxD+PIGFQU3WcvNDIbirgQIE6KKmYPlbeoqrsqCwwSh91
-6CqTalFPbAJuJyX8gFNoZHPS5XQoSM4Zasi0QsIqP5MbIkC2g14dA2JLezNsmSAscpEOzTyYGOBd
-JbLG9iKtmQ8EiWI0E+s74rc4pDrUqHm1V71VmJopMHYVkSSs9dgD+uT+HQd7xapwmOb4SrwkAY8v
-n+iYF6uoL0aAOEcCUySaARyDrxiCUW9yaDAW0OzquJ4PFeYCktqDIxoA9C7jbVqZ7yWy48Hsk7jW
-RWDsJZieqcDioxMz9JwiVXDZN7zLQMQhVCcXOZxuZat4U0yzdp3fgW4KJitkfIhzXChG7GFNm2Xj
-govN6pIDZBBE9G0dfWWZn6eb52KdZPdgVMe0DkEs2fStdiPMqtvWjAzos0uoQKRxEg3XwDRDk5wC
-yTreBJtp52ekWns8zkzID1RbagKw1gbAYN7tOCzYui1uKuq9w8K+kjAgTgQekgW8qw1vdZwkDPgl
-D0VSDppvNNC3AR2mQ4yWLfbHi5RnaLwDw+JGBMgCLYbHPOnRn1y5XJfFrcDUyvRLGjg91ObSy9/J
-ZcdXTl7aFyQCshzeQQYhtROcObYeV/J5Gxglqx91Hyi6oFh0PotslLI6M70K60AaSvMiJU08H4NF
-0BGuWEaNHaksFKw+Y6Fo1rswJJXtqwDjKludSCYTtd3wE2lk4g80T6nsaAEF6ASkJF9HWBGpP2Gg
-R0IyXkUha2oaD5RHhIPtKrsFAEPRRFKm3MuXQEyFOet3qW9MwNYJC/lR180uNdKBaokx8lYXMPhg
-Cpp8aC5C4LFUDODOt2I3m49OMddvOhBkAx/pzSbDnko4BKDLrN0BWu9V1+Gqw5EHVIKp74FW6xMA
-J0SBSnZRBVQIMbeUjNQ/GkoVLHXAQXwLVIbM4DlaIBS5HOduCEMHbaZN2zy1yoz2aJZq21ilSkeU
-lPhQmBIqH4DWyt1ch8eWVVx5ZtSbJU+y0vKEpcdbUzIPQibnJrB8FfSCgHsDU0Q0B5blgQvMYuXr
-ROhwMRlB5+jYM3XOyBUsr0VHBu4pAVIX+iAg4XQMxNuU48DuItw6vAMtm4f5XR0SMXEqEfcB4bZD
-juOQwJqqaAJxJGJurx7JpgcJe+sCwHRBFKMsXXXEwCCOPBBsBH6thQz86QaIxHAC9pNnADOuRibN
-BcuDGzAQkYbf0SNGbW8HnBnqFeTnCnKvc1NaDU0uCoiFzgaoUrpAFCUl43ysUj4hBdNZuUAqyTWS
-CbhrWaNb5UDFq5hxm2IpX3Z27IZWYgz3NYluxSORC9MGHwZiRjthmRS2ZmS0XGTL4FYlfEuTW+9K
-sjIKQ7dCt+uJFFmOQxX3GhXqG/1IOeM2ILpmAgcb1UDugk2CPTxds61uJQ/rM7nELVQXnSkzewKy
-bnCSbep028iIE6oYEg2US87D9V27TmhKWjMDoGmJJJwJsOk298GRxB3Pjn2LavJEmk80ZcMsMfRZ
-Y3vrbq4jrHEknvFEJtWS34Evd3bzMIkktoa5ZgDkr1Rg/oDebuABgxV4WO7qxkADm3cAgHDXoePd
-jodgPwKVeCi2msHdK5HRdjT08WRIBnRLmtHqhL8Sc6IOR1ZOvMwdhcf9nUyElnRAJJTQp/nrCcO8
-jAARUAMp3bPpImWlmV/WQCeatTEaI+1cMz1An8NgeAWjyADPvYuuIF6BtRoXwZHtURImuFxEFBeY
-qu2+BKLGmgI8cQTlhF+ADaB/vgEjUn8Bo+j73i2WsVXv/Bl0ey1TFzCqdcKrnAkS7oz0SoIkXc9y
-Cyp3joX9dCua0w2/4RU8LFtgIUhyKd02Ps0FYHBghouYNodhbmMkNtD90LnpOJtHtupEN7GD7PSm
-xt5iXEOBgr6GFrRlWYdHs6GQpucNRLSF3ALIbgNaFxXE8XfTtqM8E3iK1qoDnKfZm94jAOyVYgzb
-fqEBFbsucpgnCDRmuZlCA2RDr+dCt7SFLrdfDc4qQkBx4tDsnOZa7maVD9AFUCstJxNUbGZGjmur
-JcD0jlf8wr8Tb7uZXa4DqtrpQCYNi3Zo66bE1H05B94DAaSp3PAhB476cRWbSgWkPKKCNWyrVXsF
-acsS8EV9OUDTF1xBg1jBPGXA0KSS9kq8Kh3tOgaCFTB2YjQFFoB/VhjgCsLbHFFp8egvZAZlywA2
-d9iWQHHzx0RbOt0cuuj6KlupKp4utBsgM4GixC1JFtlleN1eP1bAvUsEcAO4UTYHHCaQ8X4A+sAa
-Ny3MiRcSjPsdGEUc/PuqJ48hbZecOZAR2MlhIcDuTU3QvDX0CseXxzl9PYdOnDY4vkgX4bxdxJch
-Cyh06UZMAoO3lU3DdNP0bERbw9tyZsb42TjjLlTIURH2O8PfeiT2ZtkexkoJ2N3OLd+tKMzTwcqK
-bwUqgW+yxWMP/NasneUzcVFfKR1WYUxx00MS7SDmRuVWMlrmX3mX6hqGTjD4tIrSVs3j2YLBKtcy
-aNWCyBKuiy3nhliCe0hJgj7cyE7uAv609BkMH6D+hRNDCpa2LRthngMDrgvfRQGR11IObi/YCDr3
-AfhCkiRGd+NPpIUqGV1mNzrUpNodnWYukxKsIuzHkVRGcNkZ7VW79mdCReMr3VYXPBlhgOHFjpaQ
-GBEgeOICggO+QuWoOJzUrJrDYyR2/ciPpARsuQwueBO5EQlTSAB9QjU7cUIq2IkpZccVoguFTttg
-oStEh/EN8Jcw19pCHI7AvkUmBJ6EJwmyWe9Wdq7ikfB3wr5mHgmXPkSbbFbg1oCz58NyMJAJStlA
-oQWHJsEasWFfXzV2s+zs6KKxVXDOGvqsGMdkMn1WBtZ4qYVGBGk2xR3RzFV3Lc3knoROh0OCbGU+
-zHTW3gzr4r6HOhW5gAajzuBhHCObyUQDGHIUrDzEjs+GdTg4U2tMMBe4jx5bL8CxbyXipSxdowjA
-CWQsY+BmtQrHMYy2mGsCydpZtO+/VnKGnPFRMRIDZiRHgsmEwCggX4e3XWiIMg1VIkZ0mPGrvrO4
-nAJIFSy5Z8fMDkTiSqrJsW4093lhwBEVHUIc8mgIUwF/BWS+LNCiMpQKZxVuM9LvU2grU5ICU4N1
-tu9pYPFGgQjaeob30K9aQ65sEeYdUF8gkcIc4ErVochOZPBcoMLMjuT25CSAxFoSuUCEtAENAIjR
-xoWp5Mg6+L6ifoThmITamk2xAh5oKNx+nq8yV94rcFYGBKhph0jCWzp4NtCx+2GEJEuODCV8rgM4
-0pLABeI/nZfJ8Q7YrSnJEFvyTZOxTMW1HcGIGuZyooMqCkGeQ9vsqi3xWpOvaFDjsCPApY8AYjbe
-snB9Is+QiHMI+BRgIm60WWoHFjLqbZLM2lUuYD2mcbKRPZyu4pX0GALXQHyQo7cjpyLy8vi/zlRy
-4hulBXw3xLorsaRbSgwEr+2GjLPG1J3SyFeANUUmXrsx0O1wRoQVOx/ExyrQKovSuPZg9DgQhH2S
-GwILVxDNRuV2DHIwJNCc8rOKNG6zg9FpiXdgFUMMMO/RyIFDAhcwml0iAyRwGlLBPCsYYOZxvODf
-HAma3oKzPG56qzgVItKdL2J0IZnDVWSVHs5CApYdAG7fxKvI0hyRaubEOMEU94qDlqAa8Js4oDAQ
-PY5heDdWN6JEupKIyJJ2CHo0cLS5fhkCnGAwWZkUQ9QxmCPwXM7s3KMLTK7/IMDoRsVgiWyTwDSx
-wPrVOI82EssBLDPpERxDccqVBMGlDDQBXjjZiwqYP1mpcMCMSJcwjkBQ8hrAjsCb4owBct6Fe1CV
-6dP0umSRFcG4BZfWOCvuPMXkfaz/P/a+bDtSHFv7Vc4LUAvEfPNfADFH2A4P6bRvtJxpJ0ICISTE
-9PTnw11deWroVd3/dd/kWg5HOggQ2nt/E3fVM79Em/SFH4erloX/pNHarazKin9jICYoAS/JV6xd
-MCFp1gK43E4mC044xdHW3U4M17y+WZvcrPSzbjtc7B2/jt+ik6U7iU6szGZABiBc45MDHnM4rsdP
-vybjNjiPINHSg7jDQpvQLGXmkZfrSWiLZcM0PiU4k+e2IGcHrP+ZnIe38k6XW4C2CxrvJDdDRstd
-iL8MNcBw76BoDbvuLv7B6kM4Zf2T7rIW2OS3xMtTWwSg0K/gh+qn7lmWGLSK6am/MuBGDHS5wkya
-HqoieGZPzh7tar1jV4ytgEUOZDe88N1wKW9j9KB7nQPO3mhgE3f44AKTTyF60DNs4zo53cz3E8bj
-YUNvGnfXgstaLqrQ53lHL22chQf6elI5KQKRQ8r1JussRsnFNhFfxjv3tl9vkPjHnO7MAUAKu5ly
-dC7RI7t1cn83nuujm5W3QJ0yZ8fXC/4mHsdDU5RFWNQ7gGF7BY7If+C7EstA4FvZ/Jge5wdcxBUV
-nU/Rt6bQ92bZYja7TBusb5zj5/7KN2zfAM+ye5WrI7uCnP2QSaHe3ALU3CN4vMNYuLcSQipQwMNF
-2aJ66e/Jt3L7NBb2K/jH4HtzN58hSzs3/iYBJwbd46NoL/bQ36cfyyZ+C7b0OT1GJ/q13ZJTWwQn
-/8v8YIecmkcR/1iWzAmL8d0pn+Mvhq1L2apCPUHSdqt2yXbYySmvvGxBT4s7Wr4qge/U32BjtHn1
-0r7wK47N+RG/2YNLMv8IzCnEXaWPw6697bbgCZPTcIObG9g7uxdDHgxYTZuQXXyweI/dY4xSfeN3
-ucY04R8di5b2ZXnFS3LXVW/utk2/JfP6d7Bpdu8Et3UEACwDR75gC0gzELPOrsctIW6hm8iB/E87
-ggUuMux/x2rrT5AXzuchzcUd/ukO3mZ00ZHRAQK6vH0he3Vc4ZMNDsy7dDITD0NQ1EfsiZsFFaG/
-UUcX7wnO0xv4Q3TOWNfTB/bk/oLNzd3jk1+S56ooWabyaC+fmodoL4q0MMfmGXfPJgJMlzkH+q3/
-gHrlh8Lt2m5BMNhbLHd1de74JQHXDOEUA6npFjjdkD6+EVxX2gFu9Zys7W9mbxM6awsylcey2+hk
-Y7tNbkCz/w0nSP4M1QH7AiUIxS4AlPiPqLfvQK8cLlDZ8nO75xCcLQcIWzfN0XyAaOhxgvdRMWww
-LIkMF3vY4JUbfUEJb/4OyvnLQ4GoGApb31tB4d/jpQlrmMeSVfD7D9ljNrY5RaPcHmbQvWxTX8K/
-ITmSP3OU+PbxGp7lr+iWux7S/xHbUd3GsWAuQ0PsfA9yjKNou6q3VatkntodOAc0M+iGDyEm6uRL
-c5weqo24TE6Ors3ft0+8kFuSN2/kR3MfbOqHduc1WY96NBfCYqoxRb+ne/qoQHNNm2jbFupCc3ao
-sbjy5SK2w2ufl+/tVu3GU3BPLj9WNtbd22cDYdJdjRXRnOIXdq1v2qJ/+lv8/e9OwB/OuYUzo3IG
-nAByTXZrhzqdKjRFzV2Zq7ws7P/fNf55wv8A1hFFK5dYfB4/9MBAAgwaAQZwDzoDb7OyDH8H//6F
-nvL3l/gP8G9IhxlZtvjEKAasApVU4aD9HrfiUh7clfy7/h3w/xc8+/qRMLT4BMg/1tfvV9VSh+PC
-xQKhSzYU8Tb8xrCKIzRx9k7t/k6rCFX9n/Bt309DFzfNZ2rCH8D2oSemhJ6UbasfM+aCjUTvao4o
-0l+Bth+pAC9QYO6FiCvO2mNzrGWGwfMC0na+bQFgPHaH6c3DsPk4DlmMYnk//ZjP5Xvzbg/2QT9V
-tynP+IVdxvLvVsOfGT/k6nqEIAkHimf3j1rX2ItbtwlxbTBXX905M0kOLByjrzoZ0H3kq+ry+OgW
-EIz/kwj61fLxqxziH4aD762adVWyXwOGf/vx/92qD/nQ64+P/vKmPkN+fv5ujSn++dPuozUKqcBv
-9f982jU271X/x/+wfvRv/+OnB3p9/28JQusPf7Kb/AtDyT9Ckf/FL381jPxbbpNVYvKbUOTz8D8+
-HS9/lQ/38T/5h/npAfxpHFn/yD+NI7DQwkALU4YHQiAFqfKbcQRRXh5eccEar44ubyXF/mkcQW4A
-pNUwjsDUAemLT34zjsS/4BerQz6FWX51L5H/xDmCfNnf3RJhiPiBFAIXkoIQiCF5WW+Z/7OtJ5DP
-27qO/MLXbfJtEQM/D4lt02x0VPAj8h3xRTI3AqZNIaLScwsIw/Ua5y0SRtzaUc9P4VItu56GUIXF
-kYAS1fMbenbTCtNGNabeppcqKWLFkzpr3USmu3Iw6gk2mEnlfCghOtO1FVs7kXJbCWZopoYIpN/c
-ErT7I0Z3W8bzvaoN+5YwLV5dZ4ofapbMZ88C6qmFcZ7rKfU/Bt6x70wlzWkCBfK8gHop0qiKCzYq
-cyt9DzTBrKMGiE7kfYkZ5ed+cqbtGJDlJpIe+D58d5W5fsCefdYCufQ93Z4CHNTT2CAzEvpk0bzo
-lnYPk/GAS4zUQ88op6PqlhVZnNCE0HFon0U6hk+rMOEOGm7y7PmO2iIWyZ7SSQA0Dyat42zEu/a1
-Fwxfw76vASUPobNdIEwC7l+bH8MsoG5iCcwDgsxy51OSPDR9Gwab0l/qO2qiep/GncT2qYz6MtFh
-umFp5dx2UgR+xnvffa5a6PBcZamByJc4xzIayKlhTj1uolHLOqeIUny2ssTIo9SQnBC/IM+0nwjE
-Pa7fbOq49t5ZEMzfwkm70FxHajgHPZt0wR0zPuigJJt5oNOdQbiDhXYthXh6DiFk6VIhH2OvDIa9
-GQZIoFk7Jk/9yKkpYkeqL5qVYis7sjy2M6lvva5v9rCjqh0du+bYLQt0qu5YO7to5PpbILsaF6NW
-x1EI+c5nAzRStpPchz1nRcen6hVnbJqy0Pr2nCSUXB1bQvLZ6oiGmQkDsa+83j745ZJgTjDxdDf4
-kn6rJSWZ5i4EcVHI3Log3AM+VXclBrpag26a+dSPuUMX71hSq38QB1Ra7iw8+ShpTB4kqZpvKelB
-5+geoIHnzukp7BMMuH4v9Kn1lL2QaGkB7iTQZlMkLWDm6mPMGjZi4gtjSm6US/qtNwRjnDljn26V
-aGog9klVHTvPLQ+OXO/AtktSlrW0HL53iSEfox6aj1poetWMA18yMg2K0k/lkSzdAhm3IGNa1DGR
-tohKJve+Ghs/c2tnfg8CyJFG1MYzJV78VLsBJJPhPD2wjtPtYAT4L8HSdt/I0TyFQcvvkmGs7pbE
-oztr+XATKDXf0LZTp9ixeltD8HZ2GsExu8ei3ZST9RkY/fKTwGdqo+UEVXkjNfuKnWVCezjH5iki
-/vK9nBv3TCyEQ9NE00MbJ2B/ZnJWdn5sh7ro5uAiK1jYcFy3TteH2zLGAGtqNZyGgbw4ViYYEsKm
-z10RRgqiHwejearohkyhucyS1ZBnRRbi40ZasGepjfbtXErg+27EfrCEV4e5dIZrO1kPvUDSVuMG
-yzX86s3l6GyrRcDCtYaYNOeRMQ7le6BZnSXwD7oQhrXTY0sruBHoZOVhaEJ7mm1cnXVQ+cbPSse0
-NWDnWAHBnZh4HnwjbyjpV7lqE4xfZZuML1Tgdsx8K2OAIFHCX+ZlsLzwG9OHmdOm4esCK+IpjSTd
-lElYh0U59+mhhF7n0sVeL3IZJcuVSdbTQ+zTBiAvn4uRQcJazhE/OQOrL03DO2DCSwJ9N/I8nnTj
-hm9kUeFL4PRdvB8avnxfHMgXgR+ZGXO7EonIJjfAXRJzFVx5qCPcVfG8PDMz1E8hGzmwDtpzEL6a
-skdHKe9V8RkdZdBR52sVesMDnSQYfJz/504vE2C6zo5dFjQGElcWT+GdjmpA7G5M78ZxsFc7Cffi
-NUpg2p8n+2Lhn9y52CnGbAgwmafuQP3MogKR3HIG6qdJIgtnwdBek4nym4Ul7atuOZDrni7JISl7
-42Yzm+yP2G+bkzKR/0J5Q796fVd9+WwR/ts9/dkxuyqE/t3uCblD+g0xjX/9V35tn6IUeTNwWiWQ
-AUP+C5XMz/aJwAyPSCUYveM1QxDj2K/dUwz/N+Ik0zRELMZnsuZv3VP0iwvrFsxSZJW3YAb4z3y3
-8Tow/FSmoHtK0YzBZhqiKQvh4/1D9zSQELv8yNvCC2gzbIKFxcFhDMpWZdGURsa5maagbuihke50
-mFVgT2UYjGojsO7g/2nXzT8dXD+fA/h3c1m34YtSaXORUwhxqc/m/Vh15F7G4Ii6yIXzYOGwSnXh
-tPdGuJDqjqanVPn+uxJQTDnOaI60TbAT9UYWSwLHqZnnKuekHSGzIxCdlMvC/QzqFfe9j3pwlzLs
-3hcj65tqoMFhMRbUf8296iklonuT3ZheaJyWlzCK2iIMqIUvphrzSXFUChbPOzETR2RzN0JRKmJZ
-760PyoaUntlRGAkz9Dvto4e2ATaktDxXE9jnJYjpmZpZfEgV0dtpiBqAxijDN1NZwhpcRUD6W16e
-h5qZ41xyd5uKLq5y0ZbwaPlLv9zNQS9v2jaE6pV797pJrzrsB+CVpKRXE1YOTFT4HlsSGQ7othmE
-hKRVLrfzJKN8nqrxIEyX7oe4bd5Lf4r3jlt714VgRsygxAveUAj99742o87qvlEF96LomLYOf5vj
-tgRv2XbdeU785lTaBKay2HYMqCX3SxxKSQruBsrLZEA1+x6hc9xNbdDwjIxRCR58qHu+l4lEXaD9
-CFoyidtoZyuH3PixGL92k1eOMFM49jGdO15nkwkxYdaO5HEmcViHFvUdAreSosuuaueYCEC7NRP9
-nrRsOIRaQETmDfg6iyD8MLh8dqCxtApIelWnz5U7Naee2ODaN6KFdNYzfvXUoD5/eLx2IFIKxgb+
-PUVDH3aOUZNcsc45MqL1nROnrgHvoLtw13Aszsz16u4mjYV7284sRbMX1K+snZpDN7TlpqRzdOzK
-gBYd7t6bwCqd06V1izQUwXPvDX4WCrfZuHIAJ5N2/tbtSA04lFUA0/qRXZdahmdvaYYLH0MGuwoB
-ksTn5JJOafgxaQfOO9JF3dEJ6vYWVTXZCV/7exs404YHkmzLsh52OgSwuESwrPVRA+h1Bu1VTW4H
-bHSGJy6Gvna3cLZc2ikBLC0CrTaDly67CtdjmzCGrpNx3F+C+P1VQLxfEHSL9zMit4+DE3lbeDX5
-W0jmIcwqy8ebtB0hQmKJcjc0agBXd4F6YKazJrPEdLtGRHar0cWARWbL2biNuU8W9HtIg6G7ZLKQ
-npCwYeD3UigyUqa+R6OA5kNKCHlSGTSZWwUBlEqBC0ljKPovPEmAFqsJsvUktjsvDeatjx5ma6ql
-Paaz7E6pr2FAx2IShwFX/9xxp9podCjw0TIfSG1iVJVZZ5G7oRWuA5oT59/HIzUyl5OycCchj6Xq
-pm1jjH/vUeHdtV1kPsJeg2TxGbRMzJXfYiv0Qy2rtmjruL+u+rSHqgnHN5zD4Ei7Cpvb2iRloUOj
-rZmG5rYPJYA9tdLN0vCrEK67CRcVcNCBqfcoVZVu63Gy54YoXFDJnG8OY5AFVWRyAduUibc33dwf
-TG/FV5/HUEWFXkeq3TI7rdhUYwxXzH8r/efjiv6iRgOf+vcrff5m3uSb/vjrv/Oz1gMnQVVGZIOH
-zIEE0slfMzZiPJQBKmwk/6XQYnufiS2/FvvoF9+NkeePWH+ItGGH/gmVBL8gcgOPpMKjHPDfEI71
-HxV7NA5/KPZIXvKQg4DOAsC7C7Xu76GSyiaRUUuoiylQss/I4Kk552a9W1ynjF6iuQq2jLTmbGt3
-PPU6kN9KQsCI+FXnXSsTB36RVIaeK6d3TwuXZjuSunusQuwIToJJJRPc9w9NwJolC3sT3pXuHHxp
-vDkEADBV0yvniEHI+iZ22NZjU/3i+GY5EJ32p3Zk+h05k0uVqdIG58iNunjj6wCkM8PgJzNZ8p7m
-KAdU5HhUwPCSeuN0LJkIQZ8CFXwRelg5PhnW5Nh1mDty6hNo5TwiITlumIg3LqreuHHGptt6hPU3
-geDBxpZeeOcqhjQIh/cElN/Al9vGnxLvuFDrndK+qy9dWEIbNU9xXs12OFRUzHwrI2dcRY8+7xCN
-oZ1bd5j0LlRaL5vJas2Ps0citulLx/KXXsYNuCXV0hQdkwcPpY6YfxRkirZeZMWL09fxa+DXw6tX
-6dTJO29wpsJBQeRFPDmcHLpymp284sq7FSUxPHcJa4FhaTC1HqY1uemCqfo6oEa2J8eX/kc/KvkQ
-NSp4HHUK/YnW2naAiBJycsOujOEQ1yR8ox1n9/g63Xvwudv068Yjpqg/yHUz4p/7Ulmte5TfzvRb
-agN364SsP7frZhako/cYfe5wglnIzgRtLowLb4PFRO68iRJ48dr4pJuq2vWjIXlJI0BGSyObA193
-05W2elDrDtuse63UQffgr/svQMZy5xt4exTj9fcpCN07ue7Ypcunrbfu4qaZSsg8sbN36x7vAkg6
-+ouwx7jj5RfTYQyGbgQ1YaAhFr9eK8Wy0O4cl4s4TC321oyuNSWxXXtUQSzzoCL9PjQq3GsCWq5v
-+/Q2jEuYZNYaJYRYy9WURIcxrpDcEKMdK5a1srmSofcT4/RuavDmIBDozl1MeejXsggwaT6vA/+e
-jBDxDGv59Ea/RyVdiyqlAXspq7XShiM8SXwtv9FnJTZ9x9+Y7427iTHn4K8le/FmiIl1Ul9ZC31a
-+lnbk25BoEUdASkYygTWyslCQZCIGHED/nxJ1v4gWDuFGYCjyMK1fzBrJ+GXcbPxOwJ3qjTeE6nR
-5dWfDYhqkp2OzYKK7Myn+bNTSdampVnbFxkPwUasLQ1zE3tx1zZH82g6WQM58SRrd8q4hnVaJHAI
-DwSu7ThoGqBRXpSPgFt3qanjAskc6ZZHSl/ikde7tuqiIxDEcgNUojmkrKtf5dqX0YG6J4dYzBWf
-bVuCpjVEx1OjneuXUt8BTHOO3me7py22rU0LhLNGY+bDQTemQfeDuyYiRcciZnf2s3VkKgqu5TiW
-B2zW41v12WR2Qeezog3D+UvPAd7k0lnEpofrBLBJMMDMPHXi6k8VOkYyBZeh7qAWJrH90OEQb+I2
-7N5w9+LS2xZQLoImzqWk6Jomokwe1jM90bSasdhmsWzjHgZFxYj5GBYiYNgI0+RKPReubkM7VgAr
-0ntXpgTqYwmhHXiW5lpav733u6TEcRkRv3uR0LlSoXvEomrvRov9XbWRWHIndNq5IGph8IBj8W+b
-YVql4FWdnLvYGTctW+S1rGc3gIOZUg2JbeR8K926ekw8TsICDI7HNlNnEY2iiCjDTdvaAfszNu+j
-aEzzdRxksjG61TrXisLKH2tECxd6icKvSzPT587TEdAXWdbw/6Q1uSENFFmznXic86qqX+rRpclZ
-eQRfsMQO+jz2WuiMqJbtTO0PEC+gxTtLL2m+90RAueH3ndo5qBktgqEIsKxlkYnNvRkqZBfgPlS6
-yQwvF+7yGLcAr5AAxJdgprlyFJ1yPmPUWe8+ANqNFgaK9VaO8iUMLKSjcg6wG/fEz23Aw9c0UTUQ
-MT2detAfm2iOvNs2aj/GSJZFZaPh0nY95HRxUpY59eC5IVPF92HrmB2r6/CcDkEA4TIGWTzkqfHz
-//Zw/6qH+/e5ri8Vnkn6/ldYzU+qK4p/CdAY4TkmSYTu6JPP+mf/5qF/A8ubwnIcAQf9P2AN+jc8
-+8NLgeHA/eUj5fE3sIbgWUV4DanZsGBjkbvxf0J1BStW9DuwJsFBrQ8mDQHarFluf+jfmA/csS8F
-pFVVLAvOeV3nlgzB7Vwv3b6hJb2tFamQHjXY6ERS1F9Z8eWtQ+VCTkLlXhwCzYmM0vpih7m66LKX
-h1IGwoHexBGwSvt4Z6ChC1WygieGe+GGeuaONvR2WRCCgubS39iwskHBZBnc6SUEXoppOEFmCNgp
-Cw1tEDnQsDnQb7pVT36AA4sO/TyMfubUNHj0Z+EemE/UFvhKtG2W3jmPwqNfI64QxhLPTnJJxAyD
-CevKZzdxPAgCA3iGTbIcVWvmbcPLeRdbKp61KypoEjG1BWHYHaPSYR9dL8jBBxqArmkAiNNq9y5G
-ZdjzMY7OpWmAclgaLdfI8ugC9+D0Frnj9AO9g3sMMZ5WmxoAw1MLXg8qwUAuj36FItoRYpG20HM0
-Yjzpn02PkhPQsd+B95tPgQnZ0eU+l9vKMf0+ncw6y6ci2WswS21eVYiQoZSNu1hV/iP2e3IUVPr3
-TTMbJwfOb05VF3jH0QWNXhhuxpceKHee8DhpNwMPycWJy27nks7dAKTy3kjQI0iCsOhZ1Uxi+I90
-hCgKEORXbbBFhiKCgm0cnEe/1novNMA0j2KOzSrK3I9EhQhxkA0sF2W/OOiPvJi96hTbcdsPcFbP
-ZvKudHQA2cDOOT+3KRtfo75pruFoh+1Sa1rnDBbTN1+2y7eWTvCau5P3NNHGt9kUuBgVFqlN4fQN
-uvzWjo8JVdBYtzY6hClqRGnTqSocMYCrksBjINRiHdxHRIlTKhp7Hgjl71o3NaolQx0CC1sWvSMA
-pPUqgICzY0iOs9FUbxVSnO7TuPSfl9KyHW/K+osuk+jkKNnxnfSHADFAYVh98zV1noa+Iplx6mbY
-W2d2d05q4VZRQypOUb9MG+n7iFvBGIcIFIpMuxaOtMs4AqQMyqTeVYp7sqCuP5z9YEDUS8N5m42y
-TgqdxPLHSB3RZInHzAmEZ6+zkkXQ8SbJ0Dx6bJgzt9TLtvH8GizAkACh4KbNZKfMIwtmfChcpvY9
-rcruZlia+s7KRgN4myiuEx9qm/m6xFDG4mUTeNN0CeImNHmFRNGCNZHcOIOAtF6ndINF40BVFyzQ
-cdV+GG2xnYmPMTXjAf1osGscB9CI9hFUNIk1TMnF2i3manZPPLb1s+ME0mYM2ZI/+hgtj6gWFOWw
-glNdJgpyVpIMys2oJ4XMZ18IOAVcc4vBJnpDO4BsJZYiD6uudHQaIlE+qWSE1k+2eE2hxZ75wt41
-79uDtGF9jBREQ/DxWQrXT6D8Tdmn9hR5cjjWdtInCnRoUzuLfa6IV9/3ygAVDY2A8804tPk+uDZQ
-VyuQ836IAUbt3ZrCrzZKI6Hl8kFCZpA0IOKscylwrZBiYnSnGWYQ35lvKmVoiQseOnvR9/13cEMQ
-AJIhQsxAWzbBi57D9jo0boPMHhIEr14JLBZcp4t8yljH4HRaAxPqJl2AEGzqFpt5tsA3iyvgahCw
-tvM6mjeaVM/SR6JkKkMEqxitzqEe4B9bvI57Gz2T9tlw7XzRbddAki3L4cXrSgSZLC4xyb4fQwMV
-8hS6TzUAI2/Xizj60bkEzjfNWvURBQ4o1ti03nPci8DDpFq7bMfcFCc2JiOO3E4JyZMK3GzOEiLf
-Z9MOT0pq5CNEoYBRq3bxK7DESZdVjiPfHR/xcUU0utF1jGYCSSxiu4/GjAR62DFNEVSTuMOFJtb/
-3i5tuOQQTkXguiZnjQoLWxsXaKAZcpDowpAtxgcB/1JC2UmnnQcX5eicOoyYH1UyNiqz2AcgrAsY
-grjCqJnuGUg4mZFYTh+NtZ7ZYIFi7Qa0hacogL6ioM0k7hwZh6/UVNOSJaWG1FF2HQR+GKogjRgr
-+6NOLUx1rVfLABVLmXcz+cmj6ECA5Hpsylc7pc49pdJA3zz57LVsuv4Yo5jcuePS7GwqMC9yJ2EX
-biF5wtDpj27Wt173QNuKNVnLghhTP/HmqEAz2sPMBv7gEFmrkcblGmTigI0gGUWA7EvLZQkT0AR0
-vjCIDFR7Graz2CkTYHyiltMPVKvkY5wNgSeyZdUEy/KsBA4eU7zyZw7PZFlPFrL1xH9kNm0edBWQ
-D9WZmRzB5LPvS8lQV+IZch9se658cjBIRKCx2/iBLEsZ5VU0zy6AkzZ08zKZ0b/G3IRnZQYoasvB
-t68x7ulXRkvxogBxwAG0qMvsc+AYyyemMRkJfKMfBCXP1E8pYACY8PmxRNBltxHS5XuDKn0blSJm
-EPdbBeF+UE58280AtwEraahlwlC2obnldaqrtOhLlYD58Xj6EugmeOwjDTTJS9oIM/fMEaPgmBhx
-Z2P6lHo4HtDg1Y6gqYGNyTr+Pq6ajzEk+kvauV2d9UGtN5HwXHyvxGwS7aY7qXuxotD2zcNUUSFY
-BK5LNTj7HhjAVU4CAwCXNk96YNJ5jWIIo9GkYRsKnOS9E/G0/W8X/6+6eMCU/xqJxZ7a/nzO/E+J
-2hoh/E+Jmv8LHtKGh32GuFWgi/y9RA1QEBhOBG2uOdqrfPNX3DX4JfGRi5QmfgIR2j9ij3/NNvZ/
-ifFWjAJ+BBQX7/L+o749/r30EY+lQBoBJEcR9G5IyAel+nvcdQSm4ixYQ0WlZ5M5lB6GIB62ETbw
-IhSzABxq3iMVIaahqoPM595FihSq9dFH3A1SgJMhgHG1A18o0SzYfn4JKkhzICRL0/E09P41BZEI
-OxJiU8UIjTIkIjqmzzwN0Ubw7tbVUDVRlXzp5x42wHR6Kt3mK/C1JGuCJUQADkwNcTJCwupgcogq
-RCSkK4RrHC8fje0KPXEfSTzNlVFXZLSbT1DJpEWaNlc9MowAGuKGksGjbBpSP7klTQ7zpIAzlJ2X
-1x2f0ZCgHskGEzU1MBQHzXvjswW5F+F4YT5EMHYY75hQHbJfXJjwVedkk7sUNUGQGWNIQTDwB4xl
-dxcF8M6kS4IkJ4ueqaPg2JoQohHK2NXr5ZelhHE3rBCN5DTtHS7LsGGV3TdBeW0UTKjj4j9GTYqk
-TJ62aLhTIDohPPiyrgqc62YXyxg+F9J/kZNUOYRiR1FDLEXwLMjCVpUpQFMh7CJFx9cCTrrGvVci
-IZDoLQlxpK7nmKzxkVs6jORh6QF4mIB/JczBxDBf/pe9M8uNXMm27FTeBHjBnrSfAspbubv6PvRj
-kBQK0khj39tsagw1hDexWh55b94mXwGZwPuoAvInkciMkEIu0uycffZeJ82HOwQPB/KnPGVITJye
-9qNbexfFyDQRN9ranYutT7FHsm0mHzOQt56iHKJdzBwIIySCkWM9545ids4UPdbeS16Y7MSChXeD
-WRLhmLJbT0jIhYqJGVv1plTG2S5ONJyvIliliQ0QK8g+XSrTDcfZdeQ4ZCURNYahvNBdUv7QNJkr
-ORfjXvnLsLWVQG9eyoeuyp/doq5PvcJ0Z6nkddIAPaIqsjfdIqjlyxLKXezkqHa2dx+UEC1Vo+gp
-rColnDdei5FMdCIOXkTC2ukTYhsobMzNXYgm/PqyILzL2/JIQQGVOSaEXEVWdGPHKWWrLyFIF/CP
-LaO2gbY0Jrr0aZjy51qopzxLCHsNBH7sVuxoHkA9aiJRKgMkWQQAPefK3FPAB8QeIlw/XTQeh9Yj
-qjuYU1q7n6lvbZy4y3d2GuL3mkAcVnJBmqvIjKe+XLOrhB9IMqCkslu7gwXBVg5vnsUTETAKgp0a
-3BQBrqw0kR9WNryEKZnFYWw/jZ9/0vWWABz01WRFL1Fb/FD9NG6nZZn3uiHBVcZMQZxZnap6erJH
-670V+lRQHa8iNfZbM+q9ndp7zKmbJq+OlavvCgmqtvBiGsZJ3VFqfXAe7QroZrqM5Jpj6tbU2UXf
-Nrs06XauyeBI5Fc9fE+Tjiha6WVjZYeaWcGSBadM0yfz029tu+6Z8Xp7WQxvUrhfyGqfc7M8RjFP
-pmsRyKGKWqu+vGy884c8dV/eIjoyS2LHULZeZdHy6FIQ9B3DWlnqk9ODYvOd7N53wRUwsv6WWhW9
-UqWWFfZxfTP3+RUzkXuY0NEKkYKHtUPctpL8Q7nx49R3P3zfB/qFBTSI1DGwxutFVDcqqo74Iq9G
-K7gbUg0lwieEnsQkOOJyuYz1nJHmcF6NAXC6iOhS2SUvnwXct4Fl0MdvrQo/fEveWbPoN0nc3lPS
-f1sibIpudFe06rbphyMWyt1cAHsVwzGvTH/NO/UQlO2ltg1IhrDujvFkgCg43WkZ7eMIT6MyGYnw
-If86W9x8NzmZRdxYraK5bCmy6U+rllCSHE5w6cHPzq48yvlGdA4ZTCfDFyZ/9OGwHQNqmBwrblHT
-1FEybbqmOWF7JuxWeGeF1nurF04oq8UP00zNoTRZQYsmTlGcxWuhyuiSeTvAYQNfPI8LjudOfc8V
-8xle73A9Z/Vd5giYFQ3pYAbVxRZrcL62rTpYtyI9UQbjCsj7GQGzuBvLiGwVOm7gLbcY6ayNa7r3
-JlQAY0P5gIfh4OA2Xo9JCME2DYqNiDD/U0jea9RdwCWIPo357LX5JmPxxAl4aIYgWOdqBu0/WwDv
-XCc/Fkvf7/xmxGQjo3bvE6YNFLhgx872esw/sLNM2ELBkhRLHa+wTxvcOhgsK8c8uSWsTpcnCYcO
-H1vXpv1atXl+Tcl9G+Ududh8BLc64lXFA+7SV1jLJs6LOxnZ6tRlzggljH9JSGcBWyM9Wdw6Ky+e
-gah0qWK8U7eX1PY3appPVmkVt02TPs9l8F0r6Byu9ewyvlhPeWVfGhd0QzdwRlT4msPwZKfzy+wg
-qARhCs7O34mAeRLj0uIJN1L0NgbmislyeiN4VlZLVsEPkP63KuB1c5zwLRf5vBomhWyncFYj9atN
-bckdd8f2v7ku/X82GHFmc/7fy8y/LoH5n8W7qcr37h8H/uev8/vAnzCO6wZnuJj9t13mvwnG/i+e
-YD0G7S+lH3Unf+vXwtP+xXGwB5zn+oK9GYz9MeX9WnlajPyRkMHSsQ2LepHgxb9Sev5tfcDv/r6Q
-VXco1r6DqOExTPgpaf8xHdGh+uIKVfnG5g67UcWIXnTMUupMXtxRNTVzwrwesfN7OBqw708a7zlP
-0bURY/WWBoKTwYWA5yENvyaOQ9C60LUp1k6kkvtC5CGW1Tiun6u4bzfVUlc5km7U76TVtbeG3Ron
-OTpUly5Dpm3atfk1LziX2yST+q5AeLvLs8Vc2qZgQLvkkv0LS6dOsZ0iZC+OARCYI5Os+z4qML3P
-eAziyKQw7Br/2k3jQO2ldM2Fjiw6OieA4hXMw3A5T459XdWtf425zX+vKUh97Dlu9oBnPHx0M1Xf
-oUIuDZB2D2Rp40EfauJGbcNgcT+6UmKBT8Y5v+9TE++pCt0STpOJPmReJmhmRQYuA3lnLwU4p6GN
-Caw6SgafCPM4FiSKwLYZTHjJzL25i7O5I+pqLEbdXcjFGY9euq71ot8t7XVqo7mxn/BTMXVK9HDy
-meDeOkNEyruoPOreVi79U+a24y2t9PIjDzrESupA6+iTFjt1AX671WwV6lTHzrytC4cFEf35m3iZ
-JyETFaXmG1o0xGgQ4qWZl+nZaZPyvRw8vNo8SMF2mBiT0aYXUDVUFlBkEENhPiyraG9hwb9cojMM
-gjHrD34q1rOUU+s8+qk/wVIYLfUtzAf5ib2t2vc9OYNyNO2+q6r4HoVjoJ7wsqpchX6LFxvpZ7BX
-qM3iR9FwMfGVy+0URcNd1lbhjimNetV0TfXKn0yNU4HsmAld8THWibpaZid1V25bxHeeN/uP0krc
-izIdloPglgagnhf12zik+cVkZ6SJUzOp1yH35mNsSjK67dihRcXdmIptYRrs/0nV3oWNSLZhGrV3
-cQHMTOfRGG8COTDOy2dk0lXLc7Jvsa0XF0U1zttOqfbBDtv0WXY1o90YC0BbhE23TpHkD8KE2a6G
-WTZfZm7k/nCcLvsWO+I8yfVgrET8lg5B3hLFw1ISHEs3qMmUzrq5lWd7aRoE2V5UZXwVWE19sOY+
-fW+SFoarnVSE18vEHHK7ZEAT1gW88WK47/l0rwpTpd87AixILAnO8XqpnwbcKvt+gD0lLf3R66ze
-hWKIYctO3OYjvkAduGbjDnjOjBDlZZKFPfAKhJRrNWPqJxkeO4A3TLCvmXi8mlZmsMNidcq7Zb4o
-+GxuYrtaHnMTLo/TWcdf0ZvHPOtO6ul9HaY2OBo/dYpNUE/irDe17c3UyookR+n3hLyJfFTrIJcj
-BLZspOomSjjeNcKm9fEKckC7AakvfFfD6MOqtdkq0KcFHCmzKHvdujOMGt+2PPjPNi3pOpzKQKyW
-KQHnL/EbbzOdpTeuWXJwZnZWbCkAl5u+XSShFms2F4ul51vsXeNxnERww3mnxRNlrcMEbepde536
-bp4dbawIx4kcIg+qb5kXzxhi5l3YJydXdvrOcZV/acrzP2ESCvNtkKX9HY00HbdVe5O1cr16fI+F
-FlAIw36sN5aVJW/naQRtoRlHgjRj6K9qpoH5yu26/ptvdANCUfh0AZ5MbMweRFC+xnRqrjKme6xn
-6DOVbDjPlmETkKp4CgmnMqgfmLswko4fFDkcNNMk9O4iy6uctSIDtNK14z31nlkOlcyBYseh/ury
-2uf7UmzejJzMzUrPI7wkZUbzLOe6Q8Ks61aeAy76nkLR+7bIkhO269vhw2lMAfiG1uiJktR506bK
-9qk31+U6r/X4lI9BeDETILtoCgtFWEMOH4SVvnf50MFz6L2DXUXd7VgO+gr4JOOARkmwGnRsaiUi
-hVm7FqbD8ITu84wt3d7zhOhvghkodDjiHe2qbueYf0TcqpfJjjhGelUAIeuruIaoKyJ0ZBGK6Zmc
-VretBrs4Wl7OmSITAQikqn3z2gaZ9aGsuHzwhZN9oSI5+wp/15UguPMN0T3axlYVsqKENfXuSrsZ
-XB1nohgrLI/IsVdHr8oN5IUfd856TibwnUZW0zqYfYg89oAfdopKQv8Lbt+qt+ilq5JLDyE5KJ4i
-uyqh75psuJpC474MDl6HMfP0DaFIXDRlIcHUo8WsotRhIqBGcSpUiHenyNznJOkMaj+q3KpJjHWp
-rSrmHZzST5Hx2KbS8zE82f2wCnM/vMjaOjuNbu1s88DY705d0+VaSZG8jFLTnLm5gvYXTOwj0E2d
-oHjbIaJz06jwMcmCBg9c1E60OFOxbKoh4B01ebAZlWr2g+7tg5vN5OHysT2FQcmhMNgDoFnmzqex
-tMHfL45/shiF8nAvsb5ViVUGaAnEO1fDspz7j7geX2TJWexnur1os9y7SIQV3ySug2PWzyR5/Bn1
-DINzH67TpRwPUztCTsmxjiPeLswzV5xp40Xl9VOy4YGGoEZcoHnqnLa81XzfXZmg1bNYpMixpZve
-xYZfFEfXyYpjib/5utRJ8lWWvXkVMcPYZeycj3ZwNC4vXbAJpM1u6XdBl5CO9BB4PABwGLdBwolZ
-H6o4bt5sr48+3IEpS83jTwMcEw2CayUEZA7qikfGst5dRy2zS6dR3uaj12yKSJ59VUl9q4tAnHBM
-dkBNhDu/oBec31SnvB/YE3cMuky9xi1pKvrY6tlymR4FJsjZDDMNzqedDtbV3Kix288EBj6ieZHv
-oRzNUYGGABvjewYJfbZvLX9mq4aSvMrzbIc/euIqV6KT9k02WTD/8gzevuShBesP6H7NYWFvm6mj
-e6WidA6+FMlbOYRMxNwmbpnvTwtdFNawat1alX30KcEPSVLwAilqsM85m9oD4glOd86K23oiadu5
-UbSxRBJRYFjBAFzETBdCdX65mgp7BrvYR/UqySaO1EKJ5BEP4fAu0na+FBNZvjgBatxodh7xklQQ
-YbJl6sm9hZJNWgqOuMdaA6Qf8vLEBT+SxaTX3eJX27ad8g32PfZtxXU33SwxXqqFXNyw9jpsO9ty
-EYW9SptYclrgGzgoURIjXgqUTmkjPo1RnzB01nyyTBffcDnW7saRDdtOuiiawIlWkf8YUa5sMQIq
-BD5rHt6RzM7bd8LUhUpqJdvWKdjBUhjCLzId1b5yuu4mSdK0ZDlDBDB4Tn3AhZ0vdkK3UbbqBlsd
-ChWlD27uA6sq0bhXnc3zUEuCp6tYRZzD7ODzQCUGxqGc6Wt283RJvJ2GGgh42qXHRPTFtR+ErbdZ
-MjvYa0z2rMAqRPgmCtEFcIi96SIcAT1zQrnRrcFGchFg8OjXlSsNaNPIrg8x//kRD2V2syC33ut0
-bK9se+xvAu1nHJOZ517n3Cc/nCUmZ6PFZG6YMbvz2TnFNovEb55k1gcnzMWpWGdSeiCSmSGTB4zC
-LyyrI+98USafrVsgSAxMAaAgj0V6UVUhl06ER3BG8H4UxDxec7cWOzV41ofos2o7+7xF2zHtx+dQ
-BfIRhwnkt1kX/ovdR8lJ+kuC+EOLUzqZYU1GzSBUdEP2YVf9cpNlBQUBiRaxxzlh3kp3PAd3Jzsm
-BogYr9ipZHu3We2NZ+tag3FzWIddSuGLwjEvxJOaM7Aq8opP/DjLAVw17MskbwKirMt0UxOwweJj
-h9ZnS4jAZxNI01IZDRqmjnF1gGbma+iIbdKiqsrC6l5xr3b1hpVbKEpYcoMB3qyAOd1YMSp4pnqn
-I6/YNP2Vcsvq0x2H5t+zK6oW9dn/UQxgkBNDHfinNYX1f/7v9nv18ScH2t+/xm+DLP+XM0cBE5pw
-uLKI4P4eIAh/CfiffSgMjh2d/WZ/1xNIGBIsPIcFQ2g6ggDC3+WE6BcviPizIVs6SUGf/9ZviIk/
-QTOSL5ZX/dza+cedIn8dY0WIGR7VFpQFJ8Lz9hdm/xTNbcFBlG9jVMHDGacO3TP9MVh/czBCzPiv
-v8/PH+ZPRref34kQhXcOKYRoF38emNlxRPCprCVtQt7fJ3R02Z6ouOYMJ2/7WJZhdWGLutppbFBX
-NqX1VToR58YvG4pD4Nrmye7r6bGczXDly9K5CoY6ffBEskBbn4T90GehdciNjLg1dFzcMwq3Nk0A
-kDeXKcpcIMPsQAdDXYR+tyZOPF6lTssdVbTWq1em6nPoan8vcaGxLSGkbmfTm+MlHGlFss/t3P2g
-13U3XrIkC3+/9l8WrDxftomKeJUuWIuo2CcyAnPXXXZTkzfggAXh86D1vvw4GZZdHSW9vfK0tKjM
-WxsClmrdSh06qqF2HeYBl+LZ03AnnLZhhqL8s3PFHst9Mg3+dpqi7iLzZfqULq73JlKxXNJZQSBe
-nMSFlN0nUNuXxJYrKrD1ID1vT/c3fXc1IyIaTI5GRfigmyymMLXobi0rZkNBtWDpXfuiaZmqRcuc
-XpBy40rnWMZfMzZsl+qKqpk2XjwBRp6YDrCex/AJkhoc5UoHY3CHxyFdD7kV3lpdEN6armbzgGO8
-o52EktVUffmI6Q6xwLYFAcHQSRLKUacrNKbptjvZWLTv6gTLDFzsQF2kpZsfMYBDsysIOi4c02Px
-UvYTnoVumO8zfGXDCh83Z3MQTs2mHNj5pG0qFTiV/XwdWU30OMyz95h4rbNjDtrALrOi+iocFOJ6
-FmGpMKYWpzr0/FtrmvKbNAoZ4uFBWFjImY/mYpxIU3q25DBO4i67GYbeecQBAZyM8XWypmQmTTFl
-CbThOQf2zjPtnTCqVM9hZYnNoLvsoEZCo13i85woKdlTyX/fZPFIjYvyC5JyZOy3s9U4XaOmH6xM
-uiffdOy7w790N+PpeeOahOUFDInVCgFkAWQ1780tS70jzgAwrZIuQ1wl8gcGyfgksooE20oTnrT2
-C3PdcR1qkV3NmZVd1NKHbxz3HvC1ipvEO6pIZ80p6Yi3rBFXpLszcQ2qgEOqVoc8G534WKbse1j3
-oi0XvIqjNrsGoseL6RWczirx1X3mUs/x9nXJS+pnsAkJLXw2qZOAm566hCzCLM6kCE4OFiYIASm3
-CbJhxySpuJZ1qB5nJBR3R6fi3s5L0z27Euc6HJiUWGZXWx1xP2WKF/jtpCU7k8qa59tqn91lrp4m
-044fHX3guxXr/G5gokVV5KXuuVx03UtYYRNQBIU7Zi16eyiPMumHbr1EmFU8bHaQ0v+btfU/Mof+
-x//XlCIXk/Q/K8Z//cfV13/pAOFr/HZx/rRn+/bfzBpnf/bvF6f/C4Au5HQfGZQZSfS7EM//4/qh
-h3Pbif2fsby/X5zOLyEmWzK8kItgx6DU/ysXpx/9FVIUU07zKEXc6STvWGDw5wttpjWfCA6VIE0I
-4W/o/2CSjFleMrnvokHzusXte8OhaZ2df+GtcFL7B/ie8HLySApdjhLrGqI62t8p7Lzkdq7U/ILn
-IfvuuL18p/I0j0vhDsVKBWyKwzA97dp4EddD0qbL2THOmK3smwW0Z5Qd07TpH1xicXvEy+qClJna
-oK5NW9e0IDWspvN2SyDlZ13q4gsrWLX1YMbcFJzMJ5P29tEqw/mmrqf8wCauFApqEr0gqUY7peLy
-pmf+9xFaiHl2MPevjperm7DiVRopbs6Qx7j1YeBPy3unfO9KhfFyIyv0ytZHLlspP262qmjNus3M
-uO4nrQ9jct54UsXdF3wCstiun5FPKtm4o9v0bQ6GYTuksluHoe9fYZYN77NsxE2jl+5bIafwHbGe
-pYRV7RGdRow94PALn/NFeWaLh7q67J3aP2XMKR6yvAuy1cKZdhq7huscKfKg+jY8Wnlojokf0EjW
-k11+xU4B49sRcbvFbpqwoqOp9b1jtxGrQiMjGJxb860iuU/ezwz5FaY653aISmSOBCrDZoSUxpY8
-zOvLFA/fY5KXYH1rLU/oYQVtFyS3Sc35+yAW99pTA6sNznFCa6ibb8jr7l3U9fpJyT4+kF5gPWUh
-l9faWYgSzj12F62L7/k06iPJNLlfgiHG6Z7D7U6NYBo+5JkFgahUL9x4hJpc44yX0VTZV1ri058H
-4R2UY/yH0eL5XVOQlCfFQX/woQVcmGocH/ggrII0vz1dMAlz7k3P3baKTRJ8YmwXD7heVLCyOwI8
-aw+Ptb22ddc84qOcdk0W1Xu/yb2DSwTyBrRE/IwCQ+vteoV5wPie3fWjXG6hV2CpycFIMP3uA7ml
-AHATGqyznWSqrWFrJfHUbxvMgS9F5NAmLnV5GueE5RaWMMB/FlTDOC6bF377TYejFqMx1/SZ3+L5
-7l3jZPEqnOARkJZSrFFN8uS+KWPmHxjTWS2wOKwXQexFxirSCQdANY9PohNwkauy5KFJunVUjZCG
-XcraG7+zw4uxzAgLFZGX414JvIs48BnG4x2aNx7wnQsHwM11QbX7PSZrussTO8IYkIAst/0kOk3o
-+ic/IVO7aoOaqVlkM7s5VxfDT6OkyXW7w98/XtZLool3aIc4Gfn9Y+X4y43RvvHZkGsDSnb9Orid
-KOC2oUid705Jkc2aEt7vHb5wcMuR1RPDSjJCs70fB8AD7aXjYxpt6zX9GbGtJZSwzG3Gb7722QsT
-YamWa0fguGKOoxl6dZgakq2J++WJEpB/b1Iszfe2D6EFF7MYXhbycfOO04AQsD7ngYsp5QP2e+0/
-l7bXXdqdTFkeek4RM76Y3qPQKr78Kqgf+XWz2beZcDydI8hLz5ZrzjWCydhaySinpi4/2A8znRKX
-CDPWPm/nnGPNZXsOfHo/087krKF0uD9zV6OZWWBzDmOpn7GsvgDagNR5CHq2QGjCY5v6Z5JLDfl0
-lSfExfpweh1dJ32Y62LYmKWsrmax6NN4DoYRYPPW1TksFv7MjS16Dt3XbCnrbDP+zJblP3NmTTk5
-b7C2yhr8e1vW1mMWKmrcaG4oJuNomi/agJrzui1BpOGKKTSkCC/SgPcjktibpHM1ZhrLxwuYp2zm
-1s0g73z+OaeuRtrb8Ix09yOB8ttmsdGYGdSIp7I82/GaWTmMIHzTz5wreKa6yVHOCrGl3QoVZFeo
-4cDzwqnnHGLwlN3K1re+vNZk7VaNeL42ad7w+iABt7eALapHq3WCvUd9yBaOWg4UzTCHMxXfRUoB
-fY9mFGpi5o0EScIYGoEjXogOsDQUD3SXQzdu/T65wdRB5pvkwyGuW0BqAWPmDW617uTLKN8EQ1vc
-LwM9CgpgtC3rINyCQmovfJP3e5nN2SX+Zgj+QVjz8mZphbW6mvfKjZgmLE58yIkz1Tj+umo3IC7z
-FxOwt1OJ4TCSY3iMqs7azEU1XZKpYpfb2R05p32OBwfkRhhQJ3e95Mxwas/acXhGxyQJCMCUqrtY
-NA7iRtXNBaby2rkvdYReJuoFbbbtC5YKl74rLstpKa19rme8+ynFvk1K3m6CVWE77PtqbHvAPlYn
-3WWrgZJtY+GPWNtaJP9kIRZcTkNnVviW3Xk7mk4/xF6lb3tKAN6vySYGP5VeA1U5T52XwHPTaV24
-TQRxeQkHNgNT4+4rbIQfkezyDz7CEqiaUgNn7EJgJyiCjKlIs5gNjh0eW6m76lqKOAvWYDsCSH56
-yFggMXNyE7CABdJMBnZd3tgXZSFwYNaS32cn5/EFj6U+E+kI3KxSVWMhlL3t5GRpWXQ3WP4AXD7R
-lBnsTVvjKGdVsQkdlqXYo3/P5Pa8xSTpostJBezq9oZmeamt3CnWuZ8nAx+KYOEEj0bCxpwqH65z
-Tb4qS0riFp2sXQyihWTS07VeYrEDquciYX/UbRmWTCnyuXeAsVkTewgQVIfLnobn1YUH8pEofmYn
-Tc0PLJrno76fH7W/TASkbeve+NhS19DEuvPqNnxApMcB7/27E/gHBY1yPP4X2oDhP9gcroo/CWi/
-fonfugD/Fz8KYhzgDnU7tf6f5DNksygMaLO5ZoVNtPJXO07wi+cIN0A341JGQjs3CL+6cdxfYtKW
-Auip4M8A8fpXmgAMPBT5v3txUBbsAPgG/xmBTPXCs4T3Ry+OxmEpGtdl/0VlQN2rJIL87Wi8xHVH
-Uqv3J8A3eZg+W41vfXMT00Dyb8k+rt28iBgALdl1lJbthaOFlax1PjvXWVn5N0ZNDfBAyyGvoZvp
-aaKoCuAU5fWJUV556aettYefx/aLhkuGMFPsHvGaEvCJlnSXMiI6ttQbN5mNY3Xllcq6nWWUHpJh
-Hm502JDEsMkZ2pe4Maw31RfQ7/REde4NeApapPViNTUlQKAqLa4is/TrZmAE5zXBTw5SeOdOSXXp
-MkHad46Um46o2PMcV4N/aCmjr5fFCY52QK6rdhjWrELAN8t6Qtx86lMhIwAednP0HD0+z2Fl38D9
-oWyLtODGTWN7YqWTyto1NKfU2YjKT6ddxOxm63DusEepdOuHhj/7bCVVeEpCp0bsgLj0o1369GYG
-H3JZu6W1iapGbPlB/MNcx2wmF4NIEkCi9uxsEPeJ381OlWdbWWPo3RVzRN5urKqHbBqaB+GXB20g
-lwYpKorN/oeWTxZzlO1+hdmQ3NSpnbDVTWUeQ8ei8VkbheGdg6ff+rgkk3XGrPqh1mquSesWbAUp
-bewrgMVe3DK+lyZxcGHn5i1RIny2nIVMXjAsLNop62FvT315ijAQnfLSqB3p4R7lrlTHodfyOap1
-u2ntYfp0Fnz4q7Kbque0YFKoOOJBaxCIXflNklImMFF1DZhVmmcL0yQX1vNQnDGrg47L3Tmf2YB9
-DaxX2QuX1m2yj14ZdVBWg+YepwTr1izv3Nm5vv0dQq2+yipv2BZtq98qU5orzOzlYzaG5Ydrt86m
-sHRPrHNRnzTHOBpRstVJojxeqQWrxYR3hDnzoEOWbjHlfyMd1IPrYgWmIkUG7nQUEEdlJ72Lzgqa
-F/LF843JMoJwCqfBVdRb48UcGWyqcp4IFRRWLvn8CAQE9MlPsejFRx+myZOYp+I9gNRAqYNwkG5c
-v2jvqi5XpKkBefj5nAKRk+6DHhYttzlWhE/YnEDUJymvNEO4rw5nyI4Kx3vziVZQ9nMB347RMCxr
-q8/Abhe527OjogrFo+R5YRlIOHr3rTVDrhHU3VeKvyJhciQsUiyKmlUZBJPF5LMJTlJfZ+ukDGxW
-RZf9/DAsFa6hRTj7HKMyS2eZo/2w68p6TQYTPVm6MdlhcBMxMV30IYUJhtjkSUzMxskUYXfbo8m+
-5GnunhIvlzvtO82zHq0hXGVDKcl+utMacClbO2Wsm3UNPwd0sj3cqSBwoGqNDXHpXK8nlIFjH+vo
-dmRE+QQPTLqbuDbd1s/YUFiKOH82+KbuZ6fxnpIhC+6dpsl3WezRNg9Uk/eV1ZTFbhhTthyXvKMn
-U3WUO01s5h/znFRfIwwZkhphfJzhORx4+vNrUquadVuZ0CzFdGErABqGewKuPcXOiHrxLvneVwYm
-LitmSgF5hIS4euqi1HwvgqH6hBWSHlqqnL1x8nYf9inLT/CiX6VM7K4domu7diKxMjkRW8Xinq29
-U9LX78LxxStXynKhuTtey3HJH1qe2Nc6Dxz2l4QQ2KAJZmDBZBypF6kmFEU3dNprYbSzrV0p103V
-T/OKQx5gLCHs13My+f7f1cQ/VBPnuRhBLa78f1JXXL83w1f/n//rj0O937/IbyWFA92BIRQe2lBE
-LoLM78LiGdzFMCyGIO3zmz+7eH8tKdyz5OjEggdRuJFto0b+5u+1f4nYRcxEmA0UtGwhM71/pagI
-f65j/b2owOCLwRg3MQcVBQ7Twb8UFYUL1MepbJbKaeTplxyrjFiXWRvD2sWPZwolbzJvqm+jGvfL
-LuERZ1Oqh0t9VcpxujI/rXEAHLDJ1aliE0VYlbbZ6THkjywzLcp61rb8NhAfvlDSDsZdL88WvDMX
-K9o1UaOZZ/UGlII7ssDxbNrTTFhYw6ZHif5nYWxcT51hsXEyjIg4VoZIszI9dp1NGvkFomDl9yBI
-Nfdw0ifBI+wC4tJewXquvrLFrQln6yFUYlonMJy3Ic6uZ6Pm+XmsvfT7kvh4Rr2ufhRVn94RwnJf
-g0rHb1xF0Y01+KSv7NqJSUjn2Rp8Vny0C9eieeUMqRVplsUvrV3R6ObScupy5rLJs+sBH81FSwD5
-pVrs7H5spc0aUwYaT3akgcqH9by1qkGQ9vfUbdCb0QPakAUeGlESQ+nJxdabAnlq5t6+9P8Pe2eW
-YzlyJt2t9AZY4Dy83vnGPA/5QkREZnIenHQ6Sd/Rv45/Y308WmpVoyWg612AIKRQqsiIG6QP9pkd
-6wcMYbKEc+hkhfuqiQfczhhyTmGcNXcYAImwRd101KrsHkonk7cjHtU3HkvnqkxWqoELN/ka8E5/
-Nu7gvKzRxLEqd2gcEy0fIVCwh8yFLg7hhEiD5xgnpBbWuWC4eNBtt74Mve39sJoYuWYyoPwNcXOd
-gNkazGjJr6KHPFjhfM9j/aBT6T1PLR/q3Cwao3dZHWYrtK7nRfYGBNvgNI36h2LxxkceKq5iIEyv
-vLBT7JWWmfWNILsGf72JSoF5xcLx+SNOsuV3WWj/3Kw1o8FCqU/f6d1XiGThvvOT7EHGo/iKo5wI
-W5qy+2a1Hd4NPWGfhYk8K2WTvEbuol9b10qOYErWW+Z9kkLGSDwXjZEGVuI5Adz6e4mzA5T4PF06
-HI6v66HsIVkEXnqePByvG3bpiF+sTs8OjqKMqa/XnDF5Qpjyg7R+dKM0v5vXXl/Po40NM3csWVFD
-NUa7TEB53TZSFxeu5XSroVAvlLk6tttwpyf2vu2WYSk2cRqu5xCc1TVWuwhKZ2Xd4QTyjzKxmh8k
-VRKizytcPU7+p04CDtdiLtme6uarqsf+hMGpvLVbGRxBclHu51vNjTtH+sPhMHX2psY6RTE9TN8q
-p62Eei05C77BV6ru2yRU53F06jv2S/2QiLG+1AsJUSW7ettGPoYl1ZJkq4LBvgEnvgIrkpjXFMPR
-njXu1u6q4oEFzWUW7BBHgrfKD9lYG+UF6xZfGT/XogfIJLNzB2UgOnuW9n5NGNAugtwlgNal+Wls
-AI87tR72vcrSx7KPpWFfUYKkiOxXUbV8MBNxzYhAnTO7b1/rLMb3JxqXwrt6xvm22NDX3TTLzmUr
-fPw/WH8elRdXeyQIcZbkzt86OXEQSqvhwo5FclEWrbuPAdWepx702NAWFITVOVVv/Bj37eToT9yF
-+Q9GjA3OVT6cde8PyCM7nTagcdMYzqA9+8Nnk3SZPvIjMi0UqqaikHf1RA5cXo16cVlca+K0YuBJ
-/Z7hQOgfPpLvyU5ZYIhE4DQTn4yeCnuXfysGUGXzy/hbR7CqqbfQFpEXesKwlPEiOZSpqq5cpMwv
-VuUO1qyQn7rtm3e8wBPqptPF27SdNfKmTWI9WxZLbUFTUFyW5cMz5gALWeVbAkG0Qg5RUFRD7Heo
-JByFpptgbAax6yS+qE39LanU3Kybba18vl6eLAsQAzhaIFrJK8WtT8LVNdpM9C3TpN04n7XRbsw0
-+QAGF0FndtySY66ReYIymMSZVb/hRC8JBW/swVKvAZzobsezCU4jCDwMrY4YgEn2qVjeQZKgMU22
-V5H1M9JT21dJCmitUHdJLMB8ZCwoL4yc1ycYdm1/cFo7ANNQTRgfqnFGvsuXkZhuAXSiQqdcT9Za
-UCOY9wtgExkF2K1rpS25acZEPkxcGs59k1iPrZ2t8MdI7FyJvBk/Klv1lLVFzcgag+wKaCEaf8aK
-u/PGGrCsbYEkpjssJcy4rNwJ7tysp+WCvBACOjtyA7Sumj2gY3ZX3EpMZ5c4cPi3MZkO49kJk6rj
-74vFTaT9+IUbEhZlp9UMvrXLKnps5n6aaAewmk9Xdv5LNAg+SmY6xJYDhUFiP6XNKJEfnYL7EeBp
-exuiGA+7oMWzuvdn17O3NCJYj1Ua886LyMKqupL23ThFZR1Rmjma9jrB+JczsboPWth3fPaIiekK
-lh6KGpXjUcrAfglQbzXf+G+EMevSDzlnoH8V81MXu9W6z8gw7nyn8956Wsa2E17Il2FcmkOMFXDG
-QalyyNoilMd2HIqXuJIZJSPT9GonIKFE22XnqVXe1SIGf8d11nu0go4NAsDEtgTfcqx4/rczazE5
-dlwbJ0eugs079G/A+nKdtwuxXFRV2v9sSC1yArKT9RgTpz8lpd9BbNLDj4y5ypVu1nNf/lxbLl7A
-ps+NbOdHbAHuL2L8iMYYjyI4wm3w3ulI3WW22zIbcVPq3fvChr1hs1m6BA8IeEfUAmyEnqjvxB1K
-ds9F1nxMV6XrHcc/+y2aBO5nrnovoFbWk4BL+lLHofURz0tFhahDkAnTufPOHCC6sR0Z/bQSYy2e
-SAVmkVR3fRSM1+7ahDsdZRUyewBlPcya+VD6OQmlZQ3hfvIMBNdx5+m7Ig/S3VLiV+dXT6xXOX5w
-AGZJUJUxHdRxMmLYeamn2fKGh3so5JAjq9i78ayZJ8sGa47Zvy7H7AJfC9GQMWPeus3lHH+V1dTs
-3SpY+42beOI68cfmhdKD1fzkw4Tvp5TtcEhKAabGjrRpMJ8ygQgriSyJJYFdVNRMnDKOZyirfCuS
-ieKNhgr5Uo1hf4H/WzwurT/eRF6grqT0gXMwWyeDT6gRLUMth25uWAk4s+V7nw08YlgxBFSQ+DEx
-MzU2jXMVFYSSaXbYE6dYTnHJyBdhH7MVBRCnJSurL2pNnBvFKJzkTTCVb5Vq1SFKCv0acc64JJ0p
-2u1iiYoiXJEDB3JU7N9XTcP4surm6atqx+VyGR3rrYpkfd+2g/IOLq7hk+VW6U1EHn1PDiy86UvR
-YUQK3X1PTv0MeNb6EdRl/dH6RQX3JB8QNuCfyS+2xSXa9NHg+bRKKkmjuY5gJpDKBxOY+AYr47ir
-vnXbkkpx32rHK1/Y+udoshu57Lzn3OQ5vHLtiXaYlEf+HfgIVh0/1mk4P5m2smDDeK+m6NTR027+
-joxYBbFrHOgBVfYmU8I+S7yEFhyiJqM7ZRxjrJD5jkwFuzCY7IjpPZPiffqdV2m6Kr/1S8xd7Dht
-cC47Nd7zc5T3jMTpIOHcFT4nULLoRsQzm+OFN5kYJ8DAw7iI7d0Vfn0fm1j0gD+cWZgJ1UxWgoZj
-T+5ARtsEbrLv7E35ncP59x35X92RucP+H+/IP3/9x90kp+Zj7f7JNZmv8/drsvdHTMgUK97fVHRu
-oX8PwkZ/cCz/pzUXzh9QEWEqYk5lFOniKv3zPZkzJcBs7tCIvObi/ZeCsL79Px043JNtXujYdSkz
-49LNnOB/iu8Todtlxtm9WwpN/GckfJSeubPxkonvF676fvlq8x6GYRhkBN/M65m4dvUBNjT9Iczb
-25n3WJg3ujLvtrUUvOV1mNyAU5hPOYfLYK8CP75yrBpgdW0WibHOp6/6e+Xg9ODfk57ENSgBOpW7
-WExDu43NkhObxWeM6Hwvmrx8KzvTl4B67Ny0luffrJMTvI8N6Gcd6+ZQmYUNGKuJn5sVrylRJDcA
-b1kJZzdnVdRmgZwbn7VSmWWzMAuo40ckrNAHkE3NApusBRWrDpzl2iy/6H72y2SWZDMx2VrA7C7C
-VdYHSSrmNiuARW+ShFzVLpwAEm7S75Vefq/6Yz+wEwUVXIk2ymprN7UOTJdx0MjZZuMAcRF/ye/d
-ZPFXIo8VoYQjm6OJhBJ7MOfjOSMuylQFWLAVs9rpxr+xv7eoYQiR871AbP3vPQxKLJjJdZ4uNLSH
-Q1qmuAlJSa0hK0Zh380CBkKQAOBiYGh2yshsmtyt1nxrm63UdoP5sFDZdpmbjTY1Wy6ezO5TBcjk
-pdmQi1WBx00ii4IOGnnojNM+kLLVWbc9iu5rGXcAJoWbvY1LPeldJP3oUVsjx6p6mno4X0U6RhuM
-Cpxzu6Qt+42IND8oDPR0R+ZmohGD0/u5yAr/KbMa6xqGmfsLbJX7a01aoH5trc8yaS9db00vlkDK
-z9ScZ+ImIfxEpMs7FmMebUpz8oGAt+DaMMcheJuko80ZaVq4Q2aOEiSQ6HTYIaHWr3QVcDMjYXpD
-rnT4vcy+xX1nEfWpC6NyJwOsOvEgeENCBfZZ2+VBFYBHB6HmrzD222clquyotDcjA1jLw8qh+by6
-w/Rr9YPpjdq9mfYK6NayLvSLa6ZQKxHJ42iV833QJMluAef74Nt1gNNlXeCNZYV32zIu4JinuybZ
-Qiyej+UU5e/0bLjtHqepTRk2I6lNbyV4H8JxyWh2ju1niQn7GRVfQJZHRX2AuTeSL/QTGtPz5WcU
-zulrJJT9u+u6dYDhkC+KxPkYEPfsimQ7cJW+l54gcU7glttwzLNlUSD37BgQzLqWBd3OfNvOwfeK
-4UIO3gLzNxkvW2cZoSuzvDns4Zl/V1CSgl1ZAlce65AKcA5S/R0pSLUePTxzbyOD/odxau2HJptI
-tWJLoWYwyabiZx/17mUBbhiPtfC50ozDmt+U/TwnHH1nch69Tt3jHEN6+bJid/xcpYtDpOEkj5ov
-KViLrINkqPlaDbREDdwMHqJYZjd9C/TIAkaP0LRWDzbofm4cdIavM2zmeoyWW0d6/YXwO2LAVpWw
-ZOBKHGylXgqaNVY+jcq5cAN7vJt5oK4z5Wf7CVT/kw2v4kepLW6Ypb0QVOdKruAYrYh1ddkdpC8I
-qhUxYMaGHBTseA5hYket3rRrx6ak5qPgsWvAKycesR2y7oiQsTO5n72fVxcSotYj6bvuyteeR6ir
-998MgI4bWZx2D6OLhYS82YKBRnHB4TNSM4SZmLo9OIgNgal6zXc0FCT7krDYmTlocc572/auFJzL
-BAqPdj8WO29OujXX5DbzTqLy48/GTvDglG7/aZPYf86CoMYm0HkwDcv1MIsuvh+yvLntF60eWjf1
-dzHj0B9dXoVqI9wq97aLVP7R6X1YdtrPT6W0ijO8bLIBocN1l7sIab4uPnhxOmDhmpfHLE9ADiLc
-RTdIoQ4dRPV6R+FJABNI2eMDJmb7oe2s6MINZXnlUjXzLDNyqRLn2dM0riM3zIFQfjyu0eVKOg/a
-SQmeaNNXcf+phBtfaeV4bzSKBc884pQbgcTCAr66zUM/B+WBFxo8eTjGdzbqKxfYKWspJNbeerlE
-NlYcmMc1p9LKZlWTc9J/grjUT0jRoORrpdovGE5hvKEZoIVp70/qEpJS8B7lWUQSrXf6ZTvg2Z0v
-0lVo8k85fqWNbNPoqWwhi/YEW99RL4AKVXZNHt4e1p5mH19Sh5Q5kO7dcYBJZAnMasdMDqa82g30
-c6LnkHCDl8mvnqPlA4yG8FqEiphqVOf5Sxg21bMjSU/OkYvLFPtaw/2NX/GxEyuNlTqnMcfkzGgn
-UPdL4JQXTaTwozGQK7HCIXvuHK75D9LyvYt/n0D/1Qn0L3C7P6b+//+/f4Zh+RO3O4GoEoQe0w/C
-5JwUOdv9/fTp/mHj7I5CElD4rZgf/2lIw4nQ/McD3IIfw/1HbMpy/nBd8++QqeIImvCw/pUhTWTY
-hH9yfpghDQ5yhy/3/WXjgIHQn50fId2GvprGaEsYU73zWCHBxGR0JJo2gBPy7ew8kv7X3xNQU5B9
-MNGu4qV1YKFK9YYbFytljap24wqKKCxlgCpcyNpnj/ZRwvGJopHNLdiR83l8cLpAvcwsCISqo36H
-SBKTDcElF+b8X0bEvh3IFrq+MnXr9OK31ursRer3QIJyl7kuAerVd68csIlnrL8l/7UWl0s7qm0b
-LACme5+LO0OZzTIwBMnhaTCvLfut1zDZziQHwwGbwzEdWkj6k/ROPbVteCA1ClXPm2MNEZNkNSM2
-Li1vV88kalc4anpn7aRYJhu9bctfzAW8OARedRhNOqu2Lz1ly9McOuRz6snalE5o3RdgdZmlOtRG
-d57YY5ujPLLp/IPXYaAhScZsg7V7n5dususwcW39RiDdq8XbOCFjl9qlDDQO2fTGkF4UdIP22FsW
-0frOiXYYa+ftzKCHZgBX7PJw9m6ybKhN5S7F1U017WVAzMmRs38tpzY/oYR0p5keuzvEO+t3XYQ2
-M+bRe7cNn8uivOF3WPvLHhdly2I3u3uLKMJVvbqCmVcxTFyi6RuNMfBc8utNDm3OHaFZAWYtTu2e
-tGP3wQbYgv8rIPazxx4BWgYsNnQ9m6wuVLTQ5yPrCiiPdvaWYCLeUQKcXbd5mUH4qG2xvNjwG9O3
-NYtTcZuWzuJ+kLWXZ0V98HUi6UlJBlc+zRrBBDPodB5AGjIJnJZd5arvf5C9LJVHuNv3p2jLJwxo
-YIyC3tkR0G1+TVgbLB6VhS4+hoT9mWY19zwOc/tizqFvCZsYQTQVHUAtEvtuqujJwhgybVyKJfZR
-bqXvLSDZy0CkfOcpbaWVtOIr2siaXyFwykcKk527RMrhLYQSxs7tlOOh8nrnKrX89A6ZXe9pkwue
-YdLmPxAWhTx0Mvvd2RaahBXOxQHzQH8QjeTqNFkRZDKnsY8iSOU5KMvpZs4ryK707qb3Jf6LW5gX
-6qeX9aTF8VxAf/cQCg84LoOeQosivEexnZ+9YuwPXcre07alfFBLYBTXQHG9ynV079Zd+OBYBSgV
-cIr7kDgdJBSXUcxKuc4DryhvK/MqrEKdXYGt4CAsDp6JETrJZFNi2q4UI9szg1CVzLuMpejR9m2M
-8ToUA6YUGvQSM1ytKojlO1XO1dXIyfBjlnn6Oa1DTn4J2+SGLkM0+3TmzLFF57R+LDoaD0stgwdv
-qqBWQEp6zn0qiwxvpL5xOBRclQyjMdLUWQcEsdDrtiq69EUAzMa9zm8SpzlmXPQhr/AhoTn5+iO3
-MeOAnK5m/KnjWKhNkNnFQTeUtG5g50AfGoa2/fIgLf9G46323PBil1R/I29GYo0ncoSASJeJRhJU
-zvAiEwEs88an+INnzuWtDek1NjXDfjZwtfZrwu6JZVBF3bQVc9Nu+6B9L6gd3nLIbjhZ28NOZRXS
-djemj3Ffuped0uLAyb04itYWByqOg2On+5e8KK13TWHBBhNRti0oXSUV0hyF2/e7pA/MTdcG5F4Z
-COIKkZ5S261rzcS/IYHvWl2nh5aTyT7MlHUIsgAHEtoHH0VOvxNixc5zu/QYpX5La2KvTzzcBPA5
-P3KlmPWhajmBDE0+bnUe9Oe2wjtfECM9rPyVG0YayZFbzHgMQTOcrZyZR2gX7TEF2PGjr3I6gObc
-ehhq4hxubGrvp7g5AQajCaZOgkPTB+MpC1X9jvk/xWG2pDuo27BXU5ziUaPcI4OicF9MEUy+hNKe
-PpiTsyMWFiUMNFtSWepg1a7a09qU4qVu7aMXNo6Z7xTnsuaN6/kJqHPssQF59RlMZHwo4rA7wobu
-9naQ6MtB4goO87697iPZ49oFYWMrHexsb/U+UGi5HnDLO5SVADgw+sCvcqUzcpHc9jezR8AekgIU
-h8wfX+ayYVTOLGo3l7ICQCb83RTV6QZOP7K9m3Z79hhrR03TdDULGZ0YcITHqqkuK2M8zAN80WoQ
-BBjr+qV3O2uXFWrdTHW6sodP4QtqFkb2sO+GU5RD7dyAELJ5VyewthtLp9a17dUgj6CED8esX33D
-SwDc6HiMv7YLoKJnNWqayapyBoFdj0NzEVKy+aLKvriAls40GvRqedE11IoexnEkONuusnjNZ7c6
-Z8wBJ2Y6Pl8qb28SOG83RYdMKtLxl6Do7DBQn46TM4ChP2vG5h4N9tBzGsaugUenEp3NWMmTC9WQ
-x4QMnJ2qic6B1s3gsYR9+o42kR2UhXW/L/15Pw+QyxaiuNeeLzVGQ1nAwC3agwbfegCqA1yIadRt
-OYX5E6Or9hqiVPg5UZWwDej+uCIARzLGRxXejak73osx8C7FGjVHd5HBnvRevS1hcW+HSFFh1jjx
-m5RK3guZ4GTQc6WJhWgrtwkrZflRsH77SPdNeGXD23z3PDEeMuHDB+qGCacIIp5HS0lQzskzLIb+
-rIx7gVRrBUSy1g9+ai938Mgwm9ZpcEM1eP2QGfsDFsvogacowwlrxwDZueZOfEbfvgnX0vpZ8Hjs
-o7hvb4dkTa+CGGgIySJsF7OT15eTsWJUafa18oEcFuPTSOfUfhHGu4HPI/0ChaefEberV45h7m3H
-4/Cw6NK/pKi+f+J/Oqd29ubncknDO8ZDPFPl1A8wetb2bI+D2KdLIE4V++XeM2aT4b98J98eFCsq
-QNDgCNiNXRoRKcZ/2BnbCkNu/ypKLaqbIEeuF2iRU7opF3QmEiSYXxZjg6mTwvuicKHYe2rI92tV
-WaciCbDctV25HaFpHwfbTDotG3cNQL4OCHTdAZVbeLh0EFwJglZvdmVZr/QYD+RHBNliq2im+8AY
-d/JvCw/d1dvV2HrK2vMe47DkSOZ3MdJI7axP9TdLjOJ2UgXwxaxRVI9JV+m3gpvwkQwbm+c3kgx4
-THpjIbq4m8SviVNmS1Y/BQlcs4Vg8EF7PR4iQz6jYLN/Tp21/UGBA2+cIaQFfjFe+4aa5iVt/kQE
-q3oKE289a0NX6wlbYt0zzDXf0NdIecXXnHM42FpLejUtUNrQJbig5obd5n9j3HxZqv0yBDRM4RvL
-d7Yhvil/oAfnGwPHWaA6OL3Mz22yDmDiDDHOGmHHxYGfv9B4QtGoIcuJb8hcy15PXCQBPUdtcQ+G
-7htJN9dwqFNqe19Ys/N9ksGuo00Hrw1/nPYF/Px+P4XR+NvFs3sSikvwYTI0PNtw8XzqX36URV48
-plQQnIa69p88g9IrCH9ShGUAe6I0pyTVpOK8oj9QuDiu/U9Fm9ZXN8fiuhoU6xl8u+Wd43vfbQre
-23ADqAqiFA0S8YPWIPSmbwwgS+iRgTdWi9IS1OcV/IDGiokxy7AEV11PeALgCyZLHh3pDBS0xyx1
-cDl6EWAt+Y0lpCw12A8jr/8Grb75GAzBUDlWdU2mNL0OS8UhvaprJtedM1Sn3GxnZCLnk0g7eW7s
-ii89mgJbRzPF03xDW1s68rX8ZilWBqtYuANScGWjQOOgch4dqtmsneXY1lWYgWVMp6p4cRyreYXB
-AlpZ2lnzERnKIqLIiNtNyfRQ+SV1L6Bn1mvuNNVNUQwBhvAy5wTBAOFLfrMikQ9B16whgF4yJJCM
-KpVSopTOtMqMBjlpURv/EPesm6hJufdpGZbZvpJxsxPgkk4tqXu1J0XnMGZdrfApNHRL8Q26rEbH
-/2gN/XKe4WDStg0SM7GplKB5074CEE8iEhEj25P8RQatZ/X2bz3jX+gZ3l+aqD1+tPKj/flr+N8j
-NfOF/j5ScwmzhCTJmVV9j7/+JGr4fwQuI6iIlngDdYlRLv7mPI3/cExW1QapAiPGY/D23yO1wDhP
-+XKM2jihe3hF/4qm4blGs/iH8TTA+QrcFgAU4ZiAvc2ILn/WNKbS8qgRbPQuiKMaz1Zrnu4qzDgk
-1NN1pyy98Xq6IE9OpeL7GdbypbbQETa2mJqn2M85iXUFHS8zUea9sZvWG+EBqtzmlIygQrtR8GYN
-bniVl6i4dt/wF3AVs/M990dSr4UdcYb2hWPvKT+sr2G51bjqUkXjahvAcp5kM5+yuK0/kJnxchIZ
-rJ6xUhgjX1FkL6zk7Vdp2dNPrGzx9dpZGUJlkO8ZyWOOdANJdUs8dcCmBjDZL/RktXsvdySc0XU2
-CRKMjBtogXnE1jVRkeL5U3yNGTd8iCdVP+tobX+7Ygy537FWf+RROV647crelFtip1UnNfanaCDt
-16y3IhT6cRBzcLL5uGB/tusRQE2BbzYMBd8Q/q1fXirDX3XsCXPHw5/OQL0Dk62LSRJ4xPKzDWaq
-fSImJDtqoqY7bVnOBQX10a/GB2KFUatl/gPORUKqYtuFICUEp2yt7jP42NFmFY7DJDGV5TvYvAqJ
-NzJ16HmsHqNy4kAzhs7PeZjkl5yC7rqdYZA4Nf8AdriQGx1I3HjK7p5pHh92clbd9Yq/LdkFLmgc
-cO1LfjsmizwwlLQ/xKiGEQmhQPKpFzrWcdLF97Jd4ucWE+wbdklxmANH/HB8Gd/H/CrHrZ1aFFtY
-fbR8Ak6oLmB62mpb5DgjkyZvP3yAzRGCmlp+hK0V3ocBKMFgipLPkf3t0+qs/lwRwD0VnRTXTtGs
-R8ddqlvcWD6wUMINtVdOFw5FRGghWX2H80kTR3Ta6GdXK7yLArXI40c9U1UFp21JDwXayAlYQ3GZ
-ARw/dcMY/+I+j4TjKwtAedGb4YG+1nYWvNFWVpoD93QEoJDeehhF+IZK+dtuE0w+ZW/d+xVjFpES
-ZM9s+MuR6sRrQAs9F1h2Cn+HzJ2cqACaUfahep38weNCM8aYDZvGs/LtGDkMyWqvNzpZ1xJ7SLqQ
-o18Oj2w3su/f+3050ZAxh/NP8rp0HBWYNksIT58cLFPqefyxv3C0CVf3iwe2rqE0/XouavE166Qi
-t7s4WAXdaqITdBqaFFRBXwn0yDAqum0d6ZoITujyWXEkB3GohtB6i/PAv7Lz1Jm37QROTrBiyU06
-dWt5xkuU3KHb9T+cIJ2vU1mk9+7aqTfO1FmzmdjD3S0+7JRKjGiNeXl4xzcq60i4VpP/qmzDCyaa
-3L9NXAk5DhJuxkuYuJVmjpEKJhiKGXY5pCgUON1rvQGzoG8WqI7rRttWfocZNHsqHLtmrDSUtLlF
-kJ5/F15XCcb1lv7lgS+4YkdtnY3t+MN9NI71E4ZQ76WPuobW3qaNbn2uFs86nNLnLhgIBQ9hHmx7
-7EcvbZQv4qKuavU6DlJ0O5c8z0erZPuKg6Z5B58QtUStPfjydpgvdyOD4Xnv0RRnnWuFHfUioATA
-xAajAG7xtBRq51pFSSA9aVeYCBkthZvALuZXmWggCRU3xcd4SjHi8TsCQxRNmrBRQL1SvJGE3S+d
-KpH4ASP7UNr5yo1t8hvjc7KK300ZoONNVhm/InSvB5+5MDRuJxqDjdsOtGC1Mc1q/IZt/sxQqdNA
-qXJ8U/mUW0957FvPxeSUFlz9xLv0unZ65mvSA4tLCPXGz6EIUSEsP7NW6zv87t4hANZMb0ed2yH8
-Di5QuKRs9yTqJuGGX7QsJiEg6ftiroZwR0aaEN9SF79pWPztlyQEEqcit2fVlJGg/e19bGUWxO3F
-+swBNxlZYFrgpa7FmzvxJf998vkXJx+TYf0/eomO04cqPoZf//vUY77I3049YfIHkDswdxxPfDeg
-tukfoxzvjxDnDkV5Idqf7f2pyom8jevHHoAdBjzgfP5x6LH/gAuSYDHiS3GS8qkn/Sunnsg2p5o/
-n3pinBkgGPgOSRHHvs086c+nHoVOE491nWHibsVDI0aqZehZ9Xwyj7zd1x46JU33xOmQtbzxXcwz
-naMW6sumABV35XcJZZpdXacY9msgDxssjfIej3ryRgkNrY11kGwZXtY01+tgv0R1d+w6Z70ajGiS
-zdm4m7+VlL7gG8B44P30bfbgTQC/9LKfiuYF4yV4gqZvD7FRaXyj16xGualEG5wKuwr2kJtr039B
-5UTqpe8z1RYXGMq9TQDf6xhXaEJ91s34YdCJQqMYdUY7yo2KhIUw3PhGWQLoxSLKPXyvkvEX3R0j
-9NhpvAF/w7+F5eGh57b2alHvjSElrc6dEbBIy8zpZmaYKw8gZMsLB2hoxjkG4SseOv9pzv0YK28r
-CiRSo5Eldbk+c5tGObOrGc0WlyNd1d/a2lCwLO7XbMEHYTVYvLC1Wqw9Qw5yJPeD6tXNgAL5JEjo
-ecF9HzpwNMekbU/2yvGtF0BZLKLQfMjRqTGCIJ4Oa5cgK3LYo8zOMy6OYdVyV6oZ0L6LrNiR3PnK
-ylrSWIjomLkqPypyARgdjCips37G7mykSiIE+SFC2UZBc/XnOinnPjAy52gEz04O7gUYwmVfQy0/
-IDDUR7Rh1OtvsdTIpjzgHPKqOMV+5YgTtjG1j+pY7UMju3J9HgDv2iN7qbNcECmn+lt1wZZcFygp
-xuvH2ci4LnFz0OVIu2GVxVhqbe/NFALQuDm0R0AY0Pp0p04RKacfdMKv+IbAnAxw5fbBTOgW8404
-ltGynsYwLmgWd0o6Efr46C84iyKt9QHokNq03I3PdgW3GnuCtSl4o/mxVLOFdl0xRAKxHhqhe6jn
-lD27hBBtZHCPd45vHIm2L3V04Dmv99Ek+VRp/Nw5RkyPHGAzuRHYl7V1tiTnD101lHvEknbndE1/
-zFHmc/b3Lb9jQURjsd4RIjEWVyEmfiR9kiTiHLgTvezMU65aI/1HvGJE0rp6h9OPj1vMWOo5E8B3
-MlMD6ND4UpiUcmRiqoAdY5abkIQq3ty4g72zdgd3IlO7ZAy1tK/gZ4fU7OLLwC+Lv1UdRiSu68hT
-xYVnhcuhx7r/sObtsuOo2x+17PEgRBmIl4mS2SwJxKfuemqoEP8w3rfdKS7K5cDTFF2PKnAvPIzN
-5yyuErjjIneO8+iiSidVdgpLV/4Mey/Z4+apTpPllIemnUaQskV+sworuyuGuD2vTdCjucUzv8cx
-POVuM18yXF/3zlz3dwEjqH0vuuBEQonGtnIIj4sbaobLsknwu6fQo3o35I/Enl8dYi6/0KNw5NiD
-5KDix9mPplnWJ+i99RMGrvpxcBNxkeVp3m5I9NZEtPgdxDyYR7eUkETdNXhlBDHf6N6PCaRJcvE1
-EwRie90P9nHsd3KE/GHHHHvC3DkMqup/LKPuHke/cY8s17htkAGnr2jptTzncUkQPrGHtyWvKVLy
-x/TL8iQOFz7WfWNPy6tHmcax6zF5claavJ3kcLntWZ+frDb1H9x2au+KJSYX383YICOO7Fc4/zjk
-4PTmllr0MJZPC919l1IF2c8cALJ5kKv2nBL5uFZeQOUa9QUXQEbWXdUs5bkzddx0Qv8neWey3DiT
-ZtlXqRdAGgbHtOkFCc6kKGpWbGBShAIz4JgdePo6UFT9lZldXVZlvWrrTZrlb6EIiiR8uN+957qc
-i2aWv++2bmOuFSd3SUUQJPbrMDXEqYWGDFRnuXYJsQx+zXFaMTuf4YiDJqODsmx9l6khqBuE1RIh
-PXGfncWXCD7pWSYs/+jgIGkyvLkki5Pwns4D+xjWSwVmpHg7xnkAXQa59L0OmV/OTVG/WRZ4L+V2
-2HQoxt5XQGfu4M/Rjdz0LLA9cK1spfC2rsPJF/vGGCnTtewCpXBqG6zh9jerynXj7hfYKW09lHW8
-JLjposqWsT2RcveXxLp2Jxb8la0DwqLkDSYWh1lrP3+TssYFmtWWSNRaNuh32CKxTPJa2Gq/QVtG
-Gu9GXikcMQCtKCXGI/hWMkPtPA4U45lzhKM+z7NNNBCnab4ZXuiu0QMgkPTofjO+altzeT6FeYtU
-16xtrSBaokGAwOdTONkjGU8aARkIVwSqWlaCUk9eGmwkG46M4zWKF9pYVdv9ZvpmkFEyDH+D2Wm4
-afXW5wb9TSxjbjPdQ7JMbtY30ExXAwYqAeaMwY5zpf4Nshz3lR2TvpGIHGC0wh9VRMucI9/HKnVe
-rG9+2ryg1CCZip86GRAKwqLaeEiNdtxXOGERDgcBAc6onVNbhGI/EUHbCwScx1BkesoVcBaPPpvl
-IV5QT3qXQVyK2uEcMzrsV4PiW8Lvzq0tlVDg+YcVQSSU9t/l4Pg79MH8mC8sOebc0Q1sdfaeL6Q5
-pTGGqXlADhw28ucG1sYNobpmmMilsBFpfdf3lXnnswE/hnGTnuhJdlduB6ZKTWzsq1zTHOqE0qmi
-vKAXe9rPkk/Ln4H5l2md7DSYroeOb8ovUWb2h61rVJF0cE7WLuPnAxxxufFjExY2tgUnx7tCix3D
-CU4FfeFRsWaVe5Ulxrm0x+oRw4+6IxVXPpVWU58Xdix3l3yMb62uilMh0/Gcwu1wNm1VVO9qTJr9
-6IbJLmPCx6Axx3xJh6GnHoACipWZivkei5h9lS40kEUUIz7sac6rcMcxYH/DximziqAxhKxtWXX+
-ytUAgBQzJhErq7Gh+Qv3MHYgILZaZ13iCHbGNFDOuRq/YYnuwk2UxEOvow4AxQJojIAk0090C3Eq
-9aYl2zM5r3z5mYstREa7UMZ1AvF4DNu+O7ll1lz9heEIe7r4mheuI40T4NHmBfaIn3rcYD5JgnqM
-00dyRtErGEMoWa2w4DPk5Dy/8ZEhhaVToGAlb2eYOg+4dSnngZHur0l9uHDYe+O5AfP3kRcjhWwx
-pSoaQ5STwllnPk8m9nJvIyuGSeF3itJZApU0oJCtLEcxUpKptRwpoc6+hlSaDZuEdHayaWfRJ2uo
-uPEP/oX5EwDmfFP0bj8pOgLWHp6pwOUIfUiWwOf8Hf1cQqDlEgflAqje5BIRTQnmsK8RG+XoTKTJ
-WMKk83eutFgipjIcrQ+DtX8FQdpcN/Mw3VdGlWzgjVXA3kbzmi5J1WLJrIolvapxsFvXZm+9D3k2
-BuSMmJ8teVexJF+7JQM7c9z8SpdcbJN4xv28ZGX9Ps0u/ZKfzU2MX2oWiig06douTK2NHg4JBMnI
-v45LCrcaxuRuMsdpm9pkdO0uJK4La1Cnt4p9YigMKryXXK+/JHy7JevLoXo8VN/53zoEvrlkgpuF
-gYjTBjjhkhg2l+ywsaSIVVyXYIRIFuuzbkO/IG3MhgcnzDOjj2nJIpcdqeTWiJN9HWMXVktmmbqW
-4gdRYoGpTHMu5pAWR3tJObtL3pl4F9FnBLslBv0diWZYQTwaWwte4nxJTVdhGUe4vJYstbHEqgk5
-MeiFXFdejSV3TQ5NPXkFAUZGX+Sy7Qpzx6pf0tqt3uDB/I5wY+sODxwDCXbrcD3OhSn9o8DPRNt3
-Vd3ncvT2Tpbl4Neo+ciWpDjLhLo2Khp3dtt1b9pMopw6EHYDvjrreMmbM7rqHxx2VqKMett/lksy
-3e7Jy0EsM189rS9/jVkpj3pXyi/M/P4PHNyORb2tTyKgn6OdsYTgK6S6k6NG50LqxIJtxWV6adD7
-D1B6+w1s/1nJqaFNqPun//u/rvKrfOyar6/u8iG/f/SvP/qPP/j/Ki/Yh+ZrLwD4/6bM8Kv/lzsO
-Nl//QnbpP520/PUX/segRReujfiks/b/4X/9u3sUycFiiQXatZRA80r+GrT4fzNh9Fu6qYPCN0Bc
-IgT8G+PDgRoGGcR3USowl7oUBv4PoPuAQ/5JcsA5ynqDhoGBFcul+CfsfokH3/MdOQX+xMWeQCVy
-fR3bHYU2nC38najp3VRIq0+Uvw6wlppwm8quwvGWF5uK4/AZPHx0R6szsoUsTeCMcceTRCHpmTVD
-rr2OsrEVfMKGqo4pJO3HEZVy3SjL9Oc4q6hP0y2OszRJzNQezV1xBqInT16FYWJlclCvV7bhCJo5
-UWdeyAM3cp0SKZnWWAPG11pk3lF09fA8uAbC8Eyewlp1sg/ZDAdXWmsJ49WnpcaDMd5wQ6mgGebZ
-M5OxcFqOY8ZOidH/oMgOk6mIrU3WTg76tWxfClXJR4K7bWDSbbiNcmm+CdvPA1+B6p00ClfWnHAo
-UukFRlKb5WLWFGY5Y1DL6N5wOHx33ESyKTfe9E5wISdCjKU81eCOZUps5oq3Z/SWaiktsiXx8tLa
-ST113oZSi690o/6uyo4Grz53T7pbmS8sljJAq+UWSnp5a9e6JBvb2Nu4NM2DiSjk7XDdU9G0Giqf
-e2Iy0Ow1M+SRuugCaVdizykhhTzuY6Gt9fGljaww/cyV0Teg031Vv+A7HLYqVt7Ghj20sT0cYgZR
-75UCEbDWk1wdQqPJd10ridt4wA84iKnjXDrRKTKUwagolfZrmA8sc3gP5QnPvROk9EIbQe4Z+pPn
-ZfW7JfPpzkGOhxdSy4Ec9IA8VOsFZjmD+7vQsmhrA2AKfBs66OCl7t1oVO26H9zx5g+2+8BnMOz1
-2XfeNCm19ywGQ7VcFgl4A69WK71wURMyu37wOUSWbL1LDMgWVMOvgGu69xgmvCDKcmtnOzX1WFhn
-3T0evPGlptxEYxRmhdcxHNRdL1v5UhNgooCmcN3DaIzVc95VttigVXuPGdrULvLwr/RT1lOnVcfd
-i0PU+j3EtrM1LCMrID/Uw1vVGvTJAoBzONDVQ4nXwaGc16J6N5+9/sUyZueW0rDyHOZJ9UoTbA2h
-HuV71RvheKxp+kC/MuJ9DUvzkbpL8dn0rT2urLgNn905qU7kuF2qjYHyvuX4biX1gsrZd77sz+jm
-OE+JQ50T+AsvqnGKwIV2jeuRScTFabRsa2EhDybUn9dEesXJTez4Z4aL/CvLWu2V+1OzjVq/PegU
-Ojy6MXXxBkA7+iuH6aEbY3nUbAXOYwrNiiowhVui5Ii9HaqRRLJnw6Dl+dXCX1x0q26nsUiRBi6R
-AEurxUWRF/qRbE12UOMYnh0nU+ZK8hJ55xuX0aURqmfmpNmVPr7wo54qaP5AX0mGG8z/1pNFCR9F
-TNbvVAjS+MCL03NXZuk7/Al5k1j9oxXDU+sdyGkBdHxRd6SFMVF+T4yKZXgE1J85EqQcce6X4VL9
-PWcaJYLxyiV1vtL4Iv+0S7xLQUxB8UcJptjjl+sFc97v8dWYUZu1ojrC+VGGdnPHTcf8mSe0oRmh
-GOmuag15hA7GQAwkXP4Zwgs92KHIf+r+XL7psyMoG02Nx7SCcciWEPuB/B61Jd9jN2V2GhGcZEms
-jXYVrWU9WDOOPFTGapncOaY5ELhZ5nlDmeNZE99jPmeZ+Gk+UyCtsJiBlom8uL0f3uZlRmhaPjE/
-vv0a979lhEhofkcsx9gZmezfk7koLlJr5NmvKm2nAXA+hWFX/9IxTFPvWJWAnOcZB2Ni3WZQLAcg
-3IRwJgfNTtgAfxEoUqgGDD8pPYou2TIQjcawuLMFkmOhze2964RqFy8j1HQZptLHJg9JDgZ9hUHT
-fHG6BOiKmY8E0SwpV+RIcQaNU0eCfGKss/n/9zj0s+pL7pMPTIir8u8nJjang//zSWhdgaf+TP5h
-xrL8xL9PVzia2ERlQKQuBwoCAn9NVzzjb5TSU3m5WEe+DSd/HXUM62+WZzNEgWhGPJjxzF9Hnf/L
-umJexDI/+fv5Cm5lipX416gaMg3dZ5Tz9/OV/7KvmLMLcDyAAIamyo2nswc8tuQnxN4Mtca+MzKI
-9/9bqCUlEaqR5fIjmou/gybd4DDWhISxwhWlTdsJ5X96gJgRQSwNQ708ZFFJnQxbj2lCR/+OW2ht
-BOaktPCkPv19jKLwRsy76z8JisGrwCrxIHWUmKZYhNcSExs6qS1zfKHfiYgEW0Pz0MRD1B7UbKKO
-mSXz7M+h0nuJsbxMhh2+aa7Bf9IHwCsBfbokfPJN2Gtu+TAgkYv1d7ZAz3gXEJ38Ol+DXh3tLfuT
-i8U5B1yz+ZMfgPiAhftPdCBmD3PXVd2z4P9JB6RYu6s17C6lHf8kAXhpTn74Y/tnChFKVvrF7E9D
-CniUf/P4FzQGMfhQGjaKDYAsUwbs3F10TPMxTe/Szp/mF5KQehL91NvC/+GWqHx0/joN8FFaP292
-bXPQrJgeEbUFpvEhQzvnv/RVCfLCwtABNwLl1/sRxYQvsMANY/ijkWFS6itFfn9CnyjD9E1MRpJf
-6saOo0MnRFYF5YBtfy2g3BWgGePWDGJfaE0QeqqaXxuHisjN5MDRD5yy0zC7+FrNfXgFPnZ+yMPK
-iHa+2enzUz/q9Xuid4NFK/xUYQ0qxUD1H74nrLGtUZn1mvOD1e0r6g6MvTc3i5zE8aEYbzlejOFU
-GHqYw8shG0mEZ+71XW/NGh1aWhQPx0xELefLqEiyg1gcwMfBievxJkStvJM5QbwN5s614gsm5Akd
-Ji19HFToSwfRcuym/7LMyQ9ImyrlmWDI77HzMkWOBT3GPjSQunMs3gW+j5H7cMtJZh7nh9JuOfUW
-nIWaDSllYjTg7EP6M9gtnTNHXgqnrILnImjtzK7oimimpbsxGXrdPXdT54p1KoUC3jHLITv6OFCq
-beY5E8SBuGmmD6wEofw0ZIO/wViKxk+zUfO2z0hA7qltZRh+RFrlQ48PQbVuOz9poo3bVgbUD8BA
-b3FrmBDaEr4Aww2KsZf+nEJGspu2Hc1mPY2+n6xLTqregSHhaJ9su6LQeaJyhLKJeaoVNgTdRqN1
-aGDMb5kHnOFQkjK176lw0JIzrUv8mdoJ/XSnO3Xpm4FW6An2kb5Is4CmCJdNC34ALjAzJNOFQKJ8
-/ZD2Pabfjp5Fz2khIobTeO76IcweKIAA5Jbnuu0cIUvV45YEDdNGs1J1+hqREzhRq8t7V0B1fyEV
-YBobFZbpuIaf29PrZUCS4dP1munkOIMaPuYCTWmNFZ+OWJ9yJjfwTU/9xjVeicUXV+aBY7aUNrJz
-83pP/3B9g6A+ic2fm9uAmCnf/9zMigQQ1VF3lacfapT6/F2plNjWUNS0h0c2XQCYman/gv8vJT0s
-3Enrz163VPRU4F0l4aIElL6A3ogS196fO0kxcxv76Tae94RLKJfr//yeEUlRRIe2dNopMOqcu8+Y
-N+OAWVnXXDRX0DQYu/6nlwT6ZZsBm9xgnopYy8cN61aTBAajv1NPXACPlBy8k8XNDZyzMktGPlax
-wW5v/IpRMD9t1dB3QPBhOIsuZuSYau3I+DMyN9MQ4sHxLQKT8SiraLEjp2Eb0I/raAGdLlZ4qfMY
-HUsTsmOGlsH/2TBm7doPWGpeueZ6r+agEQyhVgndFNne5TKU7edBtCDZGlOfxh2lzCn3KqufeMIb
-Crwm1ghXDkdyanm5D6m2+zEWphmdCzv2c6owprGpf6OjE9KiMKboMLrb1AzTmBNviq579sxwHZk+
-CKv4oUuNk/KBPuEVOLo8Sau5Mp84Cj/UrkBJH1j+XGoEwEASi1M2V9+spfbLwS+914WW7KPKoaOm
-TjvmHwB7UXHfutK+bxkBl213o+uupsWVL42mz0MwhkvohEdvlZbdRRPGOSsokXYnazx4UXl1K+Ol
-yeJHG14xp8H8a0zUrZ7bIZhtE5ab035FSvvA+Ai9lJ2pACdAaV535PBtr7ike2dMkuLV4ipOK4wx
-HMk37cshhqlnzfrOri22FZr9yIQAsR5bmrMtLXvkZnDyUqq6jS5jqs8XfEM/UfSm2xF6Cp+JjIBL
-U0DuHkme+9gCqwg3YkpbcAqMzl71Y1lcR4Mqc5DTndjpsfwV4fhiZqywhPJ0bIaM7mMuxWdQdNXG
-5eHnb/Yz/FAF+xiALe4fskOfjyltyIGfK/JDTRYlD1WS0Cee23f4Q7oPjjNv2mQ46zS1jjCvnrQk
-zjcjn/WOB5bgnh1/+FVtXHEp0IABtnPlJ0RFGrfyqX1rzK8uxdQIHf730tK3xf5N8ULuHpnqPpio
-nhdHDbcB3OUqq1A0Mkx2iMqSmhMpP+hUEA/YvtIX12/yY0f0LKhApb/BFMhO5VzZOxwcYm+R41xj
-Qf+EOtCuXK6us1a7QWsUZTBjGly3nRbR1qBnn+1Aq1Cen6EM3nXo6eeyBqo9hLJea7RCbPzJ+2BK
-R5ivXPy3c0NnksW9NprTDbt5UFuIR90SNoEfw9Q9ueetG8+C71Q1dsSzavlV8CSAIZR7pn77rslf
-mtn8xBqzT2suYGabXxJ7PqLd2SAo2vNcx+k6M5uUCVO5TfOSuI1+6CP3p+hadOaB4LQfoS+o7ajU
-lna4nRnHxUeqZcyF4ugXfGdjVarC3sHFKHbp5L9R9AyKejLgRc7OOrKqnRrSnediwOiZK2SjR9jZ
-rKA4NI+ZYZ1s2VD3h9BVhWB5Jq89qZRJYs8aaqa4ODoHFR0odbYNtUzfa8DVj+4gGUxHNPPtQCDW
-WwmH8AkcR/WIv7N9ReocHiOr07/ItYSPhBh6wtQYBw7QZRnvGeHUsWsD6HnuZccpCXkUUmfqTavW
-MuKTbylxDieOqEPT9x/9INWzm3jZA38ElmjndUD67PgSd41FJ4iSWxwS3pd09WRvccjaE4+Vd30x
-R28EIqa7bMo6Gn1L57cjvOy+K/sucKa6ru44i5KbNJieiRU9PmYg55GYSEz71b4iymFf1CCnFDRQ
-OBUsZ0Qq12M6zRRlguzuKR+L2s9CI3kK2zzrsGg6Gt4R0UzDo009DSv/0LnTgcdw6IIBinyys4ek
-TI8WiSX7B50TbndOO8NJWSVE9Z6QpOi/PGq43F1d5aUhgnqKykiu/arRnHVrwEtc4VyLbqDz+aSr
-muMbJtiMWtRkUlCH9LHXb73eN5fSbfSXTnntR1RPAjZPSERJFrB7+SVI0Ae9SxiOLT9eQrFMnfSA
-AGHT7lzmdkyum563QUSkszghmd3Cs+HOsMLLaXxWDBlTz4DgDiF2BbODkBr/w0h52jQpE/CiGa99
-xcOK2lHeCtVkp3ws5T5tuyUql7EBU5y1hbLsUJrDTlxlln8Yw4pSmjQ1jqwHT7kr4gelmvq+jCbr
-lEQT8fLZw6kbzZBM9LfScPRA1WayTlI6zSphvXSN/UPk0rmabvUI3cT4EZuyIcmoszt3TRXYdj3u
-DU378ms6v2Zj+Khm93McWrVhbjjBbU1iBqJ6ebWZ1zCTHYpdyxN7iU2vZTeNGQbaQj0vFj24JBWM
-gFQWv2c/n7as4RAji4Rai1xBKbHi3rhJoHf7jsaZTSKG6FFhYduM/pAHCdcnTo6FFwj8yQzRJ850
-BEt1Df1OF8jQTVKyQ7TawVGWTm962u7KhbcsInHJ62+gkzucAQWjiTRArFZCr+Inv9Srk93TYFt0
-Wb5z7Di7jPB32HbGXyQambd6KgXoG6qDT8RtXVndCwsDXrfRI4LHbhGq/q4Q9i+39tfC8vd2SAcP
-EvWqBuoTWdaXMYl3cBKPvYEyayaE8xDt6fgZ/Hf0/HKFP4V8FoDqTV7bgsmU+U4vGdu85ht0U1RH
-SE/ReiRFuy4drtVz6OxJ0t0pad01WvfC0Q8rOaNORmXPqWz3Ybvw+zrnojnU0Zntmyg5NaS6cQ2h
-RZBm/OiM4VDq3g75d1yRtSMV6Ef5ESVvTS0e+4opkMLy1N562XinpuypHPpfk94aBDzlhYPXhRht
-d4Efg60kxFGEIea3jw155eFSZ5PUL6bpHDLXt+hRmK3NwBAfZCeLaIQkH7c0UyTce0L9qYuSXe/w
-OhwBXaZE9to1GrPdQUDUxXKz7bukCkJ2kbXrcEWMaLXbUsRlURoB9RBwIb5xZVrIVuqHpZwATZON
-ckywncjmGbric9e2eDmnBAm36p/CrtjxmwJ/srBzlBjND3SXoHixwh7kmN+6WQVNBnAuY3PYGIxp
-SJ2zZmjpnT8w8jAmVFGSJ/6mLel3YZl4AUJw1vEIkgbU+CppXPJGiMhJkz9hHb/pTqvjDo10QgtM
-vm29/ulbRsusAlEvUmtD6U8CR/2Ay9KM2ytzEXCxqQoQE6ObbCy5Tcey25sZy09qaqgWLeqobuTZ
-fS3g77RtAxA+NXuCBEXvniFNOPxNCZQP3ZnOVeIUwN7LGeRaDK87T85D4fGfYn2m4gmwp40TfmoP
-qJO8Gq8Ra9ih7M+6d8L1sBX6JHb5lBSHRuNrbnJDQ1WegtlwX2ziCuvS0vqV5/gPlTueBxrupgxX
-GKOLfWpFL7aYNroGTrKcsx+oBpfWnl7zoX2esnrcwKmtghTtm6++t2fNo+S+SXRshWEecDJCNi5n
-WpPJbGBeEv5K8V6sajqU3eUxJYg+oRlkefg0VCrfyKJ8NjR5LiLLv0G6DQ9Tz19JV+y0rQTtKj0k
-4LMOfQ2XV1LvamMU7Ddu/8JhlV5oMEMF50CvOTTtIJnUkFXGsqKrxe6Omw0Vp8DilvoyxMI/NuFn
-PcnhEGcdjD9bTnhLO2L5H12fKXDMkZzJCeEhIHRb4pLCAlMrOkUzqoH9JBwe/qkW2NPT6Ulw+185
-ycStoax2vU4KM0zT6VoQPd/22gANy/WnImPtEKCHRd7tXVCee9vpit+5odnHDiHj0DFpX+WO0e9i
-rI/0CeHDKVdd5CQeP8QwZ9VzN8XOycessZ3vfN3DK0N6HprUrMPWPvqzn1onAvfkb02tfysMakiX
-4CdLtukibWBlotQk8RP/hHYz+pfcyKMDBs6MJ8rPwuZQFmG3dmarvVItqV9nhvD3cexMyYNMVasO
-uAys85yImNLjuWyONHebO+j/+l1qcKDZ4Skl4h3pdoZ7xNMlQgGYV4f73IkThNok+LB+6yLm3l/6
-xn6YmMIFnTXTakJBIMsBGAZNS282qTYqQIunmga8kzTt6AX7ixOEIk2uUaO3j0YT3ap5OE2J92w2
-bXOoTE6rk9OILcCEp5hUFp83F2nH+pjS0dwSbsc9oaJhRSnkc1GktzDCR4Xjgcal9l4Qp1gp2zuo
-1LwTQJazytpULgZdp7V/YeA6Yof8GBrtRwF7hBxUc5yxNWxSp3qtqR3IYANtPC8BKIJgFjgF9jaz
-LsAnthjLOujTBE+cbQSEBp+6FZhur285m176xOOI76TvzZBQJU7NEzJjRRlQv3em6gJC56i59kYj
-5r0avGFaIhysOGqqbmWeQ/auML9R8AxGGazOJqzCcaN5XBtwUY3L1Mg6ZqaRXH0uBle7NAF3oSrA
-ZJ5KnNWN4NUJx5DIdlWHXZarhGuFXHYLHZegDi/IzIbL4HNNA3ZWbPFigahsvZ1y5ZmBD/rc8GjR
-3xRF8taYGLl6jU5QJfI9olu2pu2crsH22ZIdR9I5yzYh7smNgztl7RBRO0iH2Az9VYcRjBGINO0e
-WPMr/Qrw8lT4lFrsv8LEUtJoV5JzgAERWdatkLAbdHMHj55q27y764nZOVlYLHeKK8rsZzXwfYbG
-SGfNLVXmxjDtXTRND/ko6AYsJX4x7M/YwLWD0RNg00yKaclBzzApKZ/9YSTmfEiTtApgrB8xBt2H
-k3uenOnCMPcwx96rGqdNH+XPLQAh9NKgMduDiPFdYRRfQZHbpFQpzuSvDmGIo8h1x8sk4t9m1B6L
-WV3ytL61tn1j2bm5WvQcufVv286PFRJAZHEAyZYAo5mVu3TmYjK5ze8hA/LvW8MLny0wIY+tHe9k
-2PO7DOXr5KW3elr8Y6V2EAyGwjm+p5Xgl6yGDV1ImyZpt/ZY79sKPKjPZ0soAsJTEQzKJNxmR5w4
-mgeTdOAQdptZ0SCLfi/S6n40xWOeEBAU+HtWc+bcj6V2h1B3AWYCm11QrKDpbzmGumyq933rs1Hb
-z6z58Jyqtl7PquvWGIdeZQ8anxnY2gT7jNbqOleD2x2XkYmwZahhxg0zk8ypfogGDVxdzAYrDVe+
-MHrkDAH+hQwZh8VaPvMOXr10OPZzv+48tU8r/eQPnKjqkFLVxbco5Cmj9lgIpJPZ8JJgrrMYs7uO
-umclr+AI7VVUymjrR4Iq+yam+p0pgV19tMlIncT4HHnWbk6rz3xq7lDEziTWfyZTB/DZzJ8yCjyb
-mTG4kte0sa70rC2uXRXg7AgyLT07Yf0jddJbnobgERBfiu7DHaHVYHbhwTPj5QDX7qwRGFnBNSof
-6msXx6+uTJ5w4icrVdbRPq6arwqyzmYR2znOGIEEcEoKt4Cc43/iPP7sMntL1diT1fof/KIpc3B1
-l7R8MZeTkh6e47A/I5yvVaHh98iFtTGx5G9sUz6Vpr/D8F99iML2jz24LBzlnFnMEb+okZY3Iith
-4CeSn7YVWeG5v3dD1A86Yu8TXHSlpvmLOYIeefmUOe2LqEZ7Y1b1vCXy/At2lbbr24Iqj8autlS5
-PCD+/KQUjQM8rU5jCh698+ZTEhoXKBV0HgzyZiMWrae633cGwWBKlm99DF6sraInArBvPKrxPpH+
-zqtNigvyA2bqatXgnd3G7jx4W9hq49GGN/kZdeZ0MeeOAAKQ/MQMADZmfCSFdelD2W55W8wjwxQU
-ASZGnIf0GqhOkv0Uw2CsCVBMb16k2TS0GBz6rXAWZwd1mX6DZn4Q1TRfrBwCcNw6aA0i9PpHjXTe
-ARlLnQtHb36CVClBsNYSCqmPF3Eb9rp6x40f7Wvu/Sd/VsZ704jmA1Xlc6gnVBW6Sngb4pDBiM0u
-HsPJHyFHYBJP7hs8jqu41Z68wSqhcJDacClNpdRsg32hv3hj7e65iF5tSWde20/metaxePiFXW+w
-xxL+cBGGlxatyOQpDXWWAQd/NckSqOBpO6y4EhCXFUfDah5h2fE1db1p65SZdZ9YFgFmu4UaU9d5
-wNtFx3ENuS5DUl8VNT4QBNkHrSKgVVHS6s/eK7D9hjc/++Gk7mfF+XgNOMNeW3KomTSGr1ETY4+p
-oDcAPP10Evdtij3tzW6rHXMkvNUCtkKnP4QGdQu19St2CSU5sxZYLkIBEPTXSSl9LZmWBGltkqVY
-UJcGQ46DvVxCof+02ybh41ODdYAr/ORisUQq7N66TDu7kXltB+Ouq80piIrW2UdtTudTZLQB0Zxp
-oZ7iGUigrjrctIxSnuDa7yuNaj2znt+QLq6F23wQ2XhM7JoEel99zs6k3xnNsDcENm01LyN8DEKK
-KFJsOQeMcEc1EY6OFWeYItSbvY1OselFR4m0LZMgGwDcuoKXj1RyL6aqXk+KamKfAdIPvVkkhtIV
-29os7K+qTsqzZ/XkmhSBnDwy40eLxBTg/3k42iYPvemN6oovLUfslYICRb7IAbOg9MrUyA7hdzmE
-nKhrLNGGMS0PQJjvjF6rThheuO+14MxYQCH9fDGqo7Fh1EKd/hS+LWSmF1Gf1czDRH7v5LGNgt2b
-JGyL6CUib3/uvDgGekh1yd4plIQ2aLTOnY0oeyAhIO5nCGNBM45FxOLoLeflXOk8TumYI7Dz8kxr
-rjGg0tOexx7hLtNDnKmSrr+ZimAVY7O6k6wR4L4QD9E7oDtOxkElDSpnzQ2qUH76u/ETNnGrtM61
-1ZYPsBLLszVU7tGqJnOPNaf4bY5WRMfDVN9Cg+DkKk6yln/UKIW8TIOn8THF3lPmReqQkVikIj4e
-j9ixbDgivv6MbmZ1ASug8WZlvb7OJVkftKfyrgN6hYVnGPehVbU7cs7NqTIYlcFFchejX2EFoZTO
-lhKM9F6bJAtxandmt+ZdIuFrVRYGEC5IrSd5QweLy0I5Y/3oNTu5G0YpDqLv+g1kt+Tk+BwwR0gI
-COLWILfezLE309v0YI9G5xBzInNH9J09PXGzliBMmB9Cben1Nb1iXOvRKIjAxNbvwo4qc0UZs1Ws
-RednGwPgON0ZZJ2rB9IVk76KeIBW9cxRDLXn2WBc461hVSU/jEGPXyq7yzYFcwcZiJpF2M3G+VfE
-wDXo69y6lYuuWxhRRF+Tlb7GOfPN2k/1S1qolrOs53FGEfbVTN3xvqEBcA5ySYhjo6N8bSkUjrAu
-2g1Ln2c/TM1V89BJopVrtg0kDN+b4Cpl7ng0uzbaGwrUBB2R2Sos0etWGBfSQC/7kWpQQtHFNuwy
-6D9aNJRfRmgZv8IWqO4UudmXsJwwCYYybH+EKBEvg5VVDijBWswrGD7e5V/ZO5PluJEsyv5KWa0b
-MsfowKIWHUBEMIIMBieREjcwTsI8z/ibXvaiF/0N9WN9ICmzSGYWVblss7JapFUqRRARgLu/9+49
-t0whWayWeMh7sljH+zwUhbnmONOap9bkKM3GyJx6hJSHMaPiFyihzPSDtTBAeSfoU5dEeXO+q8nU
-diRu9bVaVTmdWsqh1AJ9GbIWWH5AIAaoJQ56lfBRwaNkPzEj2oUMApMeWNysR6dLou9nm1q98CYj
-1ZFT5Gw4667wSVJVgwkPoey+j4ORnX5OhxZjE4D1SSejymlTD4wdnbjGzA0o84iNxCpxABHh2mTA
-t8pIRQrcoJJAzkxtSvfqaIfgJ4y+faT/2iRepjYMaboWtSUtXK36ImyNHSYyAzgKfpmO9abVAt3e
-p3YZnkcq258H7mhLA1iqJxLDyXyFDmV5msKSgN9M1+c8oZ+Rq89FrqBitJWclRYBYUcGX9bRRTUD
-g1KWP0S6oVv10obyZ06Una8nxlo12KAxr3eGtY6FnWenIVuuzZTJzKqD1Qd2dChG2sAPhOam5mEo
-unE8QFnOvzZxhwuWyKeU0YjaqRMUhMrsXR+lRlaNlH5Ay5wXOCTmt27qwRrGPTmZp040Zpd22CuZ
-29AsAsaGBMJV7GKmZ4JYpFvpTWuXWxPNO25IENwFZEF6SLvOEe2LoWhMOMQsJuGl4fzZHxzah5E2
-XCdWOrNiELr5VLJtsuGYAzxIaOAVhDxQYw7dBNw4DlhEZ7oi2Yf6s2iz7rTTdPuJecc0AveQoEcp
-TQkm7dCi6ZuaQLBD4PTztxbloThaohSVp/gF+7DIFEmo0ZjWqHIFI48VAUxR6BVDVp4Zw6SNZ/2i
-HtlyCifVlzItpDCN7UY/7YqGzhnPE6wDsFOYb1aW48/jmaF0BTLKHiSLN4xRdizpbQRra+HdulmQ
-BvWxi/RAX0+OjjZBdjR7FlOwEZ7VLdC10w701oUceeIJZVdPW7bcgWoLytM1/ouhPjBYJUPwB0sd
-rhmPJDO4QeGInwOY/cFNT+kWlKse1kmyHgyHVVkl7z4D45QTcvODgF4gsHHWCDGVp/A76LxEp0MX
-RO1pLSFGjZ8BfYZ4sq03MHOyDtCSvMaX8zTTkkwihwlTJnzHd18xymm2xZ+JZtXsSxC56WNszs28
-G2QYYmFDA6H+AInHoglQKsYc4Pzb1NLG7KCGTYTyFtI5ORg/6N+jj6SUjtHv5G9DAd/FibyxaVZr
-jTXdmbUpIlfYA7gdfEo1RNEF6s25V7cJvwur4NLKtfl5qDp/9n4Qu+Gtz1+S2GKIOvkQc1dNW3eP
-ajVniUvKBv3DFo9VDeot7b8xCY3J64XX0q9LZ25GgneAesxaRjrcKCs21pLOBnThqFfGF5x8bbUJ
-AJ/KrXD6gFiJECATL1u42J2dOA72qRZP34wMgfVOr4lXWxdlSvpyOo0zYc2iwCadDiWyqtyMjXRD
-kHForaIs1m57YzCmbYVzYVpLzfQfQhq+3b2JXqPZEz+t1V4QmxVruqwHgOUcfWgeY5U8o0RHgwTy
-Bju/08vmKu/xDU0AaRMvChRIOIB+IaVNXYrkhoWd8hrlSnoyoovasDJCK8JzULoJ+B+G4hM1Iuc+
-2MVncHar2otCACj7FL3qAmCsWUoZdDCxaFOpMvlnvJ+DHjIYzJsh1qYN+M2qu2OcaT/4zBzpsUIx
-ftJIXbvzExNFuTOlBkU/DwfTgdIxsg2e7tq8pPuhg2gzpyTcAbaUxlnMEIWgoTKP3ShqZtK1U6PW
-UFAPo7lj1W3109ahmPAG1GaN1+aBWbHfFbPvpSqZZS4vbxueFbqvoy4bzeSQBvzBaVYDsnGTakoY
-Vdv2iG+/bIZjyAgeSHCjo/mCOpLWp2050zFTy2JestmJ7jpraJXMBPxa7VM2VUW2yeEVN26TTrrp
-Eo9nVdtJr4xoG3JeabmbeXhqeX4Q22rCxAAdAdDdhEEw4gH1E//RMQJl3iKHymwQcEbtbKxeMAGG
-H4c3tarHnDNZh20Tz1gG7z4N+/pQQW0kCTE2zZ7dcJiPrey1Ea5oKolBMLAUn1DZQrLS00JE+1oD
-9b1GZc/Kocet0ezmotVh7nG5Zm35nZzcjL8Ll5MOYePKoWj7bYMae6T6ThkOhjA1kXNrWQkwdlUh
-HfhMTMTSQ1ImAzs66vlpn8YaOZwQplKyK7BxTPO5Ko0q3hrI5glQF75GsJXK7m39YLC8sUb9Le+y
-C2gvbfOPv6NJfaUjtQ0ddId08Oiw1krHWZw7r3WkYFYjWuaJ7hkyE1cLq3OjVxVK0aRoNrSLIfIG
-BqZsfil3MOu5+8X133JCvl8fpDzsEVM3NODzCz3t6eEqygN+WfV/0F0L58nk+nTa5w0gKdAK2oSM
-QYQj8t3fJb4XP8Sxr2/1zy5lCAmFTSLPlRIa3OtLzQPatBJhvKdquKw1QaGsoGPzkiCxrz6+1PKp
-/Uudu9yVZhtQT/g8VaKI7YVz/+quOL5mHa+O7gVtpj1ix6h7F0BXCkUjzS8b6pPZ/fiKi9737RV1
-E++VBJ6KdNlaxMyvr0i16Ec8mKbnL/F6Rdy/ZECgPESxX8JaXFYBgrmPr/jHj1M3DWwIUrdoqEnj
-3ZNTZ2OI/n4APEyUmccZDXdOimhGyL7dfnypP3yctkF8NDkDOhAP1NfvnF16j/5r6Fp0vfAqvmDk
-ifdzB+2DQOB6XQD9PPn4em/F1Xx9XMxYqH3AwElbM96Jqysd07AZ5JyRbRDMa6WKEISNNNvsX3xr
-f3IhqfKwmBxxJLKFd8+JM3asuWORrXGs9tdoRMPz0eh/Cv7/7Tu+PNhvng2qKbpdmskVYCWq724n
-J4STrdqM11MeojpImIDPHRGZQakkC4m2PSRBEF+kvqP94otb3H0fXvrdO9dBRI0X4Mc6z8zF1U2C
-SKIaCStyE7s1XRw3qO15xe3fTnngrxFVgG4lkAtYNuBbvxyzbSf94BfP7h9+LUcjKcDilSEMQ9Wc
-d79WGTFg1/UkpetA0mWBO/BiioT8xd0vn+vrz92wHbKxHIFXgG+AL/rtO4lCPVTw6mo0r0h4WFlt
-o3Ls0+uN0SkUE2GVnEzVL675/s5APtk6LmkB+ZJbWECZr9eBWkf2TV0b05BVmSHNVlKnHEpKOaw/
-fkfev/48shgPWLvhPFkObJ23F2oEupCm6sKNOk5afTCLPr4yrJFUhRA1Ru99v9pfsvAeIlK7m+Jb
-+6F990Oj73K9332/WIR/Xt97aB/e/J913kKgv+xeFmtJ06Xtb8bU5b/8T//wby/ff8rNVL784+8P
-z1mUexHH5uipfW1UUYUq+Pw+tKt4//zf5QNe3YyfuPh104e/QQmLo/rhz3/Sb45d9RMmFuCnFmsL
-e7zF5v/KsWup2FhAYRpIyRaHy080qgpQ1cTj4khTsH0xGv/dxqKKTzr5MAsg7Ac09S9lDb59gkxT
-Wpq0LZujPsss2vnl9Xm1STKhSfMB7dy6qK8IJnYFdYMJuujj51Rb0hHfvIa6rfHz9e+eYMs2329U
-iQ13nJak76FdpQKRzFT6qhtQYdRKx7bc9FdqrKqIibuuFusWnfu9lnQZU3ejegqmBqKVGKP4plbq
-9IjwSZ6Zo659MxCnbyJYPQdlTAp0IeSpn8wmgABi1OjAJbIJjpY1YeewIn8+SEvJvpZVrXwZ/aI+
-63yNSPQI77zbAYglnlqXLoAN9dCgqX62aKNBAIDxhWCPTLHjkFbtFgZkcgF73ty2ms0k/LUKekY4
-z5AsTTdVTPfiF3poQ53aZk1UzjiajLf9FMLhoorWs3TcEDZMSPJ3iXNqx5O56Tv4M1Sv6hEuc3DS
-pG1+xsom9jWeXyD0JbZd2KmruZ5BKupQVvtdrFZKdVISgIYkcARXzogxGM2bStF6kDgE1++nBu3Y
-Gk4HnltLDbvdUCRWhfTXofbXWiN/HB2IDbKqB4wlvYibNZ6D4eS7KJfgQgbz1jTdJcwtdCSCeh96
-vu+XO2Fa9UlptET/kedDHgSa45AWe9+jBQXuuWZSDdEqzQj341d1Y0rjatXlJr/kiNGFAqEIrye8
-R/dpmxaHqlTphzp9tUUrV53hZk4OuKiGc9v3s+2gFaXXAYLaFE4iPOrkzMUzQuKHEqNA6eFmYfdu
-ti1sfs9Uns0qpy2qkrWgNBbWEKcdbpRAn26IuBnQCoXKhqmURo4bMtU0a6Y7aQTVtYIC45SxGtJx
-4syrGMaXaezmpk6fExG0p4qBm+dGK7XwJKGVum3jXqL1tTJnz0OHHN7Qpp0tivqBDBGiQmpr8Azb
-166SZMye6trxiZa2ovMwxIE7hK19jKNZP+pETl5peWZtkj40FhVNU16Mel97mJzz8pzUM4Pa5Lsw
-1chHjc5kbjxOhkgtIuUWYWoGv17di8xAa2lPoblSq7656sgmvapNvb1GX5VDCEpEthYFs75dQJv6
-CbLHCI/uu1YV8EtFKw3J1+O/06oO9Lu11YAVCNgxiTr9Q9Mznn6tWFVSRDBeNU760YfVmxza1ufM
-QSsuSDaFHieSPpxSx26FwB/nNqYS+o661ruDLtNrR6Ud3A+ccyd8uZ6gFncj6YTA5OIJt33jn3eG
-AbnLlr5+V1bYVJH7hOcm/plbCnXtApomwh8f9UdLFMtRc6bhJkkDvwOnpeOxVuluL6q3CHlE0+ig
-OvyathDNe8Y3uLRML7ek3tCFZ/OSWBVeSpsUTOyl5nPeav7Z1KfteiAAzl8VHQLR3o6ivQqxl7dH
-ZM4mpP4EDCq0dhPgEkQxHcJZJeyDFrBPGLybK9GNas0Fhug2Ms+SsJh2FhSqfa0saYBV6JxkRksy
-aEvDwLVNH2LSoPXadezM8kUlVLlzC0XkL1CXnj9eyNW3ybRsUapgVCklYlXHYu94d5xKpQjSGTrP
-eiATXUWN4Rf6xgZvFAfEWWv61g8meijOOWvTx5d+X3+8vzKb5eudqnACOvMqI4lRPWtajwhLixe4
-+cWh9P0x/f1Vlv3y1X6osvUKFEHcn7FaMbF0E8/xlM3Ht/J2010+RMZblL9ktlHbUKG+vQjJlmB+
-Roek8bVEyI/wYh2+fHyJ72fMN+deVROUTZS9tqVxPnx3NMQG1QlMb+HaOoyewRBqE3vO2tzGnrra
-jSvHpeG0iq93imt4szu7lafvhYfvYz+dkg18PwDlvU4PQ/bjA/5Lh8gPj4evT4f/P3NgpM6783tr
-ZDmz/jyLnj9knEXfHifhwDzU0T//75vk6gX+8v2n/HaUxBGtL+dBqhgOON9R+r8dJZ1PQtB3ENRR
-urNwCX4/SmqfYGuilQXJokpcUbw3TQGM8h9/5yBpqTSeFm81hQr/+EuU/beVFkdJ9MKsDOhObJDl
-f3BDh3HIiYst08vKbzFCo6guTqO28ErRnDnd11cf1sWPB/nf95FM04agagpLp7jTbBrb2ttXKA+i
-lFEGIEQxYR2Ov7SqQvLvL46tb5ccLoL7HFQvmjQaUdSQ7ypUpFGKnCJD87oe5p4FjLPwJKWcM6kn
-H98OeQbvzsdUAA6Ji9wMZQL39vZ+erR9GvRD1WM+7HJs80ax0r4az9BcOQjlv7jc9+fh7Xn83fXe
-laj07+PIYWTrKcM0cGxuAxQiYNsmlDy9o50aulB2xVh3nqSuWevTnF3bsBtXPVi8q5let1cukbxC
-EJHX9cT0Bk0dXziBNFc2IrTz3gniq8SU9q6zpbjj6GkiFoDvohDf2hVdWrlQyJJLZvwTUnVOHiE6
-l+/pwc1kh+cB8ksctQM9d2i7hCmPsDEf4yb0X5Bfl5tmyJjxEhsLRowC7MpY4ooJDkbYobR1eUF+
-m81HWGWQQOkl4Vlrc+2ojksKQUy8JBHXPnaNZhFIpqYZXuTmkpjsWF22AcHVcCAroj1HVvsR/6we
-stUwKQhEH133vt1SX6iFwgbdhDXxA8K/zBj0bhuSBr7GkiCclZYl1r4PlDpc0ThD32G35RRtByXt
-b8jUnDc6sK6vEBWLy9DOCrC0IWBXGhRhn3sTw1y8cZjh90mfNzfq0CeTG/tB+zmyguIoygHMeFfL
-E6tjhswsMpydnaKNymeGvLMXwDO6VkdIJkMJ/dAN2I32FhF05zahPfdGDWFGG5TxBptThd6zlK26
-Wuqrp1QdwwvkulgQofeIz4gAwg7IXdCio9UcXFwaYXzpqCWMdKXZMVoekusQ/8aeMkzZJibJPaRn
-ot5cDLM3oUiyZ+RL87fYdobtVOnzPoyV8Fy12+46W5IKYka6X5yw4T4Cum8F8c1kQe3rDvjvivEb
-IfG2UKuvmihBIpqwB11T6TREsjNzXqQ1fKVh7qBm7PB9X8L2r5+NFj5Slwvzwqxi1I1tiK5hhbIa
-QybOSPOGer2EAKPnMIjjqktPfKUDstAwPt9TXsljWVTZGUrb8XqkHLuEp6Rjt59qt20MMzzvW5tj
-li5IAVzlmA6GlTJWkGgQY3QXjLkw2kmnNSHuDV1yajR5cViK4ItERi9gX/qXrg8weDCj46nirLUZ
-kGgz8zUUZrgGfL1gDdANdUEQDUtyatV6VRNn2zAUUK3HPLll3FyfpWOsnAQmYRNNY1s5arTRPLZx
-nJ8EDGy/4an2b2ayOLyQlSxF7plrpMah6OT+83NOivUAgUnRPVs26Y444dFrjdm4CMuAoUppyrMs
-QnEJTiE7Uwekgjav3YOOKNbNx0G/W/gcEbWz8K8mBl0H4J6coScDBx2MF/FiBE63JwC6PEuRG2UM
-2jxq/fLUZ7RzXanh4JmFiBf/j6rufZ5tWKGWnJ58uIXHwAq1i6ifTF42hIwmiiOBJ1lRtmOLDD2c
-qnonU167KiDxRFqkMQViKDfhIIPnpsyzPdGa6suwoIt5usMam2znHFNVna5D4lcPoWmWm4GBG0Nq
-piBeJVGJ/K4HQFeCw7eC3F9JYtzDeuOM9WcLy4beOgis4tKtsW6z/Zh7oRGHFKfaOjDHk0qol8Zc
-bwfAWHk5vxSY3klCTJCjT+3LNFrXYV/xGyWwtzJkZ5S/ePdlfEoD/6h3zV0KOLmpHc01Sp3vB94f
-NHJhuwmO5DUSF39tDNqD0+LHwd27Uo2a0A+TgXW0DzFCrxkuqutGYkKysvQmCwKxibQQPHIK3udK
-dRq6DWJQL32yyTE5gC3fjIFzbYnMYxSbnyqlP+2novg2Ah4akwmaYL4fsXicO7OPSriIEmpofNa1
-b1dnhqZVF43slyzvFIOqyM5jC3d2TTj5Yg6/gu56IHGh9ejlHKzaunD4Ui9V2ANrWoAPjP2R5fcw
-GM0kyM5ip1V3VW3ld7MzPuIWxiJhPfYGFK5SKlfcxrECWbQKO3PcAiJHo1+FlzMtAkRrstxqc3JZ
-5BlocnUb5+bXMdW61TwGnq5la2x1t3OCo8XM0ZzFwXFanGrAsGqkVCtycMCL2MOTGZTJemTp22tx
-Nh0ce74cLebLoRh5ktuMnMuITPmetynM4q3iN6dMuYODsDkhtPkjkOQXQhu/oiI/tE6wwy+/It38
-UovZ1AoFU7XWZreOnE4QqZxEOIEmH/OnEMfWmA66Ftsov3hMEhzAESmBo9kcaBOyJvsFWeUKEvS0
-DOJzjkjMs1JJjGhY3foi3UadPHc64xgk8pjimC+YR6/qgbaQY3dnZTeBLlHPGbmdS6ifI6zu1PHP
-HZQvYFluUBdvjHjiiENmGckYym42g52MME2RXvrFUFkzwdE2O8UkEFMrs95V7bK+94MSHUqHqs1b
-pLAPP+QtUQ9+QUna5q4Df+X2S5Kb20Z9fo6NU/FaO41uksi0LjUUvJvGbqIbR9HLbTVC7+y1drxj
-tDvRCyEpOWbJO7aRXXx29NykLWPgQ0wcco8xfGx1OByuU/nRtdkY1reQXt9jbk+6i7+WgJ5kUrYc
-ncUZgjsVa35nn9WlQ/HY0JoHk6eGW/SeC6I6AC2vG+T/Kn7mjXmNEzIo7K0fLzz/KUBfLsusYpcr
-O4xYRDkgpIwQZuaNaq5qTkRosjJtvpXj0B5ndFQX2Mfya1OrnI1NQ9ILkxmZljB6+MtdYLe4Br8L
-dip0yBcYnZIn5H/luJriyT/3KyvBSGjlpY4CRSrH71KehP6IOwxOuGlaY6zoiSnZI/uqca4QagcO
-uTNycBJ9PqK60fzkZFQYxwIyDK3ND7mPRTjdiURkh6bKYSUq/YRSviDY7z7W9OihTFI8Uj+EQCZi
-oU2eY7owfWVoPSqKGN8zUvlFF8TNizsbufZJ2oXL645074iZzUe6A9z141Py2wqDkSAGFgFVUqea
-YYSsv2s++FlkVO1s0N07DS4zd76Shie9j6/x9sz/x2u8azNIw8xhQ3INRnJrPbxFY0rsy9pAxPHx
-hf7QBCAkYCFHLZN3XaXb//bEn8dmX5aDFJ4ir0rizIvas2mN/9WL0F9gtiHpuKtc6F1ZEavBzOoX
-aF6LymZ5rHJ159s3H1/kDwNGw16uQldDNci0t7R33wsBZqmCxwX5/xpfwmbY6qf9abvCROmqh+I6
-8H4lWHj/IPwc6i1Db1ooqvGugfJ+qDebk/T8uu4vWdsw+b4e6v23cfF6fEUQHyUo78R/3rj4n236
-z//FkO3pXe/i5w/6rXdhfGI/ETodiB/ENgr233oX5icNWQEyje86DQZbv/cuVIZn/GuDnoZNxb/E
-AP7WvGAMtrw3LAMmVFvaaPZfAdci3HlTgC+DMBWIm8mcjonc0tl8+zrKiDKj7hxELyOHyZWsrAal
-s7QEKZ1J35409TjU6METB1tY3a8bQymvAemQ7Tc0UKfNgIy3ThOFqw9NfWT2UZ4ANNW36PQqD6TE
-cD8kZbSJzGZYqdjoVyJQZxeNN0bIwHmW4Xyr6Jh4Iqd4wMf7iJtEeqKYwhOHInM1zQ1hgtnkh6e5
-QxQMmcPawkCL4ZqNzDoKG7FzhTLx2Pg1UNa2Rzsqa/0MIoWxq4F1o5HNrXP0wZXX8W3sonoq9zGs
-UIgzfZkDv1H8djtwjFnrdsmQphHaSndqjBQNJ7w1GKCZbvMbOoNfGvfRyLTJAhj9Z5QGRgHtKsLF
-BmTnV6iGAUei6xtEV/+C19BEjn/S6KjiPoQ2FJA0pji+/B3cYAftro0E0Mw38IZ8MepVKO7W/yI4
-zDkyUKftR4zHwyOUnhG/qVCRluMCNWkKrTLFzNc+tZRb6T0zElFfqEMUbqcgpCuvy7E9qKKnzxCU
-VXjFUSXchXFBS7mB8QpwpkILFz3H+ji7aj5uCeY+AflWrpJ4/ian9L6awP3QDHiwZxgntLlyT/YN
-aXDY9/mAaLmbQ1TtFYhYXdam25zjkg0ZhIwWO7yIBYl32tA/S336aumoPVIZPeWNGbutAxm1txPH
-S+sei4jyNcqr86bEJm3mabxW+YovshzDaa9N93qa5XAI1A6PWUrQQCWV+ZgGKtnrZFgeNTUdrmc1
-j56lYg6btmqdNd0DcgiQEcab7wvNf5fg10vwDy3CIuX4z9fg6+7pz7LKlh/yr/V30dmgEXFMS3Aa
-eCVDMD+xsDKMQKQgBB1Vlv/fZAjik4ouAeATDV0biQCr9s/msf0JycnyF2hLsGQjQPkr6y+6rj+s
-vzoncBR7jkH/GP722/W3GvE2SKt3vGwgsCevQAXEth4y621R9M+GuiXsAkU1cYsnoYNmddSGYz7D
-gIk6/IVyzr5SwRPNUfGk6jqpWnE5l95UAA8Xi5VfSdVv7RySOj+oJBFMw47Dsr52FKrCoGKyGZE9
-Si7aXD2w0GHBGzPNM2pFIb9gOE5NjKgVncGancTZNON8B4VMZc4WHxcIDkIGPz1JLIfaF/AlHmBS
-X0tVmS5J3og9vS2GrV04FwONM4DoOoDfFi3/XKI3x2UHOALR5L3QKC0ESZ95cFZjl+bHm8OZKYfz
-uDdhbiis4jZIkc7Wc7cwqX6SfEwxY2cW3TeoEDjEQQln6H07CeA/6jukrAopBjJ2bpHRihUphe0h
-jtXbLCCsaZqykJZ2GK1h4KAcwLX1jHFVYsvTlHU508vQiofMz0YvCJbYEPYtGoBUvoAqV/6ia+99
-q/E6oRBb0Rzx/HDvSU2Su06H1ycvHG4Ika8k0Dj7TEJP12oSOtOQbymz6BPTxFcYYuNclX0wXk9E
-2XsW1jq3Idp+1VIOD7gxONXlpjGcamTjbnPsHRi36s9sY8bKkCFxddNMgtTAZwltrnxJETGuhIPI
-PA1gldMzxIlNsrQuamdbmN3oxvOARTXx3SEXn42BLbdI/TVJ89+yFmYRxdQIKQDiBJ5yV+klFkOC
-2FfDPHwjUMoHSTM94Fw8DkNKNos9n2iKZXvTpAQbpagJxElyGPjYfZ6iQr8OVRPXCBlwayBroEfw
-JdLrzh236O0LPYEr0rUjmbO2MUMFMGdaDPY3Y4m2n6WgyYSJop1SvKOCDvywxA4vfLeViTlqW9Xm
-dCIVq/dIB+j3cVk7ntrFGQQ3k+6oxN8JAguRu2+HntYX56ZGYhJZNbdBWFhggaw7kw1sp6DTB1Yx
-gtEz4yc4Ync0t7t1SIiM2zXFtMY6gMcSZP1moFlIXpUsThHrH1g/OKPgTuNr2fcCsyFdBWznNSei
-aAnpKPTwHB0IGeCxbuBjDAwPw6OxV8qmXAUEsmxMUaS7GdUcXI7CBE9QXlXLPJwDIPLd0k49ozHu
-2tbhBBTq54WOKEGJpwr4UUyYOT1mj0ArnMq+vIkzx1qHNTkwwLUWOflI+Z5UV/Ykr5OMV8Eok9Ab
-rWlP3uieJniO0ajEDzikm7IEqoG4b6thFd/0mNwXL2zsWWkGT95Ir0wHHxpxQI43ZdODMkt1Xcr5
-iQNquGqkf6OChHQdAVbdaqKvPNb9hunBSxyjB9Y7rdsnKniMqGMm4KsYquQcuqS0U9eL4WveZtLT
-DLh2YCNa8D14bYo2OQajvcO7R6B0R7z8PBm30ZzySik0dBX80lsQPmezL8h5ETPZx21OhkAQbyel
-NS6BLinuTCjs2lAg6za67awVX2luiBsK8Hbk/g5VRLnJoM7j9I4iNPGDtjw3whXOdEhAa0Nbwr3L
-MneBHZwubhnULz6Bb4Dw6hqd0jC4iQXQjywkPvCqzk/SPLTJQAlxhdXlWpeASoWRd9daae80X15a
-Y3yoZlE8NZPJa9UkS8hi0d4PgYo1aridgIvuhUgwQyr6WT6GgIf1FCvqlB2qSe08onSIHevp9I1D
-sc2mqFyHgcPozDKDk9lASBXF9bxBYRKsAZQMmx58oKuBuPH0iMFQVykgqGRwSbaidFnNSDZqaMZk
-HKF2KE3mVZrEnLNG4iDOc00T0aZr4LPJGkYJSRZY9U3Bx0xk5qIxK/aQduhF2R3xRqYen1ghjqwC
-xBuNJX1wg14EIAv6asfAqtzSEwrW0LHLvdbDLlnyPGh/2fEWAUe3Qn6tb1OF0Et1VpotEdOl28F3
-3I2o3U9gEuaXRt5vSYlCtySye3PSlNNQY0IgsNe4Dgp73MeETynkb1qJRdT5IKw9kisL8gX2QH71
-aUtCTXRW1lruOhOiv8CAs9FrEbZ44cMJUAOyusref2BbxjdW5CRBlGL8RiezuhUTgWWuj6MB8hXq
-pbO5qEZ4D7QbzkrZwKSEkiR663yaTHkgpbPegM0k46pVT3uy21YShisrt3wJfT/YGNDLcHMq4Tfe
-5+AsSYCsBI16EWXlS6WaZDWAA76lX8X25dfzWin62VNHigoVEs8WzRsqp8aAcroguxB01xsZ+zqv
-M3AKMvQaYA7wjQJS7PYjFczpXEbQvjq/XoOCGjaEOT+mOolX/VRuy8n/PPMOoFRsgLNZxkvfpHeK
-XjDnK7AwlSbGpkQD+QNOKq8xdjcVm57FuXwJiOjWhob+CqjUNZp4wsKpiD1Vt27CMLsm4q9ZaTUh
-v9qA57zCvOxFsTqRhT4kRyYkdwB38Sn18bQuK+cQO/3ANkSL346qzwRcvCh6dT60TXJu+emlOhs+
-FswRQOyck1SC5mdVWvlFBwHRI56L0hC/7nqEW0bNItjxInsx0pWMEgPtANz7bConazX1TL5GWnde
-3aW6V9f1czoiiOqm7jZKoFtChIs2IugmoKlTQQRSP54rvDmrqneOjdYhOh7IeVGLbwnmQA9q/n1b
-zE9pSOAVL1C+Ai2srTqzdq76KHEZHzBp64HgktHVuCWI97WtQXNROhaxJJPJti3bz+E8nPspUDTo
-PP4Gt1O15eMJXZqTmcunkm5gSFtM3xCpD9jKd2Gm3TdjgdGZ33liJhZ2U0T53D76g/KY1DXCw04r
-3Dqxk5MhAXKNJmJX+G21tqPQZk6l5/ucm/2cOtHXKNbDr35MzIYgkIUjdECRpj+lSi4YFIHPhEJY
-k+cl7+lbyq1Rl6FbZRr30wBpsTH2rebA8jeYADHqzQBXpcI2MdYNwS8lDC6liY4y6awLmK70Gubc
-3jGHDd2046xJscXHqw1wyYsvs230O3gwhtv3ZfGlroFGCnhvK6Zd0Uonh4zNrp9OOjydW4mlzyWL
-gx3H0s6RkEVbqTHxqLOiGqj5JH+tVJ5VTtIAnfvmq7RS484e0I7DQPhiwhRdlYyEriw0kt9GK1Vf
-zGJgnZu7OL73hSQ/URXKRTfMxSnELdAbyqSFa9yPAs6AkjO51S8H3LaYxnL+WxhHKwUnAU+yswFh
-ZR+HIsXiO9iaa0X1jaID0FHNQ4xJ3HXJ7mRhzrAhZPq90cy3wTzwmfqwIoyRczyB5xw6lanhbE9+
-qRLhthdDs/PhLJ1aWrizW8fa+bXDDpllF2lk3yp1eydycRUtjZJowvbNLwFaIy455sOXPY0kjycd
-HU4BRvZZcmRY/bdy/Tcqeo3K7j+vXC+7KH/+5/950zv8UQEvP+e34tX8pBNqBbnHlIIsbbrY/+od
-2ksHEAzI8m9/lq1Lr5FuN/lYyIMYbdgUuz/LVuOTQLtID1LqXMamufhXytbvrdFXOppFh8TPYA0X
-/A95//vWd2eoTQVNafZiI0zOVI0hKNDDizlr8P3mQbfPmOG5ECH2HGKeehIzEVaDMrJYYHH5I70J
-EItzDqvvRnV4JFYg2ViBlkKNbJ27fsncNWN6RXOFgNlIiH9lgziTnfKMTxPkBWy12Oh6TwQgIpaW
-CwGJmBhbNNyuGFOQU1HpzYV8rrNpWmf9/Bz/P/bOLMtxK8uyU4kJQAvNwwPwSxBsjbS+/cEyNzdD
-3+Ohm1ONoiZWm0pXlMsjIxWR3/GlteSSuZEEgXfPPWefnqwrTVAAuJOYviRxErD4saYODzD5Wri2
-zrBS7NkMKLYwu1DZcsj+K+yvJ8vTFoxQ3YDdVoxBbumvrYx7v/AAF7qShTgbmq9aeJpPkUXmTxcu
-T+XmD1pjm5QtARSmSeGxyRSjncuu2O5ACYQwdPsoLPfmUl8lQgk26guUAOWhaEb2h5gdanhG22Tw
-KIoNAYJmV8qWpAcr//Pgzt2GBYW3t/AQrDp3eDGiC4+CtOY2mhxmHeL5K5sV167Xzex7JAyqtULq
-sKMqH1+KLvukQtX0O836xM5k+UNtv2hDUW6TWY83haD1CBTyDYXumNoNzCR2Tqkku9/6hgJdbNhW
-tumrsjo4Wt3f2DkFmCm2met0wCEShsyOfPY0HzvVlb0UJwxBpktyWlDUtZ76do0v/WoUKtvUdvkx
-ZDG9RbZt4HDtrmiJWtMdoq+8JQrKiHv6nMTWCsLnPocBT5Nl/uYoRoOq6p3L/HjbV3nKfTe9WnJ5
-EFbyFBKa9o22OcDxe6GJlFM0SYlibSurpMZI7mXajgFmQ3EiaP8mSvPdIPm8chuAsmHHPKUevDqC
-9KPsb6OGLakzpu/zhVuRXMpV8/KYwytYp/RHiME1buOFwzIc0I/RK47pcjF3NOmmjTOAtilIV2Xz
-LFF4GAl0FDtSFWeL2uXNmKeXgqt0S61Uv8KZEahQHAcPGWUCdSnj+NOiK1ojrbdiifrQLdGXLPtj
-aGq3c9+cy0l8WKy6VnKcDkMvPV+jN5Nn4ETKWsuhZMgjAIkL7rEmuNFdFq+YH1g17rRhecG3/0aJ
-PWacBSKAXdqn2uAoGsPhhCALYxPtG48D6Bs2AiRdjk2s7XLanJEUNrhc7rxBr1ekMI92RVjZCQ90
-i9xN8WyQTWaV4A3eS5SKjwg8U2A15eXA2+9SxQcFYXllZJcauSnmFCeL55Fl955ar9tI1Ddgg6B7
-NAw3whKv5MCPcWKeWr1Bt6f4xYcZuOeK3NFEB0Wi6rqgpAXDByNYbcJyuPO0+jlx3Ic5sV9zj/eW
-X8rigJ+ajOctyDpXnGMj17czVZ9BWo5f1JwNXDszzPkms/euzMtT30Ta2s7Jbdfd4q2dKOlu9ThV
-u9rU5nW+dFchzGEMEk3/4lRRuGp60hGeqLvAlfP1fx6n/+xx+m+5iHcqyd//UU02+SF/PEvFbyxq
-pe2R4HVMk5nv/z9M5W/SFCZXvLiUQv6uEf94olq/4RF2sQiT2CS+zyP3709U4zfbvujJBAJYh1GL
-bf07T1T6In8Rgl2GIdK4ZBqRmx3SBn8WgrUhz5Oc9vP1nLBviqo23xmpJY9xDp6f1qOvtjfvY40o
-/BCbr2MiwL3Z8tyUSXuTjlX8UnoyfRkzTZw6I44Cb3LHY2NTctqWS74jDKLpPuLovGHD0l3Bqvoi
-v6FtsUf0ftuWxVOdOtnacRP92omTFPdtDdMuASK1mjK3IvykR+dwMcRTtajyW+/imSkVGE9d1rGg
-pIyvh0ZnAhpPxu6H7hnyPBqH8g/Kl7o11ujlkRt8c14WjzN6WbZnlp8YSYxUczdgfcK1MmpLBE7q
-ZkE8X84UAtHSpyh83HMkUdt6ia2HvuH2WcJTBtCFGcjHE0U4G+bw5dxvvupNIoCNSqBxPDMyOj7a
-bmOWibGfZye+W8Jcu2o7DB3Q/I13HUM1bHZdOzVSG9YxVdibyarRWMpaob6xpUwNey+oP7h2wczs
-KpOHW+n291m/nBNr+lBtf0dkO7/Pl0rbD7YVfza6BfkL5yFUoEEdgWXSHAelYjdKofnu0oiTVXbl
-fejU15TRLGdN8vAaIifEXVagI7YKcYDL8UmHqLOdwjaswGWFY+U7c+1+GxmlXoCTxded1Nxyk5RE
-eGiUsBCTF2U8g6+wg3wq5K3SRv3k2WVzUooTCwhsmFGdZ4dXuFt51/qw32iJYwW6VQKKKyrhV17R
-b0z2wj5E+3lnQzW7NkU3b6nCdP2yTtU+n5xqp1WZG/Smme4KkKqrNreTayNJ9M0C/O02bgz3hYIQ
-SdZOvZBsygKYl9eVBa1IOJO4nuv8HSbW4GfOlN92Fz8bB6YWZ1/M30U+0QhMr9LJ2KhqTVBv8XNE
-tz1aAFGlXMJsl2mzS6p46FehqOtTRX/wRnegTNZpSsBbNQKHPIr49TQaInDbtr4dZtc8//4etEbZ
-Xk2dk+yFKcBxVbzyqfHqdRqGbE4JWl6NhjWsPNleJRmOZ3x637KweRK1C/1n8PYcf5HFDEpUZ6NN
-12VH22KN03jjDeHzIuTg9xd+O+c3gHyA1pB4Vec3oS7WuM6r24FG9Q+M/uY6G1Pg5Gb8TM+yxx4U
-5IWykxPlzTbQaoVMaKV3zNxsgTQoL8Ci4JSkaMuGngYOoNVHTywWx72q9VXJWZAX7QZWpcagm4G7
-eWDIjkQC770WjmFEIuyk28NHw5uFJKHu58rJmGK5NNFHy61XDXLNVhMiKtvXfdeFx24erCBsqcGh
-h+KqxIiFcd3+Mjo8d6SYJ2ywl+/uhd/oXXE5TWtKDW9l1qf+3NpQxvk2r5hzVIAOMW7GWt1XQ3WM
-su4pYcXqu4L7jZAz1GjYKoMrd9NSsSUC2oTUJZJ1sVgvU1/Ox7pUDVO4c0h78xAn5SskoGPamHec
-T19cHViX6bQ1yDSBP9CFblmMNe3i3EoMhmZHFVsq5k55Jq2t6xVU5s7lewnpdTVV6RKUE6j/mrz6
-d8IeR8ubAECPPR742sKINsSnqCkDpIobWPq8WDvdTqUJpa3+pPT9MA8pG6wKd+w4Xo2ju4c8uJd2
-kp1DDvf4HniDil7AbDYb3QdhHWHiQxKnmbog/2maNG+TJgutMVuPObuPS0TZR4NtQJqV4uRGsn9g
-JQPC1sh2BbUvQWpXfkoslNuVcaM1gHgmSdXDYunfWjMnWICMvK5QBv2REj2f2HOFgwJdNdQ4pE7m
-9F10vLuV/ZZH3QVvaXPntaZw0wMU9JuOfbaJJI59ypI7oyttlL8FThvPkb2RKbUS0EA2gKwfYmGY
-7Hbwg88DOxlMhrjpDQpEBy8MOARXOyCyzgo0wklULhIJbg5Aouk7IIw3vVNEEIrRWlHowUzWxWfW
-LO8iDTdJWFznoQPjrJwgjjmg/GI0Sz93xUHRSOcPBdwgnSfWOpogQy159Ohwl0PzdjZ2PNwkSXwq
-NKD8cDY5/innPWVL68syb+9ogb/JuugbjLYbLsh9SxWXrIw73ZmvUt351BcGyHK8r7v+2l44pFY6
-VFTzUl6QsjMNzZPtFU99rD/EWW1vbK0+G3GOKuwdG44aa8fOHpuuuZ2K/GyFqCuTAd807s0jDc7X
-5li3R5YQNH+O430vl0DMeD298FDDV8T2zcnXlDdJ27KS6PiQZRTF+CHpV6LlAM8BwDbLzE0/5tWv
-VNFtTds806qMU4YWi8Kb7l1mTNzBChtKTr16ajbSl1Po+Hbc4iankAY48qI2UP+p52DlqI+Y8el8
-hs6mx4+uhU9WauHeGmf3RgHrADVGPYDMe47YAjJqUQRxXKNpc+2twpjkuRayX2k7vn9NxtB0Abyv
-JFVIq2iEzDiaTAETVxARcu5F7QOkNfzTuG0B1yVOQG7kAj/TfbMULs5//U4N+oWwDsyxSBM7ACkA
-ZJ9rP986Miq5feM6UWFPtwSIm7Tl12vn/Cv2kIJZalgbyiBuHR3ZPs2QHly+sOtuIjhNhxLL1TJe
-9v1EDnzUDXz5/FWdObfryUWxzDgBcYiH0uPK4tMYqpOn181qDpcbi1SO3wqrheUv1SbGobnm+mAJ
-kVK4GKfeTU/lzZoJEzkOdku19UBV7SKKcHweiKCvEmK7BqhNBNblntCSSYOb/WUaiq1MmWTbzGxc
-gHWJ64sq1XfKxhBb2upbNFdvfKAoI7hq/VKvv7uzm6yafKzwVtvorKH6ZkucUumYDXwkQwxUasSY
-ezH7N9M3faSRA+ZKcy0mKt3Iiwt6O9wRSr8NchMyA9hdwdmn1JVfFEtBkBc+ATChhucwtww/H+Lv
-4bA0QcEncBpKgATBHKaVtzIKrAoqTPVtSwnZroxtZxNib15R7MeNpbSyXdUm4RHpB1AAsSsfPn24
-MUU2rmuB+psqJ/HdZiYSDJgaYpHiUZSWNBToWUNwvun2FTmNQ+pozUNkK0o0Y9BiQ9OPewnOdKum
-5avgkB/YJh9J2NfRtiFetku9qjhJWh53CVDkUB+Mhy7Gjl7WEx6AmJaMLmn8bgSULzvaEpTQbuEN
-8uhyFbpD2nwjmF6vOQyFhzjWtKB0Iu9gFEohTbfUjOkCgDJW5MZmHBZjir91QuxNMSH4OT16HByR
-1G1XUxdDGXejSHnrcUhCSMdhfztrzfyG+b5EO+Ika0c8CFQ17sO4pM+gqL5l2A/uwXxglCrG7xaR
-J3I21IpGcgGellvlDoC9G6C+v5YhYcXtSEdnsxG0VgTJbA/HBcDfunbo0SDlE2aEt2pWpcXcXZUj
-BPNunO9qWZ3rUObnvBtGCIx18giu1mbJEH5S0HajGu5+bElWtdc7+wSS/Gqomy5IlJlc93pa0zfF
-8yys7cSfNQogKXVEE8jS6FTrbFl4R/J9W+f2bWsNOtCFAQvXYJ2neNg3S/zJUz4N2HEREM6MbxP3
-6WueHhnTOHWMcDTgPnJt+MM0zD44hvfaat4Tk80IZcvlfVzLPpjpXg1ANeNbmNjBe5zP7pexRg/s
-zBCxj6QKmPjMt+bGfaW4XuNLhUqhu50BMB6aueEuxRaIbObXTULJTcztq/SgB3cRD1buq9aF5B0d
-oBxwJOCwfLAKp9r2g+fuo9S9w6F260WcLKapVC8ildk+cmaBJ8LmZBrP4bqNqqOZswbLiljd5MZI
-vWclsoB6hfCqqPX0yx4opndkBeTNKdVDM2TdLgXnQ95iiW7MC5ldCy2xggkAoXPUXkZRS46bIV58
-LSueAFzDMFqmYk26Ej+fJWR/D8vCgQoLFNacJBYcaILteoSy+ln34JGI210Q2ku+8VBujyRDvXVV
-Gem3zLOGTSuLZZdqM8UNiJL+VM13+gQQo5a6cxa1voXEHa3t2CEM1HJkprz3NoM6n7tD/ppCNnnK
-W++/gvH/ccX9rGNYwrm4vP/VxcLn357e8/wTTk/+N/9dffxJE/nxs/4QRLC/6YQGwZshhvy0W3CN
-3zAko5lyl3AtuGAoFT/kEPs3iDzEVkkFQ/Ryca79XQ6xfgM456CheH8IKf+OHGL8aovD9UzU24Uo
-x56YE+blz3/iEUhcNBAKOUINL8Pa3iQHLRCr/N3yia2s/71IwmWZYbm4+RB4iCPw1/3iwcM/97/m
-AAr3H1+ZIMuBEIWyZOm6e9GBfnplbIw7eLtUjfaInaSGQlpqMKNuatjAWJXDIUjkYmy7uXKDNmLX
-Lpss+RbhTrhOoC9T6qjwJFMsEpgCd01PFIo1eNivxhk6Rz7P93ymyVbMjNzKpUwyIkrOPXNU56Em
-uex1aenPbkcqNKdQjMobLHUJjZi9y3OSXYaxa1wPVPz8hcmCwr260vmd0kw7uLPCn8aONADCOayj
-XLqbsdPVVrDL32ACTs8gPmNO4wyITh/yZO1McaztQju6mq5vI5k7R0fZ4roBpgGlnBtK2TnuVQED
-9NGm8Opaq12KSkLuG+ZZb/K+Wnk13rZVHdmYLtp4Yg5ps+XTg9DOyhjX00FJr/rouVN/l8mUPLKk
-aLL1NCj7wehceoxDMr3QMvFKLGjnbbckhY+ldwiaymvoWDUcFdEY2DXkzdjC3szuLPa1nXqH1Mys
-oEdd+wQUN30NU9Qv9AnMMfvfC2NCa2VEtUmkt/BbOyxSetNkG9EO9h0hZOtRm5bibjbr8aEaEnbp
-9dIFlAjR8VGYefrCcWSm8q/kXZS94flenC/rep7cflVUCkpUPzfaEY/hMuzoK1d3cBDybpUnUXif
-Gmn9QAyx33u21m9Guy2PbTbp4UpStPg2X8h2uTbKO1RRuhwX2nJtR4Q7Lw+z73hztF0dxvSgJ32f
-8IGH5m2NiXNXotJNwQDHw1kzRHcuhVCX1YkRZe1JKz3O3nrewl0E1M3+QLkHPvv2nUmX2GJeIGPl
-Zp3uM2boYxvL6XuW0sdhUX+5oXC4XreyZj9dY3hXmTR9UxAuJAYZBa2J700MQKsx5HgbVSpQOrXx
-5HWcuhRLN4za7Z3dOTGTUTvP7x160EcaxdpzZE7zQzV15heSGXU2XdWziclTVZ+aMuf7EA7tjudP
-/OYVFeBszVOFde5ERLG2mXkUVGFswu3vcjUwdMPdDnQ9lMZqnvR+q6sRYF41WdQ4x90y4/mXosL2
-sNTfSiOMnh3VhaAvSxXtTQziYo1zrHlrYggB2MMq2KlJjIQ7lFgrI68oOXTqJZck7vXo0UCqwoI1
-8pXzS4cub60vxGnWa+dVZfg/AmbglBVMEnk3eGHroxq0cqcR+L/F96yd49DA44hPX94vda5xel1y
-y9u0i9E7G7V0GrNnUiGRqUT/onEr+U5fcXdfyip7jLAs3U8TiWjf0wSdtEjJ4mYOjcuR3+KFlkSW
-b+Jwdq+rpKIfVl/M8RGeAFadUhg5LF5uZrfZLD19xbud7k2W1sfBmDR/yLJ4KzRp3iWLqg9TnOoH
-Uh7aU8a1ZfB6huqTMywbYW2J9DWqKT46lij5WkWzxsHdpkFvmIf2dojn9oNUu80nQd36OJrqtZEu
-yz3cb7idu4g1pYvDISiTMqcQTJdg5/eW8povkv6j3zCSXSMW0lIRCm96DTWhBVZOLN4KL3Vm+oJP
-LaaPxtVzZy3w7XBGNZujkTDilDSmHJSeGX40GVWAw7e6RY4lcG1x3QAU7rjHNUglGtx6w/bKHV67
-4QqTT+1zL7h0KcV4gdAm74QyKubDjqpFN8W4uMzf2iHE4iGRn/oBMU5YlGowXViM0zmByrJ2MYCk
-GPM4sm7KrKAjSPY48qolXluhxnjHQxQ0VYMZL+dOK/V0OeF5F0GZLXDAMSAS3sQlyuXQvxVlPPt1
-OQybZazsoyP64dRDIOZ8r4uD0wuH0Ty0D4Tuk7vaUsu+hvixBwpOhUCZI94NE7XXZgyYm+YX4FNz
-XNQwepGQVI7dNNOVuUqj2rjNeNiC3TRVMNfQ2DrcR/jmCGSfaMqYHi65vfUIQ+1MDbF10vnwD1Y0
-VFscheEqrh3qsDRCvVHCHj3NGZIivXbXY0lac1lYHTsqkQEPx/Fo5QPJ7i6c7mqnyQ5uwu2mgT+5
-m8pouNJ/rwgI5zg/tFqsvfW9qQdWKEdAVY17VFOfBL9PuzXtZ9ZkO5h9iKtbcVk9InPOT21Nb5UX
-W+xe0QTotyjb9qFmLF+5XeQ2Kyefu1Uia3EeMxpsifwUBiazRPkpcAIQXcPWRcqkHArtbVeYnncs
-BwY3okeLxf4AeX1Xe02MFHipJpAD0+oVZnyC447o9pM5A2UOdWQ1K+c76qtpyG64+dq0x7W4f+M+
-6g9NaVt78ikDk2BaTjQPjBSiWQ0NLRSfrNxK13eDY3fbNucBg8kufaAlKb1JvTz5MGelBfw77TgV
-YXm7DHH5CDPBQTaOkgM3ww+tqIon2eOT90pY9Kz3I1LoU6bWnYvQNmeeG+RQTVkEcdxwDBH5xiwp
-O0QAYvTPLJZMqUfZWiXZgkdd5ZuLLumg6ovNTGk46lOhsXNv0TJxcSANdfNrNTbxGjvsiK+wFB/u
-WLIHL0V3Y9LZRu14ajxrYztdTZRpH8HucbONXSN+pxyv0Hw6P3HpmaKcIxpu+Ph9kHd5xvM5H7Yy
-W9KneVTsk4zBuh3GEJ0XbgpPlkV21m1B7+FrZSWgfKwh2Wmz4vfGbi4PTNZqUwv1Y5T5p5Bcdo8/
-uWkI3zogfVj6GTbHa2J4v4TwykgOCXx1pFrnSHlCUNdRYMffm27e/zQb3PwjPsj89W8i6OdKQi3k
-Hclzi19Pn0Y5Vq0IG3Ze6+z9hZK+rRl0W29Vncd3PAAB1+QVUXAfDfmpT3wk3TWl6n8RAf49VPgz
-pOvX3+KX031Yt+E4R20OCKwcVu1DFnSP+2gngiTAtL31bvFNEzrc62t29etut0s2f5V3vgw4f3rP
-f/8dyOzavOuEg34/p/90Do/HOadJnHeC8KOPJ3xbuOztJf9QVIrfFc28yvoPTzOCqPb8zJtZlAGY
-6eJNmKS3BYZSVT3WgtVVvq6Iz/fhlVXXm8Zc1lh9yDys/uKj+/PgAFvq8tH99Av/kjbuRqqo3Ihf
-WADTCab77tG+Ls4iqLb50Z79YKW9V/v+zLpJ0mfj/xW8zfirN+yXKcmrwrRsL28Y8YqKZi9fD8pN
-fI0jZ1U+5e/tWezSv4hxs0P/nz+ky+/004fktgUXrKjZVJ6MDd9PjmAbFMZ1eteeodj46i8AUeZl
-y/4PVya+W2ZClGTokr/8hSmq5AK2mO+Hdt2vo91m2MyB9NPNdbZDbQsg/K2WA31YO19sSEfof7zo
-/+gaP+saP7yOvL3/orQBczgp/+//ef/vf8gPTUNCirOhXrkG+zei0Rey8B+OSf03svo8X4X1Q/H4
-u6qBN1I45D/47w1Ld+1LEPuHbZIcNshh65K2Z5FgELv/d1QNNpp/urxIIJJUMLnJmy60Olydv3yH
-h558nK3jF0p02rYAY86VjSne7ZpjxjoJy+HsWkeO5NN9ZI2UWDael5yTVJZvrGDdyeeorV2EP8wg
-/tgq7VbDQ71Je8t6G6DI5Nyg7JkcT0ZPJLw2AlB0l6iF5quaTaDQyBbu6q6dz5ce0nJtVI5usowQ
-tCalnb4WY5c/OT12sJ7emSHI3dbeKmtBSxhY5D5TNBmezXkMH6c5zN4ywdYwAPZpMkJUGuchtIoq
-3yjKf18m6TrPpTH0D1pmhU+eSZcvp8NRHVMK9z6WYmk3QHNTgnsIzyfbyj0a4lyD0k6otesmdNM7
-14xLtaJ9csE66unFM+yrmeIKATO9zbVV6tb0AhcYG3XsapfUMx2AkJKYQDnwH5h8uLmbWZHcu5ZT
-fmt5N4PZM8BCeaI5e91SHLGT44nzjNJ2WOu1yZQfBuwj9gqdBtptl0OEZ6oQxqflNPWNTcL4jGYs
-WS9l+mWC1MTUrc2WNVXglcZymFRm3oV6YbxZ5didc5nnZ67Z5EkLywIaRRY5rwsUzFvTKpdPO5oU
-A3IxM/tFy0D1aUPpFNZsT6c5TaYR0UfObgBzpqTOtnoIC2YdYYqI/YhSiZKQ51B8yC6j71DVHZmD
-1DTyu3ou1LMWsc7lg842aaf6fTRGzVWnppFOMqVCX5pkp2C10hALU7jaUzUff59mRZ90WTlBQ5v7
-pkXzeKS/U/IL9U4w0qY0QGyz5HuU6t31bEFv0ugmK/1COeRUKrdW3qVjb8FTniztM3WjITv8wv4i
-SMlnqY1x/jzhMD02+kSrl0e5MokzTW7o/NQ1VkgdzzcjG/fARLPPyZ3lZkpM557ungHbKNU8vi5D
-91aZvDjPVu52CavpNRYWJUxzqC+BVfZiM9PaTrDb6nhzpzBZUVqE6J0uTnYTJvQ0i2bWSJ5d/qO4
-V+qtWzSxTfj+bmmbt7+WiBRVPLYzRKCheCDqx6a97KueJtNZtMdxoCiKhidcVGbetTu9IyYCQhD/
-RNv2y95FbsB+WvPiNVW61CO1Xb1ZaGDb2ouBhbGyrOZKdhS8UKuXHeHwIq0UZqtv9VJmFJFY4eV/
-CrXHJmmTb5VFDQUzhQZbmcFDHgey70/uMMXbiYqd5xxW2x1Zr3yDoRkMcMzA5ENtYABsUpdoaQxz
-qGmLnABhRQe4z0rauJita5qrSk0+ZXUzog7NlB1N1HftPRAHJAxt803z6L1NLwg56Mr0vnrLAljK
-0CfjUWjAfhOtps5Sj+y9loPbGUxXe0YjIsblueWwgS1Q3Fb6MrzhXZ+fW0zqV3WcOmyR+kFUKy5u
-tBBcFm9xvzAvtPhP1s1Yg81KR4vyxDCnVxpnkImvIsWPMA7agyBxfGVJnMI4yJNbAVwrxUs6MpiG
-tFo9W3CCd6QMjXcDr0WwCLveOtFgnpzUwcqG0yfz+7QbX6dLOJuOBGEcatfojhTbc8UQ/jPvZoag
-U1XH2IVjtaQvoa5Bs5ro2zvHbqx953sTBTO/xL5HP7LWdmfHhyGs+h2pbfUia5W9OsMs0rUQERm8
-+UKj8zo30L04/U5NNr2UWWyoR3zs3Jai3l4Ojj5OX1PST++2SuWpDyUArjQHFhi2k3W2e2/aXQbB
-qxFt/3UminTkC2k+uzS1n+a6MD57z+n2SehmV50bGntk6Hirch2XraskiaxFhqcEU+tJzrTlmjOW
-unWGLfHKVcmyFYlU92xx6405ZwzhorEfMP9gzKhqvNcGU95XqDn2C/LjYgSwyxKytmnHlNksdsoj
-R9Otm0KkPfN9rBNwqabwCS3t1DSWbyHWUGJsjltChq7Z7Mj/pcaKFHjKEjJ3D9IdSSAaJSAGgBPi
-rqo874FOvQwrEsxTqrAJApip2W5zxKBnz2rCILT64s4DgP3BnSU8pGTNXnCr9DgwSuuJxGzVBLHs
-1YeFTYXAPBXnWyvs4pc6TcJXtZhzkDlxv857UvRKRc56qY3qDciEQX1zP95ofHJrzR7Gc0ME59mq
-E33LPTXcVbNyAvieNHloGsXp/CmXVqb3LBFN3CmRyB/yAm1yYcB/W/hZwTTz0Fi18B3Jkg6fbtEU
-78YIiwoxPi0pKJ8Le4OYlewz4dLMV0kMS2YZwW8LnSvclsmW2OkMvsStDtjLWBBD6n9IU1fslkaL
-bmQ5V9cLLbOronPTjdmzcqcpkqK5voi/cuID2wGHA9aDythi3vFMcnnS3nfGaB5cY45v4kINm9FD
-ZYyIuq5oeFuOmms338gNhtvWieI1CYXlLq4UwpbVl3cTp5iNVJZ3sMzKOHWXYSpF052xg0ndL/qQ
-ZEOsY8fR9OFAr6W6wwxaYTJk62DBt6P8txr0hodHShRJq+2xWHmVJTmTSOwgRqQZrHhHuY2isruL
-bO6ltBoIImDEB2moktr01ichrtK5wCOwIkSLsmAX+O2pXE+oldRJIvuU2NOjaSi1hgyfbhegEGv0
-PWenFbQdGFYcbfPZiIMYG95Tl1aoTgMWirim/3vGtHpFXQHluPkykIyPtK2z8CpJ/c/pSXQd4Wsq
-23hWe9pW6FZ0mKamwTPVwvibx2nvisjcohX3PshWovt1UU4rc7HZvowUARaadG4qfDK3YeSM66Zd
-sCbmWsMBJOHV57W1bUccXRcm8K3bNpHPsaM+sjeoKClkm2OV4P+BG47bpunVpu/LcO3kHMZMqDqr
-HLfIlqY4w2/artkAiqRHMVgoYxurI/D5as9uwjsVHc1bllYkR7PJxV6yfj9HoU5o1zDLazGMGVcK
-ls8oW6wd9hVnR64l4vZsxPEWxVCn4tSr1qnNUXUwSO5PwvD2bKzitQwLVH+NSsOIEPjijesIH6rN
-FF1e7MAxj60V5V/ye9OG/ROSk8RdXy0uTtV0FCu7rqYsiJbJtolEa/K1K5fqecpI66xzUUalb0wL
-fLxizh9zKbXvQ611lk8MEDiCBv5uP2v4mUf6uZOdgwcKzYoU+CdZTxKudRGOEt9kXT9GCxEqsgKS
-nQ4ukBsOo1yOCV/KLxFH7n6xIueua8Lh2wjI8nnpww7SLmXQA5XsFV/9fNh4VQztF4p++chFZj46
-jlbtRisxSMJ6i71rJS1+QUot7nub4TzHmKMPtxRbVBr+TGf4yolMF3QsDM0da4OUFm/0WJLiSGpI
-xTr5WpaEnsHRa8TURui3owa8W+6ow+mxUy5L+VY66fKoRqiG64JV7hGBQVtWatSb19+Hsv/Mqz+P
-mjDJmQ4Z5/7FcfW7+tvpPfr+nn+WfxpZ//5z/tjCW7/ZfAVgpwCjZb60YG3/MbEKJlaY+R4WM8bF
-34fZH3t4+GAW8DmCd5If6Bn8Tz8GVvc3phd+Duwa8V9/8kd70A91kOKhfypL/qKR2SBdmFRNYNU0
-+djEEH/RJdWC+q2YDQKPiFtPMKqy9qV5Mb1p63IR+8mWDG8HOSU+HM7HOmVxl7qnrHpVYjrIjt7C
-Qd8MWMZlwqPXOyc29EhGAw9HFko8DVibn97y/07gdC+/088KjnUJUjC1mhZi2YWr84uCgyBfSdzn
-a00m8t0grv00hDhq3dTCCpNzojlFc5odiaZ5AZSXme1ZSDy2jPtwX0mIpzYRkqD37OGVduUpmCx5
-2XDn3j52bWjeZp7EAaVn7cnRW/kWokXA/k5NHKhSuulryiLdpDF1rr5EWXVvNPmMLxSutA2FPWN6
-bVJjC+nWwOTIl7fOd3GtXrBaRDA4FvxvV2NBVN/khrsn/Utyt5716aEYJwy8jPUVcYw4Ttn9IGkU
-V93oXrzVLkCQrfX/2Duz7MiRK9tO5U0AWugMza/37nRn3/9gkcEI9J3BAAMwrTeEN7G3EVJKmZFV
-pcp/fWWmFEHSnQ7g2j3n7OMU01sV1CnyRhQRV8aKP9ypUXfHyvSSH55Eulr1fjwfmTZh7/LKgh0q
-WkmXalnjiy5xginyzLSEabUTOSdbMZRdiHLQEHMz6FWNWiV2WFLdi2F6a4TIo4QKZjj6vtLOTSpD
-CSYLusZSary3VBkdhZO3C1khmx+QhLnZN55hvrbUtWC7LvFYUgyKywstOyq2cd7C3KnyjNMQt6wz
-hjkJWqZtrmpnhonaR/G1xIl86AY/vUWJzW6Vy/sDfIv7qmRzQrcrvuHBiMaHElcejJ40eKIG1j6z
-ByZKg+vha2FIU2wvWWXQ9lhhA2v/XoKSxrJdV8IInnU7y0OSzN79mC3NKVwot8BNxmcIN/a1lG19
-cCDJvDh1yak+dkHF+sL4jGghOghSe1dpz5FxjKED4DEz1D25TzkibkDClTThvmtI2+ama+Bnr9KY
-31FhlvjUU3+eP0aXwXHbFPFsrfNA+d3apMfdpA6WPljEVcwEVpWEezpdi8e0JShpJCR7uimfeD1+
-fV/g37nQ6BwcqIpBqDXwiA6+EhghquCuSQz5gsMmZLct9MaTCMGNkchbCnlDuO9Re8xsF71KZ/ro
-90ptKMfttqNrls8iSaOzPZG8WOD1WLJ1b971Zi8vlY/PS41BBxFvck+FGYGDb0j54T7P1Ew5u99F
-gFwaKx1WaWFb5gZhs+v2MP2A+HmDYlZKUtcfbsKZeh/yoh2U7DVepL46DHoOcK3VTjCsaktxcgzG
-eQDPExclrdeiHb6NrqBWOmuTkic6Hry3MK7mO56OwVPKSmkALhtRLzvLaK7XcY4cvapUnH6E2qkv
-U4Jz+SaEC9jt6Ckp0l0YtfoGror5YE6NR463yYwWPbzOvreMPcXGT+yi5Rjbtd2GNG7zTJtvdUfW
-mY/BWEMo9gyVna3Ztr78pjNGDkCCWFInRrArsgULtQqEErcc6IReLei5NbL9/FQ6WcZLRSE+Fv7k
-3cgG97NlUCsE7n46dVlWvHUT56Nimvv96Bkwrii1BtxH+n9j5oZ1CTnTzKsc+vRLrA3z1p263qd+
-Ssb7yYYXthlLTDUSVth9ZhMf3WRTTleYnS4eeoiFI28ykZdyY8eyUts2ysn/elowNRnhdB2TCrgH
-6RVNnI0JCeiiyo4d1KLHVDfuWxmZzSa02XCMMUTupEK0bDq7eGWd197zKCs2KTs0+rB1Cx3LU2+e
-3zmPUG5iKp8W0xFAif5sOGV1OwbpTJJ4APubtjBRSuGR9rZn1b8lxGqrldN0+h23fVyuA4WF8n9+
-oPy5oSJw4GMKYnkC4xTb5T8+Tyq7R4NoSMioDerwBqbKKdr5e3tDQv3fqXPL1/rjs+uP3+sXXYzP
-UApem++l13pLzfI628T5duduNc+aleGvms9+F6xksOHjsQkJvP87ae5PigumNHxjC8wWTi+S5J8U
-lwLYorDY9+4AjbhrM0d0IUiyFu/tsGrMdb4Ltv/mLf5V2fr5PQGkOoAJljaXX5SleuZXGlMgvQWB
-heSCs54eq6Na+fvkyuUff/Vt/vX7/fIa56J388SdOU4Uq80Qb6I7e02wep1sDPwW2xUbkTUoN3cn
-92Clk7+LWv+Zl/84LzO3Lm0u//t5+U9+VfSav3+N32ZlHKsuxZCCoBBcXCpj/jUr+39jgF58lThZ
-maaXdO8/I7wOtiOEH9OyIPH+TPf+Y1hGEmIqwM6Kq5UaYRvm41+Rd9yf3bz/un5/GkmRbxZghw/6
-zPq15ZmUE64gli8bWO/D61Kf8H3kaXQUFik5027SW7t1qiMegOqpDQz33ae2HbK4me3rMsFIr3rB
-eVdTFhGmM37BUXDj9zz5o3D96HqqUhbbkV28SCsZriEyFYc4hp3H4slb103vPIz0u+8SqlSuJBHZ
-Y06i6dHA6vBSC0FdcehnT23b9GdMesPbZLnsxLtuLHcGIJJHqvjqjbBq51U3kNQ10zrjhNPrRytw
-6U8v3Ny58srBegM6QFcuAuq00mxwaHxQHoGTxf3vYdI5WpXjYwJCPNjN1oy+gku/+PSjob+DtdMU
-uHgM7JwEFbnNpK5gmrVwrqyUOVGr5s2MtP1E0mkxG5pQJqQbI/82+NuFwUgeTJWbYf70svfMcKZ6
-3dksNiEoDWFB7XQ+veeJ5ouyCMmvsWPa342qNh9Cx7YvEaP7riDRdRnZR90WwtCQNkgDTKZOzkqO
-YUt835PtpktpT1hVkQoh+JATWTsqwCPqg5G4b8Mg/hxUI/0DkCbzllkH1FCWesErNr5gOLtSjqQf
-6Z/JF6YXrQo/8xgyKEJ/j0XMq1kL906/jrMSFhTZPtfdpa7HgrMm94qolTWvOGzNZ692ky+VTtUh
-Qu449gbUTZmXJYwt2U7fNNYrRActy4YxsnQOGZl10j9LdhP3A44yS/eUN5mTiO6mjv300UhEdDNZ
-c7/s/pf0jiyNrn2upoadf4g146Om2eihdEXwWhBHB+jshq+YXymKDTMrAF6IaGMOVXip4iDnuexY
-13Wc6yslg3YXaneZRwvvumTnyksbszPpBRf3Wq7tbzjaxCkkZkeJ3k9rL84cbL7GT8tvjOpEZeni
-BK4WT3C9uIPNuB4uGgfyHnRSd1viqr4ybWXu68VZvCyb2YPhNjZpxFwNiwN5WLzIde9kAE+cdEft
-gktgym+22WJc7vhcYPsiZt8WACvaxeDsmyWd7HZjvAbS20xmELzXeUJzHA/ldTlSRMBg662SEgNp
-3+CjhsupLnaAaYl0Z0aghGMyqnS6L2dr3KrKR1jibrSyfUgyjlXSMskebIsx0js5Mghvsauln/TH
-kp1evN7Z4vqupIsteXGCp54sd6Mtxwu5jfzsj+mwoyYFL+AQtOisHNcOzeJRIkcZvjlTbFybJmGg
-5Rc/sTkukvJsZ3UWARmM+n3NqRWCScPJd12oyWe4YCtEkVRUF8Yac5/9PjHUlbDZCvsqHnFWJYvH
-ytRm931K0u42iN34u1i8WKll6W2z+LOEFY1vDlSedbW4t3AHGrzNOLrixdvV28S/icFRIFGMiGP4
-gw+6lMk6MAdjH/10h42DaW6R8ykcdHgX4d+Odz4MnXVvahJv40QojGLJaCVLv3i2RZ8fg8Wctohc
-T+AEy4sTNd21XdfGNl/sbDHi7y0pp+yRz/600YvtDWHSPERakKtaTHFgn8OtXoxywU/PXJ62wY1p
-NNTJcyIj3MmB0vwSmZXaO7uorK9JYIhjwTa8kw5PjhmnpItfYgPnNxcYW2WI9mi3RspqlyJTd1UP
-JPxEEMO47FyLsCygMtBDdVtwjGvdXZ3FJRUmmoy35hPik4o/VkYYXE+cfnctBV5LB0tx7idyQNrw
-3ZvBymMIYRNSg5uIN62sEOifzPHkcrGThjKMhrgx3LpCu/iM87RkU2i1xJw5J5csXQges/XHkE7+
-a6mHcpaiKKCi7Zek+PF6CrnZ00kk2H0SsKNfyl2qpkZc91QAJz5wE5MqKjNZWqnafmmo8ivf8E/G
-tDRXCREys0EDMJ6jrGVdKlLrPrbebGSUG8+dnWMvaBxPcm/+kS7NWK3dmI/90paV/SzOmnQRHzTw
-tr0oneKVq85G/1tArXSgoqw644QhdmnjgrfAfysvMZ84juCjzpfmLhXK4cNH0eGQ42NIJBwnYIJ6
-rdqFjqxf+Hb5jUyq8oFMA3goW9M2HAILEH4dfdSjXT6W0uJUNpoS+C19YnY2jeFRcLoB5NPN/mFu
-0MO9QdY36dJHlhQNrNVsaSkD6DqceFQbJe9zRI1ZjDtCrVynDPQqG3L73M5ErYWgPyfG1PyI7EqG
-P4xi+LyxtMofkWy7vTOZub+SS5Va1JZqHyz1arW/EPYnl15eSLb0r9Vzlj74VjasK4+a9ZUquvTS
-lAksxqo05zvTwz6ynjxvOCrLmN9Tcl7Z3jPs2Fqxhgw/ZJzX3Hdq47PLHep6o0heatsct5Pfjisx
-1S1MuChPnupqMBlTojbG3NZzBTeW3cA6gjC6rSaVvOk5HPbDXJfhugS8p9YTxk7U0jEzHtnALU29
-sr1MQT3u8mHQd+M8u/syi6ozosb83LdEZ4Vj6P9Qcrr/jpLz1ybsvvpKqw9EhT8Gw/5hxuJr/TZp
-k+YSeKNZo3osU//QuOn+DbocI/hCxloGbQ5z/0yHAavjExR69KALanL/tZZ2INMJzzKZiYHlsJz+
-S7Ccn4v33x2Ul0E7xDBrg+3xsVEBTv/joXzEBEANVDFsfHwca0fI7k5mXvpY9WI+tuRinwfVUqzl
-/lR3CiQVwKm6xpMwUrv2Qt+RSdGz6D/mMdLfgP90B5ZgwNNBpgsEJvpUbhK3E6e6TONLPFiKmE+L
-sYpRYd6y9iovsd0b91kSj1SI16BaEyiOaaDbhySakwtHEUiNPaQ7Ogd6yslW3Jpwkde2kXw6C4/C
-qIvyVSXzfGFBK6E28+w5R7pdYTNy39KiHy+hx+aNNz/Zp2wJr6eejFDqRT9Up5Ak6Uxu7mvCznsg
-MQGhdmaURbq8ttopP8RhYj+Ug9I7h6f0xyAT40Fl1njsZDptx8xG546mCbo8xvoojKaNBXN0P3sx
-rXMmBduMzvXWXPozGlWUDGyzujKbxrm25sQ6xTqDqg1O71s6a7VnNxnfpuRc2Tl3vXjtO8G6ybDr
-5G6chLvWkU1ye1SkVOYg2Ixaj1ueJOaLlVK6GWOKI4lEkdKuVm3yaEPrWrPiHhlgnRzSqeFjLfNi
-q912SaMvKbv5XZMOaXMXJ+H8XnWlPs9LQIeW72pryTLeGtPEcqo1rfIzm93s0hd2Wa+acZ6+4lS5
-1iYQLRQcWxXbmtX0DV2WHH5MyptuhDtJ+iGke2Yci2kVtFieOsLR53gqLHC4rk8OAQYyvGDKzPnd
-OTF/ecWvZbqlGx1GLWHn0Uz5/PVjTpCb1NKOygz52BIVAx6Q0OoH12RWG2JE3E3dsadOe7brWyg/
-JmF7XloINyDNL9hf5DbIWnwSxAmTJ8A1sO3ZrzKGoyA3NKJEWfhEnoeau8werNsIX9X9ULVMZXgR
-Zp6V0Nw4aw3mSMJaxFCIfSdtN0YSlfN2qkYnxCM0D3LV8rTjpw98TU9ilRwshsG1n4iLU9ssf7zS
-n/wbM3Ht5s0oTdW+NIlJBSDdoreJpU3s3FZR3qioHl4LhaQEin309h3QpuvSyNGyc7PFcJDB6P8m
-nb65Y4RpzkaKTyIrc/CBY+x7t1iteBBjESOu0SLrwwBGlG/1oK/qzND+um4jSsVSpkkFp+ilqiP5
-QLV0RhVXxAxWkfIjtUZZHwCowMa7S409i6wwiTBY9LQLiIbyUz318XU4p/kurPzoZqii+YBzITwr
-ZsB15wHpX4thtF6jOLVwZ5K74bqtvvLYFgwpHnM7Y3J/D2C42ug5oTGwtdL6I6LV8qhbK9pVgztw
-MBvDXR5r8xRSsfVYqHFpSjCn80SW/N1OMoe4iSFraH8+OYmkU+8up/n3JIjCbNNPBjBpu8rXWcYB
-Ehm+mS+Dim2iI5H5npGFufbSybvYpVm9WzoAVRiM+gq+rfGoPS976swMUxUAzpjc3ZS7+8Hwejjg
-HDRfE2v0dsZcYlsHOSEOfpnHjzpI9Jpg33BuKsRi2uVy/37mz5PE6cP8U+tpeq0ir3n0AEtzveeg
-Z2DGsNJ2wV3Eq4AYmrvCimVcz27vbVW3ZOngnBATwrMw3AG+KadNhbq/Ga2oPEEiwOQ/We3NlNv2
-Trq0vfRpHBwc8NUcorL81naU7Nc+tpsr4bZc/ENdbQdRxe9Ba/Rr0J5iK8e0Z3FcmBwHqqx81r6j
-7ojbsa/tyu4l7yWeMwRz621CY79PyGG8z4XsSH30xDoIifhvtm+TdXJDQjySwzkqUlAi3Fh8ojLt
-J1ddP2VP01BjaLHb/uxYRn9mgEoEKd2+/+pz14X5ABIEkQ6Ndu+ZsXmD7wwed9ek8kpyVHgBexw6
-B9r2AIQAOQA2IYJoSwGl2s+17b9Tscfa0a2XNGUy5dmpTK3xwpolvfIdzg6rOps46NB5wW3JltVn
-r3X1iJozXcoizN9pXiCrFWXFhfu1+QVPaPqoGjehSCe1nRuWSvB9kja8qr2GU3Ij6bCoEg6VFNtV
-O0+ZmEvaxh5e2QQUchWFQX32GzO4cXkfnmgZ45RZMlTv+Jbde0mvzzOrHgKUblnXMSA4GM9KFdFz
-YETJSQcRtUy1JlzWtxq7mqquEqX7PY/fCa1tFjf8WO13ju3eh7GAgDqltspr75xotl8TA9NqFNfp
-XVW28FUTz5aSy7NQ24Kc021f5DMqSTRfqbIwbuvEhI8EW7/6aebtNgk1ozdu0lGTnff1jSMVFtia
-p/RQ1w+AzDp4OByOQVs2nJu0ITxWQqlzAAk7gpRw9XO60LoiXDSXxkt4cCdzWzxEuS/+Ll3/Zy/8
-+73w30dNh6Hxf7sY/v5/1kn97f/93//6q/w2sHr0wDuu5cM+9pljf7NQ+AyrDmtIFHvbIWbF//WP
-YTX4m0fIkIY1SuUdSMlL+88/1sLO30L+Ci2FyA7YNwWdPb+YJv4nE4Unfg2xkO5CUSF3QOxqYTP/
-4qKQ2hRJAi2FmpTO5cllGP63sXbFN7sMUW6x3Idw/2tH3JUZ3TTOmLZX/hL45TaRz+syHcNh29VO
-9aplZ9/US0yYQZHEsP0zPYwVOH6qf2aKfSp1wSl1Rrueu0TAB8qhfniYR5EWs5TC0sogoRwuYeXg
-Z245i2Ty4rIC+ZxCg2pTY0h+4OEExpgLfNIrh6n5Ku/mHvHHz6OtWYZOs9KZOyxUK8feUn7Rya1f
-IqBfO/TZ+EQdg5nw3WiDrivxd5MYqpKxARtYIOAXbvZVUVKegvvHlSlKEX5X/UhvbufXVBkAmNrM
-o+1va0D0DFXg1nksFjV8r1wrDbAA9kznCuUenBqz8SoG4XjpjLTaoSR2wIgHfkql9D0VwX1yQdOj
-hAZyTvuBrzm80Y6pr1wMxremYYpH4WrnXaZOmOHnNOBX0a9m3/k5FpDJMktiurZ9tAHL0ceSuBen
-s9e9jYNeO3n5o2Xsu23bsH8pFX79fYc/fe+GSbWH9AL43SjSZj+whdt2NkqtDBwIhpUigoj/gGis
-N+zsgQVVNCnaSjDjYBxXunnGozwX67rKg+vK6iDYyJ5uHbNgiwherQz2sQxQyuYW4r1X+fk31Trp
-iQ9a9gNDrTpDzim2Yd6X3wsumU9O5eW+savowcDWzpLCbsP3qCvi/cgn9uwunMUuLNsTVQPyQSSM
-+7bZZQdTaSj1hjNspIu7RbKYP42ZSzXHrOyNZ/Pn8qIz+E4e4EY+sukR1abYzX3Hjy9k7fwwRFB/
-1oszr/TciHYCz2qvGeKCJyj66WNSxu0x6WvzSA2IOBfAOtdmU3enjBDN95CIPtELX92WXMAblu3G
-NpiK+bEHAAzTU8VvVtJXF9ONHM4w2I+DBr4HzpiOI5MR+UyxdXuTkVpI1qJ2wkPc5nrfEyb9pMCV
-5UxUCX1rRV33PY8EWGudYoTsHeOerVu6TlluYTC34NwxJNvXJeenq7qIuVwjlkw3nZTeCdJCd9/x
-QSQ8o1vCNfNI3zd9MlniaOtJ0aSOSM559gMDVXxD8UNwbDBnMsuNxkkUfbodmP2q1QiJ5dugh+CZ
-oHEc7aN0Ns4NcE1Y/y3YHjn05ZFi6pkpys0JPjMXbxyHwDs7Jp2/xGa/1FVpNvAsbDNxsOeI24CD
-bx/WserpGpepfsECpHY0P3kF5y4IAXQ0FhogoIOhukhr+BpeHZgxhlsZh1tLi/zHaJnd5yyc6E0u
-CdxeMeGs+MILUGiu++vCyKxbUXhA2blcmq80tKbXqKDCBHeIxRjbgMNmmpYZmQlX9Nh5VeZSOY7I
-lYPnjFjKzp7HZVlrwbsRWSn2Mo6fdKLlH2HKODMFffgEsCG9HlmTHRN/HoLdWHX6hLKXfcbKni54
-AhLSzrlKaWS1g/yujQP7wlmz25WWaZ/8CniTGmrzgredySNM82/uMFhr9svTaxAb4jghMblwAWb3
-TMGQ/1DR8Hvv1tN8cYqeYaLzJMXHUdA/GCm7eDNpRj7YpvyWihJ+km4bAushkRwSNuYIobeMD60K
-1FU4j9Yb9iT50UFW+kpcUXM0wBw1TdpYY8nyriIuoB3xqP7CFsE/dKPhXYY+nX4Y1E7dz0nW4ZrJ
-quRcg7CEB+tM2QMvJFlbpmjOOid7EQKqvgmJd+BgMfVXT7C43gRSxy/zYmyru7DfjYaanjo/nOm+
-kVXzRN/wcJIllYhTGJhXuOKGDd057bNShtz0Qad2Dm/euBAyEgq8njB3yIOg+23bu9wGUsH03oYv
-sVUk+9ntqjPl0OLdlJCKReVjmLZL8b1u0+ocOD2mq1GTnozt5MFpdPpA5dlwEjYylR3o8WbxgImV
-alz7u8dvgT6fILsBKCvQMaRH6UwNFvwUse4kK2bH11Zv1Fdd2BE66kyg/7Q1tcV3RAb2kNqIzM+5
-4m2bpsbeoifC/ytafesVidhXXW9vnbKMnymUcs4qSJKjNTv8wjzkHmvnW51H2X2EXObX7u2sKPiS
-WkM6WSE75BiYRrwRJJ1Y6lf8eLYzL5Khl+BqDMYtFnNOIzWK7p09wqoBVtyq5q5PHFw/1cgNAqQ6
-dIUxlc6mbQlQlGOY/ZBh6p9hJDhnUHPVPdJedXaG2j859QRTODQIxGgnBrIxtXcRmBaBYyqnx6iw
-Kpdmd5JU/G6S4DFHdjvmc9UeQ9gaJytqxTbnIfXEExrINFea9erkvbkuGunBXeira2XXyDJ4cg7A
-P7s94rC8qrl8CRwtahYgaO6yTePxnJ2yW+6NKRkvoWzw0XS5enWBcal2IAXAnO2Chvd0cPp9UkE5
-XPWGSK8HvEFHh5XENgvH9Moj+bTTLBkSjhNDswvmwHrKefAchbbQkxPqIzZDHfBQTv2cQR2z2zEy
-iMUZOKf12oy1e0X1uvOjpN/chpCsnHLtqjDfWirWdGiJIqzvQeZMJqpADN2QFAGZy+AJJo4drIdY
-p+/WYCbPtYDESH7DazYugv3Kz/X8FZNK2/Sw4O4qa7L2pYULK8idjJ4dKKRtmJnEKsduawSstDIG
-uhs78/WtpDmNAHZTZx7TkpK7iVKEbd6hv3NzFvdIrtMuBaK4MwJk7xh5OGr3hBib27xJ4qsgnNsj
-yS19stXS5zCqQxUVc77iQo7OlNZ4p87BFhcpHr08y6ieT3AHNQTcxlWHGvzd42MqcM8byUPemfrZ
-rbrmxxz1aBhWNADV94r+MwnD6EkWJbI+/+tmrhCX+jLKj2EeBYgqNDXoiU69mAKx11YkNDdmFVJm
-WE0GqygvSrlN1N/p5Sm3ea7GI4n58hDjTmDHmjU7I6NEInBE+NUbRFTrPpFrG0gPmJkM6hIVfgEL
-zlC/SQyOOyuLcJxx8d54jaO+Ei8HglIVYHdZgfQnI8TeRozD656dTIsnh20k7Cs7m/e1ytQ+YlfN
-JaD1kZgUJoFCy3TnaWXTa1SZ1pUMcv/OLcfPseadG6yqviRl1u3rVgHhatgUWqGdXkk8pYTcaDmw
-4PxftYPrbP1Omx/cze23HBPELQBrbnyppgqi4ca69ju6hhNjyVBCOb5m6wHkZYj6jwRvr0FnXJeV
-V0Uzmw5sLrM9UhErX9zJne+Y/o0Tuji2gSDDFVvZXJOrIEjVNZbw+hlJrl+3CUVipUW2dUjpBnHg
-+X7zpUWrRiOmr6hI6kORmZQXzg7n8FXfK+Mw2fogUjtdN0NcXMqZesi1r1Hw49QvbiT3lGBdOIlt
-rRhozG41BJW8EkHOWUTGJeQHA7r0KjCj+ns2LLSejETtcwDD5zDTH3JRRme9yHYYt/2C+knIdGxH
-4PC32U8SkFkH3R0PgpLooVpYQcwE+qn6SRBSGHtueOLMZ7/l7ryiuLk8zY3t3uKGgUCk0a78td/a
-4l0MU3rqeu28kcxNv8KfAKMo6pdyxSZ7aH8Sjn53zPwvzOO/UOcWDge2anrjiYC7CBgCAeP3uIFi
-qtXoKyCU47fFiNbt073xhG1zXeL2+3cEisWl/zsR48/f7Renug2iJJ90WGyNg/dEU9mOJEuySrq1
-3nm7fDfcAZ5d/9VXSMrAwaPEywxMXukvr1B02oecFix8Axi7a4BxD97mW32stsbtv6U3cLr+4wvk
-m9HYghUqtEzPCn5Juxd9b1R2Cb1hYSjYW6pdnlpMdta9cxr33mdx+ifK7z9LlN+vPwhm8Fb/9wuU
-9Ufx9dH9+W/8tixxl74LEeCXIz+Cos825reFicBHh3eXxIlHbIHgxz8XJpjvOLxxfdpETjx4Cfw2
-/7EwQRKEamCGfoC7LoBS8pfUPf7WHz43AnXPg8hIsUaAYY9PDy0ev78MU2K/tlsa5qbI0aIVEXyc
-Tf3X2IXvi/X/pku8YjuNvr8revqecraBEFUpNHW0NE+zGKtdFBbV2qOT/GQj0a98O+U/++yJfqjh
-CbZfdQkU7QaFMrDMWT76tPnBk8S55gsSDYRNsG7n7JBjlvdYCq9sgxND21jNgbEv2+RJ2l+j2T6j
-QmXUH+IadRIso8C34UZ3xV3K8UPQsUazZfFtatp+jYBQPuat1x5Lo8F+7vWsOQr+JYqfu648A+nt
-jq0OD20zvbWE5zbUHCAYNvWDUwdH02yZaEPwvZ5of8yeIgoYlE+5VFvbWQwRQQlzaszf3RllaIzD
-p1GrD6HBimnc/ivppMXKAnAWB/Wh6VnnOM5Sarxgy03ggEWBPcYcUUiVj/E3jKofnipv5JQ+0xFI
-cCxudhFyJVNWBBgpVoQDxGnS+qGPh4+y8Nh7GFeONIBP00sFvIubkNrSrLpNF3g3gFigVw21EpKe
-5rUDz2mV6HQ/JA74nTb7Ghya8EiWHkbVnV2ieOu203tQWpq6DUAr5Ba8dReATo5764Zv7C8GQPIH
-gm/BZspc2eHQboJQH8Z63GeLGBBa2M1G/dhSMBK5xUvWNHIT1wQSUN/IV+QKnGjZH/NUTicsS4/R
-mH/ULdIX+7WngSwH3PSBLfwQvyJBIKJRC4SfEFtUdPbS/EGG1hen1f5gBN5tY7nfR5QlOXRPgx09
-sHoE+xeGGyXdl7xhCo5z8zIWCUrbRO5zHgr32jApAmE101xMPPaHTmL11g6AazjGfp1fDxlu917x
-apMQ/coqNDUGzAuc+tIXM16GkWz4AJJHkj62yrtuSB5Ny8CKpKNgU9TeC9IhJRtDtZUTZWRi6M2P
-Huw5o6MXr2Fh+W9Virms6V17FQdRdWX4vb2JejpbYMeF6x4RjDVg6G1SoKTnzqOG1nECSOOmmDa2
-307HLGzcg5AofI5OnBPLKerSysqD5bj8Flp2Fqmb2AhkJVCBiOWQIX0SHBhA9mFPiBuTTQwmu6Bb
-LZyjWybNd5jIH4mbPsRkKTGrOUADCeyv4SpEq8rJJM4nezxXM+8MssP9FLceGw44/6JXn24V/eCg
-891uIbpT1P3SY3gh9SqCzeDYHqHTPEV8Kf31NGHyIykPwi+HPZdTwYOKXOPXWmREaeVXeYB641Xh
-fepV+XmwOCMMgvOaMc1flUc2tDenFisrErUr2uK5mSuxrXPvkRh2v6nsruXiUlSvx6mxcbSoN2lt
-St75wqNIlx+Y5E3NDkLNeGUtY2Nqo94os1gKsGOcNYt41GvcBFGina1j0RSc20A42v5J1GlCpTvP
-8sHUBxd+CJEPSqmzHojKXF5EnJ/KXtsrOA28YVb86U/yKtYzXHFjU5Js8aT7mLhLI3I1PQ8mTl1Q
-Ci9twhkoG6hZaP30NMA87NLwPhqQprWCU+HmCGQ8YsYt+yeJ7hO1u8ZvP1xPhVTzuuil3fjR++IY
-m4XaOCWnuU5Z04mG9nvLkPm6tTINJ7ugtsZJ1CVh17nKh7DepenorBMaw0M93vVAUJ/SrojWY+HD
-1TIFltqmGbZjqH2YEHpGD0qSdTVxPoV7SemBxU1NNR35d5VflpLMneEjIC0ff654iBHbwq+srTSJ
-LhqW8RUql/SW3b1EDmFuWTg/Ch/2oz28OPH4Df79S5KmYiWVd+u0gdzYoaH4Y920oQNvplCnj7nh
-cxiZ2vhkAGEZS/kW0tgwCvuB2g8qUD3nRg2QRFLO5qkanntRHWmueJLtWK5NqcSq1N6PWEHAhOuz
-p/Z8k8wWPMuMFM2ICQzdHF9IIqvp1jRHYx9mylpT2vKQgSJd8Qaka0rPHszcw2xYUIraZhShQAV8
-qkZr16flLmljh7yITcmORe7QI7cWFNStxF3Ows2OqlXIiRnxlNpcqxW3fgV1RTbmnlvvD+TcvevL
-M50Kn5NX3pmldc4RZWlSKyFLtt/7PP/ReHgMyhqXtPDnFzs0Rwoaa2tlSIt8HzDP/8/emSy3ja1b
-+lVO1KRGyEDfRFQNigR7UqYkymomCFkN+h7YaN6mhjWopzgvVt/WycwrO/OmT85qcE8zyHDatEgQ
-2P/61/rW0BbDlrT5LUZOa82TqsIHj5vCI8i/I42hUfKi33bqYG2HhG9Kr8VPqobOAFJxHWb8LFjr
-+bsiPQb4L1Y4m++1hn1x1zD4BJasibeTzs8rcVTy6d4A4YKCO5tSyYlWZuUqG9E4yZq38MJd9zpS
-YOk6UXSZefLed7ZUIKS0O6XxKplTnuNQIAn2TeeGIZflNmD4ORbKCj/DTZwqKroYjhlqp9fY/bKt
-nqXbzMI7UBJMw5FJMdGQms2arhkT+keZ+KgSii/M+M2yjaMo7I1Q6b2Y0iiFB6Vyt0zYp+BbtNc4
-MwhQJVbNly9ni6K19GdYwlhT9vpg2TRdmE31MNYtZYQJI7QSDafJVIZTXlIVVU3zt7oN0Kysda3W
-5AjtI4/YHipM/9Xtir0y8PiJPe/WVvDTWhHfFit9caiU4L2dH/FJecvMoi+TCibqRSZOC1TXgt1M
-KXW0SB4uuwH6cmmE79xSzS2/6b5w0OBKTRk2mBMvniKQpZPxDX8JAISxeo4YbJeUhr1CaKABfpYP
-8xi2pVK+2TUWojRE4sAzE29G9s3AV8505741RTNu8H/f1vgVJaOeIgqKIjXimH7MAmWrB909uYti
-oVka3JgUE7E60uBRenrJToA8mQqeFQYTBVSDxbBb4WRxcLwOHQ073ZBX3zBMbjWbS5QAI86RqT5p
-Qn6v0KwXrZIUK9cJ7kPRYHBQQw/MBxcIWszroGr91ukGhEzQWUZYxbiiuRFpRUKOMYieMotOT7Xv
-xGJuwvfWRiCE9P0+9qG27LUZWKDlbSPMCgth8EDWe1YrakZPh5dPhzGsWBsV+rQAXrGaJr5/Tvu1
-GiaWGFSGiukhcvM1TdnKMWg5JoO9pEOlrM5sN5i863lexAaEmqC3qoU2RFdmGd1i9thDU6hB+xo3
-GYyVbWVZyt4b8wciK7WPabNeBJN4wRBOyM7k6Tl2iazViMZVQ40PLUZ8Z1Glz6i3R0ScaG2gf+2D
-XsdKqnGvoisDiI9OY085B+gjTf2g5wr9rTHQVKxoVwVGYKMB6UCOb0mZSg1GN+wW7tRt7InnldI+
-xtyy3SrbBzYHpIDPqarw3ufYmw3syHWTH/MJG5ya3ZXR9O7NRnVCPH/N5H0YIMpNEOgVp392hqmW
-3o1F1K/UQNEWHE5w/4w0EuG6xeZXA/rLuI37g1FzUVGMucSQ967Reb0k4fnCsvJkEsxfVCn7SbOv
-9yQspL6KrTchFuJYwXtrOcW6x3O4CvgOU3dWjafZG9dG7W3NvH1wygYPLgc2fM1f+1LZ5tS80aJ0
-64yVPyXzTWi2D9HoHbVqumkjSK9W1W8H5DnexeC5iYFWRHj387R48lw6hLJKEWth6uIJqJOzsoSp
-+pMz0LaheHc8uS9Bk60LLTomZXxOlPGEdrdMJvdlLgSYm9T2C625FbngZjE/EmI6xGOBaEfd77IY
-CX56gQ7qhhy1WTULnWuYVd/4zjiULBqlsn0hIKNMkJUDM4V9MY3JSpssFVcfb+KUcTLEIA4KrMqI
-gRgQraxAIIrZo0dulLJBaSfUM9wWFZCSdWmW5c7qYnNnAom+osfvzqrsNyVM38vOkJXj8CbxuuRL
-XbOVA+rMO9UT7ExMN/Y/puS/JR6c4pembMv37n/I3/ZSVvCjwqj7MAD8xz99qd6K2655e+tOz9WP
-/+Z3vxGrwK+v7z93z9/9A8yduJuu+zfCX28Is/96kfCtlP/mv/uL/3j7+FMuU/X2P//b8yt7bI7h
-/4lb2PhbnZqLcnp++ef//iwj/Ore+NSqqcGosFXNNFVT9k5LXeI3KQGVwSJRZdpIaZ4NkuJ3KcHB
-XWy6hmdrSG2Uj3wyCsvfJN29CA1slVAUrL/jvfizRB5/hA0MUpo/+K+Mnn4CiCZGTkf7nPR+xJHu
-oVE678gCQf2Kt2FiMDPZaGcdxyxLzAlb3boMrrq8Y02FL3i8tqOBFmkHs1KKMaKlM8UxqKAohOKP
-WOCuYeJdOi1rxNJSUos5zUEH7/uCXIaNI2IzIqN0PBTd/IVMbXvsMoO1ZV4KNmXhqKrLuggGz7d0
-Vq1HHn3Zo4z51xsYf4a2qbSGBt6JW919PdvWg6gtyoNZ3xmgaT1s/VQPUX2b2hZ373KI9pRbBJQo
-52MYrzti7zzNFZWG+pi4W+4H5TRdaVNQrnphK9/CGeP/sqQ0xgT7lkFV4B3clHbvctDLqRZjW83N
-HT4YCm4UVBiEIzWbYdBxs2gKwwM9Mb15dd3CyeOoZeWjy8AmRL0qya7dcOcVX+bKo3siLoEqdNQw
-+IY12igPacBxuEqs6lm1BS9VaQW2L83mSY0AGxyoTEAFJQmBLyYbxdE1J9VP4hbTSmnVz60lnJVX
-AdAaKCe4VPponqC1B2dU7fpolimDCdERbkEKIV/YRGOyLroOe9xQiR3HrW5L+w1p6rBX9nma6hzp
-eMzhvLbFvnCm2WO2wFa7qEAiZot8VvrLxG5mWACfHB66WNGvhEf30ybtKn2NZsbcFDHBJdtew9Lp
-u25lvTumAMol5j56McJB4+ghxn6DS33K1nbmgiTRugG7YTCP1ZLLzzu6CTjvhYekeh+w6lvCfwiv
-+rksNxgs9F0RK8XTaI/DCoIBjZNRQJUkhYiXcnSw/ZIYara2goVuWfd1DUNfDr+TNoJHyKyEEgDd
-mgR+YSVovkZlND4ZkE4crA1T/oxHMT2qhTk8Sh7XbazO6T6oHOrCis6SppgO5Sbmwv4i6jZ97djU
-sFQPuwerSt07rOzuNQc8OGV1yZKdCou6Xai5aNRFF1jBmdMVnmyaABTPn+g//TLqc4GyoJZ3Qs1q
-tqBFTV5uLro1slK+ywi0HXQdRh5zg629FiO/ohSOc52FqnGOTT59RpZefSynJtxPKibBoTByEvrG
-LK5JBdTYMYD+L2rSwR0lA0V2r2AW2edjUELKTPsw5ePNkhMxLv2kCJO2sF5Ltl1kiesCOBYzBbsz
-LCJVn0wLkTdOwDo3b97VMp6BWdY1XRcBSBLuFwFgm2LacHpNjzRf2+ueZikiCHl7FaV1T/HYHM4M
-4Rafaa6QuXW9PrjO29EiqeNMxbvTi+yuUCP7xplT94TF1mGx4onIWVZqNxEpiyaa/JKm63A5M8wK
-ej7vKY8hwUT/G2mwJmoQqlSdtT49tOGhM/Xk4EwDe2bNnooXLxThVz5pj4pEJcvuUo1E7jb0OmLA
-aV1O27qFiYgxJdnrBcIUqLIkuSKwyZonNLjFMtelHpHkpnjNzIA/xs1otEQRU6JN0Oj2MdXhAnIu
-Fe3asga+wKwi4YOEeV6CGaEj0DMjtk1a3ecXKk1I1A2MYweVwODXOeX5sbFwhrNmznoKOqdwl6Wk
-Hhfow8km5Da+ots2+0oQethnHEwRYccYtVECG4m05dGqbxvV7zxlfnXZqC2MpqAOLyvD+jSSTKP2
-j9e4zXXAz77gzm9gTnPMHSV1DMltFtGjMw4l41IeWvVtVhcp3u4JjpeDXOYtktQDu4VFNr53qVK/
-d23POMRTSA2GBuPlQnxBuXRxlCa+V1qU12G5HdtFVZtE7kitQwqp4xotK8oNkqfYy+f1pKNJwH8R
-3SrU1PkqAe20cSJShisSWf17l7JYlDohZ6qGZQ6gsCZPz84gyiNyXX1ujbxW1zR0YL1xFdwcAvoH
-Vixqer8ajMp8otIPXeDfSxYo6nh54oryTJCevimN1ErcpoeAc2q/BKmYntGLERKBry3qBJylgbzG
-qXlGZNab6OyVVed3ZVHsc+neHkK16H3MGNl11VPG6NMVi9U7ayS+Po2HK+dfVvA0xBYefljEReCo
-5xhXDcbxoa8uwHe6W+Elymtr1QlTgHSbdywIKXWUHnTqCXGjj0N4cYLG2iJqYVbXBCWqnXSwJ0Iw
-Zyojvvb+w+LefNjd+coOR300grdBbbIjw4zxHtoeDX8skgk7Rp321EsXPbeh+ZR+WOttrD3LTvrt
-YadwezVzw37iuNs9cXtVMEZieJ44xzPaNbB9Aztxjqy986uIC/wC15iCE2nvzKXrfyjcYO3JJICw
-pugpnonbUXih2/Av1d7a8BUjSdBQU4OXRzuYMmfQ2FwTy1amD4LEcI+0YhUknDEI4DdR2GMU6a03
-2sZjq8Exxn8iUw2IByQcKD8K3oM46CUtkCB0Q9bkttUJRzgyJgGC11uXmT1yN5ExihQ+0Qp3Q3Sj
-ir7durnJVr4idD8xoCXlqVcGj/BSEXNYV2lBPMeziUeilmNmPJgRMq/LZKR0fY2nsap+3Yz+rXP4
-X56wvzuZb97Ktnru4ufsH/Lg/I/Va/yHw/v/h0dy6JYWG9//fIvn//P/kKfv3nJO+P+AJ3cTt8+N
-3Ox9PpH/+qf8ttmzfuGQBgEDYrmpsab7tNmzf9GhTOOD1pmT8Enz2r/n9izbVSHM8XtUos0Gv/T7
-Zg8F0ZZ/mscpBinn75zGUbH+ZLHHZSv/R9qFv8z3p3G2BPRKJY7qR5X1CAXKuTJp68IlwlqLyst6
-h+XrzB0+W06eHa2JmkT01wRfzAZUWFtrLOIz50nzQB0BksnWLYHZpZv2ziaHWrZraS6knwzQWlJ5
-FsJ4cd/L5WHV5zrxcyteFbWAL4vB/56CzXxplwSdKzllhlH6ThbtbZbjp5xDA+pPEUAqDz6q+9IK
-TrBZb93WcmQ15PDaM8XSQYWUBQHYhHJbuSGsVTnqOoy/G5Pj8sK2QxW0K7fvSQ7HVqbCvJIDsyJH
-50gO0ZRrErdhKucQg0rCpG3IkdvsgVhZE4fU2DxRhsNJTg7oyceoPgSHgtl9YIaHhf1AoRqePSZ8
-07UeYzn1h+FRQQWYnOB21p27aWBY4DiKUGAH9mqQ4gFAeFyKUlCA3g3rIAMPgNYgqujbKMWHLGg5
-DEk5olVv6FOhu7kKH5S+9u14OHaz2OlauMthg2+E1T1ZSB0mkoeK9EFIbzzpRmtvg86oKYsjViIU
-5z2WmolX4fQhAL+1kFNKqavUifOtGaabPu6J+2iE/zNreLcsi1IcqcuMA0F+TWo1irSUZkBWIPdM
-xNtANgOKdbpV28V3UGhj2cmMk7BMbnKpBRmt9xJIdQg79nuLXETTH6OZBk+hJz+NnlRLYSlUkJgU
-tKbWRh5De8qH+tFBiwLstVGkOGWXZr2c0FFMKVzBPdvaKFmulLTsKHxGoKkXpcoyhpsuBfdSAqNM
-NFiQoY+2M8yPPZDyaG1KzQztrK1NIIpNmqJpFRDARV1u8sJkeyNlN2o2X6y0gwqnsjuKlPIBeIuy
-T6Vcl6PbcQvm19zyilXD1UjesNddwllS7CNeB/VLVsUjnJ4zKQkGtLMuhG4pRy0s101lXGtuvTcT
-a2+X8e0Uj+j4CI2WRVqyMQx/rvWzJkVIfVbazSCFyVhKlHXrbhPTCHydiZEtsvJOE0Htc/x+d12g
-8BbN9qSOJMabLCR5H+YNKYkyyqkQptOVnddbZKmFN9bDBqjXayaFVENKqjD+hoVaRgzoyK1Tn/PM
-kxKsXrenRmfDwp1ORruMbcUKnovFoRAwAHSKjjsb6KskPEACE1VjN9pD5LDiL05aeIy3+MhqK80J
-VhZAUaRizPfyrYKawx6ZbCYNCaz5EJd5d25bqTaTnH3jdEoNYHnUpB7dKqRtdXNWWV+4951UrRvT
-wn+Hjl3H5hOlqnyNlfx5llq3UfdvUYswT5LiEvYmerhX8yMikQtaJrYVormFnrq0pY4eGKx3Q0el
-Kkqq7IbU26tYmt/4MkHLnR+ZvEjAIs8jW9GWhoiWINzPjGlLDykfP+vXQmr7NSJ/PFdEH8AzIv53
-uf6NaCRgFUOJ8LeRD150k+3s+Jqw3MPFsFFU/r5uFXWHnLF9C4x8N9YAvcu8E2vLjomgOimXUtw/
-EkIp4MZ09BOO+oMzdcpandtuL71EfKLD85TP46J0gYdM5nird3W66SfOM6xUpgWUD+ETm0u2uCKT
-y6hX1a1H49HjQJNN0NILOLsq+/KhXulQwtZkDvJNzMJwmeSEJ0qYJrdtG3K/MmCBqzbNjgFHGEGz
-8MqqnTunFu8sjRjW6GoIW3FJzYqaltH4pnUt8qWZPUesmhVh3DpoDcBEgpepc56sMXt3kF5FFp8w
-zSrQhWQN3Zh/yNA9rb40Yc5qWRwr4tCbFHv3USnq5rqqO1TdWBV0WczxuZ5j+4sF9XhhdnXDNT31
-IBNq5SvvX39FkVjoV6EbIy4zQhHafIWAgiRVptWyCp1vHhMGNGBD7DRadhZjbqN+6HxtVI/guJek
-NFObRGpEonw1KtW7yhusnqxWv7plFe80fBSLITQmuJnB7eTSKQc7C3de2sY0203ATWttOALhlCtP
-eORd27hbmPb1Jg3QjQdX8GChQHwVVOXWzJp1QMqd5I2VrOPcbXaeTsxYhbftsxiZNmgc+PNLykej
-Xr2v2H2RHWcHyXy04ph8qDrrDDjgS9Vk/twMAA81cxcMOoFwVPJYHS4B9d3kuSeAo2xTXR3PBJxI
-vI/F01AbJb5xcPzj9KCY4YGowrarJGgqrQ+FG62wL4dYEsuT4lET5fWF5nsDTxiVed8P4TziBi0f
-hTW+cgN7wrv4LRm0m7ExCRk0JB1G+j8XqWypLJLsmo5vDQ9p0fhJVt+Tu86Wg4ZbxE4fI49FXNil
-2z4W2oq7yFombvghMJWyvHF7sjKqeaCf6FIGOj8uPvgULotWbaa4P+AK6Jf0tjPBE4RCwbhqhXvn
-6uQuDJx3OnNMMd8GCtXn6rCyyD4B/98MXn0jqJHgrsVrAdvcpxyCzGo+8NwDkGPSrOrSoB41G9fz
-zqAWTr0KOqVz1yyY9kRSNnaBQ3jgkdBRFoKLhrYJtan3E8bapSGKu0k6iPXk2JYETKkYuC7KzvHt
-vmaaL7InOZZQUu/u+IlZz7vSk6jytqsyq+YOlHm0x5QYGSIKmzhmgBczo4DFddQj4AXfKE3HF0MC
-7QkHgh4S1Oxn89ULWB0aLnNmjB36i5kR97aVqju3ZVHuB3L+/xWn/KOu75k60Dqii//+GEE31z//
-r3huPk8Rv/8xv80R8DpMB0QO8wChjw9m3m+yvv2LxmOK5CSpShmbZMT4dY7QVHyATA+o9ipUKwKP
-v88R9i9gQZChHE5tknft/a1IpfajQZCeafgGxCod24XKaf7gnK2NCPE4LPJVZATjOowqjchvXe5B
-DHf+mA3JUrNCe+ORhjxU0CS2it30nB5ju15aWQOqN7N17eQBkF19em//xELMW//J8iqJ2RoxLQt4
-CrsQ3ZYFVJ/3DYYQZjv0QCXg2dWs9dxkP/cmtu6QvEyZecr2r1/vD+8Er8fsRvJVs1UauOXf59N+
-Y857C2EbbrI1KNcOzMCJcqOfvIT1PVL7Xz+UZ7Hn4T985B6m0M8vUs0paGKnMP0UX8SOGLW9c4NK
-fQ61gsaDtB+oKF47LT0ZW2qnu7eqoThmWfKA2SpwC+9M+k/vtAR4hAALQuefaumPbttmFzdJ2+sG
-w6a2AELdcgNR5reJjo7at0bVuUQJbN4VLnWmOG+awouqKhFnuZByiURvB81vzRq0eNphFVtQ51Rf
-oqkCzBUNKq5N/s7pdVEQUfVNQhkviWonZ7gfykOYkzpcOgXbX/ScILpAOk90P+tibIojgR5lMY5j
-7XujNo7QvSvzuuMkC1MLvTvlkBdM2SKLPAKpgAU6DefCRIGQiPFILr0PGO0cBuKJHB6I2lxVukct
-H/v3tjSnFZjCaD19cG0d3cnPBmU7B68kKUu5EAhcrDTGpXDA4lZOUe8TicrFaEQ3rj3VN3ULSNdj
-bXGeQuC6gW7URz3GlQZ/0XzsJIR3lDjedMjyHS42NroFvMobrY+VK2ewXFYnisbowRp7XploxLnP
-N8qTZ06jf1W4bZPTLKFZ+Rgss2cCsGyPIokOTkRrxKuhLb3Hys05clMw1p50QTnixCIgwYximbdq
-b/ZbLkrzppOkYquqp73VjeK5lRxji73gF9h70w75n5WyLonH1BODj2NiHPAWDMWpJxgA2upfoOSq
-5h13PwDK0Ev0V0dSlcukb5gl8iGGhyCxy54EMNPDIB9BXZnXi66DK7PM4EMwy83uRh3crGYBVoFy
-Bqql3gaS78xIOYzL0Q1ryMmKlzdnVSviVzqijIideESaJp9DUAgR5rq+cHHlYavIFqmDPyEviv7O
-yRJrbXq0gnR6r+EVGENxYw9xvcfNC+YmgIgv9DFYaWZXvbQaPy6AteplsEhjRVUd3eiq6LAXOGN3
-ShqdPm6ncqAfsxtc5bXZb/hOuS9Yi091m7g3ttuOoOM7mlmYOib2b0ib/dkZx5IYGOTKe6Mqquea
-+7oE3rjEcyJN2dmjQfDREu1b7Tis1LqGoAyRtBr/ZJdmm87pA6pntHjB0G9tJndMNgXs0XOnxfYp
-CUdroxg00pUUEKwad7R2ccUFm/Rgb5CIcXyyUMB3M41EfyczvBNK2xBRm8otvops782q63c655dW
-vmEpbhz4NJYMkCfZN5348bIipXOAF+geersEAVNbzTlIbGputRlNhxaj2zC2vbWiwuZYpAOe7mSO
-hzNQHnxnqehY1MA8jFb8X7tQcIVyIq1nDuy6hdUExQodFregGQRbur0NBCYGyahIiM3Slwac3UjC
-tdWyVFG1LD0rc2AeqEvrHFyqqXnShzG/mV2SWwYmpNvUSiNOfk17kzSGHEQ81pdETn3M6s4VHPtk
-zWploE8GQyfVXgo2ljGqiSjaWrx2kYPTq8RuA9DfUD6w1qh5/cLkNAeIYZ3oYdNFgIu8LD+5iWIB
-S3G6PWTVFu47n7WfZj0W1Q6hyE9plNnVAQvkTBPZO5VlZN4j5qONgqcaUoqDf2IIo/DFpCX7gX6r
-eIdZvr/PLYLnMe6L65iE81mxp+4Q1NRBxR2ihR1108JOiVcvgtCaNmjwYJHHeHyM8Vgte7v3+CrB
-/FwO1Wx+pWx9fAowmUFcqYa3uam0FeZZwt12pfONhTaSq6W5bVtL3RhRZqR4gECkLpw2R+cxIZR+
-M5oeugY3rXRBYju66uluWlkThnfG0skERiiC5mUyg3hbjiWQHaPjlk6UYBOJhHY2lUbBCL9TC/nO
-LQDQD06sXoVpb59qvdNemi6IDjlx4QOgYbzpgVE8lrE+Yhzvshe3j4PD0OpKstX6CkNbNE3pQ2TA
-vKK7Pave8HDBEXSp/EnDhgqBWUuJrJcdp9w2z6vcj4lUvwdDZ1Iqbqr1N6t0xiUgh34VyETsUIbh
-IcQAds7iRL3GC0t+j+ap5oS5yvky0ih0pEutX7MWIPIa6kLHTzbOO6NNon3SBjh7XSst/cITk7HI
-4prvYBMKnjp0CmTLdJzzq6LJ6+tMqZJNX8wh6G4CaYU/TnF1tmu+nk2gjUfA7u4WSxXI3oldx7JI
-gS1S606btsu2r8IwcRHeQL/cXAT3A7RX9psm5T0ViHcK3pPc+4KiXF5XyA+vmpjbG7ae3qWm2Xc/
-4ufGmg+VcadnDnVxQwschkiFHR3YjfCkMIZAWZeBGHiPs8z+SlsN1UjEwts3r/LWDJTlLkL2RdBN
-zQG1JNTzq9YgHQWLUHuFceMi3Gm5suJTV27JClLfW6g6vs02r3pcbFBlCUxz5IOrjC3yzHsLk5LL
-4RJ21nRdqeq8HIo6ukpjR+aeu/ZFd/q7IOEyW3Olpwc77m3WX21T3kA1zveR3os3RiRzhRNpOs1q
-2151c5NemrTM3ts2io0F1hzzzkPLtjcFfeXHIO2SS9SO895keFTXlcaDZRdUhvelh9n0XPJE0ygm
-qEA/GHN2FVaiWDda39050de/PsjpP8rv8nD6+Rz3Q/grrGY861WUr1ip+fQotldPLu7t1bwtDqm3
-GJdgTP1l6jvl0jzsY/9nJ8k/ntsdi4CQQXUNp68/HiTxAsKUVKiFaXzhzz6gzP0lPImltnws197j
-z17vj/kzkyWLw7TANoCxQ/76p8NxXIYYbgcO49zlFjGiqeVe1Um1+Ou39fvTMcYisqWkpWyD99bS
-NeOH0zEEWFhXY5+thrR8LdhLY5JbM95e8i7ec+X95Dj+/YQhXw4sja7qKjYpEIw/zj6dBlSLGGi2
-qp0HJJJgxt3RBL6n/WSy+OHD+vWFDEOufnDs0wXw/bsXFYaiRkqXr+hpyNbxtt7kSzRdPPFL1Sc3
-8/Na8O+vz99eEU+UZTNCGuoPr5gIOTo1/GiJvlCVFXIyr4FptvMDbaOu0hWNZksevOOqpAfaWfbB
-yVyr2+lnJQjfD1V//Hv88D2pbZpZKazPCMxT4aLKWhKeEz+ZFLU//SCplWIdB07T/liWfbo6mxLp
-1A75Nna+ttb8eJVuEz84A77ZaSt9odMOvPvrK/WP+VZ57dguV6pJug/f3vcfqduLrtScPF+Zm26X
-V7Rau37rEyj4Gnz7N77uf/Z52qpOwNBk6ej9ODcSv4dED3sbeB9pWkJ5PiAeUj9HKsl8OpSWf/3j
-6UgPn4bvf31un19Pfq6f3lHb7jGimbxeu6Jq8VIvy0253MWHzCeHR2v4vLIPEdfOiP95mf3k1aXm
-8B/s/z+++A83GxdQ/WxOaBJ2X62dxn72BE88tTJuW3oWF6J3TlrTFuu0yI2f3IH+5HrFGMLcxIiu
-G7Yr35dPPzf0dYCCAL9Xc13XhOw9zh7Gz36+P30RUp+6aZiqY9g/XDve2EP6HQn7W40qbhueI1ej
-iQ/vrz/DP7wK8VNuOKg7LJ6xhspL6tOPUsVMCGiB2LLpXT2WweSdp1h1Nh+v8l8Gg8+i3q9mXd7B
-f1ccfPvv/wszcVn38fOf/0H/IQ/iz6U6Q7ex8GKg41r4TR50ftHABqMQ8rxVNXxhv8uD7i8uPRx4
-E7iInF+Vw19tBtYv8gPHQCyfoh+h5L/jM/jhySX9w4gIYL1MDA82f5MfLqKeGp1kDM1kVeSWsS7K
-RN9gd0uXQ9wmywahYsnZd2YiVL9ORRhQlkZ+hJrvaOm40bgMqjHf9A5H3U9v7Z9og54u/Q3f3SOI
-+ugU68iANT4z44cHXGflvUZNB91BTZ4Hx5aTJajFaeoqImBIAq46YQgF696fRohp8PWFC7nWtA5u
-4Q7bHB/Xt9kz8wPlWMq0CGebOTiRacJ0HjFuBbmwvhZBjcfW6xWEgVEg6ithVr9nttNsRxl2VOBo
-LVU1tp/6Ak6H3hviRpsUFV8FgUpWXPjeVOGuiigL124TUHecjtB9FXhv7DvV+KFRTUxmPMCrO10A
-4VjAXZE2NDsCbhta5VEMjnEo59S0FyLQcD/0H0a2aXA7aLhN186rESoIu8q4JVA96eq6nAqXqKYu
-6GJzQ5G8I2sW6rKNmZmXwk69Hf6mnHIPskYrlDJgEUWAjLNU0wkRzs707KoBCdYuTRXKVRGOMbZP
-NZioEtAY/7A/i0T4nW3kBsJviQmQthK72Sc5FSA7uCXtwCzbJ6cO6uiW8CNWanapxHBTW+SPpeiK
-+yjow2tNRBgBqVpoXugvTr+1AX9RZT1DH6qWqpbO3zAZoJCGTborQel9BcJUrFtRZVcUO8+7wUB7
-xlDK4b+2K3FmBtH0bWQIYwL7wrRQyrnBoRD3wSbOtI0Dne0XMl12332MGK2cNsZCSS6CPPUVgl97
-DGsrWCFppm+Iz+1+UJXixqbAwwFmFacH5WOomVsXX0vivWZy4hnl7EMxOxlKOQ8NTpFcJjkjTQIr
-dQc/YPQHNafc2xkCTOABXvFvmhGVXxKIh+/NmGXPbR7qM+cwJjKX5r+lQUT45LpBmCw9r5uypS7n
-uCqqdIAiHxOeEF5ww5aOt1VSk2lkNxRAXnIkrNUxOowfg6LxMTRqcn6cPkZJ4r3hXsj50hZdcM6L
-JnrXB8x6rgghqI51mlhLNvZFvKsalD5KFSjl3tVO2KlAmpx2WudWY7zpkdFQkY71Yt07k3KySxza
-q3hCQ5XwYndRD0P1Fg6ucU+tCJVtZlLqNERq2reeluc1BSvaY594CQhdtaAt0WARujMi2UBM98OD
-R6r6xVA6cVIAaYHFr+2th1ywE0GKl6huCjj/sSDyOU7VIQgEe7KhN+f3RJ/M23qoiaiVYVCwvq9z
-NL2qP81dNVw8p5hBddneTjMCEHdwiNrTqHgpmXmjulPyjnkubOXMTwNEe2PGqo2naAbO+EivnUX2
-HKrZAc0FKtcUo6Z48B13ltWQ5tISUv9Ig884iyfftlgMuxToZFhAUsI3nebY3KAA0BQoGRmKuiC1
-jM9BXcep4MARhnQ4Bgop0sRrrFU36t6uI49HEe1Qbjpyx0sctNBqSS8Wd+nY8MdluInOGCY0ehU0
-68Yrslcxy/LlYMaJ70CqusrUBjt+nKk+TSIZSOG59Q7ElEbITy2CYl+TmYuMadl7PTUzXUyrvQJb
-ycm5k6DgIyyRbgAgQToe+M5ALhbSMLe0xiM8TmBiiQs/ekZfGA+96zQP2pzqX4wpvh+N5BwMcS6t
-wBBwzQHvAStRLVSXSWTPL7GZ6Mc0jvNbkeg2Ce7QjG+4mWHgmkI7uXdxUM9rJ6RLaYlb3PAbqhZo
-nSYjCLRAaO4+axz7ySL+3QErnrtdkQ1Edq2WTORu4Jm2bHKiJKmaBodZcbWLrvVOcp57qxL7Kgu0
-K7B+0jnX8yHaNNtvq7Bur4Y5NH38IsNakFnUtgrqeAEZavTsRRfX3j6NRLWyDZpG7Z4uJ54M42oO
-LeepGdVrPcQtYpHDxJ5lqOuJSMADOob+Hg2lWNFUqPiNw1ZFUZJruoSnI8ncS23o9IPPaXeZrUjj
-UeomB/LpAUz0NN4pPQ0XmOQB5+tIiRNxc1DTAXudeT003GEz23iekgHqc02GoorpZuo7I14afXs2
-uTAX9HruoNVfmZRUUa+1KtlDb+zWes2Sak+j+7NolKec8o1FNzZ7QKEqTTrlfZMnX3B6lBS1xtPS
-K5ve11L2cDqyEz4KgZhTTOomKcT/o+5MluJIkjD8KrI+T2K5L4dpM1WBCsS+CDS6lBUUnfu+59vM
-sQ99GOtH4MXmCzZRUKKlTtkYw0UmqojMjIzwiHD//fNmokueT4FTz5mGrmQfBvb8S92Q891i0UkV
-VQC3Su1O7bWHZhCFm/OARNYWccSWnZs8gj8ge+vn8z4jCNQysQJEG8FABvXgGeqSMV9tggiN9lrP
-8NBFa8xZDy+g5GWcBtLYINFYmpmRkHR72/bQnGphsMWcOib/L4GcJoUT6oFuezkjmNyTXXVeftKy
-SqeIe8iZGLHnlilV4ZRoJNaPBW6iCL45QOMJtSGPnGq4KFskSE03PyMhqpvoavVZKqTDICTskFmd
-jbwkg6ogq2AzIKT5UXVQJxae3zmg0647VJz6Mm2KHUDpB5YXHwcdNB8w6G7fn2BusGZJ1kxiiyQX
-VvodpVYvJUndRcbgTgZTWiiO/YVqOsNO4Acp/hGAg2l4NO9B3Zn9fkUxhsGzL7q236qpCFNG6rbi
-R5sFNQPAXc5gPLgch5HI2AUEqjTYobitOrUskfPMMuCWcAW6/SjIj5GxHePmOrYk95Nr5YgIo49p
-Yhy5GlWlwrg/zNUwmQWDCcfEKn5TO7dGiV+d60O76RT2PvV8ttQ5Qqy4SS56OzjOe5RweiJRi70G
-qeAdcYJeZkwHSZTN8kl1gPlZpuwfHbJZDfRzQRpvAjtHCmi4ew5VxFWJ2hHzags50o7qmmJFOWpV
-/TTySayhYilCpdBkFyAd+HNRVwigjKLHVySYf45M7zDs8+26xKB6xicShgTMswTr2VUVYm77IquL
-SWSjiFHjRiafwzIPcSr0E8oNEP2hIKmo5aLOqjkFLxpJn4ae4UwpG5qdDw2qWyUtqZXKhlDPs0/0
-4KEdNB/rAaS63W2zs9x1Gjzx+bz7SCjwg61n4DDyLV0fII5RFgG1IGtg17OQM2svYlxkEzfJXGTt
-OjqywtuRAgy3kS5Kv51VTvsJ8e0s1vLLqC8OKrnYc6P6yu9hIOhqdBYGxVYx6KDcs0NiKoc5pZah
-GXebjWZshlKwl6kyYkC/3os6Ig9mHm8S0ATIaJCPoqvwHSuV9bUdSJk3/VnU5IeoWZKJkfvVCRHM
-67ShnqbdpQNsDWUzi7FQVRYT/jMvu3J+WYUkzLveGSGWBY+HJXO7A79Ut2O93iFJb18Z2jOPWNCk
-dgLEVLIJkMSq4f6oOJndnMclRoPL2EmkbTdK8y2RdHAUxLp2TKBsYAxkqPtTsUul3NfnQan1U6nz
-5d2MCguEwPHCpggvJrld5hO30TGeQPCWNvka0y4IvAM1JoXAmvtU7lX1szAKSSioSS1ptBYpNPGg
-6sKlhvEOJwWi1AQ/2fE2n9swdI7xkP8L+A+gDKXTP2oWSequTW54X8klFAK1DTbzoDmfz23oFZI+
-bw+NLLNP6Cz3s+5H8xOPmlH1pDGI6oAGVWdelbQ7oS1qkLWFREQSQ0DJcmvYk+W2ksn4ZaCmegsI
-wCX8lJoqMfOux/J89D0PPh0BTqgmlnUtOVS1jrT2qAM021AAGJGpnZ/WcosAOgKLyWYFzBKVBPH+
-a94++0V9QqXxhU9Qe6ZqZYTyij2NHNQAEQQM16kC8xyj3E09XTlIHaIabAsvrCpvppkakUBZDmCX
-qBHBtrCZNGpKuDlxbECZ+mHOxmPSyvJ5QvwaJyAl/LS88z94rM/bJC+Cvy+0L3j10AdYCnSdwIt2
-zcj3Nw3Jpy6hxOESiA4rCC/9Q2hr+ZEid0KI6l+QtXJmOajeBtdJJrD72LZZjboo0aChiRM44NQe
-sh0w1+lM7gN7pxbY4MyOYq44oCk3qIQsnZYhcGh87dDpWkxQ6MOg5MnLk9hjOMU4rWdyyUBNIsG0
-iAS5uEoH9SDLfHDGnB6zPRsegsD0BCdhG8fbYPDNY4NdPMUSjfbIzVWLkhGGrJ6yKy22srkTb8Kv
-4jDRp/CU2fjmh9RMtrYdDdyyDEwHoKAKMlyN0mJGHcpkZuZK9KUSsGZL7YVeUGKvHuEb2OxZKY9s
-wXeutAp6Kjk4uECrNr7KoLHug9fSdinNnMA6Mcojv8iyPTJ/ZIZS3Q97BSedSyXTtd/6W9S0DcGf
-iiDwp0k8ZijJvUN2UiA1B6EgVSuMs5maa/luxRljGmR9fgXtwNy1oppicW4ncr1bbFHiAyRFErWn
-l269lbnz8DO2S56y566+zDunujBI9mknbVTEW67E2EvNodu2W7f7YHRFtSdHTR+QslaGO7BvwQtr
-gd9MpRxat6MM1aysWmAlfSFw3kA9stNWr+0D2+qtYArEwrjoA2kQwnoPBKclR8eU3DxV5yFALp/i
-Ycj164+FQIkjDgm2YsGQoNxZOJ+WdZzNolsIeSZ45Jkgk7dF0C5xuDizvA7qA1TiNdmX8MwL3jX0
-50HaQvGtUmMMOCmkltIOtssA3fekaVNj6fZFu5vUMNPnnZ4tYqCi1QT+Ue3tJ0VFvXfUVh8szUiR
-ORJ1vYzi2FpEsW8fKKmo+kcAjmALmXodFU4skgBzRf4SR3ZBDTc927QSz8IROx/KHQL/0ofAtqt9
-O+tI1+vDImQhiEn/C0mpPjBy1JJGS8LXkJvlNjTy8ENOkvGWV/aGD+ZDlY+atkv2kKYj+zftOYmj
-RQYohWMPSaabaVlqVwUal22wnzo1QmF+19MEmO/JMLTUcWwz+YKobLPLcmttIzOVjzGyylLmng+I
-L7mUUi2FpjjUik0tpNaj55T+TFf66kviWxSQmDs6uqPe9/SLWlWri9d9RyLksOI5Qk+mmSZ59Irh
-KDjwV/2iScgraBr2nH3iaedVmBIYETJ5N5OI7w5GRTzaDY4iuuLOV0oKFaSBNV6rFx5Z6LUs24RT
-TbZ0mvLsygGHzjDPWTY7he1ncRn0+//HztgnrIat53iGx6oPIs3sKPWT6iz9e196KCexvqEfQTqI
-Wtkr7t3b+7plSrzWTES+XFUvQUZoGwaqPhy2QBrALvLPL++iNHHvP5YsSsGJHwv3LLFABsDTt7v+
-AU5e0Cy+1Vs/ryOMu/u6G9aPt/UDHaEoG7omXMY8o6pbIvi40g/qBlFkFa8FkmrVsITPm45/Ml7+
-3jN+T1+99iavb0fpzvKfv9z7+3G4jxoQxobpUCtFttGwarx38aArHWGC6BAefEyRbOnE9d5aR2ia
-SFQc1wsIoMW8+Pa0MDYgnr7laSEorYb8PPrzo+bB3tDRFjsKmBYRubgN9ayMBsyD7jBfLB08kvMG
-R8MdrfY5+eZH+0HZIJ678uD2W7eLmqiNOXoa6AavX5XB8Ko6oVesy0ovmBu3+nsw7mxKSGi+m3dv
-yCry+u1b5c8oo0hqg5DbsAqSBG2gvXluFPUNmY9Mg+i7aWA+31w/fCMa/KPzAHST+HnNLt7uJ976
-dkGEZkeNCHVDR6jksDm2RFDXsrC0KzPD2BCyMyLQFMIVZcnY0b/J/QKypFEd8ZcjQnv7K+W6JKof
-nRnOBuczMpIwgtREQPn6fMG4paRrJtoEiGd3AIa3OCBU7nvUgDA2UJnSFSIxTeVIYbzsCIrSG0gm
-bdNWTLYpb21mkPE0vhNksHaOogi5C2QNlYd8bh74BtwNBwUgKWN32/Y3tHDeLxhj7STHCRW1j1A5
-sktEm/O8I9QNavDer6ritPHmOoLkSFV9kWP5o+ZBJEcyHlDuagjbgKmwHqwMCH3DYRExObsg732L
-50tSLinuMHZisG6K/iQb1CSPFBXZc38Dx0vE4UIkdVua4u56//t5cZXWSSXAnNRSS56q4b7X0fCs
-ga8eF7aKJMNyWtIE7QZp9bOBIBwNtq2wfSdJ/t4af9fzf8eXHl1YU8+PlrfOK/+6fIIg/csvPHhs
-XjZw76UQrgj6aOV7gk561/Kdu0L8/9cVWOmtI+XJhw+OldvL3P/5/fO9vPLKtR4e6uGX2/51sSiu
-vP72g/7+Lg8WMc6vbxZKuXWqrGWqPi6Nr7X7KqppZNtnaeTHi6cj8t7f8bX3XoBgv+umzxdRdP1u
-eR29my7qq9Ur3B0lx17hIAVnxRXenS6SapEsr4unj/HosBh9GaDIN/9Jn7dtaaxlY9veX7jLRXSd
-rHTP4xlzbOvTmz+LZXr5rHGkseTLj771F2/10aCPve3XkQIjx/v7Krr5N21cPXuh94vy2Ht/D5Yn
-TRblQ/9+9aSKdKGxrR/VpF8u+pVbv9tYiXSQsa2fL+rs5vd1t47zemzj0wWgomod/1kUMhvb+qxe
-NP6iuH5o6Um3syEY2zpElmhlEt31uTj0j22aG/eTmz/Wta6Mb/249pPlzR9rxotIdhl779MF+RMC
-k/hNQrhIGRx7lf3ral3v4BEb2/K0TpZ+sohZztdd4SfM13P/ylusEhbvh85PmVHlIlk75tWfMKPe
-F89X7fs7/wnzafIqCn6kgZ966dXNnw+j46shEL7msSPmr/JZRt762n3MXbdrP8G+n9ZX6yykODGM
-7ZjpNTDRh2a+9rn+E4b53uIdRjLwizVzVByext76ezbzoCVufo8Wbnq/m3z3PlkWLIX/eHdUpI2/
-vE6u/MW7/m6jyX4Wq4fheLj21+c1/nKMrTt0PIZ9Xx5FHsK56/5s9ZglvnEVXS+KX/8LAAD//w==
-</cx:binary>
-              </cx:geoCache>
-            </cx:geography>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="1">
-      <cx:txPr>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="900" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cx:txPr>
-    </cx:legend>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v5.24</cx:f>
-        <cx:nf>_xlchart.v5.23</cx:nf>
-      </cx:strDim>
-      <cx:numDim type="colorVal">
-        <cx:f>_xlchart.v5.25</cx:f>
-        <cx:nf>_xlchart.v5.21</cx:nf>
+        <cx:f>_xlchart.v5.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10706,17 +7395,16 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v5.16</cx:f>
-        <cx:nf>_xlchart.v5.15</cx:nf>
+        <cx:f>_xlchart.v5.4</cx:f>
+        <cx:nf>_xlchart.v5.3</cx:nf>
       </cx:strDim>
       <cx:numDim type="colorVal">
-        <cx:f>_xlchart.v5.18</cx:f>
-        <cx:nf>_xlchart.v5.10</cx:nf>
+        <cx:f>_xlchart.v5.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -12623,87 +9311,520 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="494">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="850"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="3175">
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="495">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13219,1033 +10340,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="494">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="850"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="3175">
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="494">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="850"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="3175">
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="495">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14761,523 +10856,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="495">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="850"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="3175">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15782,7 +11361,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16298,7 +11877,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16807,167 +12386,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" Requires="cx4">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Graphique 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD67C2E5-0824-9B45-8273-B34B5F1A6CD4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6832600" y="5778500"/>
-              <a:ext cx="3949700" cy="4838700"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="1100"/>
-                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
-La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" Requires="cx4">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Graphique 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4435858A-7933-6F49-A3A2-B0EBCF267028}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7480300" y="419100"/>
-              <a:ext cx="4114800" cy="4864100"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="1100"/>
-                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
-La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -17253,7 +12671,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17294,7 +12712,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18013,923 +13431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231DA627-D75A-D14A-93D0-6DB2D79CB61D}">
-  <sheetPr codeName="Feuil1">
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:L67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:D67"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="103" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="103" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>1912</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="104">
-        <v>158963</v>
-      </c>
-      <c r="E2" s="104">
-        <v>1751</v>
-      </c>
-      <c r="F2">
-        <v>280</v>
-      </c>
-      <c r="G2" s="105">
-        <f>E2/SUM(D2:E2)</f>
-        <v>1.0895130480231965E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>1912</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="104">
-        <v>53691</v>
-      </c>
-      <c r="E3" s="104">
-        <v>913</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" s="105">
-        <f t="shared" ref="G3:G18" si="0">E3/SUM(D3:E3)</f>
-        <v>1.6720386784850928E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>1912</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="104">
-        <v>258192</v>
-      </c>
-      <c r="E4" s="104">
-        <v>65</v>
-      </c>
-      <c r="F4" s="106">
-        <v>30</v>
-      </c>
-      <c r="G4" s="105">
-        <f t="shared" si="0"/>
-        <v>2.5168727275543353E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>1912</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="104">
-        <v>735042</v>
-      </c>
-      <c r="E5" s="107">
-        <v>428</v>
-      </c>
-      <c r="F5">
-        <v>15</v>
-      </c>
-      <c r="G5" s="105">
-        <f t="shared" si="0"/>
-        <v>5.819407997606972E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>1912</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="104">
-        <v>163382</v>
-      </c>
-      <c r="E6" s="104">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="105">
-        <f t="shared" si="0"/>
-        <v>1.1015911872705018E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>1912</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="104">
-        <v>98246</v>
-      </c>
-      <c r="E7" s="104">
-        <v>88</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" s="105">
-        <f t="shared" si="0"/>
-        <v>8.9490918705635895E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>1912</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="104">
-        <v>321768</v>
-      </c>
-      <c r="E8" s="104">
-        <v>585</v>
-      </c>
-      <c r="F8">
-        <v>44</v>
-      </c>
-      <c r="G8" s="105">
-        <f t="shared" si="0"/>
-        <v>1.8147806907334507E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>1912</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="104">
-        <v>99576</v>
-      </c>
-      <c r="E9" s="104">
-        <v>143</v>
-      </c>
-      <c r="F9">
-        <v>16</v>
-      </c>
-      <c r="G9" s="105">
-        <f t="shared" si="0"/>
-        <v>1.434029623241308E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>1912</v>
-      </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="104">
-        <v>71356</v>
-      </c>
-      <c r="E10" s="104">
-        <v>37</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="105">
-        <f t="shared" si="0"/>
-        <v>5.1825809253008002E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>1912</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="104" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="104" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="105" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>1912</v>
-      </c>
-      <c r="C12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="104">
-        <v>120861</v>
-      </c>
-      <c r="E12" s="104">
-        <v>466</v>
-      </c>
-      <c r="F12">
-        <v>76</v>
-      </c>
-      <c r="G12" s="105">
-        <f t="shared" si="0"/>
-        <v>3.8408598251007606E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>1912</v>
-      </c>
-      <c r="C13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="104">
-        <v>89460</v>
-      </c>
-      <c r="E13" s="104">
-        <v>3692</v>
-      </c>
-      <c r="F13">
-        <v>192</v>
-      </c>
-      <c r="G13" s="105">
-        <f t="shared" si="0"/>
-        <v>3.9634146341463415E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>1912</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="104">
-        <v>384698</v>
-      </c>
-      <c r="E14" s="104">
-        <v>274</v>
-      </c>
-      <c r="F14">
-        <v>27</v>
-      </c>
-      <c r="G14" s="105">
-        <f t="shared" si="0"/>
-        <v>7.1174007460282824E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>1912</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="104">
-        <v>245308</v>
-      </c>
-      <c r="E15" s="104">
-        <v>188</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15" s="105">
-        <f t="shared" si="0"/>
-        <v>7.6579659139049106E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>1912</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="104">
-        <v>57533</v>
-      </c>
-      <c r="E16" s="104">
-        <v>73</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="105">
-        <f t="shared" si="0"/>
-        <v>1.2672291080790196E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>1912</v>
-      </c>
-      <c r="C17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="104">
-        <v>50194</v>
-      </c>
-      <c r="E17" s="104">
-        <v>300</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="105">
-        <f t="shared" si="0"/>
-        <v>5.9412999564304667E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>1912</v>
-      </c>
-      <c r="C18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="104">
-        <v>4503</v>
-      </c>
-      <c r="E18" s="104">
-        <v>47</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="105">
-        <f t="shared" si="0"/>
-        <v>1.032967032967033E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>1851</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="108"/>
-      <c r="E19">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>1851</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="108"/>
-      <c r="F20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>1851</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="109"/>
-      <c r="E21">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>1851</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="109"/>
-      <c r="E22">
-        <v>62</v>
-      </c>
-      <c r="F22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>1851</v>
-      </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="109"/>
-      <c r="F23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>1851</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="109"/>
-      <c r="E24">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>1851</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="109"/>
-      <c r="E25">
-        <v>157</v>
-      </c>
-      <c r="F25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>1851</v>
-      </c>
-      <c r="C26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="109"/>
-      <c r="E26">
-        <v>15</v>
-      </c>
-      <c r="F26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>1851</v>
-      </c>
-      <c r="C27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="109"/>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>1851</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="109"/>
-      <c r="E28">
-        <v>73</v>
-      </c>
-      <c r="F28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>1851</v>
-      </c>
-      <c r="C29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="109"/>
-      <c r="E29">
-        <v>32</v>
-      </c>
-      <c r="F29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>1851</v>
-      </c>
-      <c r="C30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="109"/>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>1851</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="109"/>
-      <c r="E31">
-        <v>13</v>
-      </c>
-      <c r="F31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>1851</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="109"/>
-      <c r="E32">
-        <v>70</v>
-      </c>
-      <c r="F32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>1851</v>
-      </c>
-      <c r="C33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="109"/>
-      <c r="E33">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>1851</v>
-      </c>
-      <c r="C34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="109"/>
-      <c r="E34">
-        <v>110</v>
-      </c>
-      <c r="F34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <v>1851</v>
-      </c>
-      <c r="C35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="109"/>
-      <c r="F35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>159</v>
-      </c>
-      <c r="D38">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>189</v>
-      </c>
-      <c r="D40">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>158</v>
-      </c>
-      <c r="D47">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
-        <v>168</v>
-      </c>
-      <c r="D48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>163</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>180</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
-        <v>179</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
-        <v>193</v>
-      </c>
-      <c r="D54">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C60" t="s">
-        <v>171</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C61" t="s">
-        <v>170</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>162</v>
-      </c>
-      <c r="D63">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
-        <v>192</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
-        <v>183</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F912C43-07D1-E647-A788-FEFE2B06C22C}">
   <sheetPr codeName="Feuil2">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="K85" sqref="K85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19338,34 +13847,34 @@
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B19" s="117">
+      <c r="B19" s="115">
         <v>1851</v>
       </c>
       <c r="C19" t="s">
         <v>152</v>
       </c>
-      <c r="F19" s="117" t="s">
+      <c r="F19" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
       <c r="L19" t="s">
         <v>146</v>
       </c>
-      <c r="N19" s="118"/>
-      <c r="O19" s="119" t="s">
+      <c r="N19" s="116"/>
+      <c r="O19" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="P19" s="156" t="s">
+      <c r="P19" s="154" t="s">
         <v>148</v>
       </c>
-      <c r="Q19" s="156"/>
-      <c r="R19" s="156"/>
-      <c r="S19" s="156"/>
-      <c r="T19" s="119" t="s">
+      <c r="Q19" s="154"/>
+      <c r="R19" s="154"/>
+      <c r="S19" s="154"/>
+      <c r="T19" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="U19" s="120"/>
+      <c r="U19" s="118"/>
     </row>
     <row r="20" spans="2:21" ht="19" x14ac:dyDescent="0.25">
       <c r="B20">
@@ -19380,26 +13889,26 @@
       <c r="F20" t="s">
         <v>92</v>
       </c>
-      <c r="K20" s="121" t="s">
+      <c r="K20" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="L20" s="122" t="s">
+      <c r="L20" s="120" t="s">
         <v>151</v>
       </c>
-      <c r="N20" s="118">
+      <c r="N20" s="116">
         <v>1851</v>
       </c>
-      <c r="O20" s="119" t="s">
+      <c r="O20" s="117" t="s">
         <v>152</v>
       </c>
-      <c r="P20" s="123" t="s">
+      <c r="P20" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="Q20" s="124"/>
-      <c r="R20" s="124"/>
-      <c r="S20" s="124"/>
-      <c r="T20" s="125"/>
-      <c r="U20" s="126"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+      <c r="S20" s="122"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="124"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21">
@@ -19414,22 +13923,22 @@
       <c r="F21" t="s">
         <v>92</v>
       </c>
-      <c r="K21" s="127" t="s">
+      <c r="K21" s="125" t="s">
         <v>135</v>
       </c>
-      <c r="L21" s="128" t="s">
+      <c r="L21" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="N21" s="129"/>
-      <c r="O21" s="130"/>
-      <c r="P21" s="131" t="s">
+      <c r="N21" s="127"/>
+      <c r="O21" s="128"/>
+      <c r="P21" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="132"/>
-      <c r="U21" s="119" t="s">
+      <c r="Q21" s="129"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="130"/>
+      <c r="U21" s="117" t="s">
         <v>152</v>
       </c>
     </row>
@@ -19446,30 +13955,30 @@
       <c r="F22" t="s">
         <v>92</v>
       </c>
-      <c r="K22" s="127" t="s">
+      <c r="K22" s="125" t="s">
         <v>155</v>
       </c>
-      <c r="L22" s="128" t="s">
+      <c r="L22" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="N22" s="118">
+      <c r="N22" s="116">
         <v>1851</v>
       </c>
-      <c r="O22" s="119" t="s">
+      <c r="O22" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="P22" s="123" t="s">
+      <c r="P22" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="Q22" s="124" t="s">
+      <c r="Q22" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="R22" s="124" t="s">
+      <c r="R22" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="S22" s="124"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="126"/>
+      <c r="S22" s="122"/>
+      <c r="T22" s="123"/>
+      <c r="U22" s="124"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23">
@@ -19484,29 +13993,29 @@
       <c r="F23" t="s">
         <v>92</v>
       </c>
-      <c r="K23" s="127" t="s">
+      <c r="K23" s="125" t="s">
         <v>157</v>
       </c>
-      <c r="L23" s="128" t="s">
+      <c r="L23" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="N23" s="129"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="131">
+      <c r="N23" s="127"/>
+      <c r="O23" s="128"/>
+      <c r="P23" s="129">
         <v>10</v>
       </c>
-      <c r="Q23" s="131">
+      <c r="Q23" s="129">
         <v>34</v>
       </c>
-      <c r="R23" s="131">
+      <c r="R23" s="129">
         <v>18</v>
       </c>
-      <c r="S23" s="131"/>
-      <c r="T23" s="132">
+      <c r="S23" s="129"/>
+      <c r="T23" s="130">
         <f>SUM(P23:S23)</f>
         <v>62</v>
       </c>
-      <c r="U23" s="119" t="s">
+      <c r="U23" s="117" t="s">
         <v>1</v>
       </c>
     </row>
@@ -19523,26 +14032,26 @@
       <c r="F24" t="s">
         <v>92</v>
       </c>
-      <c r="K24" s="127" t="s">
+      <c r="K24" s="125" t="s">
         <v>137</v>
       </c>
-      <c r="L24" s="128" t="s">
+      <c r="L24" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="N24" s="118">
+      <c r="N24" s="116">
         <v>1851</v>
       </c>
-      <c r="O24" s="119" t="s">
+      <c r="O24" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="P24" s="133" t="s">
+      <c r="P24" s="131" t="s">
         <v>132</v>
       </c>
-      <c r="Q24" s="124"/>
-      <c r="R24" s="124"/>
-      <c r="S24" s="124"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="126"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="122"/>
+      <c r="T24" s="123"/>
+      <c r="U24" s="124"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25">
@@ -19557,23 +14066,23 @@
       <c r="F25" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="134" t="s">
+      <c r="K25" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="L25" s="135"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="130"/>
-      <c r="P25" s="131">
+      <c r="L25" s="133"/>
+      <c r="N25" s="127"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="129">
         <v>79</v>
       </c>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="131"/>
-      <c r="S25" s="131"/>
-      <c r="T25" s="132">
+      <c r="Q25" s="129"/>
+      <c r="R25" s="129"/>
+      <c r="S25" s="129"/>
+      <c r="T25" s="130">
         <f>SUM(P25:S25)</f>
         <v>79</v>
       </c>
-      <c r="U25" s="119" t="s">
+      <c r="U25" s="117" t="s">
         <v>159</v>
       </c>
     </row>
@@ -19590,26 +14099,26 @@
       <c r="F26" t="s">
         <v>92</v>
       </c>
-      <c r="K26" s="136" t="s">
+      <c r="K26" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="L26" s="137" t="s">
+      <c r="L26" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="N26" s="118">
+      <c r="N26" s="116">
         <v>1851</v>
       </c>
-      <c r="O26" s="119" t="s">
+      <c r="O26" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="P26" s="133" t="s">
+      <c r="P26" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="Q26" s="124"/>
-      <c r="R26" s="124"/>
-      <c r="S26" s="124"/>
-      <c r="T26" s="125"/>
-      <c r="U26" s="126"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="122"/>
+      <c r="T26" s="123"/>
+      <c r="U26" s="124"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27">
@@ -19624,23 +14133,23 @@
       <c r="F27" t="s">
         <v>92</v>
       </c>
-      <c r="K27" s="136"/>
-      <c r="L27" s="137" t="s">
+      <c r="K27" s="134"/>
+      <c r="L27" s="135" t="s">
         <v>162</v>
       </c>
-      <c r="N27" s="129"/>
-      <c r="O27" s="130"/>
-      <c r="P27" s="131" t="s">
+      <c r="N27" s="127"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="131"/>
-      <c r="S27" s="131"/>
-      <c r="T27" s="132">
+      <c r="Q27" s="129"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="129"/>
+      <c r="T27" s="130">
         <f>SUM(P27:S27)</f>
         <v>0</v>
       </c>
-      <c r="U27" s="119" t="s">
+      <c r="U27" s="117" t="s">
         <v>161</v>
       </c>
     </row>
@@ -19657,30 +14166,30 @@
       <c r="F28" t="s">
         <v>92</v>
       </c>
-      <c r="K28" s="136"/>
-      <c r="L28" s="137" t="s">
+      <c r="K28" s="134"/>
+      <c r="L28" s="135" t="s">
         <v>163</v>
       </c>
-      <c r="N28" s="118">
+      <c r="N28" s="116">
         <v>1851</v>
       </c>
-      <c r="O28" s="119" t="s">
+      <c r="O28" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="P28" s="124" t="s">
+      <c r="P28" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="Q28" s="124" t="s">
+      <c r="Q28" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="R28" s="124" t="s">
+      <c r="R28" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="S28" s="124" t="s">
+      <c r="S28" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="T28" s="125"/>
-      <c r="U28" s="126"/>
+      <c r="T28" s="123"/>
+      <c r="U28" s="124"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29">
@@ -19695,31 +14204,31 @@
       <c r="F29" t="s">
         <v>92</v>
       </c>
-      <c r="K29" s="127" t="s">
+      <c r="K29" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="128" t="s">
+      <c r="L29" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="129"/>
-      <c r="O29" s="130"/>
-      <c r="P29" s="131">
+      <c r="N29" s="127"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="129">
         <v>157</v>
       </c>
-      <c r="Q29" s="131" t="s">
+      <c r="Q29" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="R29" s="131" t="s">
+      <c r="R29" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="S29" s="131" t="s">
+      <c r="S29" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="T29" s="132">
+      <c r="T29" s="130">
         <f>SUM(P29:S29)</f>
         <v>157</v>
       </c>
-      <c r="U29" s="119" t="s">
+      <c r="U29" s="117" t="s">
         <v>134</v>
       </c>
     </row>
@@ -19736,26 +14245,26 @@
       <c r="F30" t="s">
         <v>92</v>
       </c>
-      <c r="K30" s="138" t="s">
+      <c r="K30" s="136" t="s">
         <v>166</v>
       </c>
-      <c r="L30" s="139"/>
-      <c r="N30" s="118">
+      <c r="L30" s="137"/>
+      <c r="N30" s="116">
         <v>1851</v>
       </c>
-      <c r="O30" s="119" t="s">
+      <c r="O30" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="P30" s="124" t="s">
+      <c r="P30" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="Q30" s="124" t="s">
+      <c r="Q30" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="R30" s="124"/>
-      <c r="S30" s="124"/>
-      <c r="T30" s="125"/>
-      <c r="U30" s="126"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="122"/>
+      <c r="T30" s="123"/>
+      <c r="U30" s="124"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31">
@@ -19770,25 +14279,25 @@
       <c r="F31" t="s">
         <v>92</v>
       </c>
-      <c r="K31" s="140" t="s">
+      <c r="K31" s="138" t="s">
         <v>156</v>
       </c>
-      <c r="L31" s="135"/>
-      <c r="N31" s="129"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="141" t="s">
+      <c r="L31" s="133"/>
+      <c r="N31" s="127"/>
+      <c r="O31" s="128"/>
+      <c r="P31" s="139" t="s">
         <v>167</v>
       </c>
-      <c r="Q31" s="131">
+      <c r="Q31" s="129">
         <v>22</v>
       </c>
-      <c r="R31" s="131"/>
-      <c r="S31" s="131"/>
-      <c r="T31" s="132">
+      <c r="R31" s="129"/>
+      <c r="S31" s="129"/>
+      <c r="T31" s="130">
         <f>SUM(P31:S31)</f>
         <v>22</v>
       </c>
-      <c r="U31" s="119" t="s">
+      <c r="U31" s="117" t="s">
         <v>160</v>
       </c>
     </row>
@@ -19805,28 +14314,28 @@
       <c r="F32" t="s">
         <v>92</v>
       </c>
-      <c r="K32" s="138" t="s">
+      <c r="K32" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="L32" s="139" t="s">
+      <c r="L32" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="N32" s="118">
+      <c r="N32" s="116">
         <v>1851</v>
       </c>
-      <c r="O32" s="119" t="s">
+      <c r="O32" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="P32" s="124" t="s">
+      <c r="P32" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="Q32" s="124" t="s">
+      <c r="Q32" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="R32" s="124"/>
-      <c r="S32" s="124"/>
-      <c r="T32" s="125"/>
-      <c r="U32" s="126"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="122"/>
+      <c r="T32" s="123"/>
+      <c r="U32" s="124"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33">
@@ -19841,27 +14350,27 @@
       <c r="F33" t="s">
         <v>92</v>
       </c>
-      <c r="K33" s="142" t="s">
+      <c r="K33" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="L33" s="128" t="s">
+      <c r="L33" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="N33" s="129"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="141">
+      <c r="N33" s="127"/>
+      <c r="O33" s="128"/>
+      <c r="P33" s="139">
         <v>3</v>
       </c>
-      <c r="Q33" s="131">
+      <c r="Q33" s="129">
         <v>6</v>
       </c>
-      <c r="R33" s="131"/>
-      <c r="S33" s="131"/>
-      <c r="T33" s="132">
+      <c r="R33" s="129"/>
+      <c r="S33" s="129"/>
+      <c r="T33" s="130">
         <f>SUM(P33:S33)</f>
         <v>9</v>
       </c>
-      <c r="U33" s="119" t="s">
+      <c r="U33" s="117" t="s">
         <v>169</v>
       </c>
     </row>
@@ -19878,26 +14387,26 @@
       <c r="F34" t="s">
         <v>92</v>
       </c>
-      <c r="K34" s="127" t="s">
+      <c r="K34" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="L34" s="128" t="s">
+      <c r="L34" s="126" t="s">
         <v>170</v>
       </c>
-      <c r="N34" s="118">
+      <c r="N34" s="116">
         <v>1851</v>
       </c>
-      <c r="O34" s="119" t="s">
+      <c r="O34" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="P34" s="124" t="s">
+      <c r="P34" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="Q34" s="124"/>
-      <c r="R34" s="124"/>
-      <c r="S34" s="124"/>
-      <c r="T34" s="125"/>
-      <c r="U34" s="126"/>
+      <c r="Q34" s="122"/>
+      <c r="R34" s="122"/>
+      <c r="S34" s="122"/>
+      <c r="T34" s="123"/>
+      <c r="U34" s="124"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35">
@@ -19912,23 +14421,23 @@
       <c r="F35" t="s">
         <v>92</v>
       </c>
-      <c r="K35" s="138"/>
-      <c r="L35" s="143" t="s">
+      <c r="K35" s="136"/>
+      <c r="L35" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="N35" s="129"/>
-      <c r="O35" s="130"/>
-      <c r="P35" s="141">
+      <c r="N35" s="127"/>
+      <c r="O35" s="128"/>
+      <c r="P35" s="139">
         <v>18</v>
       </c>
-      <c r="Q35" s="131"/>
-      <c r="R35" s="131"/>
-      <c r="S35" s="131"/>
-      <c r="T35" s="132">
+      <c r="Q35" s="129"/>
+      <c r="R35" s="129"/>
+      <c r="S35" s="129"/>
+      <c r="T35" s="130">
         <f>SUM(P35:S35)</f>
         <v>18</v>
       </c>
-      <c r="U35" s="119" t="s">
+      <c r="U35" s="117" t="s">
         <v>89</v>
       </c>
     </row>
@@ -19942,24 +14451,24 @@
       <c r="E36">
         <v>6</v>
       </c>
-      <c r="K36" s="138"/>
-      <c r="L36" s="139" t="s">
+      <c r="K36" s="136"/>
+      <c r="L36" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="N36" s="118">
+      <c r="N36" s="116">
         <v>1851</v>
       </c>
-      <c r="O36" s="119" t="s">
+      <c r="O36" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="P36" s="133" t="s">
+      <c r="P36" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="Q36" s="124"/>
-      <c r="R36" s="124"/>
-      <c r="S36" s="124"/>
-      <c r="T36" s="119"/>
-      <c r="U36" s="144"/>
+      <c r="Q36" s="122"/>
+      <c r="R36" s="122"/>
+      <c r="S36" s="122"/>
+      <c r="T36" s="117"/>
+      <c r="U36" s="142"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37">
@@ -19971,25 +14480,25 @@
       <c r="E37">
         <v>110</v>
       </c>
-      <c r="K37" s="127" t="s">
+      <c r="K37" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="L37" s="145" t="s">
+      <c r="L37" s="143" t="s">
         <v>174</v>
       </c>
-      <c r="N37" s="129"/>
-      <c r="O37" s="130"/>
-      <c r="P37" s="141" t="s">
+      <c r="N37" s="127"/>
+      <c r="O37" s="128"/>
+      <c r="P37" s="139" t="s">
         <v>154</v>
       </c>
-      <c r="Q37" s="131"/>
-      <c r="R37" s="131"/>
-      <c r="S37" s="131"/>
-      <c r="T37" s="130">
+      <c r="Q37" s="129"/>
+      <c r="R37" s="129"/>
+      <c r="S37" s="129"/>
+      <c r="T37" s="128">
         <f>SUM(P37:S37)</f>
         <v>0</v>
       </c>
-      <c r="U37" s="132" t="s">
+      <c r="U37" s="130" t="s">
         <v>172</v>
       </c>
     </row>
@@ -20003,26 +14512,26 @@
       <c r="E38">
         <v>62</v>
       </c>
-      <c r="K38" s="127" t="s">
+      <c r="K38" s="125" t="s">
         <v>133</v>
       </c>
-      <c r="L38" s="128" t="s">
+      <c r="L38" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="N38" s="118">
+      <c r="N38" s="116">
         <v>1851</v>
       </c>
-      <c r="O38" s="119" t="s">
+      <c r="O38" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="P38" s="133" t="s">
+      <c r="P38" s="131" t="s">
         <v>132</v>
       </c>
-      <c r="Q38" s="124"/>
-      <c r="R38" s="124"/>
-      <c r="S38" s="124"/>
-      <c r="T38" s="119"/>
-      <c r="U38" s="144"/>
+      <c r="Q38" s="122"/>
+      <c r="R38" s="122"/>
+      <c r="S38" s="122"/>
+      <c r="T38" s="117"/>
+      <c r="U38" s="142"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B39">
@@ -20034,23 +14543,23 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="K39" s="146" t="s">
+      <c r="K39" s="144" t="s">
         <v>138</v>
       </c>
-      <c r="L39" s="135"/>
-      <c r="N39" s="129"/>
-      <c r="O39" s="130"/>
-      <c r="P39" s="141">
+      <c r="L39" s="133"/>
+      <c r="N39" s="127"/>
+      <c r="O39" s="128"/>
+      <c r="P39" s="139">
         <v>79</v>
       </c>
-      <c r="Q39" s="131"/>
-      <c r="R39" s="131"/>
-      <c r="S39" s="131"/>
-      <c r="T39" s="130">
+      <c r="Q39" s="129"/>
+      <c r="R39" s="129"/>
+      <c r="S39" s="129"/>
+      <c r="T39" s="128">
         <f>SUM(P39:S39)</f>
         <v>79</v>
       </c>
-      <c r="U39" s="119" t="s">
+      <c r="U39" s="117" t="s">
         <v>132</v>
       </c>
     </row>
@@ -20064,28 +14573,28 @@
       <c r="E40">
         <v>53</v>
       </c>
-      <c r="K40" s="147" t="s">
+      <c r="K40" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="L40" s="139" t="s">
+      <c r="L40" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="N40" s="118">
+      <c r="N40" s="116">
         <v>1851</v>
       </c>
-      <c r="O40" s="119" t="s">
+      <c r="O40" s="117" t="s">
         <v>175</v>
       </c>
-      <c r="P40" s="133" t="s">
+      <c r="P40" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="Q40" s="124" t="s">
+      <c r="Q40" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="R40" s="124"/>
-      <c r="S40" s="124"/>
-      <c r="T40" s="119"/>
-      <c r="U40" s="144"/>
+      <c r="R40" s="122"/>
+      <c r="S40" s="122"/>
+      <c r="T40" s="117"/>
+      <c r="U40" s="142"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B41">
@@ -20097,25 +14606,25 @@
       <c r="E41">
         <v>456</v>
       </c>
-      <c r="K41" s="138" t="s">
+      <c r="K41" s="136" t="s">
         <v>176</v>
       </c>
-      <c r="L41" s="139"/>
-      <c r="N41" s="129"/>
-      <c r="O41" s="130"/>
-      <c r="P41" s="141">
+      <c r="L41" s="137"/>
+      <c r="N41" s="127"/>
+      <c r="O41" s="128"/>
+      <c r="P41" s="139">
         <v>11</v>
       </c>
-      <c r="Q41" s="131">
+      <c r="Q41" s="129">
         <v>21</v>
       </c>
-      <c r="R41" s="131"/>
-      <c r="S41" s="131"/>
-      <c r="T41" s="130">
+      <c r="R41" s="129"/>
+      <c r="S41" s="129"/>
+      <c r="T41" s="128">
         <f>SUM(P41:S41)</f>
         <v>32</v>
       </c>
-      <c r="U41" s="119" t="s">
+      <c r="U41" s="117" t="s">
         <v>175</v>
       </c>
     </row>
@@ -20129,26 +14638,26 @@
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="K42" s="138" t="s">
+      <c r="K42" s="136" t="s">
         <v>139</v>
       </c>
-      <c r="L42" s="139"/>
-      <c r="N42" s="118">
+      <c r="L42" s="137"/>
+      <c r="N42" s="116">
         <v>1851</v>
       </c>
-      <c r="O42" s="119" t="s">
+      <c r="O42" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="P42" s="133" t="s">
+      <c r="P42" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="Q42" s="124" t="s">
+      <c r="Q42" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="R42" s="124"/>
-      <c r="S42" s="124"/>
-      <c r="T42" s="119"/>
-      <c r="U42" s="144"/>
+      <c r="R42" s="122"/>
+      <c r="S42" s="122"/>
+      <c r="T42" s="117"/>
+      <c r="U42" s="142"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43">
@@ -20160,25 +14669,25 @@
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="K43" s="127" t="s">
+      <c r="K43" s="125" t="s">
         <v>153</v>
       </c>
-      <c r="L43" s="128" t="s">
+      <c r="L43" s="126" t="s">
         <v>177</v>
       </c>
-      <c r="N43" s="129"/>
-      <c r="O43" s="130"/>
-      <c r="P43" s="141">
+      <c r="N43" s="127"/>
+      <c r="O43" s="128"/>
+      <c r="P43" s="139">
         <v>11</v>
       </c>
-      <c r="Q43" s="131"/>
-      <c r="R43" s="131"/>
-      <c r="S43" s="131"/>
-      <c r="T43" s="130">
+      <c r="Q43" s="129"/>
+      <c r="R43" s="129"/>
+      <c r="S43" s="129"/>
+      <c r="T43" s="128">
         <f>SUM(P43:S43)</f>
         <v>11</v>
       </c>
-      <c r="U43" s="119" t="s">
+      <c r="U43" s="117" t="s">
         <v>158</v>
       </c>
     </row>
@@ -20192,24 +14701,24 @@
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="K44" s="138"/>
-      <c r="L44" s="139" t="s">
+      <c r="K44" s="136"/>
+      <c r="L44" s="137" t="s">
         <v>178</v>
       </c>
-      <c r="N44" s="118">
+      <c r="N44" s="116">
         <v>1851</v>
       </c>
-      <c r="O44" s="119" t="s">
+      <c r="O44" s="117" t="s">
         <v>168</v>
       </c>
-      <c r="P44" s="133" t="s">
+      <c r="P44" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="Q44" s="124"/>
-      <c r="R44" s="124"/>
-      <c r="S44" s="124"/>
-      <c r="T44" s="119"/>
-      <c r="U44" s="144"/>
+      <c r="Q44" s="122"/>
+      <c r="R44" s="122"/>
+      <c r="S44" s="122"/>
+      <c r="T44" s="117"/>
+      <c r="U44" s="142"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45">
@@ -20221,23 +14730,23 @@
       <c r="E45">
         <v>12</v>
       </c>
-      <c r="K45" s="138"/>
-      <c r="L45" s="139" t="s">
+      <c r="K45" s="136"/>
+      <c r="L45" s="137" t="s">
         <v>179</v>
       </c>
-      <c r="N45" s="129"/>
-      <c r="O45" s="130"/>
-      <c r="P45" s="131">
+      <c r="N45" s="127"/>
+      <c r="O45" s="128"/>
+      <c r="P45" s="129">
         <v>10</v>
       </c>
-      <c r="Q45" s="131"/>
-      <c r="R45" s="131"/>
-      <c r="S45" s="131"/>
-      <c r="T45" s="130">
+      <c r="Q45" s="129"/>
+      <c r="R45" s="129"/>
+      <c r="S45" s="129"/>
+      <c r="T45" s="128">
         <f>SUM(P45:S45)</f>
         <v>10</v>
       </c>
-      <c r="U45" s="119" t="s">
+      <c r="U45" s="117" t="s">
         <v>168</v>
       </c>
     </row>
@@ -20251,24 +14760,24 @@
       <c r="E46">
         <v>22</v>
       </c>
-      <c r="K46" s="138"/>
-      <c r="L46" s="139" t="s">
+      <c r="K46" s="136"/>
+      <c r="L46" s="137" t="s">
         <v>180</v>
       </c>
-      <c r="N46" s="118">
+      <c r="N46" s="116">
         <v>1851</v>
       </c>
-      <c r="O46" s="119" t="s">
+      <c r="O46" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="P46" s="124" t="s">
+      <c r="P46" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="Q46" s="124"/>
-      <c r="R46" s="124"/>
-      <c r="S46" s="124"/>
-      <c r="T46" s="119"/>
-      <c r="U46" s="144"/>
+      <c r="Q46" s="122"/>
+      <c r="R46" s="122"/>
+      <c r="S46" s="122"/>
+      <c r="T46" s="117"/>
+      <c r="U46" s="142"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47">
@@ -20280,23 +14789,23 @@
       <c r="E47">
         <v>76</v>
       </c>
-      <c r="K47" s="138"/>
-      <c r="L47" s="139" t="s">
+      <c r="K47" s="136"/>
+      <c r="L47" s="137" t="s">
         <v>181</v>
       </c>
-      <c r="N47" s="129"/>
-      <c r="O47" s="130"/>
-      <c r="P47" s="131" t="s">
+      <c r="N47" s="127"/>
+      <c r="O47" s="128"/>
+      <c r="P47" s="129" t="s">
         <v>167</v>
       </c>
-      <c r="Q47" s="131"/>
-      <c r="R47" s="131"/>
-      <c r="S47" s="131"/>
-      <c r="T47" s="130">
+      <c r="Q47" s="129"/>
+      <c r="R47" s="129"/>
+      <c r="S47" s="129"/>
+      <c r="T47" s="128">
         <f>SUM(P47:S47)</f>
         <v>0</v>
       </c>
-      <c r="U47" s="119" t="s">
+      <c r="U47" s="117" t="s">
         <v>163</v>
       </c>
     </row>
@@ -20310,30 +14819,30 @@
       <c r="E48">
         <v>15</v>
       </c>
-      <c r="K48" s="138"/>
-      <c r="L48" s="139" t="s">
+      <c r="K48" s="136"/>
+      <c r="L48" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="N48" s="118">
+      <c r="N48" s="116">
         <v>1851</v>
       </c>
-      <c r="O48" s="119" t="s">
+      <c r="O48" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="P48" s="124" t="s">
+      <c r="P48" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="Q48" s="124" t="s">
+      <c r="Q48" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="R48" s="124" t="s">
+      <c r="R48" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="S48" s="124" t="s">
+      <c r="S48" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="T48" s="119"/>
-      <c r="U48" s="144"/>
+      <c r="T48" s="117"/>
+      <c r="U48" s="142"/>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B49">
@@ -20345,31 +14854,31 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="K49" s="127" t="s">
+      <c r="K49" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="L49" s="128" t="s">
+      <c r="L49" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="N49" s="129"/>
-      <c r="O49" s="130"/>
-      <c r="P49" s="131">
+      <c r="N49" s="127"/>
+      <c r="O49" s="128"/>
+      <c r="P49" s="129">
         <v>157</v>
       </c>
-      <c r="Q49" s="131" t="s">
+      <c r="Q49" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="R49" s="131" t="s">
+      <c r="R49" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="S49" s="131" t="s">
+      <c r="S49" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="T49" s="130">
+      <c r="T49" s="128">
         <f>SUM(P49:S49)</f>
         <v>157</v>
       </c>
-      <c r="U49" s="119" t="s">
+      <c r="U49" s="117" t="s">
         <v>5</v>
       </c>
     </row>
@@ -20383,644 +14892,644 @@
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="K50" s="138"/>
-      <c r="L50" s="139" t="s">
+      <c r="K50" s="136"/>
+      <c r="L50" s="137" t="s">
         <v>183</v>
       </c>
-      <c r="N50" s="118">
+      <c r="N50" s="116">
         <v>1851</v>
       </c>
-      <c r="O50" s="119" t="s">
+      <c r="O50" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="P50" s="133" t="s">
+      <c r="P50" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="Q50" s="124"/>
-      <c r="R50" s="124"/>
-      <c r="S50" s="124"/>
-      <c r="T50" s="119"/>
-      <c r="U50" s="144"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="122"/>
+      <c r="S50" s="122"/>
+      <c r="T50" s="117"/>
+      <c r="U50" s="142"/>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B51" s="163">
+      <c r="B51" s="161">
         <v>1851</v>
       </c>
-      <c r="C51" s="164" t="s">
+      <c r="C51" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="164"/>
-      <c r="E51" s="164"/>
-      <c r="K51" s="127" t="s">
+      <c r="D51" s="162"/>
+      <c r="E51" s="162"/>
+      <c r="K51" s="125" t="s">
         <v>132</v>
       </c>
-      <c r="L51" s="128" t="s">
+      <c r="L51" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="N51" s="129"/>
-      <c r="O51" s="130"/>
-      <c r="P51" s="141" t="s">
+      <c r="N51" s="127"/>
+      <c r="O51" s="128"/>
+      <c r="P51" s="139" t="s">
         <v>154</v>
       </c>
-      <c r="Q51" s="131"/>
-      <c r="R51" s="131"/>
-      <c r="S51" s="131"/>
-      <c r="T51" s="130">
+      <c r="Q51" s="129"/>
+      <c r="R51" s="129"/>
+      <c r="S51" s="129"/>
+      <c r="T51" s="128">
         <f>SUM(P51:S51)</f>
         <v>0</v>
       </c>
-      <c r="U51" s="119" t="s">
+      <c r="U51" s="117" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B52" s="164">
+      <c r="B52" s="162">
         <v>1851</v>
       </c>
-      <c r="C52" s="164" t="s">
+      <c r="C52" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="164"/>
-      <c r="E52" s="164">
+      <c r="D52" s="162"/>
+      <c r="E52" s="162">
         <v>62</v>
       </c>
-      <c r="K52" s="138"/>
-      <c r="L52" s="139" t="s">
+      <c r="K52" s="136"/>
+      <c r="L52" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="N52" s="118">
+      <c r="N52" s="116">
         <v>1851</v>
       </c>
-      <c r="O52" s="119" t="s">
+      <c r="O52" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="P52" s="133" t="s">
+      <c r="P52" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="Q52" s="124"/>
-      <c r="R52" s="124"/>
-      <c r="S52" s="124"/>
-      <c r="T52" s="119"/>
-      <c r="U52" s="144"/>
+      <c r="Q52" s="122"/>
+      <c r="R52" s="122"/>
+      <c r="S52" s="122"/>
+      <c r="T52" s="117"/>
+      <c r="U52" s="142"/>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B53" s="164">
+      <c r="B53" s="162">
         <v>1851</v>
       </c>
-      <c r="C53" s="164" t="s">
+      <c r="C53" s="162" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="164"/>
-      <c r="E53" s="164">
+      <c r="D53" s="162"/>
+      <c r="E53" s="162">
         <v>79</v>
       </c>
-      <c r="K53" s="148" t="s">
+      <c r="K53" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="L53" s="128" t="s">
+      <c r="L53" s="126" t="s">
         <v>184</v>
       </c>
-      <c r="N53" s="129"/>
-      <c r="O53" s="130"/>
-      <c r="P53" s="141" t="s">
+      <c r="N53" s="127"/>
+      <c r="O53" s="128"/>
+      <c r="P53" s="139" t="s">
         <v>154</v>
       </c>
-      <c r="Q53" s="131"/>
-      <c r="R53" s="131"/>
-      <c r="S53" s="131"/>
-      <c r="T53" s="130">
+      <c r="Q53" s="129"/>
+      <c r="R53" s="129"/>
+      <c r="S53" s="129"/>
+      <c r="T53" s="128">
         <f>SUM(P53:S53)</f>
         <v>0</v>
       </c>
-      <c r="U53" s="119" t="s">
+      <c r="U53" s="117" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B54" s="164">
+      <c r="B54" s="162">
         <v>1851</v>
       </c>
-      <c r="C54" s="164" t="s">
+      <c r="C54" s="162" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="164"/>
-      <c r="E54" s="164">
+      <c r="D54" s="162"/>
+      <c r="E54" s="162">
         <v>0</v>
       </c>
-      <c r="K54" s="138" t="s">
+      <c r="K54" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="L54" s="139"/>
-      <c r="N54" s="118">
+      <c r="L54" s="137"/>
+      <c r="N54" s="116">
         <v>1851</v>
       </c>
-      <c r="O54" s="119" t="s">
+      <c r="O54" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="P54" s="124" t="s">
+      <c r="P54" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="Q54" s="124"/>
-      <c r="R54" s="124"/>
-      <c r="S54" s="124"/>
-      <c r="T54" s="119"/>
-      <c r="U54" s="144"/>
+      <c r="Q54" s="122"/>
+      <c r="R54" s="122"/>
+      <c r="S54" s="122"/>
+      <c r="T54" s="117"/>
+      <c r="U54" s="142"/>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B55" s="164">
+      <c r="B55" s="162">
         <v>1851</v>
       </c>
-      <c r="C55" s="164" t="s">
+      <c r="C55" s="162" t="s">
         <v>189</v>
       </c>
-      <c r="D55" s="164"/>
-      <c r="E55" s="164">
+      <c r="D55" s="162"/>
+      <c r="E55" s="162">
         <v>157</v>
       </c>
-      <c r="K55" s="138" t="s">
+      <c r="K55" s="136" t="s">
         <v>141</v>
       </c>
-      <c r="L55" s="139"/>
-      <c r="N55" s="129"/>
-      <c r="O55" s="130"/>
-      <c r="P55" s="131">
+      <c r="L55" s="137"/>
+      <c r="N55" s="127"/>
+      <c r="O55" s="128"/>
+      <c r="P55" s="129">
         <v>6</v>
       </c>
-      <c r="Q55" s="131"/>
-      <c r="R55" s="131"/>
-      <c r="S55" s="131"/>
-      <c r="T55" s="130">
+      <c r="Q55" s="129"/>
+      <c r="R55" s="129"/>
+      <c r="S55" s="129"/>
+      <c r="T55" s="128">
         <f>SUM(P55:S55)</f>
         <v>6</v>
       </c>
-      <c r="U55" s="119" t="s">
+      <c r="U55" s="117" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B56" s="164">
+      <c r="B56" s="162">
         <v>1851</v>
       </c>
-      <c r="C56" s="164" t="s">
+      <c r="C56" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="164"/>
-      <c r="E56" s="164">
+      <c r="D56" s="162"/>
+      <c r="E56" s="162">
         <v>22</v>
       </c>
-      <c r="K56" s="149" t="s">
+      <c r="K56" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="L56" s="150" t="s">
+      <c r="L56" s="148" t="s">
         <v>160</v>
       </c>
-      <c r="N56" s="118">
+      <c r="N56" s="116">
         <v>1851</v>
       </c>
-      <c r="O56" s="119" t="s">
+      <c r="O56" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="P56" s="124" t="s">
+      <c r="P56" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="Q56" s="124"/>
-      <c r="R56" s="124"/>
-      <c r="S56" s="124"/>
-      <c r="T56" s="119"/>
-      <c r="U56" s="144"/>
+      <c r="Q56" s="122"/>
+      <c r="R56" s="122"/>
+      <c r="S56" s="122"/>
+      <c r="T56" s="117"/>
+      <c r="U56" s="142"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B57" s="164">
+      <c r="B57" s="162">
         <v>1851</v>
       </c>
-      <c r="C57" s="164" t="s">
+      <c r="C57" s="162" t="s">
         <v>169</v>
       </c>
-      <c r="D57" s="164"/>
-      <c r="E57" s="164">
+      <c r="D57" s="162"/>
+      <c r="E57" s="162">
         <v>9</v>
       </c>
-      <c r="K57" s="136" t="s">
+      <c r="K57" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="L57" s="137"/>
-      <c r="N57" s="129"/>
-      <c r="O57" s="130"/>
-      <c r="P57" s="131">
+      <c r="L57" s="135"/>
+      <c r="N57" s="127"/>
+      <c r="O57" s="128"/>
+      <c r="P57" s="129">
         <v>110</v>
       </c>
-      <c r="Q57" s="131"/>
-      <c r="R57" s="131"/>
-      <c r="S57" s="131"/>
-      <c r="T57" s="130">
+      <c r="Q57" s="129"/>
+      <c r="R57" s="129"/>
+      <c r="S57" s="129"/>
+      <c r="T57" s="128">
         <f>SUM(P57:S57)</f>
         <v>110</v>
       </c>
-      <c r="U57" s="119" t="s">
+      <c r="U57" s="117" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B58" s="164">
+      <c r="B58" s="162">
         <v>1851</v>
       </c>
-      <c r="C58" s="164" t="s">
+      <c r="C58" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="D58" s="164"/>
-      <c r="E58" s="164">
+      <c r="D58" s="162"/>
+      <c r="E58" s="162">
         <v>18</v>
       </c>
-      <c r="K58" s="127" t="s">
+      <c r="K58" s="125" t="s">
         <v>143</v>
       </c>
-      <c r="L58" s="128" t="s">
+      <c r="L58" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="N58" s="118">
+      <c r="N58" s="116">
         <v>1851</v>
       </c>
-      <c r="O58" s="119" t="s">
+      <c r="O58" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="P58" s="124" t="s">
+      <c r="P58" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="Q58" s="124"/>
-      <c r="R58" s="124"/>
-      <c r="S58" s="124"/>
-      <c r="T58" s="119"/>
-      <c r="U58" s="144"/>
+      <c r="Q58" s="122"/>
+      <c r="R58" s="122"/>
+      <c r="S58" s="122"/>
+      <c r="T58" s="117"/>
+      <c r="U58" s="142"/>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B59" s="164">
+      <c r="B59" s="162">
         <v>1851</v>
       </c>
-      <c r="C59" s="164" t="s">
+      <c r="C59" s="162" t="s">
         <v>172</v>
       </c>
-      <c r="D59" s="164"/>
-      <c r="E59" s="164">
+      <c r="D59" s="162"/>
+      <c r="E59" s="162">
         <v>0</v>
       </c>
-      <c r="K59" s="138" t="s">
+      <c r="K59" s="136" t="s">
         <v>142</v>
       </c>
-      <c r="L59" s="139"/>
-      <c r="N59" s="129"/>
-      <c r="O59" s="130"/>
-      <c r="P59" s="131">
+      <c r="L59" s="137"/>
+      <c r="N59" s="127"/>
+      <c r="O59" s="128"/>
+      <c r="P59" s="129">
         <v>62</v>
       </c>
-      <c r="Q59" s="131"/>
-      <c r="R59" s="131"/>
-      <c r="S59" s="131"/>
-      <c r="T59" s="130">
+      <c r="Q59" s="129"/>
+      <c r="R59" s="129"/>
+      <c r="S59" s="129"/>
+      <c r="T59" s="128">
         <f>SUM(P59:S59)</f>
         <v>62</v>
       </c>
-      <c r="U59" s="119" t="s">
+      <c r="U59" s="117" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B60" s="164">
+      <c r="B60" s="162">
         <v>1851</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="162" t="s">
         <v>132</v>
       </c>
-      <c r="D60" s="164"/>
-      <c r="E60" s="164">
+      <c r="D60" s="162"/>
+      <c r="E60" s="162">
         <v>79</v>
       </c>
-      <c r="K60" s="138" t="s">
+      <c r="K60" s="136" t="s">
         <v>187</v>
       </c>
-      <c r="L60" s="139"/>
-      <c r="N60" s="118">
+      <c r="L60" s="137"/>
+      <c r="N60" s="116">
         <v>1851</v>
       </c>
-      <c r="O60" s="119" t="s">
+      <c r="O60" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="P60" s="124" t="s">
+      <c r="P60" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="Q60" s="124"/>
-      <c r="R60" s="124"/>
-      <c r="S60" s="124"/>
-      <c r="T60" s="119"/>
-      <c r="U60" s="144"/>
+      <c r="Q60" s="122"/>
+      <c r="R60" s="122"/>
+      <c r="S60" s="122"/>
+      <c r="T60" s="117"/>
+      <c r="U60" s="142"/>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B61" s="164">
+      <c r="B61" s="162">
         <v>1851</v>
       </c>
-      <c r="C61" s="164" t="s">
+      <c r="C61" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="164"/>
-      <c r="E61" s="164">
+      <c r="D61" s="162"/>
+      <c r="E61" s="162">
         <v>32</v>
       </c>
-      <c r="K61" s="127" t="s">
+      <c r="K61" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="L61" s="128" t="s">
+      <c r="L61" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="N61" s="129"/>
-      <c r="O61" s="130"/>
-      <c r="P61" s="131" t="s">
+      <c r="N61" s="127"/>
+      <c r="O61" s="128"/>
+      <c r="P61" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="Q61" s="131"/>
-      <c r="R61" s="131"/>
-      <c r="S61" s="131"/>
-      <c r="T61" s="130">
+      <c r="Q61" s="129"/>
+      <c r="R61" s="129"/>
+      <c r="S61" s="129"/>
+      <c r="T61" s="128">
         <f>SUM(P61:S61)</f>
         <v>0</v>
       </c>
-      <c r="U61" s="119" t="s">
+      <c r="U61" s="117" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B62" s="164">
+      <c r="B62" s="162">
         <v>1851</v>
       </c>
-      <c r="C62" s="164" t="s">
+      <c r="C62" s="162" t="s">
         <v>158</v>
       </c>
-      <c r="D62" s="164"/>
-      <c r="E62" s="164">
+      <c r="D62" s="162"/>
+      <c r="E62" s="162">
         <v>11</v>
       </c>
-      <c r="K62" s="138" t="s">
+      <c r="K62" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="L62" s="139"/>
-      <c r="N62" s="118">
+      <c r="L62" s="137"/>
+      <c r="N62" s="116">
         <v>1851</v>
       </c>
-      <c r="O62" s="119" t="s">
+      <c r="O62" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="P62" s="124" t="s">
+      <c r="P62" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="Q62" s="124" t="s">
+      <c r="Q62" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="R62" s="124" t="s">
+      <c r="R62" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="S62" s="124"/>
-      <c r="T62" s="119"/>
-      <c r="U62" s="144"/>
+      <c r="S62" s="122"/>
+      <c r="T62" s="117"/>
+      <c r="U62" s="142"/>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B63" s="164">
+      <c r="B63" s="162">
         <v>1851</v>
       </c>
-      <c r="C63" s="164" t="s">
+      <c r="C63" s="162" t="s">
         <v>168</v>
       </c>
-      <c r="D63" s="164"/>
-      <c r="E63" s="164">
+      <c r="D63" s="162"/>
+      <c r="E63" s="162">
         <v>10</v>
       </c>
-      <c r="K63" s="127" t="s">
+      <c r="K63" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="L63" s="128" t="s">
+      <c r="L63" s="126" t="s">
         <v>190</v>
       </c>
-      <c r="N63" s="129"/>
-      <c r="O63" s="130"/>
-      <c r="P63" s="131">
+      <c r="N63" s="127"/>
+      <c r="O63" s="128"/>
+      <c r="P63" s="129">
         <v>21</v>
       </c>
-      <c r="Q63" s="131">
+      <c r="Q63" s="129">
         <v>32</v>
       </c>
-      <c r="R63" s="131" t="s">
+      <c r="R63" s="129" t="s">
         <v>167</v>
       </c>
-      <c r="S63" s="131"/>
-      <c r="T63" s="130">
+      <c r="S63" s="129"/>
+      <c r="T63" s="128">
         <f>SUM(P63:S63)</f>
         <v>53</v>
       </c>
-      <c r="U63" s="119" t="s">
+      <c r="U63" s="117" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B64" s="164">
+      <c r="B64" s="162">
         <v>1851</v>
       </c>
-      <c r="C64" s="164" t="s">
+      <c r="C64" s="162" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="164"/>
-      <c r="E64" s="164">
+      <c r="D64" s="162"/>
+      <c r="E64" s="162">
         <v>0</v>
       </c>
-      <c r="K64" s="138" t="s">
+      <c r="K64" s="136" t="s">
         <v>191</v>
       </c>
-      <c r="L64" s="139"/>
-      <c r="N64" s="118">
+      <c r="L64" s="137"/>
+      <c r="N64" s="116">
         <v>1851</v>
       </c>
-      <c r="O64" s="119" t="s">
+      <c r="O64" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="P64" s="124" t="s">
+      <c r="P64" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="Q64" s="124" t="s">
+      <c r="Q64" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="R64" s="124" t="s">
+      <c r="R64" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="S64" s="124"/>
-      <c r="T64" s="119"/>
-      <c r="U64" s="144"/>
+      <c r="S64" s="122"/>
+      <c r="T64" s="117"/>
+      <c r="U64" s="142"/>
     </row>
     <row r="65" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B65" s="164">
+      <c r="B65" s="162">
         <v>1851</v>
       </c>
-      <c r="C65" s="164" t="s">
+      <c r="C65" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="164"/>
-      <c r="E65" s="164">
+      <c r="D65" s="162"/>
+      <c r="E65" s="162">
         <v>157</v>
       </c>
-      <c r="K65" s="138" t="s">
+      <c r="K65" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="L65" s="139"/>
-      <c r="N65" s="129"/>
-      <c r="O65" s="130"/>
-      <c r="P65" s="131" t="s">
+      <c r="L65" s="137"/>
+      <c r="N65" s="127"/>
+      <c r="O65" s="128"/>
+      <c r="P65" s="129" t="s">
         <v>167</v>
       </c>
-      <c r="Q65" s="131">
+      <c r="Q65" s="129">
         <v>456</v>
       </c>
-      <c r="R65" s="131">
+      <c r="R65" s="129">
         <v>0</v>
       </c>
-      <c r="S65" s="131"/>
-      <c r="T65" s="130">
+      <c r="S65" s="129"/>
+      <c r="T65" s="128">
         <f>SUM(P65:S65)</f>
         <v>456</v>
       </c>
-      <c r="U65" s="119" t="s">
+      <c r="U65" s="117" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B66" s="164">
+      <c r="B66" s="162">
         <v>1851</v>
       </c>
-      <c r="C66" s="164" t="s">
+      <c r="C66" s="162" t="s">
         <v>180</v>
       </c>
-      <c r="D66" s="164"/>
-      <c r="E66" s="164">
+      <c r="D66" s="162"/>
+      <c r="E66" s="162">
         <v>0</v>
       </c>
-      <c r="K66" s="138" t="s">
+      <c r="K66" s="136" t="s">
         <v>165</v>
       </c>
-      <c r="L66" s="139"/>
-      <c r="N66" s="118">
+      <c r="L66" s="137"/>
+      <c r="N66" s="116">
         <v>1851</v>
       </c>
-      <c r="O66" s="119" t="s">
+      <c r="O66" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="P66" s="133" t="s">
+      <c r="P66" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="Q66" s="124"/>
-      <c r="R66" s="124"/>
-      <c r="S66" s="124"/>
-      <c r="T66" s="119"/>
-      <c r="U66" s="144"/>
+      <c r="Q66" s="122"/>
+      <c r="R66" s="122"/>
+      <c r="S66" s="122"/>
+      <c r="T66" s="117"/>
+      <c r="U66" s="142"/>
     </row>
     <row r="67" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B67" s="164">
+      <c r="B67" s="162">
         <v>1851</v>
       </c>
-      <c r="C67" s="164" t="s">
+      <c r="C67" s="162" t="s">
         <v>179</v>
       </c>
-      <c r="D67" s="164"/>
-      <c r="E67" s="164">
+      <c r="D67" s="162"/>
+      <c r="E67" s="162">
         <v>0</v>
       </c>
-      <c r="K67" s="127" t="s">
+      <c r="K67" s="125" t="s">
         <v>144</v>
       </c>
-      <c r="L67" s="128" t="s">
+      <c r="L67" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="N67" s="129"/>
-      <c r="O67" s="130"/>
-      <c r="P67" s="141" t="s">
+      <c r="N67" s="127"/>
+      <c r="O67" s="128"/>
+      <c r="P67" s="139" t="s">
         <v>154</v>
       </c>
-      <c r="Q67" s="131"/>
-      <c r="R67" s="131"/>
-      <c r="S67" s="131"/>
-      <c r="T67" s="130">
+      <c r="Q67" s="129"/>
+      <c r="R67" s="129"/>
+      <c r="S67" s="129"/>
+      <c r="T67" s="128">
         <f>SUM(P67:S67)</f>
         <v>0</v>
       </c>
-      <c r="U67" s="119" t="s">
+      <c r="U67" s="117" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="68" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B68" s="164">
+      <c r="B68" s="162">
         <v>1851</v>
       </c>
-      <c r="C68" s="164" t="s">
+      <c r="C68" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="D68" s="164"/>
-      <c r="E68" s="164">
+      <c r="D68" s="162"/>
+      <c r="E68" s="162">
         <v>6</v>
       </c>
-      <c r="K68" s="151"/>
-      <c r="L68" s="135" t="s">
+      <c r="K68" s="149"/>
+      <c r="L68" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="N68" s="118">
+      <c r="N68" s="116">
         <v>1851</v>
       </c>
-      <c r="O68" s="119" t="s">
+      <c r="O68" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="P68" s="124" t="s">
+      <c r="P68" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="Q68" s="124"/>
-      <c r="R68" s="124"/>
-      <c r="S68" s="124"/>
-      <c r="T68" s="119"/>
-      <c r="U68" s="144"/>
+      <c r="Q68" s="122"/>
+      <c r="R68" s="122"/>
+      <c r="S68" s="122"/>
+      <c r="T68" s="117"/>
+      <c r="U68" s="142"/>
     </row>
     <row r="69" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B69" s="164">
+      <c r="B69" s="162">
         <v>1851</v>
       </c>
-      <c r="C69" s="164" t="s">
+      <c r="C69" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="D69" s="164"/>
-      <c r="E69" s="164">
+      <c r="D69" s="162"/>
+      <c r="E69" s="162">
         <v>110</v>
       </c>
-      <c r="K69" s="151" t="s">
+      <c r="K69" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="L69" s="135" t="s">
+      <c r="L69" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="N69" s="129"/>
-      <c r="O69" s="130"/>
-      <c r="P69" s="131" t="s">
+      <c r="N69" s="127"/>
+      <c r="O69" s="128"/>
+      <c r="P69" s="129" t="s">
         <v>167</v>
       </c>
-      <c r="Q69" s="131"/>
-      <c r="R69" s="131"/>
-      <c r="S69" s="131"/>
-      <c r="T69" s="130">
+      <c r="Q69" s="129"/>
+      <c r="R69" s="129"/>
+      <c r="S69" s="129"/>
+      <c r="T69" s="128">
         <f>SUM(P69:S69)</f>
         <v>0</v>
       </c>
-      <c r="U69" s="119" t="s">
+      <c r="U69" s="117" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="70" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B70" s="164">
+      <c r="B70" s="162">
         <v>1851</v>
       </c>
-      <c r="C70" s="164" t="s">
+      <c r="C70" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="164"/>
-      <c r="E70" s="164">
+      <c r="D70" s="162"/>
+      <c r="E70" s="162">
         <v>62</v>
       </c>
       <c r="K70" t="s">
@@ -21029,371 +15538,371 @@
       <c r="L70" t="s">
         <v>162</v>
       </c>
-      <c r="N70" s="118">
+      <c r="N70" s="116">
         <v>1851</v>
       </c>
-      <c r="O70" s="119" t="s">
+      <c r="O70" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="P70" s="124" t="s">
+      <c r="P70" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="Q70" s="124"/>
-      <c r="R70" s="124"/>
-      <c r="S70" s="124"/>
-      <c r="T70" s="119"/>
-      <c r="U70" s="144"/>
+      <c r="Q70" s="122"/>
+      <c r="R70" s="122"/>
+      <c r="S70" s="122"/>
+      <c r="T70" s="117"/>
+      <c r="U70" s="142"/>
     </row>
     <row r="71" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B71" s="164">
+      <c r="B71" s="162">
         <v>1851</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="164"/>
-      <c r="E71" s="164">
+      <c r="D71" s="162"/>
+      <c r="E71" s="162">
         <v>0</v>
       </c>
-      <c r="N71" s="129"/>
-      <c r="O71" s="130"/>
-      <c r="P71" s="131" t="s">
+      <c r="N71" s="127"/>
+      <c r="O71" s="128"/>
+      <c r="P71" s="129" t="s">
         <v>167</v>
       </c>
-      <c r="Q71" s="131"/>
-      <c r="R71" s="131"/>
-      <c r="S71" s="131"/>
-      <c r="T71" s="130">
+      <c r="Q71" s="129"/>
+      <c r="R71" s="129"/>
+      <c r="S71" s="129"/>
+      <c r="T71" s="128">
         <f>SUM(P71:S71)</f>
         <v>0</v>
       </c>
-      <c r="U71" s="119" t="s">
+      <c r="U71" s="117" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B72" s="164">
+      <c r="B72" s="162">
         <v>1851</v>
       </c>
-      <c r="C72" s="164" t="s">
+      <c r="C72" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="D72" s="164"/>
-      <c r="E72" s="164">
+      <c r="D72" s="162"/>
+      <c r="E72" s="162">
         <v>53</v>
       </c>
-      <c r="N72" s="118">
+      <c r="N72" s="116">
         <v>1851</v>
       </c>
-      <c r="O72" s="119" t="s">
+      <c r="O72" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="P72" s="124" t="s">
+      <c r="P72" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="Q72" s="124" t="s">
+      <c r="Q72" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="R72" s="124" t="s">
+      <c r="R72" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="S72" s="124"/>
-      <c r="T72" s="119"/>
-      <c r="U72" s="144"/>
+      <c r="S72" s="122"/>
+      <c r="T72" s="117"/>
+      <c r="U72" s="142"/>
     </row>
     <row r="73" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B73" s="164">
+      <c r="B73" s="162">
         <v>1851</v>
       </c>
-      <c r="C73" s="165" t="s">
+      <c r="C73" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="D73" s="165"/>
-      <c r="E73" s="165"/>
-      <c r="N73" s="129"/>
-      <c r="O73" s="130"/>
-      <c r="P73" s="131">
+      <c r="D73" s="163"/>
+      <c r="E73" s="163"/>
+      <c r="N73" s="127"/>
+      <c r="O73" s="128"/>
+      <c r="P73" s="129">
         <v>12</v>
       </c>
-      <c r="Q73" s="131" t="s">
+      <c r="Q73" s="129" t="s">
         <v>167</v>
       </c>
-      <c r="R73" s="131" t="s">
+      <c r="R73" s="129" t="s">
         <v>167</v>
       </c>
-      <c r="S73" s="131"/>
-      <c r="T73" s="130">
+      <c r="S73" s="129"/>
+      <c r="T73" s="128">
         <f>SUM(P73:S73)</f>
         <v>12</v>
       </c>
-      <c r="U73" s="119" t="s">
+      <c r="U73" s="117" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B74" s="164">
+      <c r="B74" s="162">
         <v>1851</v>
       </c>
-      <c r="C74" s="164" t="s">
+      <c r="C74" s="162" t="s">
         <v>177</v>
       </c>
-      <c r="D74" s="164"/>
-      <c r="E74" s="164">
+      <c r="D74" s="162"/>
+      <c r="E74" s="162">
         <v>0</v>
       </c>
-      <c r="N74" s="118">
+      <c r="N74" s="116">
         <v>1851</v>
       </c>
-      <c r="O74" s="119" t="s">
+      <c r="O74" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="P74" s="124" t="s">
+      <c r="P74" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="Q74" s="124" t="s">
+      <c r="Q74" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="R74" s="124"/>
-      <c r="S74" s="124"/>
-      <c r="T74" s="119"/>
-      <c r="U74" s="144"/>
+      <c r="R74" s="122"/>
+      <c r="S74" s="122"/>
+      <c r="T74" s="117"/>
+      <c r="U74" s="142"/>
     </row>
     <row r="75" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B75" s="164">
+      <c r="B75" s="162">
         <v>1851</v>
       </c>
-      <c r="C75" s="164" t="s">
+      <c r="C75" s="162" t="s">
         <v>171</v>
       </c>
-      <c r="D75" s="164"/>
-      <c r="E75" s="164">
+      <c r="D75" s="162"/>
+      <c r="E75" s="162">
         <v>0</v>
       </c>
-      <c r="N75" s="129"/>
-      <c r="O75" s="130"/>
-      <c r="P75" s="131" t="s">
+      <c r="N75" s="127"/>
+      <c r="O75" s="128"/>
+      <c r="P75" s="129" t="s">
         <v>167</v>
       </c>
-      <c r="Q75" s="131">
+      <c r="Q75" s="129">
         <v>22</v>
       </c>
-      <c r="R75" s="131"/>
-      <c r="S75" s="131"/>
-      <c r="T75" s="130">
+      <c r="R75" s="129"/>
+      <c r="S75" s="129"/>
+      <c r="T75" s="128">
         <f>SUM(P75:S75)</f>
         <v>22</v>
       </c>
-      <c r="U75" s="119" t="s">
+      <c r="U75" s="117" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="76" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B76" s="164">
+      <c r="B76" s="162">
         <v>1851</v>
       </c>
-      <c r="C76" s="164" t="s">
+      <c r="C76" s="162" t="s">
         <v>170</v>
       </c>
-      <c r="D76" s="164"/>
-      <c r="E76" s="164">
+      <c r="D76" s="162"/>
+      <c r="E76" s="162">
         <v>0</v>
       </c>
-      <c r="N76" s="118">
+      <c r="N76" s="116">
         <v>1851</v>
       </c>
-      <c r="O76" s="119" t="s">
+      <c r="O76" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="P76" s="124" t="s">
+      <c r="P76" s="122" t="s">
         <v>144</v>
       </c>
-      <c r="Q76" s="124" t="s">
+      <c r="Q76" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="R76" s="124"/>
-      <c r="S76" s="124"/>
-      <c r="T76" s="119"/>
-      <c r="U76" s="144"/>
+      <c r="R76" s="122"/>
+      <c r="S76" s="122"/>
+      <c r="T76" s="117"/>
+      <c r="U76" s="142"/>
     </row>
     <row r="77" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B77" s="164">
+      <c r="B77" s="162">
         <v>1851</v>
       </c>
-      <c r="C77" s="164" t="s">
+      <c r="C77" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="164"/>
-      <c r="E77" s="164">
+      <c r="D77" s="162"/>
+      <c r="E77" s="162">
         <v>12</v>
       </c>
-      <c r="N77" s="129"/>
-      <c r="O77" s="130"/>
-      <c r="P77" s="131">
+      <c r="N77" s="127"/>
+      <c r="O77" s="128"/>
+      <c r="P77" s="129">
         <v>70</v>
       </c>
-      <c r="Q77" s="131">
+      <c r="Q77" s="129">
         <v>6</v>
       </c>
-      <c r="R77" s="131"/>
-      <c r="S77" s="131"/>
-      <c r="T77" s="130">
+      <c r="R77" s="129"/>
+      <c r="S77" s="129"/>
+      <c r="T77" s="128">
         <f>SUM(P77:S77)</f>
         <v>76</v>
       </c>
-      <c r="U77" s="152" t="s">
+      <c r="U77" s="150" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="78" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B78" s="164">
+      <c r="B78" s="162">
         <v>1851</v>
       </c>
-      <c r="C78" s="164" t="s">
+      <c r="C78" s="162" t="s">
         <v>162</v>
       </c>
-      <c r="D78" s="164"/>
-      <c r="E78" s="164">
+      <c r="D78" s="162"/>
+      <c r="E78" s="162">
         <v>22</v>
       </c>
-      <c r="N78" s="118">
+      <c r="N78" s="116">
         <v>1851</v>
       </c>
-      <c r="O78" s="119" t="s">
+      <c r="O78" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="P78" s="124" t="s">
+      <c r="P78" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="Q78" s="124" t="s">
+      <c r="Q78" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="R78" s="124"/>
-      <c r="S78" s="124"/>
-      <c r="T78" s="119"/>
-      <c r="U78" s="126"/>
+      <c r="R78" s="122"/>
+      <c r="S78" s="122"/>
+      <c r="T78" s="117"/>
+      <c r="U78" s="124"/>
     </row>
     <row r="79" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B79" s="164">
+      <c r="B79" s="162">
         <v>1851</v>
       </c>
-      <c r="C79" s="164" t="s">
+      <c r="C79" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="164"/>
-      <c r="E79" s="164">
+      <c r="D79" s="162"/>
+      <c r="E79" s="162">
         <v>76</v>
       </c>
-      <c r="N79" s="129"/>
-      <c r="O79" s="130"/>
-      <c r="P79" s="131" t="s">
+      <c r="N79" s="127"/>
+      <c r="O79" s="128"/>
+      <c r="P79" s="129" t="s">
         <v>167</v>
       </c>
-      <c r="Q79" s="131">
+      <c r="Q79" s="129">
         <v>15</v>
       </c>
-      <c r="R79" s="131"/>
-      <c r="S79" s="131"/>
-      <c r="T79" s="130">
+      <c r="R79" s="129"/>
+      <c r="S79" s="129"/>
+      <c r="T79" s="128">
         <f>SUM(P79:S79)</f>
         <v>15</v>
       </c>
-      <c r="U79" s="119" t="s">
+      <c r="U79" s="117" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="80" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B80" s="164">
+      <c r="B80" s="162">
         <v>1851</v>
       </c>
-      <c r="C80" s="164" t="s">
+      <c r="C80" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="D80" s="164"/>
-      <c r="E80" s="164">
+      <c r="D80" s="162"/>
+      <c r="E80" s="162">
         <v>15</v>
       </c>
-      <c r="N80" s="118">
+      <c r="N80" s="116">
         <v>1851</v>
       </c>
-      <c r="O80" s="119" t="s">
+      <c r="O80" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="P80" s="133" t="s">
+      <c r="P80" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="Q80" s="124"/>
-      <c r="R80" s="124"/>
-      <c r="S80" s="124"/>
-      <c r="T80" s="119"/>
-      <c r="U80" s="144"/>
+      <c r="Q80" s="122"/>
+      <c r="R80" s="122"/>
+      <c r="S80" s="122"/>
+      <c r="T80" s="117"/>
+      <c r="U80" s="142"/>
     </row>
     <row r="81" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B81" s="164">
+      <c r="B81" s="162">
         <v>1851</v>
       </c>
-      <c r="C81" s="164" t="s">
+      <c r="C81" s="162" t="s">
         <v>192</v>
       </c>
-      <c r="D81" s="164"/>
-      <c r="E81" s="164">
+      <c r="D81" s="162"/>
+      <c r="E81" s="162">
         <v>0</v>
       </c>
-      <c r="N81" s="129"/>
-      <c r="O81" s="130"/>
-      <c r="P81" s="141" t="s">
+      <c r="N81" s="127"/>
+      <c r="O81" s="128"/>
+      <c r="P81" s="139" t="s">
         <v>154</v>
       </c>
-      <c r="Q81" s="131"/>
-      <c r="R81" s="131"/>
-      <c r="S81" s="131"/>
-      <c r="T81" s="130">
+      <c r="Q81" s="129"/>
+      <c r="R81" s="129"/>
+      <c r="S81" s="129"/>
+      <c r="T81" s="128">
         <f>SUM(P81:S81)</f>
         <v>0</v>
       </c>
-      <c r="U81" s="119" t="s">
+      <c r="U81" s="117" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="82" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B82" s="164">
+      <c r="B82" s="162">
         <v>1851</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="162" t="s">
         <v>183</v>
       </c>
-      <c r="D82" s="164"/>
-      <c r="E82" s="164">
+      <c r="D82" s="162"/>
+      <c r="E82" s="162">
         <v>0</v>
       </c>
-      <c r="N82" s="118">
+      <c r="N82" s="116">
         <v>1851</v>
       </c>
-      <c r="O82" s="119" t="s">
+      <c r="O82" s="117" t="s">
         <v>183</v>
       </c>
-      <c r="P82" s="124" t="s">
+      <c r="P82" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="Q82" s="124"/>
-      <c r="R82" s="124"/>
-      <c r="S82" s="124"/>
-      <c r="T82" s="119"/>
-      <c r="U82" s="144"/>
+      <c r="Q82" s="122"/>
+      <c r="R82" s="122"/>
+      <c r="S82" s="122"/>
+      <c r="T82" s="117"/>
+      <c r="U82" s="142"/>
     </row>
     <row r="83" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="N83" s="153"/>
-      <c r="O83" s="154"/>
-      <c r="P83" s="155" t="s">
+      <c r="N83" s="151"/>
+      <c r="O83" s="152"/>
+      <c r="P83" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="Q83" s="155"/>
-      <c r="R83" s="155"/>
-      <c r="S83" s="155"/>
-      <c r="T83" s="154">
+      <c r="Q83" s="153"/>
+      <c r="R83" s="153"/>
+      <c r="S83" s="153"/>
+      <c r="T83" s="152">
         <f>SUM(P83:S83)</f>
         <v>0</v>
       </c>
-      <c r="U83" s="119" t="s">
+      <c r="U83" s="117" t="s">
         <v>183</v>
       </c>
     </row>
@@ -21406,276 +15915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8622E2A-1E1C-FC47-A11C-04D97B828891}">
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="132"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="119" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="132">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="119" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="132">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="119" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="119" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="132">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="119" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="132">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="119" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="132">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="119" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="132">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="132" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="119" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="130">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="130">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="119" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="130">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="119" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13" s="130">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="119" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="119" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="130">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="119" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="B17" s="130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="119" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="130">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="119" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="130">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="119" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="130">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="119" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="130">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="119" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="130">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="119" t="s">
-        <v>177</v>
-      </c>
-      <c r="B24" s="130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="119" t="s">
-        <v>171</v>
-      </c>
-      <c r="B25" s="130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="119" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" s="130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="119" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="130">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="119" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="130">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="152" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="130">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="119" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="130">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="119" t="s">
-        <v>192</v>
-      </c>
-      <c r="B31" s="130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="119" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="154">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55284629-BAC1-B045-80CC-750C0D354E10}">
   <sheetPr codeName="Feuil3">
     <tabColor rgb="FFFFFF00"/>
@@ -21741,7 +15981,7 @@
         <f t="shared" ref="E2:E7" si="0">C2/SUM(C2:D2)</f>
         <v>0.35506118141255394</v>
       </c>
-      <c r="F2" s="110">
+      <c r="F2" s="108">
         <f t="shared" ref="F2:F7" si="1">D2/SUM(C2:D2)</f>
         <v>0.64493881858744606</v>
       </c>
@@ -21775,7 +16015,7 @@
         <f t="shared" si="0"/>
         <v>0.3535375598390943</v>
       </c>
-      <c r="F3" s="110">
+      <c r="F3" s="108">
         <f t="shared" si="1"/>
         <v>0.6464624401609057</v>
       </c>
@@ -21809,7 +16049,7 @@
         <f t="shared" si="0"/>
         <v>0.34766415437402859</v>
       </c>
-      <c r="F4" s="110">
+      <c r="F4" s="108">
         <f t="shared" si="1"/>
         <v>0.65233584562597147</v>
       </c>
@@ -21843,7 +16083,7 @@
         <f t="shared" si="0"/>
         <v>0.34284722727552602</v>
       </c>
-      <c r="F5" s="110">
+      <c r="F5" s="108">
         <f t="shared" si="1"/>
         <v>0.65715277272447392</v>
       </c>
@@ -21877,7 +16117,7 @@
         <f t="shared" si="0"/>
         <v>0.28441438715261896</v>
       </c>
-      <c r="F6" s="110">
+      <c r="F6" s="108">
         <f t="shared" si="1"/>
         <v>0.71558561284738109</v>
       </c>
@@ -21911,7 +16151,7 @@
         <f t="shared" si="0"/>
         <v>0.26866911799818538</v>
       </c>
-      <c r="F7" s="110">
+      <c r="F7" s="108">
         <f t="shared" si="1"/>
         <v>0.73133088200181462</v>
       </c>
@@ -21941,7 +16181,7 @@
       <c r="E8">
         <v>0.26693355782733491</v>
       </c>
-      <c r="F8" s="110">
+      <c r="F8" s="108">
         <v>0.73306644217266514</v>
       </c>
       <c r="G8">
@@ -21971,7 +16211,7 @@
         <f t="shared" ref="E9:E15" si="2">C9/SUM(C9:D9)</f>
         <v>0.26499090028126404</v>
       </c>
-      <c r="F9" s="110">
+      <c r="F9" s="108">
         <f t="shared" ref="F9:F15" si="3">D9/SUM(C9:D9)</f>
         <v>0.73500909971873596</v>
       </c>
@@ -22005,7 +16245,7 @@
         <f t="shared" si="2"/>
         <v>0.25483001950101525</v>
       </c>
-      <c r="F10" s="110">
+      <c r="F10" s="108">
         <f t="shared" si="3"/>
         <v>0.74516998049898475</v>
       </c>
@@ -22039,7 +16279,7 @@
         <f t="shared" si="2"/>
         <v>0.22146479422664325</v>
       </c>
-      <c r="F11" s="110">
+      <c r="F11" s="108">
         <f t="shared" si="3"/>
         <v>0.77853520577335678</v>
       </c>
@@ -22073,7 +16313,7 @@
         <f t="shared" si="2"/>
         <v>0.21008563014832607</v>
       </c>
-      <c r="F12" s="110">
+      <c r="F12" s="108">
         <f t="shared" si="3"/>
         <v>0.78991436985167396</v>
       </c>
@@ -22107,7 +16347,7 @@
         <f t="shared" si="2"/>
         <v>0.20628600146905324</v>
       </c>
-      <c r="F13" s="110">
+      <c r="F13" s="108">
         <f t="shared" si="3"/>
         <v>0.79371399853094682</v>
       </c>
@@ -22141,7 +16381,7 @@
         <f t="shared" si="2"/>
         <v>0.19219331673899157</v>
       </c>
-      <c r="F14" s="110">
+      <c r="F14" s="108">
         <f t="shared" si="3"/>
         <v>0.80780668326100846</v>
       </c>
@@ -22175,7 +16415,7 @@
         <f t="shared" si="2"/>
         <v>0.16809196133805338</v>
       </c>
-      <c r="F15" s="110">
+      <c r="F15" s="108">
         <f t="shared" si="3"/>
         <v>0.83190803866194662</v>
       </c>
@@ -22199,7 +16439,7 @@
       <c r="B16" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="110" t="e">
+      <c r="F16" s="108" t="e">
         <f>C16/SUM(C16:D16)</f>
         <v>#DIV/0!</v>
       </c>
@@ -22219,7 +16459,7 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="110" t="e">
+      <c r="F17" s="108" t="e">
         <f>C17/SUM(C17:D17)</f>
         <v>#DIV/0!</v>
       </c>
@@ -22233,7 +16473,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F18" s="110"/>
+      <c r="F18" s="108"/>
       <c r="H18" s="104"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -22254,7 +16494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841F9360-1150-8048-8C34-FDC68E6C598B}">
   <sheetPr codeName="Feuil4">
     <tabColor rgb="FFFFFF00"/>
@@ -22282,18 +16522,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="159"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="157"/>
     </row>
     <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -22686,18 +16926,18 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="157" t="s">
+      <c r="A18" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="158"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="159"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="157"/>
     </row>
     <row r="19" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -23066,18 +17306,18 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="111" t="s">
+      <c r="A28" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="112"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
       <c r="K28" s="44">
         <f>AVERAGE(K20:K27)</f>
         <v>0.13262616878642877</v>
@@ -23126,7 +17366,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="116" t="s">
+      <c r="M31" s="114" t="s">
         <v>7</v>
       </c>
       <c r="N31" s="46">
@@ -23134,14 +17374,14 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="160" t="s">
+      <c r="A32" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="161"/>
-      <c r="E32" s="160" t="s">
+      <c r="B32" s="159"/>
+      <c r="E32" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="161"/>
+      <c r="F32" s="159"/>
       <c r="M32" s="23" t="s">
         <v>3</v>
       </c>
@@ -23282,7 +17522,7 @@
       <c r="F39" s="40">
         <v>2928311</v>
       </c>
-      <c r="M39" s="111" t="s">
+      <c r="M39" s="109" t="s">
         <v>1</v>
       </c>
       <c r="N39" s="44">
@@ -23341,13 +17581,13 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E44" s="162" t="s">
+      <c r="E44" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="162"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
+      <c r="F44" s="160"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="160"/>
+      <c r="I44" s="160"/>
     </row>
     <row r="45" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
